--- a/webpage.xlsx
+++ b/webpage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\Dropbox\Forschung\Ben&amp;James\MF_outputgap\MATLAB_Code\code_version_May2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A847355E-3382-4185-B697-14865CA3B56C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7665B5-D3EA-4ED8-A4FC-DE73B7A0C393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28068" yWindow="828" windowWidth="25764" windowHeight="14664" activeTab="1" xr2:uid="{6D0754F8-999B-4D9A-AA10-941ACBDB15AB}"/>
+    <workbookView xWindow="9924" yWindow="0" windowWidth="25764" windowHeight="15516" xr2:uid="{6D0754F8-999B-4D9A-AA10-941ACBDB15AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>data_all_ 1</t>
   </si>
@@ -161,6 +161,39 @@
   </si>
   <si>
     <t>data_all_41</t>
+  </si>
+  <si>
+    <t>data_all_42</t>
+  </si>
+  <si>
+    <t>data_all_43</t>
+  </si>
+  <si>
+    <t>data_all_44</t>
+  </si>
+  <si>
+    <t>data_all_45</t>
+  </si>
+  <si>
+    <t>data_all_46</t>
+  </si>
+  <si>
+    <t>data_all_47</t>
+  </si>
+  <si>
+    <t>data_all_48</t>
+  </si>
+  <si>
+    <t>data_all_49</t>
+  </si>
+  <si>
+    <t>data_all_50</t>
+  </si>
+  <si>
+    <t>data_all_51</t>
+  </si>
+  <si>
+    <t>data_all_52</t>
   </si>
 </sst>
 </file>
@@ -512,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746E03B0-5C22-4D75-8B3A-186AA2C1C665}">
-  <dimension ref="A1:AO36"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AO36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,133 +677,199 @@
       <c r="AO1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.6</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.7000000000000002</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.8</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.9</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2.1</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2.4000000000000004</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2.5</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2.6</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2.7</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2.8</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2.9000000000000004</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>3</v>
       </c>
-      <c r="V2">
-        <v>3.0999999999999996</v>
-      </c>
       <c r="W2">
+        <v>3.1</v>
+      </c>
+      <c r="X2">
         <v>3.2</v>
       </c>
-      <c r="X2">
-        <v>3.3</v>
-      </c>
       <c r="Y2">
-        <v>3.4</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="Z2">
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="AA2">
         <v>3.5</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3.5999999999999996</v>
       </c>
-      <c r="AB2">
-        <v>3.7</v>
-      </c>
       <c r="AC2">
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="AD2">
         <v>3.8</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3.9</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>4</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>4.2</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4.3</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>4.5</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>4.7</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4.8</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AR2">
+        <v>5.2</v>
+      </c>
+      <c r="AS2">
+        <v>5.3</v>
+      </c>
+      <c r="AT2">
+        <v>5.4</v>
+      </c>
+      <c r="AU2">
+        <v>5.5</v>
+      </c>
+      <c r="AV2">
+        <v>5.6</v>
+      </c>
+      <c r="AW2">
+        <v>5.7</v>
+      </c>
+      <c r="AX2">
+        <v>5.8</v>
+      </c>
+      <c r="AY2">
+        <v>5.9</v>
+      </c>
+      <c r="AZ2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.05</v>
       </c>
@@ -894,308 +993,407 @@
       <c r="AO3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP3">
+        <v>0.05</v>
+      </c>
+      <c r="AQ3">
+        <v>0.05</v>
+      </c>
+      <c r="AR3">
+        <v>0.05</v>
+      </c>
+      <c r="AS3">
+        <v>0.05</v>
+      </c>
+      <c r="AT3">
+        <v>0.05</v>
+      </c>
+      <c r="AU3">
+        <v>0.05</v>
+      </c>
+      <c r="AV3">
+        <v>0.05</v>
+      </c>
+      <c r="AW3">
+        <v>0.05</v>
+      </c>
+      <c r="AX3">
+        <v>0.05</v>
+      </c>
+      <c r="AY3">
+        <v>0.05</v>
+      </c>
+      <c r="AZ3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.47999999999999965</v>
+        <v>0.47999999999999954</v>
       </c>
       <c r="B4">
-        <v>0.47999999999999965</v>
+        <v>0.47999999999999932</v>
       </c>
       <c r="C4">
-        <v>0.47999999999999965</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="D4">
-        <v>0.47999999999999987</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="E4">
-        <v>0.48000000000000009</v>
+        <v>0.47999999999999932</v>
       </c>
       <c r="F4">
-        <v>0.47999999999999965</v>
+        <v>0.47999999999999887</v>
       </c>
       <c r="G4">
-        <v>0.47999999999999965</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="H4">
-        <v>0.47999999999999987</v>
+        <v>0.47999999999999932</v>
       </c>
       <c r="I4">
-        <v>0.47999999999999965</v>
+        <v>0.47999999999999932</v>
       </c>
       <c r="J4">
-        <v>0.47999999999999921</v>
+        <v>0.47999999999999887</v>
       </c>
       <c r="K4">
-        <v>0.48000000000000009</v>
+        <v>0.47999999999999954</v>
       </c>
       <c r="L4">
+        <v>0.47999999999999976</v>
+      </c>
+      <c r="M4">
         <v>0.47999999999999932</v>
       </c>
-      <c r="M4">
-        <v>0.48000000000000009</v>
-      </c>
       <c r="N4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="O4">
+        <v>0.47999999999999909</v>
+      </c>
+      <c r="P4">
+        <v>0.47999999999999976</v>
+      </c>
+      <c r="Q4">
+        <v>0.47999999999999887</v>
+      </c>
+      <c r="R4">
+        <v>0.47999999999999932</v>
+      </c>
+      <c r="S4">
+        <v>0.47999999999999909</v>
+      </c>
+      <c r="T4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="U4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="V4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="W4">
+        <v>0.47999999999999909</v>
+      </c>
+      <c r="X4">
+        <v>0.47999999999999909</v>
+      </c>
+      <c r="Y4">
+        <v>0.48</v>
+      </c>
+      <c r="Z4">
+        <v>0.47999999999999976</v>
+      </c>
+      <c r="AA4">
+        <v>0.48000000000000087</v>
+      </c>
+      <c r="AB4">
+        <v>0.48</v>
+      </c>
+      <c r="AC4">
+        <v>0.48</v>
+      </c>
+      <c r="AD4">
+        <v>0.47999999999999909</v>
+      </c>
+      <c r="AE4">
+        <v>0.47999999999999909</v>
+      </c>
+      <c r="AF4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AG4">
+        <v>0.47999999999999932</v>
+      </c>
+      <c r="AH4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AI4">
+        <v>0.47999999999999932</v>
+      </c>
+      <c r="AJ4">
+        <v>0.47999999999999932</v>
+      </c>
+      <c r="AK4">
+        <v>0.47999999999999976</v>
+      </c>
+      <c r="AL4">
+        <v>0.48000000000000043</v>
+      </c>
+      <c r="AM4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AN4">
+        <v>0.48</v>
+      </c>
+      <c r="AO4">
+        <v>0.48</v>
+      </c>
+      <c r="AP4">
+        <v>0.47999999999999909</v>
+      </c>
+      <c r="AQ4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AR4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AS4">
+        <v>0.48000000000000043</v>
+      </c>
+      <c r="AT4">
+        <v>0.47999999999999932</v>
+      </c>
+      <c r="AU4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AV4">
         <v>0.4800000000000002</v>
       </c>
-      <c r="O4">
-        <v>0.48</v>
-      </c>
-      <c r="P4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="Q4">
-        <v>0.48000000000000009</v>
-      </c>
-      <c r="R4">
-        <v>0.47999999999999987</v>
-      </c>
-      <c r="S4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="T4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="U4">
-        <v>0.48000000000000032</v>
-      </c>
-      <c r="V4">
-        <v>0.47999999999999976</v>
-      </c>
-      <c r="W4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="X4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="Y4">
-        <v>0.47999999999999943</v>
-      </c>
-      <c r="Z4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="AA4">
-        <v>0.47999999999999976</v>
-      </c>
-      <c r="AB4">
-        <v>0.47999999999999987</v>
-      </c>
-      <c r="AC4">
-        <v>0.47999999999999943</v>
-      </c>
-      <c r="AD4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="AE4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="AF4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="AG4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="AH4">
-        <v>0.48</v>
-      </c>
-      <c r="AI4">
-        <v>0.47999999999999943</v>
-      </c>
-      <c r="AJ4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="AK4">
-        <v>0.47999999999999943</v>
-      </c>
-      <c r="AL4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="AM4">
-        <v>0.47999999999999943</v>
-      </c>
-      <c r="AN4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="AO4">
-        <v>0.47999999999999943</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AW4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AX4">
+        <v>0.47999999999999909</v>
+      </c>
+      <c r="AY4">
+        <v>0.47999999999999932</v>
+      </c>
+      <c r="AZ4">
+        <v>0.4800000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1.7000000000000002</v>
+        <v>1.7000000000000008</v>
       </c>
       <c r="B5">
-        <v>1.7000000000000002</v>
+        <v>1.7000000000000013</v>
       </c>
       <c r="C5">
-        <v>1.7000000000000002</v>
+        <v>1.7000000000000011</v>
       </c>
       <c r="D5">
-        <v>1.6999999999999997</v>
+        <v>1.7000000000000011</v>
       </c>
       <c r="E5">
+        <v>1.7000000000000013</v>
+      </c>
+      <c r="F5">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="G5">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="H5">
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="I5">
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="J5">
         <v>1.7000000000000004</v>
       </c>
-      <c r="F5">
-        <v>1.6999999999999997</v>
-      </c>
-      <c r="G5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="H5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="I5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="J5">
-        <v>1.7</v>
-      </c>
       <c r="K5">
-        <v>1.7000000000000002</v>
+        <v>1.7000000000000013</v>
       </c>
       <c r="L5">
-        <v>1.7000000000000002</v>
+        <v>1.7000000000000006</v>
       </c>
       <c r="M5">
-        <v>1.7</v>
+        <v>1.7000000000000013</v>
       </c>
       <c r="N5">
-        <v>1.7</v>
+        <v>1.7000000000000011</v>
       </c>
       <c r="O5">
-        <v>1.7000000000000002</v>
+        <v>1.7000000000000011</v>
       </c>
       <c r="P5">
-        <v>1.7000000000000002</v>
+        <v>1.7000000000000011</v>
       </c>
       <c r="Q5">
-        <v>1.7</v>
+        <v>1.7000000000000006</v>
       </c>
       <c r="R5">
-        <v>1.6999999999999997</v>
+        <v>1.7000000000000006</v>
       </c>
       <c r="S5">
-        <v>1.7</v>
+        <v>1.7000000000000011</v>
       </c>
       <c r="T5">
-        <v>1.7000000000000002</v>
+        <v>1.7000000000000008</v>
       </c>
       <c r="U5">
-        <v>1.6999999999999997</v>
+        <v>1.7000000000000011</v>
       </c>
       <c r="V5">
-        <v>1.7000000000000002</v>
+        <v>1.7000000000000006</v>
       </c>
       <c r="W5">
-        <v>1.7000000000000002</v>
+        <v>1.7000000000000008</v>
       </c>
       <c r="X5">
-        <v>1.7000000000000002</v>
+        <v>1.7000000000000008</v>
       </c>
       <c r="Y5">
         <v>1.7000000000000004</v>
       </c>
       <c r="Z5">
+        <v>1.7000000000000013</v>
+      </c>
+      <c r="AA5">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="AB5">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="AC5">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="AD5">
+        <v>1.7000000000000008</v>
+      </c>
+      <c r="AE5">
+        <v>1.7000000000000008</v>
+      </c>
+      <c r="AF5">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="AG5">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="AH5">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="AI5">
+        <v>1.7000000000000013</v>
+      </c>
+      <c r="AJ5">
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="AK5">
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="AL5">
+        <v>1.7000000000000008</v>
+      </c>
+      <c r="AM5">
+        <v>1.7000000000000013</v>
+      </c>
+      <c r="AN5">
+        <v>1.7000000000000008</v>
+      </c>
+      <c r="AO5">
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="AP5">
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="AQ5">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="AR5">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="AS5">
+        <v>1.7000000000000008</v>
+      </c>
+      <c r="AT5">
+        <v>1.7000000000000013</v>
+      </c>
+      <c r="AU5">
+        <v>1.7000000000000013</v>
+      </c>
+      <c r="AV5">
+        <v>1.7000000000000013</v>
+      </c>
+      <c r="AW5">
+        <v>1.7000000000000008</v>
+      </c>
+      <c r="AX5">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="AY5">
         <v>1.7000000000000002</v>
       </c>
-      <c r="AA5">
-        <v>1.6999999999999995</v>
-      </c>
-      <c r="AB5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AC5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AD5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AE5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AF5">
-        <v>1.7</v>
-      </c>
-      <c r="AG5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AH5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AI5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AJ5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AK5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AL5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AM5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AN5">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AO5">
-        <v>1.7000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AZ5">
+        <v>1.7000000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>11.94208388412515</v>
+      </c>
+      <c r="B6">
+        <v>11.942083884125147</v>
+      </c>
+      <c r="C6">
         <v>11.942083884125143</v>
       </c>
-      <c r="B6">
-        <v>11.942083884125143</v>
-      </c>
-      <c r="C6">
-        <v>11.942083884125148</v>
-      </c>
       <c r="D6">
-        <v>11.94208388412515</v>
+        <v>11.942083884125145</v>
       </c>
       <c r="E6">
-        <v>11.942083884125145</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="F6">
         <v>11.942083884125145</v>
       </c>
       <c r="G6">
-        <v>11.942083884125145</v>
+        <v>11.942083884125143</v>
       </c>
       <c r="H6">
-        <v>11.942083884125145</v>
+        <v>11.94208388412515</v>
       </c>
       <c r="I6">
+        <v>11.942083884125138</v>
+      </c>
+      <c r="J6">
         <v>11.942083884125147</v>
-      </c>
-      <c r="J6">
-        <v>11.942083884125143</v>
       </c>
       <c r="K6">
         <v>11.942083884125147</v>
       </c>
       <c r="L6">
-        <v>11.942083884125148</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="M6">
-        <v>11.942083884125145</v>
+        <v>11.94208388412514</v>
       </c>
       <c r="N6">
-        <v>11.942083884125147</v>
+        <v>11.942083884125143</v>
       </c>
       <c r="O6">
         <v>11.942083884125143</v>
       </c>
       <c r="P6">
-        <v>11.942083884125147</v>
+        <v>11.942083884125143</v>
       </c>
       <c r="Q6">
-        <v>11.942083884125143</v>
+        <v>11.942083884125148</v>
       </c>
       <c r="R6">
         <v>11.942083884125147</v>
@@ -1204,114 +1402,147 @@
         <v>11.942083884125147</v>
       </c>
       <c r="T6">
-        <v>11.942083884125143</v>
+        <v>11.942083884125145</v>
       </c>
       <c r="U6">
-        <v>11.942083884125143</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="V6">
         <v>11.942083884125145</v>
       </c>
       <c r="W6">
+        <v>11.942083884125147</v>
+      </c>
+      <c r="X6">
+        <v>11.942083884125147</v>
+      </c>
+      <c r="Y6">
+        <v>11.942083884125152</v>
+      </c>
+      <c r="Z6">
+        <v>11.942083884125148</v>
+      </c>
+      <c r="AA6">
+        <v>11.942083884125141</v>
+      </c>
+      <c r="AB6">
+        <v>11.942083884125136</v>
+      </c>
+      <c r="AC6">
+        <v>11.942083884125148</v>
+      </c>
+      <c r="AD6">
         <v>11.942083884125143</v>
       </c>
-      <c r="X6">
-        <v>11.942083884125145</v>
-      </c>
-      <c r="Y6">
-        <v>11.942083884125143</v>
-      </c>
-      <c r="Z6">
-        <v>11.942083884125143</v>
-      </c>
-      <c r="AA6">
+      <c r="AE6">
+        <v>11.942083884125141</v>
+      </c>
+      <c r="AF6">
         <v>11.942083884125148</v>
-      </c>
-      <c r="AB6">
-        <v>11.942083884125147</v>
-      </c>
-      <c r="AC6">
-        <v>11.942083884125145</v>
-      </c>
-      <c r="AD6">
-        <v>11.942083884125145</v>
-      </c>
-      <c r="AE6">
-        <v>11.942083884125143</v>
-      </c>
-      <c r="AF6">
-        <v>11.942083884125145</v>
       </c>
       <c r="AG6">
         <v>11.942083884125145</v>
       </c>
       <c r="AH6">
-        <v>11.942083884125145</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="AI6">
         <v>11.942083884125147</v>
       </c>
       <c r="AJ6">
-        <v>11.942083884125143</v>
+        <v>11.942083884125145</v>
       </c>
       <c r="AK6">
-        <v>11.942083884125143</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="AL6">
-        <v>11.942083884125145</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="AM6">
         <v>11.942083884125147</v>
       </c>
       <c r="AN6">
+        <v>11.942083884125141</v>
+      </c>
+      <c r="AO6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="AP6">
+        <v>11.942083884125147</v>
+      </c>
+      <c r="AQ6">
+        <v>11.942083884125147</v>
+      </c>
+      <c r="AR6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="AS6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="AT6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="AU6">
         <v>11.942083884125143</v>
       </c>
-      <c r="AO6">
+      <c r="AV6">
+        <v>11.942083884125147</v>
+      </c>
+      <c r="AW6">
+        <v>11.942083884125141</v>
+      </c>
+      <c r="AX6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="AY6">
+        <v>11.942083884125148</v>
+      </c>
+      <c r="AZ6">
         <v>11.942083884125143</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>71.8</v>
       </c>
       <c r="B7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="C7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="D7">
         <v>71.8</v>
-      </c>
-      <c r="C7">
-        <v>71.8</v>
-      </c>
-      <c r="D7">
-        <v>71.800000000001802</v>
       </c>
       <c r="E7">
         <v>71.8</v>
       </c>
       <c r="F7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="G7">
         <v>71.800000000000011</v>
       </c>
-      <c r="G7">
-        <v>71.8</v>
-      </c>
       <c r="H7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="I7">
-        <v>71.8</v>
+        <v>71.79999999999994</v>
       </c>
       <c r="J7">
-        <v>71.8</v>
+        <v>71.800000000000324</v>
       </c>
       <c r="K7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="L7">
-        <v>71.800000000000011</v>
+        <v>71.799999999999798</v>
       </c>
       <c r="M7">
         <v>71.8</v>
       </c>
       <c r="N7">
-        <v>71.800000000005113</v>
+        <v>71.799999999999869</v>
       </c>
       <c r="O7">
         <v>71.8</v>
@@ -1323,37 +1554,37 @@
         <v>71.8</v>
       </c>
       <c r="R7">
-        <v>71.8</v>
+        <v>71.799999999999926</v>
       </c>
       <c r="S7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="T7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="U7">
-        <v>71.8</v>
+        <v>71.800000000000011</v>
       </c>
       <c r="V7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="W7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="X7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="Y7">
         <v>71.8</v>
       </c>
       <c r="Z7">
-        <v>71.8</v>
+        <v>71.800000000000011</v>
       </c>
       <c r="AA7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AB7">
-        <v>71.8</v>
+        <v>71.800000000000111</v>
       </c>
       <c r="AC7">
         <v>71.8</v>
@@ -1362,165 +1593,231 @@
         <v>71.8</v>
       </c>
       <c r="AE7">
-        <v>71.8</v>
+        <v>71.800000000000196</v>
       </c>
       <c r="AF7">
         <v>71.8</v>
       </c>
       <c r="AG7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AH7">
         <v>71.8</v>
       </c>
       <c r="AI7">
-        <v>71.800000000000011</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AJ7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AK7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AL7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AM7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AN7">
         <v>71.8</v>
       </c>
       <c r="AO7">
+        <v>71.80000000000004</v>
+      </c>
+      <c r="AP7">
+        <v>71.799999999999784</v>
+      </c>
+      <c r="AQ7">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR7">
+        <v>71.8</v>
+      </c>
+      <c r="AS7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="AT7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="AU7">
+        <v>71.8</v>
+      </c>
+      <c r="AV7">
+        <v>71.8</v>
+      </c>
+      <c r="AW7">
+        <v>71.799999999999955</v>
+      </c>
+      <c r="AX7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="AY7">
+        <v>71.800000000000097</v>
+      </c>
+      <c r="AZ7">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="B8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="C8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="D8">
-        <v>5033.2500000000009</v>
+        <v>5033.2499999999982</v>
       </c>
       <c r="E8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="F8">
-        <v>5033.25</v>
+        <v>5033.2499999999982</v>
       </c>
       <c r="G8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="H8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="I8">
-        <v>5033.25</v>
+        <v>5033.2499999999982</v>
       </c>
       <c r="J8">
         <v>5033.2499999999991</v>
       </c>
       <c r="K8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="L8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="M8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="N8">
         <v>5033.2499999999991</v>
       </c>
       <c r="O8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="P8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="Q8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="R8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="S8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="T8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="U8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="V8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="W8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="X8">
         <v>5033.25</v>
       </c>
       <c r="Y8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="Z8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="AA8">
-        <v>5033.2500000000009</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="AB8">
         <v>5033.25</v>
       </c>
       <c r="AC8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="AD8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="AE8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="AF8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="AG8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="AH8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="AI8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="AJ8">
         <v>5033.25</v>
       </c>
       <c r="AK8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="AL8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="AM8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="AN8">
-        <v>5033.25</v>
+        <v>5033.2499999999991</v>
       </c>
       <c r="AO8">
         <v>5033.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP8">
+        <v>5033.25</v>
+      </c>
+      <c r="AQ8">
+        <v>5033.2499999999991</v>
+      </c>
+      <c r="AR8">
+        <v>5033.2499999999991</v>
+      </c>
+      <c r="AS8">
+        <v>5033.2499999999991</v>
+      </c>
+      <c r="AT8">
+        <v>5033.2499999999991</v>
+      </c>
+      <c r="AU8">
+        <v>5033.2499999999991</v>
+      </c>
+      <c r="AV8">
+        <v>5033.2499999999991</v>
+      </c>
+      <c r="AW8">
+        <v>5033.2499999999991</v>
+      </c>
+      <c r="AX8">
+        <v>5033.2499999999991</v>
+      </c>
+      <c r="AY8">
+        <v>5033.25</v>
+      </c>
+      <c r="AZ8">
+        <v>5033.2499999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-20714</v>
       </c>
@@ -1644,8 +1941,41 @@
       <c r="AO9">
         <v>-20714</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP9">
+        <v>-20714</v>
+      </c>
+      <c r="AQ9">
+        <v>-20714</v>
+      </c>
+      <c r="AR9">
+        <v>-20714</v>
+      </c>
+      <c r="AS9">
+        <v>-20714</v>
+      </c>
+      <c r="AT9">
+        <v>-20714</v>
+      </c>
+      <c r="AU9">
+        <v>-20714</v>
+      </c>
+      <c r="AV9">
+        <v>-20714</v>
+      </c>
+      <c r="AW9">
+        <v>-20714</v>
+      </c>
+      <c r="AX9">
+        <v>-20714</v>
+      </c>
+      <c r="AY9">
+        <v>-20714</v>
+      </c>
+      <c r="AZ9">
+        <v>-20714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14.699999999999998</v>
       </c>
@@ -1656,1248 +1986,1578 @@
         <v>14.699999999999996</v>
       </c>
       <c r="D10">
-        <v>14.7</v>
+        <v>14.699999999999994</v>
       </c>
       <c r="E10">
-        <v>14.7</v>
+        <v>14.699999999999998</v>
       </c>
       <c r="F10">
-        <v>14.700000000000003</v>
+        <v>14.699999999999996</v>
       </c>
       <c r="G10">
-        <v>14.699999999999998</v>
+        <v>14.699999999999996</v>
       </c>
       <c r="H10">
-        <v>14.7</v>
+        <v>14.699999999999996</v>
       </c>
       <c r="I10">
-        <v>14.7</v>
+        <v>14.699999999999996</v>
       </c>
       <c r="J10">
-        <v>14.7</v>
+        <v>14.699999999999996</v>
       </c>
       <c r="K10">
         <v>14.699999999999998</v>
       </c>
       <c r="L10">
+        <v>14.7</v>
+      </c>
+      <c r="M10">
+        <v>14.699999999999992</v>
+      </c>
+      <c r="N10">
+        <v>14.699999999999996</v>
+      </c>
+      <c r="O10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="P10">
         <v>14.699999999999998</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
+        <v>14.699999999999998</v>
+      </c>
+      <c r="R10">
+        <v>14.7</v>
+      </c>
+      <c r="S10">
         <v>14.699999999999996</v>
       </c>
-      <c r="N10">
-        <v>14.700000000000001</v>
-      </c>
-      <c r="O10">
+      <c r="T10">
         <v>14.7</v>
-      </c>
-      <c r="P10">
-        <v>14.700000000000001</v>
-      </c>
-      <c r="Q10">
-        <v>14.700000000000001</v>
-      </c>
-      <c r="R10">
-        <v>14.699999999999996</v>
-      </c>
-      <c r="S10">
-        <v>14.700000000000001</v>
-      </c>
-      <c r="T10">
-        <v>14.699999999999998</v>
       </c>
       <c r="U10">
         <v>14.699999999999996</v>
       </c>
       <c r="V10">
-        <v>14.700000000000003</v>
+        <v>14.699999999999996</v>
       </c>
       <c r="W10">
-        <v>14.699999999999998</v>
+        <v>14.7</v>
       </c>
       <c r="X10">
         <v>14.700000000000001</v>
       </c>
       <c r="Y10">
+        <v>14.7</v>
+      </c>
+      <c r="Z10">
         <v>14.699999999999998</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
+        <v>14.7</v>
+      </c>
+      <c r="AB10">
         <v>14.700000000000001</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
+        <v>14.7</v>
+      </c>
+      <c r="AD10">
         <v>14.700000000000003</v>
-      </c>
-      <c r="AB10">
-        <v>14.699999999999998</v>
-      </c>
-      <c r="AC10">
-        <v>14.699999999999998</v>
-      </c>
-      <c r="AD10">
-        <v>14.700000000000001</v>
       </c>
       <c r="AE10">
         <v>14.699999999999998</v>
       </c>
       <c r="AF10">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="AG10">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="AH10">
+        <v>14.699999999999996</v>
+      </c>
+      <c r="AI10">
         <v>14.699999999999998</v>
       </c>
-      <c r="AG10">
+      <c r="AJ10">
+        <v>14.7</v>
+      </c>
+      <c r="AK10">
+        <v>14.7</v>
+      </c>
+      <c r="AL10">
+        <v>14.7</v>
+      </c>
+      <c r="AM10">
+        <v>14.699999999999996</v>
+      </c>
+      <c r="AN10">
+        <v>14.7</v>
+      </c>
+      <c r="AO10">
+        <v>14.699999999999996</v>
+      </c>
+      <c r="AP10">
+        <v>14.699999999999996</v>
+      </c>
+      <c r="AQ10">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="AR10">
+        <v>14.699999999999996</v>
+      </c>
+      <c r="AS10">
         <v>14.699999999999998</v>
       </c>
-      <c r="AH10">
+      <c r="AT10">
+        <v>14.699999999999998</v>
+      </c>
+      <c r="AU10">
         <v>14.700000000000003</v>
       </c>
-      <c r="AI10">
+      <c r="AV10">
+        <v>14.7</v>
+      </c>
+      <c r="AW10">
+        <v>14.699999999999996</v>
+      </c>
+      <c r="AX10">
+        <v>14.7</v>
+      </c>
+      <c r="AY10">
+        <v>14.699999999999992</v>
+      </c>
+      <c r="AZ10">
         <v>14.700000000000001</v>
       </c>
-      <c r="AJ10">
-        <v>14.699999999999998</v>
-      </c>
-      <c r="AK10">
-        <v>14.699999999999998</v>
-      </c>
-      <c r="AL10">
-        <v>14.700000000000001</v>
-      </c>
-      <c r="AM10">
-        <v>14.699999999999998</v>
-      </c>
-      <c r="AN10">
-        <v>14.699999999999998</v>
-      </c>
-      <c r="AO10">
-        <v>14.699999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-0.79828390957610329</v>
+        <v>-0.79828390957610174</v>
       </c>
       <c r="B11">
-        <v>-0.79828390957610329</v>
+        <v>-0.7982839095761024</v>
       </c>
       <c r="C11">
+        <v>-0.7982839095761024</v>
+      </c>
+      <c r="D11">
+        <v>-0.7982839095761024</v>
+      </c>
+      <c r="E11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="F11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="G11">
+        <v>-0.79828390957610262</v>
+      </c>
+      <c r="H11">
+        <v>-0.7982839095761024</v>
+      </c>
+      <c r="I11">
+        <v>-0.79828390957604822</v>
+      </c>
+      <c r="J11">
+        <v>-0.79828390957615081</v>
+      </c>
+      <c r="K11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="L11">
+        <v>-0.79828390957604489</v>
+      </c>
+      <c r="M11">
+        <v>-0.7982839095761024</v>
+      </c>
+      <c r="N11">
+        <v>-0.79828390957610462</v>
+      </c>
+      <c r="O11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="P11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="Q11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="R11">
+        <v>-0.79828390957617057</v>
+      </c>
+      <c r="S11">
+        <v>-0.79828390957610218</v>
+      </c>
+      <c r="T11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="U11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="V11">
         <v>-0.79828390957610285</v>
       </c>
-      <c r="D11">
-        <v>-0.79828390957601492</v>
-      </c>
-      <c r="E11">
+      <c r="W11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="X11">
+        <v>-0.7982839095761024</v>
+      </c>
+      <c r="Y11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="Z11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="AA11">
+        <v>-0.79828390957610218</v>
+      </c>
+      <c r="AB11">
+        <v>-0.79828390957613371</v>
+      </c>
+      <c r="AC11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="AD11">
+        <v>-0.7982839095761024</v>
+      </c>
+      <c r="AE11">
+        <v>-0.79828390957616457</v>
+      </c>
+      <c r="AF11">
+        <v>-0.7982839095761024</v>
+      </c>
+      <c r="AG11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="AH11">
+        <v>-0.79828390957610174</v>
+      </c>
+      <c r="AI11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="AJ11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="AK11">
+        <v>-0.7982839095761024</v>
+      </c>
+      <c r="AL11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="AM11">
+        <v>-0.79828390957610218</v>
+      </c>
+      <c r="AN11">
+        <v>-0.79828390957610174</v>
+      </c>
+      <c r="AO11">
+        <v>-0.79828390957608597</v>
+      </c>
+      <c r="AP11">
+        <v>-0.79828390957612083</v>
+      </c>
+      <c r="AQ11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="AR11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="AS11">
         <v>-0.79828390957610285</v>
       </c>
-      <c r="F11">
-        <v>-0.79828390957610329</v>
-      </c>
-      <c r="G11">
-        <v>-0.79828390957610329</v>
-      </c>
-      <c r="H11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="I11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="J11">
+      <c r="AT11">
         <v>-0.7982839095761024</v>
       </c>
-      <c r="K11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="L11">
-        <v>-0.79828390957610329</v>
-      </c>
-      <c r="M11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="N11">
-        <v>-0.7982839095759181</v>
-      </c>
-      <c r="O11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="P11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="Q11">
-        <v>-0.79828390957610329</v>
-      </c>
-      <c r="R11">
-        <v>-0.79828390957610329</v>
-      </c>
-      <c r="S11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="T11">
-        <v>-0.79828390957610329</v>
-      </c>
-      <c r="U11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="V11">
+      <c r="AU11">
         <v>-0.7982839095761024</v>
       </c>
-      <c r="W11">
-        <v>-0.79828390957610329</v>
-      </c>
-      <c r="X11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="Y11">
-        <v>-0.79828390957610329</v>
-      </c>
-      <c r="Z11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="AA11">
-        <v>-0.7982839095761024</v>
-      </c>
-      <c r="AB11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="AC11">
-        <v>-0.79828390957610329</v>
-      </c>
-      <c r="AD11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="AE11">
-        <v>-0.79828390957610329</v>
-      </c>
-      <c r="AF11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="AG11">
-        <v>-0.79828390957610329</v>
-      </c>
-      <c r="AH11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="AI11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="AJ11">
-        <v>-0.79828390957610329</v>
-      </c>
-      <c r="AK11">
-        <v>-0.79828390957610373</v>
-      </c>
-      <c r="AL11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="AM11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="AN11">
-        <v>-0.79828390957610329</v>
-      </c>
-      <c r="AO11">
-        <v>-0.79828390957610373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AV11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="AW11">
+        <v>-0.79828390957612372</v>
+      </c>
+      <c r="AX11">
+        <v>-0.79828390957610196</v>
+      </c>
+      <c r="AY11">
+        <v>-0.79828390957610018</v>
+      </c>
+      <c r="AZ11">
+        <v>-0.79828390957610196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678445</v>
       </c>
       <c r="B12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678441</v>
       </c>
       <c r="C12">
+        <v>-11.294841159678445</v>
+      </c>
+      <c r="D12">
+        <v>-11.294841159678445</v>
+      </c>
+      <c r="E12">
+        <v>-11.294841159678441</v>
+      </c>
+      <c r="F12">
+        <v>-11.294841159678434</v>
+      </c>
+      <c r="G12">
         <v>-11.294841159678448</v>
       </c>
-      <c r="D12">
-        <v>-11.29484115967845</v>
-      </c>
-      <c r="E12">
-        <v>-11.29484115967845</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>-11.294841159678448</v>
       </c>
-      <c r="G12">
-        <v>-11.294841159678457</v>
-      </c>
-      <c r="H12">
-        <v>-11.294841159678457</v>
-      </c>
       <c r="I12">
-        <v>-11.29484115967845</v>
+        <v>-11.29484115967843</v>
       </c>
       <c r="J12">
-        <v>-11.294841159678446</v>
+        <v>-11.294841159678441</v>
       </c>
       <c r="K12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678441</v>
       </c>
       <c r="L12">
-        <v>-11.294841159678457</v>
+        <v>-11.294841159678455</v>
       </c>
       <c r="M12">
-        <v>-11.294841159678457</v>
+        <v>-11.294841159678462</v>
       </c>
       <c r="N12">
-        <v>-11.294841159678432</v>
+        <v>-11.294841159678434</v>
       </c>
       <c r="O12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678445</v>
       </c>
       <c r="P12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678437</v>
       </c>
       <c r="Q12">
-        <v>-11.294841159678457</v>
+        <v>-11.294841159678441</v>
       </c>
       <c r="R12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678455</v>
       </c>
       <c r="S12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678448</v>
       </c>
       <c r="T12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678448</v>
       </c>
       <c r="U12">
-        <v>-11.294841159678443</v>
+        <v>-11.294841159678437</v>
       </c>
       <c r="V12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678455</v>
       </c>
       <c r="W12">
-        <v>-11.294841159678457</v>
+        <v>-11.294841159678441</v>
       </c>
       <c r="X12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678441</v>
       </c>
       <c r="Y12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678448</v>
       </c>
       <c r="Z12">
-        <v>-11.294841159678457</v>
+        <v>-11.294841159678441</v>
       </c>
       <c r="AA12">
+        <v>-11.294841159678445</v>
+      </c>
+      <c r="AB12">
+        <v>-11.294841159678437</v>
+      </c>
+      <c r="AC12">
+        <v>-11.294841159678437</v>
+      </c>
+      <c r="AD12">
         <v>-11.294841159678448</v>
       </c>
-      <c r="AB12">
-        <v>-11.29484115967845</v>
-      </c>
-      <c r="AC12">
-        <v>-11.29484115967845</v>
-      </c>
-      <c r="AD12">
-        <v>-11.29484115967845</v>
-      </c>
       <c r="AE12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678441</v>
       </c>
       <c r="AF12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678445</v>
       </c>
       <c r="AG12">
-        <v>-11.294841159678457</v>
+        <v>-11.294841159678448</v>
       </c>
       <c r="AH12">
-        <v>-11.294841159678457</v>
+        <v>-11.294841159678445</v>
       </c>
       <c r="AI12">
-        <v>-11.294841159678457</v>
+        <v>-11.294841159678441</v>
       </c>
       <c r="AJ12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678441</v>
       </c>
       <c r="AK12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678455</v>
       </c>
       <c r="AL12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678445</v>
       </c>
       <c r="AM12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678448</v>
       </c>
       <c r="AN12">
-        <v>-11.29484115967845</v>
+        <v>-11.294841159678455</v>
       </c>
       <c r="AO12">
-        <v>-11.29484115967845</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+        <v>-11.29484115967843</v>
+      </c>
+      <c r="AP12">
+        <v>-11.294841159678437</v>
+      </c>
+      <c r="AQ12">
+        <v>-11.294841159678437</v>
+      </c>
+      <c r="AR12">
+        <v>-11.294841159678445</v>
+      </c>
+      <c r="AS12">
+        <v>-11.294841159678437</v>
+      </c>
+      <c r="AT12">
+        <v>-11.294841159678448</v>
+      </c>
+      <c r="AU12">
+        <v>-11.294841159678448</v>
+      </c>
+      <c r="AV12">
+        <v>-11.294841159678445</v>
+      </c>
+      <c r="AW12">
+        <v>-11.294841159678437</v>
+      </c>
+      <c r="AX12">
+        <v>-11.294841159678441</v>
+      </c>
+      <c r="AY12">
+        <v>-11.29484115967843</v>
+      </c>
+      <c r="AZ12">
+        <v>-11.294841159678445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-31.097763505530391</v>
       </c>
       <c r="B13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530327</v>
       </c>
       <c r="C13">
-        <v>-31.097763505530363</v>
+        <v>-31.097763505530413</v>
       </c>
       <c r="D13">
-        <v>-31.097763505529269</v>
+        <v>-31.097763505530292</v>
       </c>
       <c r="E13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530356</v>
       </c>
       <c r="F13">
-        <v>-31.097763505530391</v>
+        <v>-31.09776350553032</v>
       </c>
       <c r="G13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530356</v>
       </c>
       <c r="H13">
-        <v>-31.09776350553042</v>
+        <v>-31.09776350553037</v>
       </c>
       <c r="I13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530249</v>
       </c>
       <c r="J13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530335</v>
       </c>
       <c r="K13">
-        <v>-31.097763505530363</v>
+        <v>-31.097763505530327</v>
       </c>
       <c r="L13">
-        <v>-31.09776350553042</v>
+        <v>-31.097763505529858</v>
       </c>
       <c r="M13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530292</v>
       </c>
       <c r="N13">
-        <v>-31.097763505528246</v>
+        <v>-31.097763505530256</v>
       </c>
       <c r="O13">
-        <v>-31.097763505530363</v>
+        <v>-31.097763505530477</v>
       </c>
       <c r="P13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530327</v>
       </c>
       <c r="Q13">
-        <v>-31.097763505530363</v>
+        <v>-31.097763505530377</v>
       </c>
       <c r="R13">
-        <v>-31.097763505530306</v>
+        <v>-31.097763505531265</v>
       </c>
       <c r="S13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530356</v>
       </c>
       <c r="T13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530356</v>
       </c>
       <c r="U13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530335</v>
       </c>
       <c r="V13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530427</v>
       </c>
       <c r="W13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530356</v>
       </c>
       <c r="X13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530356</v>
       </c>
       <c r="Y13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530256</v>
       </c>
       <c r="Z13">
-        <v>-31.097763505530363</v>
+        <v>-31.097763505530356</v>
       </c>
       <c r="AA13">
-        <v>-31.097763505530363</v>
+        <v>-31.097763505530356</v>
       </c>
       <c r="AB13">
-        <v>-31.097763505530363</v>
+        <v>-31.097763505530441</v>
       </c>
       <c r="AC13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530384</v>
       </c>
       <c r="AD13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530356</v>
       </c>
       <c r="AE13">
-        <v>-31.097763505530363</v>
+        <v>-31.097763505530853</v>
       </c>
       <c r="AF13">
         <v>-31.097763505530363</v>
       </c>
       <c r="AG13">
-        <v>-31.09776350553042</v>
+        <v>-31.097763505530384</v>
       </c>
       <c r="AH13">
-        <v>-31.097763505530349</v>
+        <v>-31.097763505530335</v>
       </c>
       <c r="AI13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530327</v>
       </c>
       <c r="AJ13">
-        <v>-31.097763505530391</v>
+        <v>-31.097763505530335</v>
       </c>
       <c r="AK13">
+        <v>-31.097763505530313</v>
+      </c>
+      <c r="AL13">
+        <v>-31.097763505530356</v>
+      </c>
+      <c r="AM13">
+        <v>-31.097763505530327</v>
+      </c>
+      <c r="AN13">
+        <v>-31.097763505530384</v>
+      </c>
+      <c r="AO13">
+        <v>-31.097763505530043</v>
+      </c>
+      <c r="AP13">
+        <v>-31.097763505530668</v>
+      </c>
+      <c r="AQ13">
         <v>-31.097763505530363</v>
       </c>
-      <c r="AL13">
-        <v>-31.097763505530391</v>
-      </c>
-      <c r="AM13">
-        <v>-31.097763505530391</v>
-      </c>
-      <c r="AN13">
+      <c r="AR13">
         <v>-31.097763505530363</v>
       </c>
-      <c r="AO13">
-        <v>-31.097763505530391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AS13">
+        <v>-31.097763505530356</v>
+      </c>
+      <c r="AT13">
+        <v>-31.097763505530384</v>
+      </c>
+      <c r="AU13">
+        <v>-31.097763505530356</v>
+      </c>
+      <c r="AV13">
+        <v>-31.097763505530363</v>
+      </c>
+      <c r="AW13">
+        <v>-31.097763505530377</v>
+      </c>
+      <c r="AX13">
+        <v>-31.097763505530335</v>
+      </c>
+      <c r="AY13">
+        <v>-31.097763505530228</v>
+      </c>
+      <c r="AZ13">
+        <v>-31.097763505530384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0</v>
+        <v>-18.160218676229949</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AO14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="AP14">
+        <v>0.05</v>
+      </c>
+      <c r="AQ14">
+        <v>0.05</v>
+      </c>
+      <c r="AR14">
+        <v>0.05</v>
+      </c>
+      <c r="AS14">
+        <v>0.05</v>
+      </c>
+      <c r="AT14">
+        <v>0.05</v>
+      </c>
+      <c r="AU14">
+        <v>0.05</v>
+      </c>
+      <c r="AV14">
+        <v>0.05</v>
+      </c>
+      <c r="AW14">
+        <v>0.05</v>
+      </c>
+      <c r="AX14">
+        <v>0.05</v>
+      </c>
+      <c r="AY14">
+        <v>0.05</v>
+      </c>
+      <c r="AZ14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.51000000000000156</v>
+        <v>9.8179985776738548</v>
       </c>
       <c r="B15">
-        <v>0.51000000000000156</v>
+        <v>0.52000000000000179</v>
       </c>
       <c r="C15">
-        <v>0.50999999999999845</v>
+        <v>0.52000000000000135</v>
       </c>
       <c r="D15">
-        <v>0.51000000000005796</v>
+        <v>0.52000000000000268</v>
       </c>
       <c r="E15">
-        <v>0.51000000000000245</v>
+        <v>0.52000000000000135</v>
       </c>
       <c r="F15">
-        <v>0.5100000000000029</v>
+        <v>0.51999999999999824</v>
       </c>
       <c r="G15">
-        <v>0.51000000000000245</v>
+        <v>0.52000000000000313</v>
       </c>
       <c r="H15">
-        <v>0.51000000000000068</v>
+        <v>0.52</v>
       </c>
       <c r="I15">
-        <v>0.5099999999999989</v>
+        <v>0.52000000000000135</v>
       </c>
       <c r="J15">
-        <v>0.50999999999999845</v>
+        <v>0.51999999999998359</v>
       </c>
       <c r="K15">
-        <v>0.5099999999999989</v>
+        <v>0.52000000000000179</v>
       </c>
       <c r="L15">
-        <v>0.51000000000000112</v>
+        <v>0.5200000000000089</v>
       </c>
       <c r="M15">
-        <v>0.50999999999999979</v>
+        <v>0.52000000000000091</v>
       </c>
       <c r="N15">
-        <v>0.51000000000015611</v>
+        <v>0.51999999999999869</v>
       </c>
       <c r="O15">
-        <v>0.51000000000000334</v>
+        <v>0.52000000000000446</v>
       </c>
       <c r="P15">
-        <v>0.51000000000000068</v>
+        <v>0.52000000000000046</v>
       </c>
       <c r="Q15">
-        <v>0.51000000000000112</v>
+        <v>0.52000000000000135</v>
       </c>
       <c r="R15">
-        <v>0.51000000000000245</v>
+        <v>0.51999999999998181</v>
       </c>
       <c r="S15">
-        <v>0.50999999999999979</v>
+        <v>0.52000000000000091</v>
       </c>
       <c r="T15">
-        <v>0.51000000000000156</v>
+        <v>0.52000000000000268</v>
       </c>
       <c r="U15">
-        <v>0.51000000000000201</v>
+        <v>0.52000000000000357</v>
       </c>
       <c r="V15">
-        <v>0.50999999999999979</v>
+        <v>0.52000000000000091</v>
       </c>
       <c r="W15">
-        <v>0.51000000000000245</v>
+        <v>0.52000000000000179</v>
       </c>
       <c r="X15">
-        <v>0.5099999999999989</v>
+        <v>0.52</v>
       </c>
       <c r="Y15">
-        <v>0.50999999999999979</v>
+        <v>0.52000000000000135</v>
       </c>
       <c r="Z15">
-        <v>0.51000000000000068</v>
+        <v>0.52000000000000357</v>
       </c>
       <c r="AA15">
-        <v>0.51000000000000467</v>
+        <v>0.52000000000000401</v>
       </c>
       <c r="AB15">
-        <v>0.51000000000000156</v>
+        <v>0.51999999999998492</v>
       </c>
       <c r="AC15">
-        <v>0.51000000000000156</v>
+        <v>0.52000000000000401</v>
       </c>
       <c r="AD15">
-        <v>0.50999999999999845</v>
+        <v>0.52000000000000357</v>
       </c>
       <c r="AE15">
-        <v>0.50999999999999801</v>
+        <v>0.51999999999998758</v>
       </c>
       <c r="AF15">
-        <v>0.50999999999999979</v>
+        <v>0.52000000000000268</v>
       </c>
       <c r="AG15">
-        <v>0.5099999999999989</v>
+        <v>0.52000000000000179</v>
       </c>
       <c r="AH15">
-        <v>0.50999999999999845</v>
+        <v>0.52000000000000446</v>
       </c>
       <c r="AI15">
-        <v>0.50999999999999801</v>
+        <v>0.52000000000000091</v>
       </c>
       <c r="AJ15">
-        <v>0.51000000000000068</v>
+        <v>0.51999999999999647</v>
       </c>
       <c r="AK15">
-        <v>0.50999999999999979</v>
+        <v>0.52000000000000446</v>
       </c>
       <c r="AL15">
-        <v>0.50999999999999801</v>
+        <v>0.52000000000000579</v>
       </c>
       <c r="AM15">
-        <v>0.51000000000000156</v>
+        <v>0.52000000000000535</v>
       </c>
       <c r="AN15">
-        <v>0.50999999999999801</v>
+        <v>0.52000000000000046</v>
       </c>
       <c r="AO15">
-        <v>0.5099999999999989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+        <v>0.52</v>
+      </c>
+      <c r="AP15">
+        <v>0.51999999999998936</v>
+      </c>
+      <c r="AQ15">
+        <v>0.52000000000000268</v>
+      </c>
+      <c r="AR15">
+        <v>0.52000000000000091</v>
+      </c>
+      <c r="AS15">
+        <v>0.52000000000000401</v>
+      </c>
+      <c r="AT15">
+        <v>0.52000000000000357</v>
+      </c>
+      <c r="AU15">
+        <v>0.52000000000000135</v>
+      </c>
+      <c r="AV15">
+        <v>0.52000000000000179</v>
+      </c>
+      <c r="AW15">
+        <v>0.51999999999999824</v>
+      </c>
+      <c r="AX15">
+        <v>0.52000000000000224</v>
+      </c>
+      <c r="AY15">
+        <v>0.51999999999998847</v>
+      </c>
+      <c r="AZ15">
+        <v>0.52000000000000224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1.4899999999999998</v>
+        <v>2.4333439181591761</v>
       </c>
       <c r="B16">
-        <v>1.49</v>
+        <v>1.4100000000000006</v>
       </c>
       <c r="C16">
-        <v>1.4899999999999993</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="D16">
-        <v>1.4900000000000049</v>
+        <v>1.4100000000000006</v>
       </c>
       <c r="E16">
-        <v>1.4899999999999998</v>
+        <v>1.4100000000000006</v>
       </c>
       <c r="F16">
-        <v>1.4899999999999998</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="G16">
-        <v>1.4900000000000004</v>
+        <v>1.4100000000000004</v>
       </c>
       <c r="H16">
-        <v>1.4899999999999998</v>
+        <v>1.4100000000000006</v>
       </c>
       <c r="I16">
-        <v>1.4900000000000002</v>
+        <v>1.4099999999999862</v>
       </c>
       <c r="J16">
-        <v>1.49</v>
+        <v>1.4099999999999921</v>
       </c>
       <c r="K16">
-        <v>1.4900000000000004</v>
+        <v>1.4100000000000004</v>
       </c>
       <c r="L16">
-        <v>1.4899999999999995</v>
+        <v>1.4099999999999993</v>
       </c>
       <c r="M16">
-        <v>1.49</v>
+        <v>1.4100000000000004</v>
       </c>
       <c r="N16">
-        <v>1.4899999999999729</v>
+        <v>1.4099999999999882</v>
       </c>
       <c r="O16">
-        <v>1.4899999999999998</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="P16">
-        <v>1.4900000000000004</v>
+        <v>1.4100000000000008</v>
       </c>
       <c r="Q16">
-        <v>1.49</v>
+        <v>1.4100000000000008</v>
       </c>
       <c r="R16">
-        <v>1.4899999999999995</v>
+        <v>1.4099999999999917</v>
       </c>
       <c r="S16">
-        <v>1.49</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="T16">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="U16">
-        <v>1.4899999999999993</v>
+        <v>1.41</v>
       </c>
       <c r="V16">
-        <v>1.49</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="W16">
-        <v>1.4900000000000004</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="X16">
-        <v>1.4899999999999998</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="Y16">
-        <v>1.4899999999999995</v>
+        <v>1.4100000000000006</v>
       </c>
       <c r="Z16">
-        <v>1.4900000000000002</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AA16">
-        <v>1.4899999999999995</v>
+        <v>1.4100000000000004</v>
       </c>
       <c r="AB16">
-        <v>1.4899999999999998</v>
+        <v>1.4099999999999766</v>
       </c>
       <c r="AC16">
-        <v>1.4899999999999995</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AD16">
-        <v>1.49</v>
+        <v>1.4100000000000008</v>
       </c>
       <c r="AE16">
-        <v>1.4900000000000002</v>
+        <v>1.4099999999999873</v>
       </c>
       <c r="AF16">
-        <v>1.4900000000000004</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AG16">
-        <v>1.49</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AH16">
-        <v>1.4899999999999998</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AI16">
-        <v>1.4900000000000004</v>
+        <v>1.4100000000000004</v>
       </c>
       <c r="AJ16">
-        <v>1.49</v>
+        <v>1.4100000000000004</v>
       </c>
       <c r="AK16">
-        <v>1.4900000000000004</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AL16">
-        <v>1.49</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AM16">
-        <v>1.4899999999999998</v>
+        <v>1.4100000000000004</v>
       </c>
       <c r="AN16">
-        <v>1.4899999999999998</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AO16">
-        <v>1.4899999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+        <v>1.4099999999999839</v>
+      </c>
+      <c r="AP16">
+        <v>1.409999999999981</v>
+      </c>
+      <c r="AQ16">
+        <v>1.41</v>
+      </c>
+      <c r="AR16">
+        <v>1.4099999999999997</v>
+      </c>
+      <c r="AS16">
+        <v>1.4100000000000001</v>
+      </c>
+      <c r="AT16">
+        <v>1.4100000000000006</v>
+      </c>
+      <c r="AU16">
+        <v>1.4100000000000008</v>
+      </c>
+      <c r="AV16">
+        <v>1.410000000000001</v>
+      </c>
+      <c r="AW16">
+        <v>1.4100000000000033</v>
+      </c>
+      <c r="AX16">
+        <v>1.4100000000000006</v>
+      </c>
+      <c r="AY16">
+        <v>1.4099999999999913</v>
+      </c>
+      <c r="AZ16">
+        <v>1.4100000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-1.6872999999999987</v>
+        <v>-8.3329896262417034</v>
       </c>
       <c r="B17">
-        <v>-1.6873000000000031</v>
+        <v>1.4662999999999999</v>
       </c>
       <c r="C17">
-        <v>-1.6873000000000049</v>
+        <v>1.4662999999999959</v>
       </c>
       <c r="D17">
-        <v>-1.687300000002677</v>
+        <v>1.4663000000000004</v>
       </c>
       <c r="E17">
-        <v>-1.6873000000000018</v>
+        <v>1.4662999999999968</v>
       </c>
       <c r="F17">
-        <v>-1.6873000000000009</v>
+        <v>1.4662999999999946</v>
       </c>
       <c r="G17">
-        <v>-1.6873000000000014</v>
+        <v>1.4662999999999968</v>
       </c>
       <c r="H17">
-        <v>-1.6872999999999978</v>
+        <v>1.4662999999999982</v>
       </c>
       <c r="I17">
-        <v>-1.6873000000000036</v>
+        <v>1.4663000000011608</v>
       </c>
       <c r="J17">
-        <v>-1.6873000000000022</v>
+        <v>1.4662999999998094</v>
       </c>
       <c r="K17">
-        <v>-1.6873000000000014</v>
+        <v>1.4663000000000044</v>
       </c>
       <c r="L17">
-        <v>-1.6873000000000005</v>
+        <v>1.4663000000006488</v>
       </c>
       <c r="M17">
-        <v>-1.6872999999999987</v>
+        <v>1.4663000000000008</v>
       </c>
       <c r="N17">
-        <v>-1.687300000003269</v>
+        <v>1.4663000000003978</v>
       </c>
       <c r="O17">
-        <v>-1.6873000000000014</v>
+        <v>1.4663000000000017</v>
       </c>
       <c r="P17">
-        <v>-1.687300000000004</v>
+        <v>1.4663000000000062</v>
       </c>
       <c r="Q17">
-        <v>-1.6873000000000005</v>
+        <v>1.4662999999999955</v>
       </c>
       <c r="R17">
-        <v>-1.6873000000000005</v>
+        <v>1.4663000000001083</v>
       </c>
       <c r="S17">
-        <v>-1.6873000000000054</v>
+        <v>1.4663000000000004</v>
       </c>
       <c r="T17">
-        <v>-1.6873000000000031</v>
+        <v>1.4663000000000008</v>
       </c>
       <c r="U17">
-        <v>-1.6873000000000027</v>
+        <v>1.4663000000000013</v>
       </c>
       <c r="V17">
-        <v>-1.6873000000000022</v>
+        <v>1.466300000000003</v>
       </c>
       <c r="W17">
-        <v>-1.6873000000000027</v>
+        <v>1.4663000000000004</v>
       </c>
       <c r="X17">
-        <v>-1.6873000000000031</v>
+        <v>1.4663000000000039</v>
       </c>
       <c r="Y17">
-        <v>-1.6873000000000022</v>
+        <v>1.466300000000003</v>
       </c>
       <c r="Z17">
-        <v>-1.6873000000000031</v>
+        <v>1.4662999999999999</v>
       </c>
       <c r="AA17">
-        <v>-1.6873000000000014</v>
+        <v>1.4663000000000066</v>
       </c>
       <c r="AB17">
-        <v>-1.6872999999999987</v>
+        <v>1.4663000000004267</v>
       </c>
       <c r="AC17">
-        <v>-1.6873000000000045</v>
+        <v>1.4663000000000035</v>
       </c>
       <c r="AD17">
-        <v>-1.6873000000000058</v>
+        <v>1.4663000000000013</v>
       </c>
       <c r="AE17">
-        <v>-1.6873000000000049</v>
+        <v>1.4663000000000066</v>
       </c>
       <c r="AF17">
-        <v>-1.6873</v>
+        <v>1.4663000000000013</v>
       </c>
       <c r="AG17">
-        <v>-1.6873000000000031</v>
+        <v>1.4662999999999973</v>
       </c>
       <c r="AH17">
-        <v>-1.687300000000004</v>
+        <v>1.4662999999999977</v>
       </c>
       <c r="AI17">
-        <v>-1.6873000000000031</v>
+        <v>1.4663000000000008</v>
       </c>
       <c r="AJ17">
-        <v>-1.687300000000004</v>
+        <v>1.4662999999999982</v>
       </c>
       <c r="AK17">
-        <v>-1.6873000000000031</v>
+        <v>1.4663000000000066</v>
       </c>
       <c r="AL17">
-        <v>-1.6873000000000067</v>
+        <v>1.4662999999999959</v>
       </c>
       <c r="AM17">
-        <v>-1.6872999999999978</v>
+        <v>1.4662999999999973</v>
       </c>
       <c r="AN17">
-        <v>-1.6873000000000045</v>
+        <v>1.4662999999999995</v>
       </c>
       <c r="AO17">
-        <v>-1.6873000000000031</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+        <v>1.4663000000008664</v>
+      </c>
+      <c r="AP17">
+        <v>1.4663000000006354</v>
+      </c>
+      <c r="AQ17">
+        <v>1.4662999999999977</v>
+      </c>
+      <c r="AR17">
+        <v>1.4662999999999968</v>
+      </c>
+      <c r="AS17">
+        <v>1.4662999999999946</v>
+      </c>
+      <c r="AT17">
+        <v>1.4662999999999968</v>
+      </c>
+      <c r="AU17">
+        <v>1.4662999999999973</v>
+      </c>
+      <c r="AV17">
+        <v>1.4662999999999968</v>
+      </c>
+      <c r="AW17">
+        <v>1.4663000000002575</v>
+      </c>
+      <c r="AX17">
+        <v>1.4663000000000057</v>
+      </c>
+      <c r="AY17">
+        <v>1.4663000000007105</v>
+      </c>
+      <c r="AZ17">
+        <v>1.4662999999999959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>73.700000000000017</v>
+        <v>40.265952090278205</v>
       </c>
       <c r="B18">
-        <v>73.700000000000017</v>
+        <v>73.7</v>
       </c>
       <c r="C18">
-        <v>73.700000000000031</v>
+        <v>73.699999999999989</v>
       </c>
       <c r="D18">
-        <v>73.699999999999847</v>
+        <v>73.7</v>
       </c>
       <c r="E18">
+        <v>73.699999999999989</v>
+      </c>
+      <c r="F18">
+        <v>73.700000000000045</v>
+      </c>
+      <c r="G18">
+        <v>73.699999999999974</v>
+      </c>
+      <c r="H18">
         <v>73.7</v>
       </c>
-      <c r="F18">
-        <v>73.700000000000017</v>
-      </c>
-      <c r="G18">
-        <v>73.700000000000017</v>
-      </c>
-      <c r="H18">
+      <c r="I18">
+        <v>73.700000000000614</v>
+      </c>
+      <c r="J18">
+        <v>73.699999999999918</v>
+      </c>
+      <c r="K18">
         <v>73.699999999999989</v>
       </c>
-      <c r="I18">
-        <v>73.700000000000017</v>
-      </c>
-      <c r="J18">
-        <v>73.7</v>
-      </c>
-      <c r="K18">
-        <v>73.7</v>
-      </c>
       <c r="L18">
-        <v>73.699999999999989</v>
+        <v>73.700000000000045</v>
       </c>
       <c r="M18">
-        <v>73.699999999999989</v>
+        <v>73.699999999999946</v>
       </c>
       <c r="N18">
-        <v>73.700000000000585</v>
+        <v>73.69999999999979</v>
       </c>
       <c r="O18">
         <v>73.699999999999989</v>
       </c>
       <c r="P18">
-        <v>73.700000000000017</v>
+        <v>73.7</v>
       </c>
       <c r="Q18">
         <v>73.7</v>
       </c>
       <c r="R18">
+        <v>73.70000000000033</v>
+      </c>
+      <c r="S18">
+        <v>73.7</v>
+      </c>
+      <c r="T18">
+        <v>73.699999999999989</v>
+      </c>
+      <c r="U18">
+        <v>73.699999999999989</v>
+      </c>
+      <c r="V18">
+        <v>73.700000000000017</v>
+      </c>
+      <c r="W18">
+        <v>73.700000000000031</v>
+      </c>
+      <c r="X18">
         <v>73.699999999999974</v>
       </c>
-      <c r="S18">
-        <v>73.700000000000017</v>
-      </c>
-      <c r="T18">
-        <v>73.700000000000017</v>
-      </c>
-      <c r="U18">
-        <v>73.700000000000017</v>
-      </c>
-      <c r="V18">
+      <c r="Y18">
         <v>73.699999999999989</v>
       </c>
-      <c r="W18">
+      <c r="Z18">
         <v>73.7</v>
       </c>
-      <c r="X18">
-        <v>73.7</v>
-      </c>
-      <c r="Y18">
-        <v>73.700000000000031</v>
-      </c>
-      <c r="Z18">
-        <v>73.700000000000017</v>
-      </c>
       <c r="AA18">
-        <v>73.700000000000017</v>
+        <v>73.699999999999989</v>
       </c>
       <c r="AB18">
-        <v>73.699999999999989</v>
+        <v>73.699999999999875</v>
       </c>
       <c r="AC18">
-        <v>73.700000000000017</v>
+        <v>73.69999999999996</v>
       </c>
       <c r="AD18">
         <v>73.7</v>
       </c>
       <c r="AE18">
+        <v>73.699999999999847</v>
+      </c>
+      <c r="AF18">
         <v>73.7</v>
       </c>
-      <c r="AF18">
-        <v>73.700000000000017</v>
-      </c>
       <c r="AG18">
-        <v>73.700000000000017</v>
+        <v>73.699999999999974</v>
       </c>
       <c r="AH18">
+        <v>73.699999999999974</v>
+      </c>
+      <c r="AI18">
+        <v>73.699999999999974</v>
+      </c>
+      <c r="AJ18">
+        <v>73.699999999999989</v>
+      </c>
+      <c r="AK18">
         <v>73.7</v>
       </c>
-      <c r="AI18">
-        <v>73.700000000000017</v>
-      </c>
-      <c r="AJ18">
-        <v>73.700000000000031</v>
-      </c>
-      <c r="AK18">
-        <v>73.700000000000017</v>
-      </c>
       <c r="AL18">
+        <v>73.69999999999996</v>
+      </c>
+      <c r="AM18">
+        <v>73.69999999999996</v>
+      </c>
+      <c r="AN18">
+        <v>73.699999999999974</v>
+      </c>
+      <c r="AO18">
+        <v>73.700000000000145</v>
+      </c>
+      <c r="AP18">
+        <v>73.69999999999996</v>
+      </c>
+      <c r="AQ18">
         <v>73.699999999999989</v>
       </c>
-      <c r="AM18">
-        <v>73.700000000000017</v>
-      </c>
-      <c r="AN18">
+      <c r="AR18">
+        <v>73.699999999999989</v>
+      </c>
+      <c r="AS18">
+        <v>73.699999999999989</v>
+      </c>
+      <c r="AT18">
+        <v>73.699999999999989</v>
+      </c>
+      <c r="AU18">
+        <v>73.699999999999989</v>
+      </c>
+      <c r="AV18">
+        <v>73.699999999999989</v>
+      </c>
+      <c r="AW18">
+        <v>73.699999999999989</v>
+      </c>
+      <c r="AX18">
         <v>73.7</v>
       </c>
-      <c r="AO18">
-        <v>73.700000000000017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AY18">
+        <v>73.70000000000006</v>
+      </c>
+      <c r="AZ18">
+        <v>73.699999999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1999.9999999999991</v>
+        <v>4299.7492009559619</v>
       </c>
       <c r="B19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="C19">
-        <v>1999.9999999999991</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="D19">
-        <v>1999.9999999999984</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="E19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000014</v>
       </c>
       <c r="F19">
-        <v>1999.9999999999986</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="G19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000014</v>
       </c>
       <c r="H19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000023</v>
       </c>
       <c r="I19">
-        <v>1999.9999999999995</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="J19">
-        <v>1999.9999999999986</v>
+        <v>2499.9999999999986</v>
       </c>
       <c r="K19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000014</v>
       </c>
       <c r="L19">
-        <v>2000</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="M19">
-        <v>1999.9999999999986</v>
+        <v>2500</v>
       </c>
       <c r="N19">
-        <v>1999.9999999999995</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="O19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="P19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="Q19">
-        <v>1999.9999999999995</v>
+        <v>2500.0000000000014</v>
       </c>
       <c r="R19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="S19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000014</v>
       </c>
       <c r="T19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000014</v>
       </c>
       <c r="U19">
-        <v>2000</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="V19">
-        <v>1999.9999999999995</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="W19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="X19">
-        <v>1999.9999999999991</v>
+        <v>2500</v>
       </c>
       <c r="Y19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="Z19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="AA19">
-        <v>1999.9999999999982</v>
+        <v>2500.0000000000023</v>
       </c>
       <c r="AB19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="AC19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="AD19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="AE19">
-        <v>1999.9999999999991</v>
+        <v>2500</v>
       </c>
       <c r="AF19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="AG19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="AH19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000014</v>
       </c>
       <c r="AI19">
-        <v>1999.9999999999995</v>
+        <v>2500</v>
       </c>
       <c r="AJ19">
-        <v>1999.9999999999991</v>
+        <v>2500</v>
       </c>
       <c r="AK19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="AL19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000018</v>
       </c>
       <c r="AM19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000014</v>
       </c>
       <c r="AN19">
-        <v>1999.9999999999991</v>
+        <v>2500.0000000000014</v>
       </c>
       <c r="AO19">
-        <v>1999.9999999999991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+        <v>2500.0000000000018</v>
+      </c>
+      <c r="AP19">
+        <v>2500</v>
+      </c>
+      <c r="AQ19">
+        <v>2500.0000000000009</v>
+      </c>
+      <c r="AR19">
+        <v>2500.0000000000009</v>
+      </c>
+      <c r="AS19">
+        <v>2500.0000000000014</v>
+      </c>
+      <c r="AT19">
+        <v>2500.0000000000014</v>
+      </c>
+      <c r="AU19">
+        <v>2500.0000000000005</v>
+      </c>
+      <c r="AV19">
+        <v>2500.0000000000005</v>
+      </c>
+      <c r="AW19">
+        <v>2500</v>
+      </c>
+      <c r="AX19">
+        <v>2500.0000000000005</v>
+      </c>
+      <c r="AY19">
+        <v>2500.0000000000014</v>
+      </c>
+      <c r="AZ19">
+        <v>2500.0000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>-10401.873919999998</v>
+        <v>-7434.3264695295948</v>
       </c>
       <c r="B20">
         <v>-10401.873919999998</v>
@@ -3019,22 +3679,55 @@
       <c r="AO20">
         <v>-10401.873919999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP20">
+        <v>-10401.873919999998</v>
+      </c>
+      <c r="AQ20">
+        <v>-10401.873919999998</v>
+      </c>
+      <c r="AR20">
+        <v>-10401.873919999998</v>
+      </c>
+      <c r="AS20">
+        <v>-10401.873919999998</v>
+      </c>
+      <c r="AT20">
+        <v>-10401.873919999998</v>
+      </c>
+      <c r="AU20">
+        <v>-10401.873919999998</v>
+      </c>
+      <c r="AV20">
+        <v>-10401.873919999998</v>
+      </c>
+      <c r="AW20">
+        <v>-10401.873919999998</v>
+      </c>
+      <c r="AX20">
+        <v>-10401.873919999998</v>
+      </c>
+      <c r="AY20">
+        <v>-10401.873919999998</v>
+      </c>
+      <c r="AZ20">
+        <v>-10401.873919999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>21.084386179815183</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
         <v>20.000000000000004</v>
       </c>
-      <c r="B21">
+      <c r="E21">
         <v>20.000000000000007</v>
-      </c>
-      <c r="C21">
-        <v>20.000000000000007</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>20.000000000000004</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -3043,40 +3736,40 @@
         <v>20.000000000000004</v>
       </c>
       <c r="H21">
+        <v>19.999999999999996</v>
+      </c>
+      <c r="I21">
         <v>20</v>
-      </c>
-      <c r="I21">
-        <v>20.000000000000007</v>
       </c>
       <c r="J21">
         <v>20.000000000000007</v>
       </c>
       <c r="K21">
-        <v>20.000000000000004</v>
+        <v>20.000000000000007</v>
       </c>
       <c r="L21">
+        <v>20.000000000000007</v>
+      </c>
+      <c r="M21">
         <v>20</v>
       </c>
-      <c r="M21">
+      <c r="N21">
+        <v>20</v>
+      </c>
+      <c r="O21">
+        <v>20.000000000000007</v>
+      </c>
+      <c r="P21">
+        <v>20.000000000000007</v>
+      </c>
+      <c r="Q21">
+        <v>20.000000000000007</v>
+      </c>
+      <c r="R21">
         <v>19.999999999999996</v>
       </c>
-      <c r="N21">
-        <v>19.999999999999993</v>
-      </c>
-      <c r="O21">
+      <c r="S21">
         <v>20</v>
-      </c>
-      <c r="P21">
-        <v>20</v>
-      </c>
-      <c r="Q21">
-        <v>20</v>
-      </c>
-      <c r="R21">
-        <v>20.000000000000007</v>
-      </c>
-      <c r="S21">
-        <v>20.000000000000007</v>
       </c>
       <c r="T21">
         <v>20.000000000000007</v>
@@ -3085,7 +3778,7 @@
         <v>20</v>
       </c>
       <c r="V21">
-        <v>20.000000000000007</v>
+        <v>19.999999999999996</v>
       </c>
       <c r="W21">
         <v>20</v>
@@ -3094,25 +3787,25 @@
         <v>20.000000000000007</v>
       </c>
       <c r="Y21">
+        <v>19.999999999999996</v>
+      </c>
+      <c r="Z21">
+        <v>20.000000000000004</v>
+      </c>
+      <c r="AA21">
         <v>20.000000000000007</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>20</v>
-      </c>
-      <c r="AA21">
-        <v>20.000000000000014</v>
-      </c>
-      <c r="AB21">
-        <v>20.000000000000007</v>
       </c>
       <c r="AC21">
         <v>20.000000000000007</v>
       </c>
       <c r="AD21">
-        <v>20.000000000000007</v>
+        <v>19.999999999999996</v>
       </c>
       <c r="AE21">
-        <v>20.000000000000004</v>
+        <v>20</v>
       </c>
       <c r="AF21">
         <v>20.000000000000004</v>
@@ -3121,7 +3814,7 @@
         <v>20</v>
       </c>
       <c r="AH21">
-        <v>20</v>
+        <v>20.000000000000007</v>
       </c>
       <c r="AI21">
         <v>20</v>
@@ -3130,774 +3823,1005 @@
         <v>20.000000000000007</v>
       </c>
       <c r="AK21">
-        <v>20.000000000000004</v>
+        <v>20</v>
       </c>
       <c r="AL21">
         <v>20</v>
       </c>
       <c r="AM21">
-        <v>20.000000000000007</v>
+        <v>20.000000000000004</v>
       </c>
       <c r="AN21">
-        <v>20.000000000000004</v>
+        <v>20</v>
       </c>
       <c r="AO21">
         <v>20.000000000000007</v>
       </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP21">
+        <v>19.999999999999993</v>
+      </c>
+      <c r="AQ21">
+        <v>20.000000000000004</v>
+      </c>
+      <c r="AR21">
+        <v>20</v>
+      </c>
+      <c r="AS21">
+        <v>20.000000000000004</v>
+      </c>
+      <c r="AT21">
+        <v>20.000000000000007</v>
+      </c>
+      <c r="AU21">
+        <v>20.000000000000004</v>
+      </c>
+      <c r="AV21">
+        <v>20</v>
+      </c>
+      <c r="AW21">
+        <v>20</v>
+      </c>
+      <c r="AX21">
+        <v>20.000000000000004</v>
+      </c>
+      <c r="AY21">
+        <v>20</v>
+      </c>
+      <c r="AZ21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>-4.3087159880468628E-2</v>
+        <v>-0.65933208243936448</v>
       </c>
       <c r="B22">
-        <v>-5.7610795342152854E-2</v>
+        <v>-4.3087159880468406E-2</v>
       </c>
       <c r="C22">
-        <v>-7.2134430803836191E-2</v>
+        <v>-5.7610795342151966E-2</v>
       </c>
       <c r="D22">
-        <v>-8.6658066265812406E-2</v>
+        <v>-7.213443080383708E-2</v>
       </c>
       <c r="E22">
-        <v>-0.10118170172720353</v>
+        <v>-8.6658066265518641E-2</v>
       </c>
       <c r="F22">
-        <v>-0.11570533718888598</v>
+        <v>-0.10118170172720331</v>
       </c>
       <c r="G22">
-        <v>-0.13022897265057021</v>
+        <v>-0.1157053371888882</v>
       </c>
       <c r="H22">
-        <v>-0.14475260811225354</v>
+        <v>-0.13022897265057043</v>
       </c>
       <c r="I22">
-        <v>-0.15927624357393733</v>
+        <v>-0.14475260811280599</v>
       </c>
       <c r="J22">
+        <v>-0.15927624357633963</v>
+      </c>
+      <c r="K22">
         <v>-0.17379987903562133</v>
       </c>
-      <c r="K22">
-        <v>-0.18832351449730556</v>
-      </c>
       <c r="L22">
-        <v>-0.20284714995898756</v>
+        <v>-0.18832351449771101</v>
       </c>
       <c r="M22">
-        <v>-0.2173707854206709</v>
+        <v>-0.202847149958988</v>
       </c>
       <c r="N22">
-        <v>-0.23189442088177159</v>
+        <v>-0.21737078542024235</v>
       </c>
       <c r="O22">
-        <v>-0.24641805634403868</v>
+        <v>-0.23189442088235512</v>
       </c>
       <c r="P22">
-        <v>-0.26094169180572246</v>
+        <v>-0.24641805634403935</v>
       </c>
       <c r="Q22">
-        <v>-0.27546532726740713</v>
+        <v>-0.26094169180572202</v>
       </c>
       <c r="R22">
-        <v>-0.28998896272908936</v>
+        <v>-0.27546532726806328</v>
       </c>
       <c r="S22">
-        <v>-0.30451259819077336</v>
+        <v>-0.28998896272908914</v>
       </c>
       <c r="T22">
-        <v>-0.31903623365245759</v>
+        <v>-0.30451259819077447</v>
       </c>
       <c r="U22">
-        <v>-0.33355986911414026</v>
+        <v>-0.31903623365245648</v>
       </c>
       <c r="V22">
-        <v>-0.34808350457582427</v>
+        <v>-0.33355986911414137</v>
       </c>
       <c r="W22">
+        <v>-0.34808350457582515</v>
+      </c>
+      <c r="X22">
         <v>-0.3626071400375076</v>
       </c>
-      <c r="X22">
-        <v>-0.37713077549919094</v>
-      </c>
       <c r="Y22">
-        <v>-0.39165441096087472</v>
+        <v>-0.37713077549919227</v>
       </c>
       <c r="Z22">
-        <v>-0.40617804642255939</v>
+        <v>-0.39165441096087428</v>
       </c>
       <c r="AA22">
-        <v>-0.42070168188424162</v>
+        <v>-0.40617804642255917</v>
       </c>
       <c r="AB22">
-        <v>-0.43522531734592607</v>
+        <v>-0.42070168188477985</v>
       </c>
       <c r="AC22">
-        <v>-0.44974895280760918</v>
+        <v>-0.43522531734592695</v>
       </c>
       <c r="AD22">
-        <v>-0.46427258826929318</v>
+        <v>-0.44974895280761007</v>
       </c>
       <c r="AE22">
-        <v>-0.47879622373097719</v>
+        <v>-0.46427258826966422</v>
       </c>
       <c r="AF22">
+        <v>-0.47879622373097541</v>
+      </c>
+      <c r="AG22">
         <v>-0.49331985919266053</v>
       </c>
-      <c r="AG22">
-        <v>-0.50784349465434364</v>
-      </c>
       <c r="AH22">
-        <v>-0.52236713011602676</v>
+        <v>-0.50784349465434475</v>
       </c>
       <c r="AI22">
-        <v>-0.53689076557771165</v>
+        <v>-0.52236713011602853</v>
       </c>
       <c r="AJ22">
-        <v>-0.55141440103939499</v>
+        <v>-0.53689076557771076</v>
       </c>
       <c r="AK22">
-        <v>-0.56593803650107855</v>
+        <v>-0.55141440103939565</v>
       </c>
       <c r="AL22">
-        <v>-0.5804616719627621</v>
+        <v>-0.56593803650108032</v>
       </c>
       <c r="AM22">
-        <v>-0.59498530742444544</v>
+        <v>-0.58046167196276277</v>
       </c>
       <c r="AN22">
-        <v>-0.60950894288612878</v>
+        <v>-0.59498530742444655</v>
       </c>
       <c r="AO22">
-        <v>-0.62403257834781278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+        <v>-0.60950894288672208</v>
+      </c>
+      <c r="AP22">
+        <v>-0.62403257834765691</v>
+      </c>
+      <c r="AQ22">
+        <v>-0.63855621380949612</v>
+      </c>
+      <c r="AR22">
+        <v>-0.65307984927118012</v>
+      </c>
+      <c r="AS22">
+        <v>-0.66760348473286613</v>
+      </c>
+      <c r="AT22">
+        <v>-0.68212712019454724</v>
+      </c>
+      <c r="AU22">
+        <v>-0.69665075565623125</v>
+      </c>
+      <c r="AV22">
+        <v>-0.71117439111791325</v>
+      </c>
+      <c r="AW22">
+        <v>-0.72569802657899618</v>
+      </c>
+      <c r="AX22">
+        <v>-0.74022166204128392</v>
+      </c>
+      <c r="AY22">
+        <v>-0.7547452975041663</v>
+      </c>
+      <c r="AZ22">
+        <v>-0.76926893296464882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>-0.79641604171917657</v>
+        <v>-14.840598382827968</v>
       </c>
       <c r="B23">
-        <v>-0.92853392311197003</v>
+        <v>-0.79641604171917857</v>
       </c>
       <c r="C23">
-        <v>-1.0606518045047577</v>
+        <v>-0.92853392311196692</v>
       </c>
       <c r="D23">
-        <v>-1.192769685897477</v>
+        <v>-1.060651804504759</v>
       </c>
       <c r="E23">
-        <v>-1.3248875672903428</v>
+        <v>-1.1927696858975503</v>
       </c>
       <c r="F23">
-        <v>-1.4570054486831314</v>
+        <v>-1.324887567290346</v>
       </c>
       <c r="G23">
-        <v>-1.5891233300759231</v>
+        <v>-1.4570054486831281</v>
       </c>
       <c r="H23">
-        <v>-1.7212412114687103</v>
+        <v>-1.5891233300759247</v>
       </c>
       <c r="I23">
-        <v>-1.853359092861502</v>
+        <v>-1.7212412114686895</v>
       </c>
       <c r="J23">
-        <v>-1.9854769742542928</v>
+        <v>-1.8533590928609216</v>
       </c>
       <c r="K23">
-        <v>-2.1175948556470829</v>
+        <v>-1.9854769742542973</v>
       </c>
       <c r="L23">
-        <v>-2.2497127370398728</v>
+        <v>-2.1175948556470972</v>
       </c>
       <c r="M23">
-        <v>-2.381830618432669</v>
+        <v>-2.2497127370398764</v>
       </c>
       <c r="N23">
-        <v>-2.5139484998254518</v>
+        <v>-2.3818306184328857</v>
       </c>
       <c r="O23">
-        <v>-2.6460663812182479</v>
+        <v>-2.5139484998254589</v>
       </c>
       <c r="P23">
-        <v>-2.7781842626110378</v>
+        <v>-2.6460663812182501</v>
       </c>
       <c r="Q23">
-        <v>-2.910302144003829</v>
+        <v>-2.7781842626110351</v>
       </c>
       <c r="R23">
-        <v>-3.0424200253966216</v>
+        <v>-2.910302144003706</v>
       </c>
       <c r="S23">
-        <v>-3.1745379067894066</v>
+        <v>-3.0424200253966194</v>
       </c>
       <c r="T23">
-        <v>-3.3066557881821996</v>
+        <v>-3.1745379067894137</v>
       </c>
       <c r="U23">
-        <v>-3.4387736695749918</v>
+        <v>-3.306655788182201</v>
       </c>
       <c r="V23">
-        <v>-3.5708915509677777</v>
+        <v>-3.43877366957499</v>
       </c>
       <c r="W23">
-        <v>-3.7030094323605738</v>
+        <v>-3.5708915509677817</v>
       </c>
       <c r="X23">
-        <v>-3.8351273137533641</v>
+        <v>-3.7030094323605707</v>
       </c>
       <c r="Y23">
-        <v>-3.967245195146154</v>
+        <v>-3.8351273137533712</v>
       </c>
       <c r="Z23">
-        <v>-4.0993630765389435</v>
+        <v>-3.9672451951461523</v>
       </c>
       <c r="AA23">
-        <v>-4.2314809579317325</v>
+        <v>-4.0993630765389497</v>
       </c>
       <c r="AB23">
-        <v>-4.3635988393245233</v>
+        <v>-4.2314809579316721</v>
       </c>
       <c r="AC23">
-        <v>-4.4957167207173194</v>
+        <v>-4.3635988393245286</v>
       </c>
       <c r="AD23">
-        <v>-4.6278346021101067</v>
+        <v>-4.4957167207173159</v>
       </c>
       <c r="AE23">
-        <v>-4.7599524835028966</v>
+        <v>-4.6278346021100658</v>
       </c>
       <c r="AF23">
-        <v>-4.89207036489569</v>
+        <v>-4.7599524835028983</v>
       </c>
       <c r="AG23">
+        <v>-4.8920703648956918</v>
+      </c>
+      <c r="AH23">
         <v>-5.0241882462884782</v>
       </c>
-      <c r="AH23">
-        <v>-5.1563061276812707</v>
-      </c>
       <c r="AI23">
-        <v>-5.2884240090740606</v>
+        <v>-5.1563061276812698</v>
       </c>
       <c r="AJ23">
+        <v>-5.288424009074058</v>
+      </c>
+      <c r="AK23">
         <v>-5.4205418904668496</v>
       </c>
-      <c r="AK23">
-        <v>-5.5526597718596422</v>
-      </c>
       <c r="AL23">
-        <v>-5.6847776532524295</v>
+        <v>-5.552659771859644</v>
       </c>
       <c r="AM23">
-        <v>-5.8168955346452229</v>
+        <v>-5.6847776532524312</v>
       </c>
       <c r="AN23">
-        <v>-5.9490134160380119</v>
+        <v>-5.8168955346452202</v>
       </c>
       <c r="AO23">
-        <v>-6.0811312974308045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+        <v>-5.949013416037972</v>
+      </c>
+      <c r="AP23">
+        <v>-6.0811312974309137</v>
+      </c>
+      <c r="AQ23">
+        <v>-6.2132491788235997</v>
+      </c>
+      <c r="AR23">
+        <v>-6.3453670602163852</v>
+      </c>
+      <c r="AS23">
+        <v>-6.4774849416091786</v>
+      </c>
+      <c r="AT23">
+        <v>-6.6096028230019686</v>
+      </c>
+      <c r="AU23">
+        <v>-6.7417207043947593</v>
+      </c>
+      <c r="AV23">
+        <v>-6.8738385857875492</v>
+      </c>
+      <c r="AW23">
+        <v>-7.0059564671805417</v>
+      </c>
+      <c r="AX23">
+        <v>-7.1380743485731308</v>
+      </c>
+      <c r="AY23">
+        <v>-7.2701922299657253</v>
+      </c>
+      <c r="AZ23">
+        <v>-7.4023101113587115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>-0.68732117410373283</v>
+        <v>63.84760952852924</v>
       </c>
       <c r="B24">
-        <v>-0.46227601464888202</v>
+        <v>-0.68732117410372928</v>
       </c>
       <c r="C24">
-        <v>-0.23723085519408094</v>
+        <v>-0.46227601464891044</v>
       </c>
       <c r="D24">
-        <v>-1.2185695739659996E-2</v>
+        <v>-0.23723085519401343</v>
       </c>
       <c r="E24">
-        <v>0.21285946371565267</v>
+        <v>-1.2185695739208802E-2</v>
       </c>
       <c r="F24">
-        <v>0.43790462317047152</v>
+        <v>0.21285946371564557</v>
       </c>
       <c r="G24">
-        <v>0.6629497826252797</v>
+        <v>0.43790462317050705</v>
       </c>
       <c r="H24">
-        <v>0.88799494208016605</v>
+        <v>0.66294978262532589</v>
       </c>
       <c r="I24">
-        <v>1.1130401015350382</v>
+        <v>0.88799494208025842</v>
       </c>
       <c r="J24">
-        <v>1.3380852609898535</v>
+        <v>1.1130401015341251</v>
       </c>
       <c r="K24">
-        <v>1.5631304204447114</v>
+        <v>1.3380852609898819</v>
       </c>
       <c r="L24">
-        <v>1.7881755798995693</v>
+        <v>1.563130420444818</v>
       </c>
       <c r="M24">
-        <v>2.0132207393543595</v>
+        <v>1.7881755798995516</v>
       </c>
       <c r="N24">
-        <v>2.2382658988088622</v>
+        <v>2.0132207393550239</v>
       </c>
       <c r="O24">
-        <v>2.4633110582640967</v>
+        <v>2.2382658988092814</v>
       </c>
       <c r="P24">
-        <v>2.6883562177189582</v>
+        <v>2.4633110582640647</v>
       </c>
       <c r="Q24">
-        <v>2.9134013771737628</v>
+        <v>2.6883562177189404</v>
       </c>
       <c r="R24">
-        <v>3.1384465366285959</v>
+        <v>2.9134013771738516</v>
       </c>
       <c r="S24">
-        <v>3.3634916960834964</v>
+        <v>3.1384465366286598</v>
       </c>
       <c r="T24">
-        <v>3.5885368555383188</v>
+        <v>3.3634916960834822</v>
       </c>
       <c r="U24">
-        <v>3.8135820149931554</v>
+        <v>3.5885368555382975</v>
       </c>
       <c r="V24">
-        <v>4.0386271744480204</v>
+        <v>3.8135820149931696</v>
       </c>
       <c r="W24">
-        <v>4.2636723339028215</v>
+        <v>4.038627174447992</v>
       </c>
       <c r="X24">
-        <v>4.4887174933577256</v>
+        <v>4.2636723339028286</v>
       </c>
       <c r="Y24">
-        <v>4.7137626528125445</v>
+        <v>4.4887174933576475</v>
       </c>
       <c r="Z24">
+        <v>4.7137626528126013</v>
+      </c>
+      <c r="AA24">
         <v>4.9388078122673811</v>
       </c>
-      <c r="AA24">
-        <v>5.163852971722207</v>
-      </c>
       <c r="AB24">
-        <v>5.3888981311770969</v>
+        <v>5.163852971722342</v>
       </c>
       <c r="AC24">
-        <v>5.6139432906319193</v>
+        <v>5.3888981311770685</v>
       </c>
       <c r="AD24">
-        <v>5.8389884500867701</v>
+        <v>5.613943290631962</v>
       </c>
       <c r="AE24">
-        <v>6.0640336095415641</v>
+        <v>5.8389884500869975</v>
       </c>
       <c r="AF24">
-        <v>6.2890787689964363</v>
+        <v>6.0640336095416423</v>
       </c>
       <c r="AG24">
-        <v>6.5141239284512871</v>
+        <v>6.289078768996486</v>
       </c>
       <c r="AH24">
-        <v>6.7391690879061272</v>
+        <v>6.5141239284513297</v>
       </c>
       <c r="AI24">
-        <v>6.9642142473609674</v>
+        <v>6.7391690879061734</v>
       </c>
       <c r="AJ24">
-        <v>7.1892594068158466</v>
+        <v>6.9642142473609745</v>
       </c>
       <c r="AK24">
-        <v>7.414304566270669</v>
+        <v>7.1892594068158964</v>
       </c>
       <c r="AL24">
-        <v>7.639349725725527</v>
+        <v>7.4143045662707117</v>
       </c>
       <c r="AM24">
+        <v>7.639349725725463</v>
+      </c>
+      <c r="AN24">
         <v>7.8643948851803991</v>
       </c>
-      <c r="AN24">
-        <v>8.0894400446351895</v>
-      </c>
       <c r="AO24">
-        <v>8.3144852040900652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+        <v>8.0894400446353067</v>
+      </c>
+      <c r="AP24">
+        <v>8.3144852040905484</v>
+      </c>
+      <c r="AQ24">
+        <v>8.5395303635449018</v>
+      </c>
+      <c r="AR24">
+        <v>8.7645755229997739</v>
+      </c>
+      <c r="AS24">
+        <v>8.9896206824545821</v>
+      </c>
+      <c r="AT24">
+        <v>9.2146658419094329</v>
+      </c>
+      <c r="AU24">
+        <v>9.4397110013643406</v>
+      </c>
+      <c r="AV24">
+        <v>9.6647561608191523</v>
+      </c>
+      <c r="AW24">
+        <v>9.8898013202745538</v>
+      </c>
+      <c r="AX24">
+        <v>10.114846479728772</v>
+      </c>
+      <c r="AY24">
+        <v>10.339891639183438</v>
+      </c>
+      <c r="AZ24">
+        <v>10.56493679863858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0</v>
+        <v>-29.22820468599291</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AO25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="AP25">
+        <v>0.05</v>
+      </c>
+      <c r="AQ25">
+        <v>0.05</v>
+      </c>
+      <c r="AR25">
+        <v>0.05</v>
+      </c>
+      <c r="AS25">
+        <v>0.05</v>
+      </c>
+      <c r="AT25">
+        <v>0.05</v>
+      </c>
+      <c r="AU25">
+        <v>0.05</v>
+      </c>
+      <c r="AV25">
+        <v>0.05</v>
+      </c>
+      <c r="AW25">
+        <v>0.05</v>
+      </c>
+      <c r="AX25">
+        <v>0.05</v>
+      </c>
+      <c r="AY25">
+        <v>0.05</v>
+      </c>
+      <c r="AZ25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.51000000000000156</v>
+        <v>13.523545689378134</v>
       </c>
       <c r="B26">
-        <v>0.50999999999999979</v>
+        <v>0.51999999999999735</v>
       </c>
       <c r="C26">
-        <v>0.5100000000000029</v>
+        <v>0.51999999999999824</v>
       </c>
       <c r="D26">
-        <v>0.50999999999999135</v>
+        <v>0.51999999999999913</v>
       </c>
       <c r="E26">
-        <v>0.51000000000000378</v>
+        <v>0.51999999999999647</v>
       </c>
       <c r="F26">
-        <v>0.50999999999999934</v>
+        <v>0.52000000000000179</v>
       </c>
       <c r="G26">
-        <v>0.51000000000000645</v>
+        <v>0.51999999999999469</v>
       </c>
       <c r="H26">
-        <v>0.50999999999999979</v>
+        <v>0.51999999999999913</v>
       </c>
       <c r="I26">
-        <v>0.51000000000000112</v>
+        <v>0.51999999999998403</v>
       </c>
       <c r="J26">
-        <v>0.50999999999999934</v>
+        <v>0.51999999999994939</v>
       </c>
       <c r="K26">
-        <v>0.51000000000000378</v>
+        <v>0.51999999999999469</v>
       </c>
       <c r="L26">
-        <v>0.50999999999999446</v>
+        <v>0.51999999999998581</v>
       </c>
       <c r="M26">
-        <v>0.51000000000000201</v>
+        <v>0.52000000000000091</v>
       </c>
       <c r="N26">
-        <v>0.51000000000001311</v>
+        <v>0.51999999999999913</v>
       </c>
       <c r="O26">
-        <v>0.51000000000000378</v>
+        <v>0.51999999999999735</v>
       </c>
       <c r="P26">
-        <v>0.51000000000000023</v>
+        <v>0.51999999999999647</v>
       </c>
       <c r="Q26">
-        <v>0.50999999999999979</v>
+        <v>0.51999999999999735</v>
       </c>
       <c r="R26">
-        <v>0.50999999999999845</v>
+        <v>0.51999999999997693</v>
       </c>
       <c r="S26">
-        <v>0.50999999999999934</v>
+        <v>0.51999999999999202</v>
       </c>
       <c r="T26">
-        <v>0.51000000000000556</v>
+        <v>0.51999999999999647</v>
       </c>
       <c r="U26">
-        <v>0.50999999999999712</v>
+        <v>0.51999999999999735</v>
       </c>
       <c r="V26">
-        <v>0.51000000000000734</v>
+        <v>0.52000000000000268</v>
       </c>
       <c r="W26">
-        <v>0.51000000000000467</v>
+        <v>0.52000000000000179</v>
       </c>
       <c r="X26">
-        <v>0.51000000000000467</v>
+        <v>0.52000000000000268</v>
       </c>
       <c r="Y26">
-        <v>0.51000000000000156</v>
+        <v>0.51999999999999647</v>
       </c>
       <c r="Z26">
-        <v>0.510000000000006</v>
+        <v>0.51999999999999824</v>
       </c>
       <c r="AA26">
-        <v>0.50999999999999712</v>
+        <v>0.52</v>
       </c>
       <c r="AB26">
-        <v>0.51000000000000512</v>
+        <v>0.51999999999998492</v>
       </c>
       <c r="AC26">
-        <v>0.51000000000000245</v>
+        <v>0.52</v>
       </c>
       <c r="AD26">
-        <v>0.50999999999999979</v>
+        <v>0.52000000000000179</v>
       </c>
       <c r="AE26">
-        <v>0.51000000000000201</v>
+        <v>0.5199999999999867</v>
       </c>
       <c r="AF26">
-        <v>0.5100000000000029</v>
+        <v>0.52000000000000268</v>
       </c>
       <c r="AG26">
-        <v>0.51000000000000556</v>
+        <v>0.52</v>
       </c>
       <c r="AH26">
-        <v>0.51000000000000378</v>
+        <v>0.51999999999999647</v>
       </c>
       <c r="AI26">
-        <v>0.51000000000000334</v>
+        <v>0.52000000000000179</v>
       </c>
       <c r="AJ26">
-        <v>0.51000000000000156</v>
+        <v>0.52</v>
       </c>
       <c r="AK26">
-        <v>0.51000000000000334</v>
+        <v>0.51999999999999291</v>
       </c>
       <c r="AL26">
-        <v>0.51000000000000378</v>
+        <v>0.51999999999999469</v>
       </c>
       <c r="AM26">
-        <v>0.51000000000000689</v>
+        <v>0.51999999999999647</v>
       </c>
       <c r="AN26">
-        <v>0.5100000000000029</v>
+        <v>0.52</v>
       </c>
       <c r="AO26">
-        <v>0.51000000000000068</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+        <v>0.51999999999998048</v>
+      </c>
+      <c r="AP26">
+        <v>0.51999999999999913</v>
+      </c>
+      <c r="AQ26">
+        <v>0.51999999999999824</v>
+      </c>
+      <c r="AR26">
+        <v>0.52000000000000179</v>
+      </c>
+      <c r="AS26">
+        <v>0.51999999999999647</v>
+      </c>
+      <c r="AT26">
+        <v>0.51999999999999291</v>
+      </c>
+      <c r="AU26">
+        <v>0.52000000000000179</v>
+      </c>
+      <c r="AV26">
+        <v>0.51999999999999913</v>
+      </c>
+      <c r="AW26">
+        <v>0.52000000000000268</v>
+      </c>
+      <c r="AX26">
+        <v>0.52</v>
+      </c>
+      <c r="AY26">
+        <v>0.51999999999997337</v>
+      </c>
+      <c r="AZ26">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1.4900000000000011</v>
+        <v>2.4643966183290171</v>
       </c>
       <c r="B27">
-        <v>1.4900000000000007</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="C27">
-        <v>1.4900000000000002</v>
+        <v>1.4100000000000004</v>
       </c>
       <c r="D27">
-        <v>1.4900000000000189</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="E27">
-        <v>1.4900000000000007</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="F27">
-        <v>1.4900000000000007</v>
+        <v>1.4099999999999993</v>
       </c>
       <c r="G27">
-        <v>1.4900000000000009</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="H27">
-        <v>1.4900000000000007</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="I27">
-        <v>1.4900000000000002</v>
+        <v>1.4099999999999899</v>
       </c>
       <c r="J27">
-        <v>1.4900000000000002</v>
+        <v>1.4100000000000392</v>
       </c>
       <c r="K27">
-        <v>1.4900000000000007</v>
+        <v>1.4100000000000006</v>
       </c>
       <c r="L27">
-        <v>1.4900000000000007</v>
+        <v>1.4100000000000068</v>
       </c>
       <c r="M27">
-        <v>1.4900000000000009</v>
+        <v>1.4100000000000004</v>
       </c>
       <c r="N27">
-        <v>1.4899999999999585</v>
+        <v>1.4099999999999759</v>
       </c>
       <c r="O27">
-        <v>1.4900000000000002</v>
+        <v>1.4099999999999993</v>
       </c>
       <c r="P27">
-        <v>1.4900000000000007</v>
+        <v>1.4100000000000004</v>
       </c>
       <c r="Q27">
-        <v>1.4900000000000002</v>
+        <v>1.41</v>
       </c>
       <c r="R27">
-        <v>1.4900000000000007</v>
+        <v>1.4100000000000064</v>
       </c>
       <c r="S27">
-        <v>1.4900000000000002</v>
+        <v>1.4100000000000006</v>
       </c>
       <c r="T27">
-        <v>1.4900000000000009</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="U27">
-        <v>1.4900000000000007</v>
+        <v>1.4099999999999997</v>
       </c>
       <c r="V27">
-        <v>1.4900000000000007</v>
+        <v>1.4099999999999995</v>
       </c>
       <c r="W27">
-        <v>1.4900000000000002</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="X27">
-        <v>1.4900000000000002</v>
+        <v>1.4100000000000004</v>
       </c>
       <c r="Y27">
-        <v>1.4900000000000007</v>
+        <v>1.4100000000000006</v>
       </c>
       <c r="Z27">
-        <v>1.49</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AA27">
-        <v>1.4900000000000004</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AB27">
-        <v>1.4900000000000007</v>
+        <v>1.4099999999999822</v>
       </c>
       <c r="AC27">
-        <v>1.4900000000000009</v>
+        <v>1.4099999999999997</v>
       </c>
       <c r="AD27">
-        <v>1.4900000000000009</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AE27">
-        <v>1.4900000000000007</v>
+        <v>1.4099999999999966</v>
       </c>
       <c r="AF27">
-        <v>1.49</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AG27">
-        <v>1.4900000000000009</v>
+        <v>1.4100000000000006</v>
       </c>
       <c r="AH27">
-        <v>1.4900000000000009</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AI27">
-        <v>1.4899999999999995</v>
+        <v>1.41</v>
       </c>
       <c r="AJ27">
-        <v>1.4900000000000002</v>
+        <v>1.4100000000000006</v>
       </c>
       <c r="AK27">
-        <v>1.4899999999999998</v>
+        <v>1.4099999999999997</v>
       </c>
       <c r="AL27">
-        <v>1.4900000000000004</v>
+        <v>1.41</v>
       </c>
       <c r="AM27">
-        <v>1.4900000000000007</v>
+        <v>1.4100000000000004</v>
       </c>
       <c r="AN27">
-        <v>1.4900000000000009</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="AO27">
-        <v>1.4900000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+        <v>1.4099999999999877</v>
+      </c>
+      <c r="AP27">
+        <v>1.4099999999999739</v>
+      </c>
+      <c r="AQ27">
+        <v>1.4099999999999995</v>
+      </c>
+      <c r="AR27">
+        <v>1.4099999999999997</v>
+      </c>
+      <c r="AS27">
+        <v>1.4100000000000006</v>
+      </c>
+      <c r="AT27">
+        <v>1.4100000000000001</v>
+      </c>
+      <c r="AU27">
+        <v>1.41</v>
+      </c>
+      <c r="AV27">
+        <v>1.4099999999999997</v>
+      </c>
+      <c r="AW27">
+        <v>1.409999999999991</v>
+      </c>
+      <c r="AX27">
+        <v>1.4099999999999997</v>
+      </c>
+      <c r="AY27">
+        <v>1.4100000000000121</v>
+      </c>
+      <c r="AZ27">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0</v>
+        <v>7.8313099001972128</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4019,1005 +4943,1302 @@
       <c r="AO28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A29">
+        <v>13.286955577457221</v>
+      </c>
+      <c r="B29">
+        <v>88.219999999999985</v>
+      </c>
+      <c r="C29">
+        <v>88.219999999999985</v>
+      </c>
+      <c r="D29">
+        <v>88.219999999999956</v>
+      </c>
+      <c r="E29">
+        <v>88.219999999999985</v>
+      </c>
+      <c r="F29">
         <v>88.22</v>
       </c>
-      <c r="B29">
-        <v>88.22</v>
-      </c>
-      <c r="C29">
-        <v>88.220000000000013</v>
-      </c>
-      <c r="D29">
-        <v>88.220000000000752</v>
-      </c>
-      <c r="E29">
-        <v>88.22</v>
-      </c>
-      <c r="F29">
-        <v>88.220000000000027</v>
-      </c>
       <c r="G29">
-        <v>88.22</v>
+        <v>88.219999999999942</v>
       </c>
       <c r="H29">
-        <v>88.220000000000027</v>
+        <v>88.21999999999997</v>
       </c>
       <c r="I29">
-        <v>88.22</v>
+        <v>88.220000000001065</v>
       </c>
       <c r="J29">
-        <v>88.219999999999956</v>
+        <v>88.220000000005768</v>
       </c>
       <c r="K29">
-        <v>88.220000000000013</v>
+        <v>88.21999999999997</v>
       </c>
       <c r="L29">
-        <v>88.22</v>
+        <v>88.220000000000127</v>
       </c>
       <c r="M29">
         <v>88.22</v>
       </c>
       <c r="N29">
-        <v>88.219999999998961</v>
+        <v>88.219999999997867</v>
       </c>
       <c r="O29">
-        <v>88.22</v>
+        <v>88.219999999999899</v>
       </c>
       <c r="P29">
-        <v>88.220000000000013</v>
+        <v>88.219999999999985</v>
       </c>
       <c r="Q29">
-        <v>88.220000000000013</v>
+        <v>88.21999999999997</v>
       </c>
       <c r="R29">
-        <v>88.22</v>
+        <v>88.220000000001292</v>
       </c>
       <c r="S29">
-        <v>88.220000000000013</v>
+        <v>88.21999999999997</v>
       </c>
       <c r="T29">
-        <v>88.22</v>
+        <v>88.219999999999985</v>
       </c>
       <c r="U29">
-        <v>88.220000000000041</v>
+        <v>88.219999999999985</v>
       </c>
       <c r="V29">
-        <v>88.22</v>
+        <v>88.219999999999956</v>
       </c>
       <c r="W29">
-        <v>88.220000000000013</v>
+        <v>88.219999999999928</v>
       </c>
       <c r="X29">
-        <v>88.220000000000013</v>
+        <v>88.219999999999942</v>
       </c>
       <c r="Y29">
-        <v>88.22</v>
+        <v>88.219999999999942</v>
       </c>
       <c r="Z29">
         <v>88.22</v>
       </c>
       <c r="AA29">
+        <v>88.21999999999997</v>
+      </c>
+      <c r="AB29">
+        <v>88.220000000000496</v>
+      </c>
+      <c r="AC29">
+        <v>88.21999999999997</v>
+      </c>
+      <c r="AD29">
+        <v>88.219999999999956</v>
+      </c>
+      <c r="AE29">
+        <v>88.219999999999928</v>
+      </c>
+      <c r="AF29">
+        <v>88.219999999999956</v>
+      </c>
+      <c r="AG29">
+        <v>88.219999999999956</v>
+      </c>
+      <c r="AH29">
         <v>88.219999999999985</v>
       </c>
-      <c r="AB29">
+      <c r="AI29">
+        <v>88.219999999999985</v>
+      </c>
+      <c r="AJ29">
+        <v>88.219999999999914</v>
+      </c>
+      <c r="AK29">
+        <v>88.219999999999985</v>
+      </c>
+      <c r="AL29">
+        <v>88.219999999999942</v>
+      </c>
+      <c r="AM29">
+        <v>88.219999999999928</v>
+      </c>
+      <c r="AN29">
+        <v>88.219999999999956</v>
+      </c>
+      <c r="AO29">
+        <v>88.220000000000766</v>
+      </c>
+      <c r="AP29">
+        <v>88.219999999998549</v>
+      </c>
+      <c r="AQ29">
         <v>88.22</v>
       </c>
-      <c r="AC29">
-        <v>88.220000000000027</v>
-      </c>
-      <c r="AD29">
-        <v>88.220000000000027</v>
-      </c>
-      <c r="AE29">
+      <c r="AR29">
+        <v>88.219999999999942</v>
+      </c>
+      <c r="AS29">
+        <v>88.219999999999942</v>
+      </c>
+      <c r="AT29">
+        <v>88.219999999999956</v>
+      </c>
+      <c r="AU29">
+        <v>88.22</v>
+      </c>
+      <c r="AV29">
         <v>88.219999999999985</v>
       </c>
-      <c r="AF29">
+      <c r="AW29">
+        <v>88.219999999997896</v>
+      </c>
+      <c r="AX29">
         <v>88.22</v>
       </c>
-      <c r="AG29">
-        <v>88.22</v>
-      </c>
-      <c r="AH29">
-        <v>88.220000000000013</v>
-      </c>
-      <c r="AI29">
-        <v>88.22</v>
-      </c>
-      <c r="AJ29">
-        <v>88.220000000000056</v>
-      </c>
-      <c r="AK29">
-        <v>88.22</v>
-      </c>
-      <c r="AL29">
-        <v>88.220000000000027</v>
-      </c>
-      <c r="AM29">
-        <v>88.220000000000027</v>
-      </c>
-      <c r="AN29">
-        <v>88.22</v>
-      </c>
-      <c r="AO29">
+      <c r="AY29">
+        <v>88.220000000002429</v>
+      </c>
+      <c r="AZ29">
         <v>88.219999999999985</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>319.88895224767953</v>
+        <v>4046.7364237700872</v>
       </c>
       <c r="B30">
-        <v>330.73784747244775</v>
+        <v>319.88895224767998</v>
       </c>
       <c r="C30">
-        <v>341.58674269721593</v>
+        <v>330.73784747244599</v>
       </c>
       <c r="D30">
-        <v>352.43563792198353</v>
+        <v>341.58674269721524</v>
       </c>
       <c r="E30">
-        <v>363.28453314675164</v>
+        <v>352.43563792198285</v>
       </c>
       <c r="F30">
-        <v>374.13342837151799</v>
+        <v>363.28453314675085</v>
       </c>
       <c r="G30">
+        <v>374.13342837151833</v>
+      </c>
+      <c r="H30">
         <v>384.98232359628781</v>
       </c>
-      <c r="H30">
-        <v>395.83121882105627</v>
-      </c>
       <c r="I30">
-        <v>406.68011404582307</v>
+        <v>395.83121882105405</v>
       </c>
       <c r="J30">
-        <v>417.52900927059011</v>
+        <v>406.68011404582234</v>
       </c>
       <c r="K30">
-        <v>428.37790449536038</v>
+        <v>417.52900927059045</v>
       </c>
       <c r="L30">
-        <v>439.22679972012577</v>
+        <v>428.37790449535805</v>
       </c>
       <c r="M30">
-        <v>450.07569494489331</v>
+        <v>439.22679972012509</v>
       </c>
       <c r="N30">
-        <v>460.92459016966126</v>
+        <v>450.075694944894</v>
       </c>
       <c r="O30">
-        <v>471.77348539443108</v>
+        <v>460.92459016966325</v>
       </c>
       <c r="P30">
-        <v>482.6223806191993</v>
+        <v>471.77348539442926</v>
       </c>
       <c r="Q30">
+        <v>482.62238061919828</v>
+      </c>
+      <c r="R30">
         <v>493.47127584396588</v>
       </c>
-      <c r="R30">
-        <v>504.32017106873315</v>
-      </c>
       <c r="S30">
-        <v>515.16906629350183</v>
+        <v>504.32017106873371</v>
       </c>
       <c r="T30">
-        <v>526.01796151827114</v>
+        <v>515.16906629350092</v>
       </c>
       <c r="U30">
+        <v>526.01796151826898</v>
+      </c>
+      <c r="V30">
         <v>536.86685674303794</v>
       </c>
-      <c r="V30">
-        <v>547.71575196780566</v>
-      </c>
       <c r="W30">
-        <v>558.56464719257406</v>
+        <v>547.71575196780543</v>
       </c>
       <c r="X30">
-        <v>569.41354241734257</v>
+        <v>558.56464719257224</v>
       </c>
       <c r="Y30">
-        <v>580.26243764210938</v>
+        <v>569.41354241734086</v>
       </c>
       <c r="Z30">
-        <v>591.11133286687755</v>
+        <v>580.26243764210892</v>
       </c>
       <c r="AA30">
-        <v>601.96022809164504</v>
+        <v>591.11133286687732</v>
       </c>
       <c r="AB30">
-        <v>612.80912331641468</v>
+        <v>601.96022809164674</v>
       </c>
       <c r="AC30">
-        <v>623.65801854118126</v>
+        <v>612.80912331641321</v>
       </c>
       <c r="AD30">
-        <v>634.50691376595057</v>
+        <v>623.65801854118172</v>
       </c>
       <c r="AE30">
-        <v>645.35580899071783</v>
+        <v>634.50691376594852</v>
       </c>
       <c r="AF30">
-        <v>656.20470421548589</v>
+        <v>645.35580899071738</v>
       </c>
       <c r="AG30">
-        <v>667.05359944025383</v>
+        <v>656.20470421548509</v>
       </c>
       <c r="AH30">
-        <v>677.90249466502019</v>
+        <v>667.05359944025236</v>
       </c>
       <c r="AI30">
-        <v>688.75138988978927</v>
+        <v>677.90249466502041</v>
       </c>
       <c r="AJ30">
-        <v>699.60028511455766</v>
+        <v>688.75138988979018</v>
       </c>
       <c r="AK30">
-        <v>710.44918033932549</v>
+        <v>699.60028511455698</v>
       </c>
       <c r="AL30">
-        <v>721.29807556409412</v>
+        <v>710.44918033932424</v>
       </c>
       <c r="AM30">
-        <v>732.14697078886093</v>
+        <v>721.29807556409298</v>
       </c>
       <c r="AN30">
-        <v>742.99586601362955</v>
+        <v>732.14697078886138</v>
       </c>
       <c r="AO30">
-        <v>753.84476123839681</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+        <v>742.99586601362819</v>
+      </c>
+      <c r="AP30">
+        <v>753.8447612383959</v>
+      </c>
+      <c r="AQ30">
+        <v>764.69365646316442</v>
+      </c>
+      <c r="AR30">
+        <v>775.54255168793259</v>
+      </c>
+      <c r="AS30">
+        <v>786.39144691269985</v>
+      </c>
+      <c r="AT30">
+        <v>797.24034213746847</v>
+      </c>
+      <c r="AU30">
+        <v>808.08923736223699</v>
+      </c>
+      <c r="AV30">
+        <v>818.93813258700493</v>
+      </c>
+      <c r="AW30">
+        <v>829.78702781177242</v>
+      </c>
+      <c r="AX30">
+        <v>840.63592303654013</v>
+      </c>
+      <c r="AY30">
+        <v>851.48481826130865</v>
+      </c>
+      <c r="AZ30">
+        <v>862.33371348607545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>-11397.23704360961</v>
+      </c>
+      <c r="B31">
         <v>-102.72380918879935</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>-134.77787871328474</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-166.83194823778467</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-198.88601776227006</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-230.94008728675544</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-262.99415681125538</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-295.04822633574076</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-327.10229586022615</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-359.15636538472609</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-391.21043490921147</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-423.26450443369686</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-455.31857395819679</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-487.37264348268218</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-519.42671300716756</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-551.4807825316675</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-583.53485205615289</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-615.58892158063827</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-647.64299110513821</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-679.69706062962359</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-711.75113015410898</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-743.80519967859436</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-775.8592692030943</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-807.91333872757968</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-839.96740825206507</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-872.02147777656501</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-904.07554730105039</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-936.12961682553578</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-968.18368635003571</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-1000.2377558745211</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-1032.2918253990065</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-1064.3458949235064</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-1096.3999644479918</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-1128.4540339724772</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-1160.5081034969771</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-1192.5621730214625</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-1224.6162425459479</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-1256.6703120704478</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-1288.7243815949332</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-1320.7784511194186</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-1352.8325206439185</v>
       </c>
-      <c r="AO31">
+      <c r="AP31">
         <v>-1384.8865901684039</v>
       </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ31">
+        <v>-1416.9406596928893</v>
+      </c>
+      <c r="AR31">
+        <v>-1448.9947292173892</v>
+      </c>
+      <c r="AS31">
+        <v>-1481.0487987418746</v>
+      </c>
+      <c r="AT31">
+        <v>-1513.10286826636</v>
+      </c>
+      <c r="AU31">
+        <v>-1545.15693779086</v>
+      </c>
+      <c r="AV31">
+        <v>-1577.2110073153453</v>
+      </c>
+      <c r="AW31">
+        <v>-1609.2650768398307</v>
+      </c>
+      <c r="AX31">
+        <v>-1641.3191463643307</v>
+      </c>
+      <c r="AY31">
+        <v>-1673.373215888816</v>
+      </c>
+      <c r="AZ31">
+        <v>-1705.4272854133014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32">
+        <v>25.386505531881824</v>
+      </c>
+      <c r="B32">
         <v>5.9599999999999991</v>
       </c>
-      <c r="B32">
-        <v>6.2060000000000013</v>
-      </c>
       <c r="C32">
-        <v>6.4519999999999946</v>
+        <v>6.2060000000000048</v>
       </c>
       <c r="D32">
-        <v>6.697999999999996</v>
+        <v>6.4520000000000008</v>
       </c>
       <c r="E32">
-        <v>6.943999999999992</v>
+        <v>6.6980000000000004</v>
       </c>
       <c r="F32">
-        <v>7.1900000000000057</v>
+        <v>6.9439999999999991</v>
       </c>
       <c r="G32">
+        <v>7.1899999999999942</v>
+      </c>
+      <c r="H32">
         <v>7.436000000000007</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>7.6820000000000039</v>
       </c>
-      <c r="I32">
-        <v>7.9280000000000035</v>
-      </c>
       <c r="J32">
-        <v>8.1740000000000066</v>
+        <v>7.9280000000000017</v>
       </c>
       <c r="K32">
-        <v>8.42</v>
+        <v>8.1739999999999977</v>
       </c>
       <c r="L32">
-        <v>8.6660000000000004</v>
+        <v>8.4200000000000053</v>
       </c>
       <c r="M32">
-        <v>8.9120000000000168</v>
+        <v>8.6660000000000021</v>
       </c>
       <c r="N32">
-        <v>9.1579999999999995</v>
+        <v>8.911999999999999</v>
       </c>
       <c r="O32">
-        <v>9.4040000000000106</v>
+        <v>9.1580000000000084</v>
       </c>
       <c r="P32">
-        <v>9.6499999999999968</v>
+        <v>9.4039999999999964</v>
       </c>
       <c r="Q32">
-        <v>9.8960000000000043</v>
+        <v>9.6500000000000021</v>
       </c>
       <c r="R32">
-        <v>10.142000000000007</v>
+        <v>9.8959999999999919</v>
       </c>
       <c r="S32">
+        <v>10.142000000000001</v>
+      </c>
+      <c r="T32">
         <v>10.388000000000002</v>
       </c>
-      <c r="T32">
-        <v>10.633999999999999</v>
-      </c>
       <c r="U32">
+        <v>10.634</v>
+      </c>
+      <c r="V32">
         <v>10.88</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>11.126000000000001</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>11.372</v>
       </c>
-      <c r="X32">
-        <v>11.618000000000002</v>
-      </c>
       <c r="Y32">
-        <v>11.864000000000011</v>
+        <v>11.618000000000009</v>
       </c>
       <c r="Z32">
-        <v>12.11</v>
+        <v>11.864000000000004</v>
       </c>
       <c r="AA32">
-        <v>12.356000000000002</v>
+        <v>12.110000000000003</v>
       </c>
       <c r="AB32">
-        <v>12.601999999999993</v>
+        <v>12.356000000000009</v>
       </c>
       <c r="AC32">
-        <v>12.84800000000001</v>
+        <v>12.601999999999999</v>
       </c>
       <c r="AD32">
+        <v>12.848000000000001</v>
+      </c>
+      <c r="AE32">
         <v>13.093999999999998</v>
       </c>
-      <c r="AE32">
-        <v>13.340000000000003</v>
-      </c>
       <c r="AF32">
-        <v>13.585999999999995</v>
+        <v>13.339999999999996</v>
       </c>
       <c r="AG32">
-        <v>13.831999999999997</v>
+        <v>13.586000000000006</v>
       </c>
       <c r="AH32">
-        <v>14.078000000000015</v>
+        <v>13.832000000000001</v>
       </c>
       <c r="AI32">
-        <v>14.323999999999998</v>
+        <v>14.077999999999999</v>
       </c>
       <c r="AJ32">
-        <v>14.570000000000004</v>
+        <v>14.324000000000007</v>
       </c>
       <c r="AK32">
-        <v>14.815999999999995</v>
+        <v>14.569999999999997</v>
       </c>
       <c r="AL32">
-        <v>15.061999999999998</v>
+        <v>14.815999999999999</v>
       </c>
       <c r="AM32">
-        <v>15.308000000000002</v>
+        <v>15.062000000000005</v>
       </c>
       <c r="AN32">
-        <v>15.554000000000006</v>
+        <v>15.308000000000003</v>
       </c>
       <c r="AO32">
+        <v>15.554000000000002</v>
+      </c>
+      <c r="AP32">
         <v>15.799999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ32">
+        <v>16.045999999999999</v>
+      </c>
+      <c r="AR32">
+        <v>16.292000000000009</v>
+      </c>
+      <c r="AS32">
+        <v>16.538000000000004</v>
+      </c>
+      <c r="AT32">
+        <v>16.784000000000002</v>
+      </c>
+      <c r="AU32">
+        <v>17.030000000000012</v>
+      </c>
+      <c r="AV32">
+        <v>17.276000000000003</v>
+      </c>
+      <c r="AW32">
+        <v>17.522000000000002</v>
+      </c>
+      <c r="AX32">
+        <v>17.768000000000008</v>
+      </c>
+      <c r="AY32">
+        <v>18.01400000000001</v>
+      </c>
+      <c r="AZ32">
+        <v>18.260000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>-3.7467095548234575E-2</v>
+        <v>-1.0470332007827632</v>
       </c>
       <c r="B33">
-        <v>-5.0096343775785868E-2</v>
+        <v>-3.7467095548232909E-2</v>
       </c>
       <c r="C33">
-        <v>-6.272559200333605E-2</v>
+        <v>-5.0096343775781427E-2</v>
       </c>
       <c r="D33">
-        <v>-7.5354840230886788E-2</v>
+        <v>-6.2725592003333941E-2</v>
       </c>
       <c r="E33">
-        <v>-8.7984088458438636E-2</v>
+        <v>-7.5354840230886677E-2</v>
       </c>
       <c r="F33">
-        <v>-0.10061333668598915</v>
+        <v>-8.7984088458435861E-2</v>
       </c>
       <c r="G33">
-        <v>-0.11324258491354</v>
+        <v>-0.10061333668598771</v>
       </c>
       <c r="H33">
-        <v>-0.12587183314109085</v>
+        <v>-0.11324258491353889</v>
       </c>
       <c r="I33">
-        <v>-0.13850108136864225</v>
+        <v>-0.12587183314108918</v>
       </c>
       <c r="J33">
-        <v>-0.1511303295961931</v>
+        <v>-0.13850108136864148</v>
       </c>
       <c r="K33">
-        <v>-0.16375957782374395</v>
+        <v>-0.15113032959619199</v>
       </c>
       <c r="L33">
-        <v>-0.17638882605129491</v>
+        <v>-0.16375957782374273</v>
       </c>
       <c r="M33">
-        <v>-0.18901807427884576</v>
+        <v>-0.17638882605129369</v>
       </c>
       <c r="N33">
-        <v>-0.20164732250639672</v>
+        <v>-0.18901807427884376</v>
       </c>
       <c r="O33">
-        <v>-0.21427657073394824</v>
+        <v>-0.20164732250639472</v>
       </c>
       <c r="P33">
-        <v>-0.22690581896149886</v>
+        <v>-0.21427657073394613</v>
       </c>
       <c r="Q33">
-        <v>-0.23953506718905027</v>
+        <v>-0.22690581896149642</v>
       </c>
       <c r="R33">
-        <v>-0.25216431541660111</v>
+        <v>-0.2395350671890476</v>
       </c>
       <c r="S33">
-        <v>-0.26479356364415163</v>
+        <v>-0.25216431541659878</v>
       </c>
       <c r="T33">
-        <v>-0.27742281187170248</v>
+        <v>-0.26479356364414885</v>
       </c>
       <c r="U33">
-        <v>-0.29005206009925422</v>
+        <v>-0.27742281187170004</v>
       </c>
       <c r="V33">
-        <v>-0.30268130832680418</v>
+        <v>-0.29005206009925166</v>
       </c>
       <c r="W33">
-        <v>-0.31531055655435569</v>
+        <v>-0.30268130832680262</v>
       </c>
       <c r="X33">
-        <v>-0.32793980478190687</v>
+        <v>-0.31531055655435358</v>
       </c>
       <c r="Y33">
-        <v>-0.34056905300945717</v>
+        <v>-0.32793980478190499</v>
       </c>
       <c r="Z33">
-        <v>-0.35319830123700835</v>
+        <v>-0.34056905300945617</v>
       </c>
       <c r="AA33">
-        <v>-0.36582754946455909</v>
+        <v>-0.35319830123700824</v>
       </c>
       <c r="AB33">
-        <v>-0.37845679769210983</v>
+        <v>-0.36582754946455898</v>
       </c>
       <c r="AC33">
-        <v>-0.39108604591966056</v>
+        <v>-0.37845679769210927</v>
       </c>
       <c r="AD33">
-        <v>-0.40371529414721219</v>
+        <v>-0.39108604591965956</v>
       </c>
       <c r="AE33">
-        <v>-0.41634454237476248</v>
+        <v>-0.40371529414721186</v>
       </c>
       <c r="AF33">
-        <v>-0.42897379060231422</v>
+        <v>-0.41634454237476104</v>
       </c>
       <c r="AG33">
-        <v>-0.44160303882986518</v>
+        <v>-0.42897379060231222</v>
       </c>
       <c r="AH33">
-        <v>-0.45423228705741636</v>
+        <v>-0.44160303882986318</v>
       </c>
       <c r="AI33">
-        <v>-0.46686153528496666</v>
+        <v>-0.45423228705741525</v>
       </c>
       <c r="AJ33">
-        <v>-0.4794907835125185</v>
+        <v>-0.4668615352849651</v>
       </c>
       <c r="AK33">
-        <v>-0.49212003174006824</v>
+        <v>-0.47949078351251606</v>
       </c>
       <c r="AL33">
-        <v>-0.50474927996762009</v>
+        <v>-0.49212003174006791</v>
       </c>
       <c r="AM33">
-        <v>-0.51737852819517105</v>
+        <v>-0.50474927996761887</v>
       </c>
       <c r="AN33">
-        <v>-0.53000777642272168</v>
+        <v>-0.51737852819516916</v>
       </c>
       <c r="AO33">
+        <v>-0.53000777642272079</v>
+      </c>
+      <c r="AP33">
         <v>-0.54263702465027308</v>
       </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AQ33">
+        <v>-0.55526627287782249</v>
+      </c>
+      <c r="AR33">
+        <v>-0.56789552110537345</v>
+      </c>
+      <c r="AS33">
+        <v>-0.58052476933292463</v>
+      </c>
+      <c r="AT33">
+        <v>-0.5931540175604747</v>
+      </c>
+      <c r="AU33">
+        <v>-0.60578326578802677</v>
+      </c>
+      <c r="AV33">
+        <v>-0.61841251401557618</v>
+      </c>
+      <c r="AW33">
+        <v>-0.63104176224312936</v>
+      </c>
+      <c r="AX33">
+        <v>-0.64367101047068009</v>
+      </c>
+      <c r="AY33">
+        <v>-0.65630025869822928</v>
+      </c>
+      <c r="AZ33">
+        <v>-0.66892950692578057</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>-0.69253568845146085</v>
+        <v>-14.554448215130906</v>
       </c>
       <c r="B34">
-        <v>-0.80742080270606231</v>
+        <v>-0.69253568845145952</v>
       </c>
       <c r="C34">
-        <v>-0.92230591696065889</v>
+        <v>-0.80742080270606142</v>
       </c>
       <c r="D34">
-        <v>-1.0371910312152608</v>
+        <v>-0.92230591696066155</v>
       </c>
       <c r="E34">
-        <v>-1.1520761454698578</v>
+        <v>-1.0371910312152568</v>
       </c>
       <c r="F34">
-        <v>-1.2669612597244606</v>
+        <v>-1.1520761454698609</v>
       </c>
       <c r="G34">
-        <v>-1.3818463739790607</v>
+        <v>-1.2669612597244633</v>
       </c>
       <c r="H34">
-        <v>-1.4967314882336658</v>
+        <v>-1.3818463739790692</v>
       </c>
       <c r="I34">
-        <v>-1.6116166024882619</v>
+        <v>-1.4967314882336662</v>
       </c>
       <c r="J34">
-        <v>-1.7265017167428682</v>
+        <v>-1.6116166024882588</v>
       </c>
       <c r="K34">
+        <v>-1.726501716742862</v>
+      </c>
+      <c r="L34">
         <v>-1.8413868309974613</v>
       </c>
-      <c r="L34">
-        <v>-1.9562719452520663</v>
-      </c>
       <c r="M34">
-        <v>-2.0711570595066644</v>
+        <v>-1.9562719452520689</v>
       </c>
       <c r="N34">
-        <v>-2.1860421737612632</v>
+        <v>-2.0711570595066653</v>
       </c>
       <c r="O34">
-        <v>-2.3009272880158669</v>
+        <v>-2.1860421737612787</v>
       </c>
       <c r="P34">
-        <v>-2.4158124022704706</v>
+        <v>-2.3009272880158629</v>
       </c>
       <c r="Q34">
-        <v>-2.5306975165250649</v>
+        <v>-2.4158124022704661</v>
       </c>
       <c r="R34">
-        <v>-2.6455826307796699</v>
+        <v>-2.5306975165250636</v>
       </c>
       <c r="S34">
-        <v>-2.7604677450342696</v>
+        <v>-2.6455826307796704</v>
       </c>
       <c r="T34">
-        <v>-2.8753528592888675</v>
+        <v>-2.7604677450342576</v>
       </c>
       <c r="U34">
-        <v>-2.9902379735434703</v>
+        <v>-2.8753528592888662</v>
       </c>
       <c r="V34">
-        <v>-3.1051230877980758</v>
+        <v>-2.9902379735434677</v>
       </c>
       <c r="W34">
-        <v>-3.2200082020526684</v>
+        <v>-3.1051230877980691</v>
       </c>
       <c r="X34">
-        <v>-3.334893316307268</v>
+        <v>-3.220008202052667</v>
       </c>
       <c r="Y34">
-        <v>-3.4497784305618708</v>
+        <v>-3.3348933163072685</v>
       </c>
       <c r="Z34">
-        <v>-3.5646635448164763</v>
+        <v>-3.4497784305618739</v>
       </c>
       <c r="AA34">
-        <v>-3.6795486590710733</v>
+        <v>-3.5646635448164647</v>
       </c>
       <c r="AB34">
-        <v>-3.7944337733256739</v>
+        <v>-3.6795486590710795</v>
       </c>
       <c r="AC34">
-        <v>-3.9093188875802807</v>
+        <v>-3.7944337733256779</v>
       </c>
       <c r="AD34">
-        <v>-4.0242040018348746</v>
+        <v>-3.9093188875802798</v>
       </c>
       <c r="AE34">
-        <v>-4.1390891160894689</v>
+        <v>-4.0242040018348701</v>
       </c>
       <c r="AF34">
-        <v>-4.2539742303440704</v>
+        <v>-4.1390891160894752</v>
       </c>
       <c r="AG34">
-        <v>-4.3688593445986754</v>
+        <v>-4.2539742303440731</v>
       </c>
       <c r="AH34">
-        <v>-4.483744458853276</v>
+        <v>-4.3688593445986816</v>
       </c>
       <c r="AI34">
-        <v>-4.5986295731078757</v>
+        <v>-4.4837444588532795</v>
       </c>
       <c r="AJ34">
-        <v>-4.7135146873624745</v>
+        <v>-4.598629573107881</v>
       </c>
       <c r="AK34">
-        <v>-4.8283998016170768</v>
+        <v>-4.7135146873624825</v>
       </c>
       <c r="AL34">
-        <v>-4.943284915871681</v>
+        <v>-4.8283998016170875</v>
       </c>
       <c r="AM34">
-        <v>-5.0581700301262797</v>
+        <v>-4.9432849158716818</v>
       </c>
       <c r="AN34">
-        <v>-5.1730551443808785</v>
+        <v>-5.0581700301262833</v>
       </c>
       <c r="AO34">
-        <v>-5.2879402586354809</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+        <v>-5.1730551443808812</v>
+      </c>
+      <c r="AP34">
+        <v>-5.2879402586354827</v>
+      </c>
+      <c r="AQ34">
+        <v>-5.4028253728900806</v>
+      </c>
+      <c r="AR34">
+        <v>-5.517710487144682</v>
+      </c>
+      <c r="AS34">
+        <v>-5.6325956013992871</v>
+      </c>
+      <c r="AT34">
+        <v>-5.7474807156538885</v>
+      </c>
+      <c r="AU34">
+        <v>-5.8623658299084829</v>
+      </c>
+      <c r="AV34">
+        <v>-5.9772509441630879</v>
+      </c>
+      <c r="AW34">
+        <v>-6.0921360584176911</v>
+      </c>
+      <c r="AX34">
+        <v>-6.2070211726722802</v>
+      </c>
+      <c r="AY34">
+        <v>-6.3219062869268923</v>
+      </c>
+      <c r="AZ34">
+        <v>-6.4367914011814884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>-0.80861314600437928</v>
+        <v>87.187247090907476</v>
       </c>
       <c r="B35">
-        <v>-0.54385413488103374</v>
+        <v>-0.80861314600425493</v>
       </c>
       <c r="C35">
-        <v>-0.27909512375768819</v>
+        <v>-0.54385413488116519</v>
       </c>
       <c r="D35">
-        <v>-1.4336112634292908E-2</v>
+        <v>-0.27909512375768464</v>
       </c>
       <c r="E35">
-        <v>0.2504228984890029</v>
+        <v>-1.4336112634189879E-2</v>
       </c>
       <c r="F35">
-        <v>0.5151819096122916</v>
+        <v>0.25042289848890698</v>
       </c>
       <c r="G35">
-        <v>0.77994092073569399</v>
+        <v>0.51518190961238752</v>
       </c>
       <c r="H35">
-        <v>1.044699931859068</v>
+        <v>0.77994092073576859</v>
       </c>
       <c r="I35">
-        <v>1.3094589429823567</v>
+        <v>1.0446999318590751</v>
       </c>
       <c r="J35">
-        <v>1.5742179541057022</v>
+        <v>1.3094589429824917</v>
       </c>
       <c r="K35">
-        <v>1.8389769652291046</v>
+        <v>1.5742179541057697</v>
       </c>
       <c r="L35">
-        <v>2.1037359763524002</v>
+        <v>1.8389769652290868</v>
       </c>
       <c r="M35">
-        <v>2.3684949874758239</v>
+        <v>2.1037359763524606</v>
       </c>
       <c r="N35">
-        <v>2.6332539985991623</v>
+        <v>2.368494987475831</v>
       </c>
       <c r="O35">
-        <v>2.8980130097225221</v>
+        <v>2.6332539985990948</v>
       </c>
       <c r="P35">
-        <v>3.1627720208458605</v>
+        <v>2.8980130097224688</v>
       </c>
       <c r="Q35">
-        <v>3.4275310319691492</v>
+        <v>3.1627720208458463</v>
       </c>
       <c r="R35">
-        <v>3.6922900430924948</v>
+        <v>3.4275310319693126</v>
       </c>
       <c r="S35">
-        <v>3.9570490542158971</v>
+        <v>3.6922900430925338</v>
       </c>
       <c r="T35">
-        <v>4.2218080653391858</v>
+        <v>3.9570490542157941</v>
       </c>
       <c r="U35">
-        <v>4.4865670764625669</v>
+        <v>4.2218080653392249</v>
       </c>
       <c r="V35">
-        <v>4.7513260875859338</v>
+        <v>4.486567076462542</v>
       </c>
       <c r="W35">
-        <v>5.0160850987092793</v>
+        <v>4.7513260875860013</v>
       </c>
       <c r="X35">
-        <v>5.2808441098325964</v>
+        <v>5.0160850987093468</v>
       </c>
       <c r="Y35">
-        <v>5.5456031209559136</v>
+        <v>5.2808441098326142</v>
       </c>
       <c r="Z35">
-        <v>5.810362132079316</v>
+        <v>5.5456031209560663</v>
       </c>
       <c r="AA35">
-        <v>6.0751211432026899</v>
+        <v>5.810362132079355</v>
       </c>
       <c r="AB35">
-        <v>6.339880154326007</v>
+        <v>6.0751211432027326</v>
       </c>
       <c r="AC35">
-        <v>6.6046391654493526</v>
+        <v>6.3398801543260177</v>
       </c>
       <c r="AD35">
-        <v>6.8693981765726413</v>
+        <v>6.6046391654493917</v>
       </c>
       <c r="AE35">
-        <v>7.1341571876960721</v>
+        <v>6.8693981765726804</v>
       </c>
       <c r="AF35">
-        <v>7.3989161988193892</v>
+        <v>7.1341571876959975</v>
       </c>
       <c r="AG35">
-        <v>7.6636752099427348</v>
+        <v>7.3989161988193146</v>
       </c>
       <c r="AH35">
-        <v>7.9284342210660022</v>
+        <v>7.6636752099426602</v>
       </c>
       <c r="AI35">
-        <v>8.1931932321893974</v>
+        <v>7.9284342210661194</v>
       </c>
       <c r="AJ35">
-        <v>8.457952243312743</v>
+        <v>8.1931932321893797</v>
       </c>
       <c r="AK35">
-        <v>8.7227112544361169</v>
+        <v>8.4579522433127252</v>
       </c>
       <c r="AL35">
-        <v>8.9874702655594341</v>
+        <v>8.7227112544360708</v>
       </c>
       <c r="AM35">
-        <v>9.2522292766828649</v>
+        <v>8.9874702655593879</v>
       </c>
       <c r="AN35">
-        <v>9.516988287806182</v>
+        <v>9.2522292766827903</v>
       </c>
       <c r="AO35">
-        <v>9.7817472989295275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+        <v>9.5169882878062104</v>
+      </c>
+      <c r="AP35">
+        <v>9.7817472989294636</v>
+      </c>
+      <c r="AQ35">
+        <v>10.046506310052884</v>
+      </c>
+      <c r="AR35">
+        <v>10.311265321176172</v>
+      </c>
+      <c r="AS35">
+        <v>10.576024332299603</v>
+      </c>
+      <c r="AT35">
+        <v>10.84078334342292</v>
+      </c>
+      <c r="AU35">
+        <v>11.105542354546266</v>
+      </c>
+      <c r="AV35">
+        <v>11.370301365669611</v>
+      </c>
+      <c r="AW35">
+        <v>11.635060376792964</v>
+      </c>
+      <c r="AX35">
+        <v>11.899819387916388</v>
+      </c>
+      <c r="AY35">
+        <v>12.164578399039744</v>
+      </c>
+      <c r="AZ35">
+        <v>12.429337410162994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>-27.593110997429545</v>
+        <v>-39.483515239477441</v>
       </c>
       <c r="B36">
-        <v>-27.707693163456678</v>
+        <v>-25.437940038494034</v>
       </c>
       <c r="C36">
-        <v>-27.822262479506367</v>
+        <v>-25.524995064250522</v>
       </c>
       <c r="D36">
-        <v>-27.936840796287466</v>
+        <v>-25.611946962729814</v>
       </c>
       <c r="E36">
-        <v>-28.051412161725747</v>
+        <v>-25.698798032214665</v>
       </c>
       <c r="F36">
-        <v>-28.165981891636534</v>
+        <v>-25.785547150157949</v>
       </c>
       <c r="G36">
-        <v>-28.280556772677453</v>
+        <v>-25.872196127880464</v>
       </c>
       <c r="H36">
-        <v>-28.395125527511226</v>
+        <v>-25.958743611687819</v>
       </c>
       <c r="I36">
-        <v>-28.509702294358139</v>
+        <v>-26.0451892997405</v>
       </c>
       <c r="J36">
-        <v>-28.624280162429038</v>
+        <v>-26.131534903796094</v>
       </c>
       <c r="K36">
-        <v>-28.738846085767992</v>
+        <v>-26.217779266810592</v>
       </c>
       <c r="L36">
-        <v>-28.853421279860697</v>
+        <v>-26.303923498478433</v>
       </c>
       <c r="M36">
-        <v>-28.968000721611858</v>
+        <v>-26.389965736440125</v>
       </c>
       <c r="N36">
-        <v>-29.082576401265097</v>
+        <v>-26.475909174127455</v>
       </c>
       <c r="O36">
-        <v>-29.197144455749999</v>
+        <v>-26.561751168937509</v>
       </c>
       <c r="P36">
-        <v>-29.311723740077621</v>
+        <v>-26.647493204471452</v>
       </c>
       <c r="Q36">
-        <v>-29.42628907158689</v>
+        <v>-26.733134454992335</v>
       </c>
       <c r="R36">
-        <v>-29.540871581204634</v>
+        <v>-26.818677213339814</v>
       </c>
       <c r="S36">
-        <v>-29.655451650963407</v>
+        <v>-26.904119540022808</v>
       </c>
       <c r="T36">
-        <v>-29.770016158642278</v>
+        <v>-26.989461757969302</v>
       </c>
       <c r="U36">
-        <v>-29.88460361511412</v>
+        <v>-27.074704765611813</v>
       </c>
       <c r="V36">
-        <v>-29.999172394192261</v>
+        <v>-27.159847131627824</v>
       </c>
       <c r="W36">
-        <v>-30.113738621765918</v>
+        <v>-27.244891579103236</v>
       </c>
       <c r="X36">
-        <v>-30.228309007212353</v>
+        <v>-27.329836033476084</v>
       </c>
       <c r="Y36">
-        <v>-30.342884602070463</v>
+        <v>-27.414680869416586</v>
       </c>
       <c r="Z36">
-        <v>-30.457461715384678</v>
+        <v>-27.499427076394145</v>
       </c>
       <c r="AA36">
-        <v>-30.572036363449417</v>
+        <v>-27.584074902387623</v>
       </c>
       <c r="AB36">
-        <v>-30.686604564099554</v>
+        <v>-27.668623302868244</v>
       </c>
       <c r="AC36">
-        <v>-30.801190511623659</v>
+        <v>-27.753073138601614</v>
       </c>
       <c r="AD36">
-        <v>-30.915750518581003</v>
+        <v>-27.837424357024709</v>
       </c>
       <c r="AE36">
-        <v>-31.030334934099667</v>
+        <v>-27.92167725488688</v>
       </c>
       <c r="AF36">
-        <v>-31.144915758248906</v>
+        <v>-28.005831283437111</v>
       </c>
       <c r="AG36">
-        <v>-31.259478944938351</v>
+        <v>-28.089887961941873</v>
       </c>
       <c r="AH36">
-        <v>-31.37405127557912</v>
+        <v>-28.173846122278846</v>
       </c>
       <c r="AI36">
-        <v>-31.488620751264122</v>
+        <v>-28.257705816835553</v>
       </c>
       <c r="AJ36">
-        <v>-31.60319997511785</v>
+        <v>-28.34146731553837</v>
       </c>
       <c r="AK36">
-        <v>-31.717776032344613</v>
+        <v>-28.425131507160508</v>
       </c>
       <c r="AL36">
-        <v>-31.832343563466068</v>
+        <v>-28.508698412703538</v>
       </c>
       <c r="AM36">
-        <v>-31.946921638314347</v>
+        <v>-28.592167392706671</v>
       </c>
       <c r="AN36">
-        <v>-32.061502936385445</v>
+        <v>-28.67553890487773</v>
       </c>
       <c r="AO36">
-        <v>-32.176067439438157</v>
+        <v>-28.758813287396833</v>
+      </c>
+      <c r="AP36">
+        <v>-28.841990157529306</v>
+      </c>
+      <c r="AQ36">
+        <v>-28.925069964618654</v>
+      </c>
+      <c r="AR36">
+        <v>-29.008052544342767</v>
+      </c>
+      <c r="AS36">
+        <v>-29.090938808950639</v>
+      </c>
+      <c r="AT36">
+        <v>-29.173727868871403</v>
+      </c>
+      <c r="AU36">
+        <v>-29.256420396890938</v>
+      </c>
+      <c r="AV36">
+        <v>-29.339016320445342</v>
+      </c>
+      <c r="AW36">
+        <v>-29.421515821126764</v>
+      </c>
+      <c r="AX36">
+        <v>-29.503919280376522</v>
+      </c>
+      <c r="AY36">
+        <v>-29.586226521110049</v>
+      </c>
+      <c r="AZ36">
+        <v>-29.668436858440806</v>
       </c>
     </row>
   </sheetData>
@@ -5029,7 +6250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A0F314-E559-44C3-898A-119F771470C7}">
   <dimension ref="A1:B213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B213"/>
     </sheetView>
   </sheetViews>
@@ -5048,7 +6269,7 @@
         <v>1967.25</v>
       </c>
       <c r="B2">
-        <v>2.7715465833434227</v>
+        <v>2.7038437211276189</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5056,7 +6277,7 @@
         <v>1967.5</v>
       </c>
       <c r="B3">
-        <v>3.1414628786908354</v>
+        <v>3.0588776864243439</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5064,7 +6285,7 @@
         <v>1967.75</v>
       </c>
       <c r="B4">
-        <v>3.0046649170041886</v>
+        <v>2.9501456194241937</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5072,7 +6293,7 @@
         <v>1968</v>
       </c>
       <c r="B5">
-        <v>3.1858750829817977</v>
+        <v>3.2323244856874211</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5080,7 +6301,7 @@
         <v>1968.25</v>
       </c>
       <c r="B6">
-        <v>3.3445178194997838</v>
+        <v>3.5141898932191218</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5088,7 +6309,7 @@
         <v>1968.5</v>
       </c>
       <c r="B7">
-        <v>3.5405845296055616</v>
+        <v>3.6521022459961472</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5096,7 +6317,7 @@
         <v>1968.75</v>
       </c>
       <c r="B8">
-        <v>3.6905413603379196</v>
+        <v>3.7669805316538296</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5104,7 +6325,7 @@
         <v>1969</v>
       </c>
       <c r="B9">
-        <v>3.5907412744826948</v>
+        <v>3.6438195150093167</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5112,7 +6333,7 @@
         <v>1969.25</v>
       </c>
       <c r="B10">
-        <v>3.8259565790892167</v>
+        <v>3.8288300815434217</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5120,7 +6341,7 @@
         <v>1969.5</v>
       </c>
       <c r="B11">
-        <v>4.0069477585149871</v>
+        <v>3.9953211850915382</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5128,7 +6349,7 @@
         <v>1969.75</v>
       </c>
       <c r="B12">
-        <v>4.2940726060137706</v>
+        <v>4.296136455851185</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5136,7 +6357,7 @@
         <v>1970</v>
       </c>
       <c r="B13">
-        <v>3.4973852298840584</v>
+        <v>3.4175634433796009</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5144,7 +6365,7 @@
         <v>1970.25</v>
       </c>
       <c r="B14">
-        <v>2.7735676843284707</v>
+        <v>2.7736414353058292</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5152,7 +6373,7 @@
         <v>1970.5</v>
       </c>
       <c r="B15">
-        <v>2.080723198581298</v>
+        <v>2.0651612461414226</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5160,7 +6381,7 @@
         <v>1970.75</v>
       </c>
       <c r="B16">
-        <v>0.89318751036567623</v>
+        <v>0.83922128276465724</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5168,7 +6389,7 @@
         <v>1971</v>
       </c>
       <c r="B17">
-        <v>1.4338272463377533</v>
+        <v>1.5226174045315677</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -5176,7 +6397,7 @@
         <v>1971.25</v>
       </c>
       <c r="B18">
-        <v>1.4127442694575867</v>
+        <v>1.5483180845035527</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5184,7 +6405,7 @@
         <v>1971.5</v>
       </c>
       <c r="B19">
-        <v>1.0971816248581912</v>
+        <v>1.0678166783832488</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5192,7 +6413,7 @@
         <v>1971.75</v>
       </c>
       <c r="B20">
-        <v>0.895440393521861</v>
+        <v>0.98269361068303862</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -5200,7 +6421,7 @@
         <v>1972</v>
       </c>
       <c r="B21">
-        <v>0.85795106419480038</v>
+        <v>0.79290318611828781</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5208,7 +6429,7 @@
         <v>1972.25</v>
       </c>
       <c r="B22">
-        <v>0.97093448909170554</v>
+        <v>1.066524901030208</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5216,7 +6437,7 @@
         <v>1972.5</v>
       </c>
       <c r="B23">
-        <v>0.93234290187514746</v>
+        <v>0.98686576558111305</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -5224,7 +6445,7 @@
         <v>1972.75</v>
       </c>
       <c r="B24">
-        <v>1.2279211050807444</v>
+        <v>1.3150813391661575</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -5232,7 +6453,7 @@
         <v>1973</v>
       </c>
       <c r="B25">
-        <v>2.3842397653379743</v>
+        <v>2.6108709059729174</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5240,7 +6461,7 @@
         <v>1973.25</v>
       </c>
       <c r="B26">
-        <v>2.8935613069013839</v>
+        <v>3.0975492985772846</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -5248,7 +6469,7 @@
         <v>1973.5</v>
       </c>
       <c r="B27">
-        <v>3.1448125076156157</v>
+        <v>3.2311624286672114</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -5256,7 +6477,7 @@
         <v>1973.75</v>
       </c>
       <c r="B28">
-        <v>3.0927874419941945</v>
+        <v>3.1695745976804357</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -5264,7 +6485,7 @@
         <v>1974</v>
       </c>
       <c r="B29">
-        <v>2.930519940911922</v>
+        <v>2.9077487277143543</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5272,7 +6493,7 @@
         <v>1974.25</v>
       </c>
       <c r="B30">
-        <v>2.8263052747025967</v>
+        <v>2.7021927914507859</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -5280,7 +6501,7 @@
         <v>1974.5</v>
       </c>
       <c r="B31">
-        <v>2.2904824126327479</v>
+        <v>2.1847885550002166</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -5288,7 +6509,7 @@
         <v>1974.75</v>
       </c>
       <c r="B32">
-        <v>0.38524644072939118</v>
+        <v>0.23571966408009182</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5296,7 +6517,7 @@
         <v>1975</v>
       </c>
       <c r="B33">
-        <v>-2.7633918218071942</v>
+        <v>-2.7410249607089376</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -5304,7 +6525,7 @@
         <v>1975.25</v>
       </c>
       <c r="B34">
-        <v>-3.7914644971149718</v>
+        <v>-3.7599174350313569</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -5312,7 +6533,7 @@
         <v>1975.5</v>
       </c>
       <c r="B35">
-        <v>-3.3238458117190004</v>
+        <v>-3.2236171339313224</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5320,7 +6541,7 @@
         <v>1975.75</v>
       </c>
       <c r="B36">
-        <v>-2.7433792296225343</v>
+        <v>-2.6900211129316287</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5328,7 +6549,7 @@
         <v>1976</v>
       </c>
       <c r="B37">
-        <v>-2.3676338400410337</v>
+        <v>-2.2088765706784863</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -5336,7 +6557,7 @@
         <v>1976.25</v>
       </c>
       <c r="B38">
-        <v>-1.9731548875929408</v>
+        <v>-1.8133567066693446</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5344,7 +6565,7 @@
         <v>1976.5</v>
       </c>
       <c r="B39">
-        <v>-2.2376011834783793</v>
+        <v>-2.2115604410741119</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5352,7 +6573,7 @@
         <v>1976.75</v>
       </c>
       <c r="B40">
-        <v>-2.5030349426405798</v>
+        <v>-2.4599161848979922</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -5360,7 +6581,7 @@
         <v>1977</v>
       </c>
       <c r="B41">
-        <v>-2.4714622372599075</v>
+        <v>-2.4865367301529662</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -5368,7 +6589,7 @@
         <v>1977.25</v>
       </c>
       <c r="B42">
-        <v>-1.851181120520518</v>
+        <v>-1.8310064548785809</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -5376,7 +6597,7 @@
         <v>1977.5</v>
       </c>
       <c r="B43">
-        <v>-1.426670925649884</v>
+        <v>-1.3369453018011401</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -5384,7 +6605,7 @@
         <v>1977.75</v>
       </c>
       <c r="B44">
-        <v>-0.69650841667379082</v>
+        <v>-0.68686961137148783</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5392,7 +6613,7 @@
         <v>1978</v>
       </c>
       <c r="B45">
-        <v>-0.46790188238184893</v>
+        <v>-0.49166785670995417</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5400,7 +6621,7 @@
         <v>1978.25</v>
       </c>
       <c r="B46">
-        <v>3.8238042904302216E-2</v>
+        <v>0.19687598347359891</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -5408,7 +6629,7 @@
         <v>1978.5</v>
       </c>
       <c r="B47">
-        <v>0.32565279086178756</v>
+        <v>0.49116927162680124</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -5416,7 +6637,7 @@
         <v>1978.75</v>
       </c>
       <c r="B48">
-        <v>0.66861974293708071</v>
+        <v>0.8323797191658544</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -5424,7 +6645,7 @@
         <v>1979</v>
       </c>
       <c r="B49">
-        <v>0.37847309813514329</v>
+        <v>0.61361147091156809</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -5432,7 +6653,7 @@
         <v>1979.25</v>
       </c>
       <c r="B50">
-        <v>0.64133913552431387</v>
+        <v>0.68630518164591869</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -5440,7 +6661,7 @@
         <v>1979.5</v>
       </c>
       <c r="B51">
-        <v>0.58795815618402958</v>
+        <v>0.68538025665614288</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -5448,7 +6669,7 @@
         <v>1979.75</v>
       </c>
       <c r="B52">
-        <v>0.29256061472304362</v>
+        <v>0.35357720216953048</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -5456,7 +6677,7 @@
         <v>1980</v>
       </c>
       <c r="B53">
-        <v>-0.22766183823389829</v>
+        <v>-0.17085660881349662</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -5464,7 +6685,7 @@
         <v>1980.25</v>
       </c>
       <c r="B54">
-        <v>-2.6939005693504265</v>
+        <v>-2.650304939717163</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -5472,7 +6693,7 @@
         <v>1980.5</v>
       </c>
       <c r="B55">
-        <v>-3.7819061405069951</v>
+        <v>-3.7390648090920631</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -5480,7 +6701,7 @@
         <v>1980.75</v>
       </c>
       <c r="B56">
-        <v>-2.4029882620045688</v>
+        <v>-2.3313397071954567</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -5488,7 +6709,7 @@
         <v>1981</v>
       </c>
       <c r="B57">
-        <v>-1.8339847145679076</v>
+        <v>-1.732261628568843</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -5496,7 +6717,7 @@
         <v>1981.25</v>
       </c>
       <c r="B58">
-        <v>-2.4233681179906084</v>
+        <v>-2.3044649776587267</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -5504,7 +6725,7 @@
         <v>1981.5</v>
       </c>
       <c r="B59">
-        <v>-2.3825184895189673</v>
+        <v>-2.2479233359932405</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -5512,7 +6733,7 @@
         <v>1981.75</v>
       </c>
       <c r="B60">
-        <v>-3.7627679860130856</v>
+        <v>-3.5783661354941043</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -5520,7 +6741,7 @@
         <v>1982</v>
       </c>
       <c r="B61">
-        <v>-4.4512022936191773</v>
+        <v>-4.4814317616967081</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -5528,7 +6749,7 @@
         <v>1982.25</v>
       </c>
       <c r="B62">
-        <v>-5.2785592701883672</v>
+        <v>-5.1487015524945834</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -5536,7 +6757,7 @@
         <v>1982.5</v>
       </c>
       <c r="B63">
-        <v>-6.6134715890324829</v>
+        <v>-6.4343351848406343</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -5544,7 +6765,7 @@
         <v>1982.75</v>
       </c>
       <c r="B64">
-        <v>-7.3823667102270498</v>
+        <v>-7.1600231723981551</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -5552,7 +6773,7 @@
         <v>1983</v>
       </c>
       <c r="B65">
-        <v>-6.0649960196572401</v>
+        <v>-5.8662051160739743</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -5560,7 +6781,7 @@
         <v>1983.25</v>
       </c>
       <c r="B66">
-        <v>-6.3025808499663114</v>
+        <v>-6.1131840976005991</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -5568,7 +6789,7 @@
         <v>1983.5</v>
       </c>
       <c r="B67">
-        <v>-5.1995030789602925</v>
+        <v>-5.0216146874080376</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -5576,7 +6797,7 @@
         <v>1983.75</v>
       </c>
       <c r="B68">
-        <v>-3.8555259431014912</v>
+        <v>-3.6667563778225998</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -5584,7 +6805,7 @@
         <v>1984</v>
       </c>
       <c r="B69">
-        <v>-3.4909600060314583</v>
+        <v>-3.3294949206672864</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -5592,7 +6813,7 @@
         <v>1984.25</v>
       </c>
       <c r="B70">
-        <v>-2.9929062079800572</v>
+        <v>-2.8581949864267098</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -5600,7 +6821,7 @@
         <v>1984.5</v>
       </c>
       <c r="B71">
-        <v>-3.4082666786803606</v>
+        <v>-3.3120159742180522</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -5608,7 +6829,7 @@
         <v>1984.75</v>
       </c>
       <c r="B72">
-        <v>-2.8913458770748233</v>
+        <v>-2.8158752955951716</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -5616,7 +6837,7 @@
         <v>1985</v>
       </c>
       <c r="B73">
-        <v>-2.4890016983468004</v>
+        <v>-2.4635030420659176</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -5624,7 +6845,7 @@
         <v>1985.25</v>
       </c>
       <c r="B74">
-        <v>-2.607585815011507</v>
+        <v>-2.6085411542798975</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -5632,7 +6853,7 @@
         <v>1985.5</v>
       </c>
       <c r="B75">
-        <v>-2.3992320110087184</v>
+        <v>-2.3383627134518914</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -5640,7 +6861,7 @@
         <v>1985.75</v>
       </c>
       <c r="B76">
-        <v>-2.2110875840596171</v>
+        <v>-2.1630442100998404</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -5648,7 +6869,7 @@
         <v>1986</v>
       </c>
       <c r="B77">
-        <v>-2.1467158672581963</v>
+        <v>-2.1370894970419219</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -5656,7 +6877,7 @@
         <v>1986.25</v>
       </c>
       <c r="B78">
-        <v>-2.2024027723485244</v>
+        <v>-2.209896902076125</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -5664,7 +6885,7 @@
         <v>1986.5</v>
       </c>
       <c r="B79">
-        <v>-2.2104196940617484</v>
+        <v>-2.2386511924453512</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -5672,7 +6893,7 @@
         <v>1986.75</v>
       </c>
       <c r="B80">
-        <v>-1.8789115305085047</v>
+        <v>-1.9116238189639145</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -5680,7 +6901,7 @@
         <v>1987</v>
       </c>
       <c r="B81">
-        <v>-1.0386446410584995</v>
+        <v>-1.1253149713274846</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -5688,7 +6909,7 @@
         <v>1987.25</v>
       </c>
       <c r="B82">
-        <v>-0.5990099911972443</v>
+        <v>-0.64587511380772566</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -5696,7 +6917,7 @@
         <v>1987.5</v>
       </c>
       <c r="B83">
-        <v>-0.20731480272891986</v>
+        <v>-0.27578731780225629</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -5704,7 +6925,7 @@
         <v>1987.75</v>
       </c>
       <c r="B84">
-        <v>0.34968972089929468</v>
+        <v>0.37867805421951672</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -5712,7 +6933,7 @@
         <v>1988</v>
       </c>
       <c r="B85">
-        <v>0.11268112248533418</v>
+        <v>0.13392056424150756</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -5720,7 +6941,7 @@
         <v>1988.25</v>
       </c>
       <c r="B86">
-        <v>0.29576760157238946</v>
+        <v>0.28412132539914481</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -5728,7 +6949,7 @@
         <v>1988.5</v>
       </c>
       <c r="B87">
-        <v>0.13757344051919995</v>
+        <v>0.13658093456423437</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -5736,7 +6957,7 @@
         <v>1988.75</v>
       </c>
       <c r="B88">
-        <v>0.62896024428218633</v>
+        <v>0.58096479829421455</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -5744,7 +6965,7 @@
         <v>1989</v>
       </c>
       <c r="B89">
-        <v>0.63104582861926095</v>
+        <v>0.63853406036256111</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -5752,7 +6973,7 @@
         <v>1989.25</v>
       </c>
       <c r="B90">
-        <v>0.5588093748996048</v>
+        <v>0.54592634512999894</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -5760,7 +6981,7 @@
         <v>1989.5</v>
       </c>
       <c r="B91">
-        <v>0.11667792223802063</v>
+        <v>0.15977161260878336</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -5768,7 +6989,7 @@
         <v>1989.75</v>
       </c>
       <c r="B92">
-        <v>-0.10802404091981149</v>
+        <v>-0.12869823196116625</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -5776,7 +6997,7 @@
         <v>1990</v>
       </c>
       <c r="B93">
-        <v>-3.992001781189599E-2</v>
+        <v>-5.5581690425021701E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -5784,7 +7005,7 @@
         <v>1990.25</v>
       </c>
       <c r="B94">
-        <v>9.6499330070334927E-2</v>
+        <v>0.1009578131156319</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -5792,7 +7013,7 @@
         <v>1990.5</v>
       </c>
       <c r="B95">
-        <v>0.51151255135727347</v>
+        <v>0.51463320134470525</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -5800,7 +7021,7 @@
         <v>1990.75</v>
       </c>
       <c r="B96">
-        <v>0.14090924869140592</v>
+        <v>0.17279365594089491</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -5808,7 +7029,7 @@
         <v>1991</v>
       </c>
       <c r="B97">
-        <v>-1.0216518421283882</v>
+        <v>-1.0850396327332423</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -5816,7 +7037,7 @@
         <v>1991.25</v>
       </c>
       <c r="B98">
-        <v>-1.3094165547620995</v>
+        <v>-1.2965233017658284</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -5824,7 +7045,7 @@
         <v>1991.5</v>
       </c>
       <c r="B99">
-        <v>-0.93533503588606504</v>
+        <v>-0.94793381944489052</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -5832,7 +7053,7 @@
         <v>1991.75</v>
       </c>
       <c r="B100">
-        <v>-0.64603125655989546</v>
+        <v>-0.61259747634887507</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -5840,7 +7061,7 @@
         <v>1992</v>
       </c>
       <c r="B101">
-        <v>-0.80780213361452313</v>
+        <v>-0.63721155162370646</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -5848,7 +7069,7 @@
         <v>1992.25</v>
       </c>
       <c r="B102">
-        <v>-1.0778245386961562</v>
+        <v>-0.93105791007350724</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -5856,7 +7077,7 @@
         <v>1992.5</v>
       </c>
       <c r="B103">
-        <v>-0.72874036626751915</v>
+        <v>-0.60028648300998189</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -5864,7 +7085,7 @@
         <v>1992.75</v>
       </c>
       <c r="B104">
-        <v>-0.61612701986087015</v>
+        <v>-0.53040429405103451</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -5872,7 +7093,7 @@
         <v>1993</v>
       </c>
       <c r="B105">
-        <v>0.10627530504997636</v>
+        <v>6.2933808139864489E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -5880,7 +7101,7 @@
         <v>1993.25</v>
       </c>
       <c r="B106">
-        <v>0.27558056516940427</v>
+        <v>0.18281532303696668</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -5888,7 +7109,7 @@
         <v>1993.5</v>
       </c>
       <c r="B107">
-        <v>0.76435159671574415</v>
+        <v>0.70232552335447451</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -5896,7 +7117,7 @@
         <v>1993.75</v>
       </c>
       <c r="B108">
-        <v>0.40890914070741385</v>
+        <v>0.33448994178635338</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -5904,7 +7125,7 @@
         <v>1994</v>
       </c>
       <c r="B109">
-        <v>-0.33584655819202858</v>
+        <v>-0.36364162331932182</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -5912,7 +7133,7 @@
         <v>1994.25</v>
       </c>
       <c r="B110">
-        <v>-6.2554538823231726E-2</v>
+        <v>-6.0033079864807437E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -5920,7 +7141,7 @@
         <v>1994.5</v>
       </c>
       <c r="B111">
-        <v>0.2698804285302403</v>
+        <v>0.28104219745048731</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -5928,7 +7149,7 @@
         <v>1994.75</v>
       </c>
       <c r="B112">
-        <v>0.41632321050190579</v>
+        <v>0.3888882229507562</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -5936,7 +7157,7 @@
         <v>1995</v>
       </c>
       <c r="B113">
-        <v>0.65338293468488395</v>
+        <v>0.62438931883987969</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -5944,7 +7165,7 @@
         <v>1995.25</v>
       </c>
       <c r="B114">
-        <v>0.22315004000425723</v>
+        <v>0.12337962513846445</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -5952,7 +7173,7 @@
         <v>1995.5</v>
       </c>
       <c r="B115">
-        <v>-0.14968133025131311</v>
+        <v>-0.1713172449600564</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -5960,7 +7181,7 @@
         <v>1995.75</v>
       </c>
       <c r="B116">
-        <v>-1.147374551795695E-2</v>
+        <v>-3.7110338047763314E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -5968,7 +7189,7 @@
         <v>1996</v>
       </c>
       <c r="B117">
-        <v>-0.15525002802549701</v>
+        <v>-0.15955763929068612</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -5976,7 +7197,7 @@
         <v>1996.25</v>
       </c>
       <c r="B118">
-        <v>-1.7870726986425618E-2</v>
+        <v>6.9410690361015881E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -5984,7 +7205,7 @@
         <v>1996.5</v>
       </c>
       <c r="B119">
-        <v>0.21264157266518879</v>
+        <v>0.28408192253575049</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -5992,7 +7213,7 @@
         <v>1996.75</v>
       </c>
       <c r="B120">
-        <v>2.6214238894478228E-2</v>
+        <v>6.280059787384662E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -6000,7 +7221,7 @@
         <v>1997</v>
       </c>
       <c r="B121">
-        <v>8.2012483647399298E-2</v>
+        <v>0.11094775555411385</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -6008,7 +7229,7 @@
         <v>1997.25</v>
       </c>
       <c r="B122">
-        <v>5.3351935373536587E-2</v>
+        <v>5.4072983030417632E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -6016,7 +7237,7 @@
         <v>1997.5</v>
       </c>
       <c r="B123">
-        <v>-0.13746079556745372</v>
+        <v>-0.11285439782240392</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -6024,7 +7245,7 @@
         <v>1997.75</v>
       </c>
       <c r="B124">
-        <v>0.21258622735161198</v>
+        <v>0.18142942088394953</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -6032,7 +7253,7 @@
         <v>1998</v>
       </c>
       <c r="B125">
-        <v>2.3998657070649285E-2</v>
+        <v>2.2023872289067548E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -6040,7 +7261,7 @@
         <v>1998.25</v>
       </c>
       <c r="B126">
-        <v>0.15505422169331998</v>
+        <v>0.12145357921429234</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -6048,7 +7269,7 @@
         <v>1998.5</v>
       </c>
       <c r="B127">
-        <v>0.28557601588320619</v>
+        <v>0.29521487951507108</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -6056,7 +7277,7 @@
         <v>1998.75</v>
       </c>
       <c r="B128">
-        <v>0.148432641409942</v>
+        <v>0.21257095000455362</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -6064,7 +7285,7 @@
         <v>1999</v>
       </c>
       <c r="B129">
-        <v>0.21425097326658729</v>
+        <v>0.27599774655169274</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -6072,7 +7293,7 @@
         <v>1999.25</v>
       </c>
       <c r="B130">
-        <v>0.42553248453450543</v>
+        <v>0.4321431550479149</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -6080,7 +7301,7 @@
         <v>1999.5</v>
       </c>
       <c r="B131">
-        <v>0.69361571198793448</v>
+        <v>0.71421733931429365</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -6088,7 +7309,7 @@
         <v>1999.75</v>
       </c>
       <c r="B132">
-        <v>0.8537402924444385</v>
+        <v>0.88952605131773499</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -6096,7 +7317,7 @@
         <v>2000</v>
       </c>
       <c r="B133">
-        <v>0.69587081745941914</v>
+        <v>0.6401458355687506</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -6104,7 +7325,7 @@
         <v>2000.25</v>
       </c>
       <c r="B134">
-        <v>0.93555942193764396</v>
+        <v>0.95004871554731363</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -6112,7 +7333,7 @@
         <v>2000.5</v>
       </c>
       <c r="B135">
-        <v>0.7777505081258298</v>
+        <v>0.78934217417636621</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -6120,7 +7341,7 @@
         <v>2000.75</v>
       </c>
       <c r="B136">
-        <v>0.78370243725571553</v>
+        <v>0.71383997574119284</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -6128,7 +7349,7 @@
         <v>2001</v>
       </c>
       <c r="B137">
-        <v>0.86453047649191606</v>
+        <v>0.8902484362690366</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -6136,7 +7357,7 @@
         <v>2001.25</v>
       </c>
       <c r="B138">
-        <v>0.64648274767343294</v>
+        <v>0.6368401377162769</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -6144,7 +7365,7 @@
         <v>2001.5</v>
       </c>
       <c r="B139">
-        <v>0.65239912967750002</v>
+        <v>0.69929538126218826</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -6152,7 +7373,7 @@
         <v>2001.75</v>
       </c>
       <c r="B140">
-        <v>-0.29460535956332889</v>
+        <v>-0.27025358167801494</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -6160,7 +7381,7 @@
         <v>2002</v>
       </c>
       <c r="B141">
-        <v>-0.88013401638017785</v>
+        <v>-0.80661687776840685</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -6168,7 +7389,7 @@
         <v>2002.25</v>
       </c>
       <c r="B142">
-        <v>-0.89199797097063271</v>
+        <v>-0.86563636953649326</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -6176,7 +7397,7 @@
         <v>2002.5</v>
       </c>
       <c r="B143">
-        <v>-7.9749193005411376E-2</v>
+        <v>-2.2858219925692147E-2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -6184,7 +7405,7 @@
         <v>2002.75</v>
       </c>
       <c r="B144">
-        <v>-4.2225047385595807E-2</v>
+        <v>7.682933628561095E-3</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -6192,7 +7413,7 @@
         <v>2003</v>
       </c>
       <c r="B145">
-        <v>0.26246338349094311</v>
+        <v>0.31997683531173049</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -6200,7 +7421,7 @@
         <v>2003.25</v>
       </c>
       <c r="B146">
-        <v>-0.85286515888421788</v>
+        <v>-0.76348444746607846</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -6208,7 +7429,7 @@
         <v>2003.5</v>
       </c>
       <c r="B147">
-        <v>-0.7265526156634512</v>
+        <v>-0.58032037920575652</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -6216,7 +7437,7 @@
         <v>2003.75</v>
       </c>
       <c r="B148">
-        <v>-0.14088992206045864</v>
+        <v>2.4068932618659389E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -6224,7 +7445,7 @@
         <v>2004</v>
       </c>
       <c r="B149">
-        <v>-7.6645347128713303E-3</v>
+        <v>4.268025582481183E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -6232,7 +7453,7 @@
         <v>2004.25</v>
       </c>
       <c r="B150">
-        <v>0.55661141713962925</v>
+        <v>0.59040398263625615</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -6240,7 +7461,7 @@
         <v>2004.5</v>
       </c>
       <c r="B151">
-        <v>0.58712927188456543</v>
+        <v>0.59130683211978674</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -6248,7 +7469,7 @@
         <v>2004.75</v>
       </c>
       <c r="B152">
-        <v>0.75317597838137473</v>
+        <v>0.72884609265109201</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -6256,7 +7477,7 @@
         <v>2005</v>
       </c>
       <c r="B153">
-        <v>0.96455603840657955</v>
+        <v>1.0010632349017667</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -6264,7 +7485,7 @@
         <v>2005.25</v>
       </c>
       <c r="B154">
-        <v>0.95662009307665508</v>
+        <v>0.96275720139347154</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -6272,7 +7493,7 @@
         <v>2005.5</v>
       </c>
       <c r="B155">
-        <v>1.3326738983604041</v>
+        <v>1.3488865478343603</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -6280,7 +7501,7 @@
         <v>2005.75</v>
       </c>
       <c r="B156">
-        <v>1.2117915820732474</v>
+        <v>1.2869593013758784</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -6288,7 +7509,7 @@
         <v>2006</v>
       </c>
       <c r="B157">
-        <v>1.5519579179876937</v>
+        <v>1.610674364687914</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -6296,7 +7517,7 @@
         <v>2006.25</v>
       </c>
       <c r="B158">
-        <v>1.9142227915017651</v>
+        <v>2.0029757522253888</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -6304,7 +7525,7 @@
         <v>2006.5</v>
       </c>
       <c r="B159">
-        <v>1.769499843734315</v>
+        <v>1.7752394357428924</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -6312,7 +7533,7 @@
         <v>2006.75</v>
       </c>
       <c r="B160">
-        <v>1.2752064575298634</v>
+        <v>1.3089430507448929</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -6320,7 +7541,7 @@
         <v>2007</v>
       </c>
       <c r="B161">
-        <v>1.2874305290608365</v>
+        <v>1.2553080550845364</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -6328,7 +7549,7 @@
         <v>2007.25</v>
       </c>
       <c r="B162">
-        <v>1.6837820301247006</v>
+        <v>1.6710081808292365</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -6336,7 +7557,7 @@
         <v>2007.5</v>
       </c>
       <c r="B163">
-        <v>1.7100466582157714</v>
+        <v>1.777388827752846</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -6344,7 +7565,7 @@
         <v>2007.75</v>
       </c>
       <c r="B164">
-        <v>1.8285212583105328</v>
+        <v>1.9196060500488832</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -6352,7 +7573,7 @@
         <v>2008</v>
       </c>
       <c r="B165">
-        <v>1.9294856971256815</v>
+        <v>1.9953795682936759</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -6360,7 +7581,7 @@
         <v>2008.25</v>
       </c>
       <c r="B166">
-        <v>2.4247191177892415</v>
+        <v>2.5789710458155257</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -6368,7 +7589,7 @@
         <v>2008.5</v>
       </c>
       <c r="B167">
-        <v>1.3459572650145948</v>
+        <v>1.4719786541516067</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -6376,7 +7597,7 @@
         <v>2008.75</v>
       </c>
       <c r="B168">
-        <v>-1.1554405490047861</v>
+        <v>-1.1692516688321497</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -6384,7 +7605,7 @@
         <v>2009</v>
       </c>
       <c r="B169">
-        <v>-3.4490453367015288</v>
+        <v>-3.3361504082932703</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -6392,7 +7613,7 @@
         <v>2009.25</v>
       </c>
       <c r="B170">
-        <v>-4.5560866216436144</v>
+        <v>-4.4190141725400256</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -6400,7 +7621,7 @@
         <v>2009.5</v>
       </c>
       <c r="B171">
-        <v>-4.0353882109893968</v>
+        <v>-3.9607732557631614</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -6408,7 +7629,7 @@
         <v>2009.75</v>
       </c>
       <c r="B172">
-        <v>-3.5854224015505465</v>
+        <v>-3.4544463246067636</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -6416,7 +7637,7 @@
         <v>2010</v>
       </c>
       <c r="B173">
-        <v>-3.5443561669001356</v>
+        <v>-3.449016549620354</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -6424,7 +7645,7 @@
         <v>2010.25</v>
       </c>
       <c r="B174">
-        <v>-2.9696945448609462</v>
+        <v>-2.9066293145788902</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -6432,7 +7653,7 @@
         <v>2010.5</v>
       </c>
       <c r="B175">
-        <v>-2.5900321803883606</v>
+        <v>-2.4818661907466733</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -6440,7 +7661,7 @@
         <v>2010.75</v>
       </c>
       <c r="B176">
-        <v>-2.2764750041243573</v>
+        <v>-2.2587951811875451</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -6448,7 +7669,7 @@
         <v>2011</v>
       </c>
       <c r="B177">
-        <v>-1.7000548960107542</v>
+        <v>-1.7571178968885715</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -6456,7 +7677,7 @@
         <v>2011.25</v>
       </c>
       <c r="B178">
-        <v>-1.5944917547995772</v>
+        <v>-1.6684947800795324</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -6464,7 +7685,7 @@
         <v>2011.5</v>
       </c>
       <c r="B179">
-        <v>-0.924070543740936</v>
+        <v>-0.99413964484879047</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -6472,7 +7693,7 @@
         <v>2011.75</v>
       </c>
       <c r="B180">
-        <v>-0.8356198124786971</v>
+        <v>-0.89761621314670137</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -6480,7 +7701,7 @@
         <v>2012</v>
       </c>
       <c r="B181">
-        <v>-1.0463104531026872</v>
+        <v>-1.0488008620080924</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -6488,7 +7709,7 @@
         <v>2012.25</v>
       </c>
       <c r="B182">
-        <v>-1.152872688583114</v>
+        <v>-1.2032442133797283</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -6496,7 +7717,7 @@
         <v>2012.5</v>
       </c>
       <c r="B183">
-        <v>-1.1617889044718346</v>
+        <v>-1.2216547850959936</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -6504,7 +7725,7 @@
         <v>2012.75</v>
       </c>
       <c r="B184">
-        <v>-0.96507237954980374</v>
+        <v>-1.060332058315816</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -6512,7 +7733,7 @@
         <v>2013</v>
       </c>
       <c r="B185">
-        <v>-0.46291291093169984</v>
+        <v>-0.54598629872802951</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -6520,7 +7741,7 @@
         <v>2013.25</v>
       </c>
       <c r="B186">
-        <v>-0.28579071612431289</v>
+        <v>-0.40550083781003554</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -6528,7 +7749,7 @@
         <v>2013.5</v>
       </c>
       <c r="B187">
-        <v>0.22492608597231467</v>
+        <v>0.13084459266827775</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -6536,7 +7757,7 @@
         <v>2013.75</v>
       </c>
       <c r="B188">
-        <v>0.78601056585036977</v>
+        <v>0.78521975442702452</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -6544,7 +7765,7 @@
         <v>2014</v>
       </c>
       <c r="B189">
-        <v>1.0517832362424311</v>
+        <v>0.94134072661513635</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -6552,7 +7773,7 @@
         <v>2014.25</v>
       </c>
       <c r="B190">
-        <v>1.5826634345678341</v>
+        <v>1.545081452771635</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -6560,7 +7781,7 @@
         <v>2014.5</v>
       </c>
       <c r="B191">
-        <v>1.7518700068712889</v>
+        <v>1.8025564970260533</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -6568,7 +7789,7 @@
         <v>2014.75</v>
       </c>
       <c r="B192">
-        <v>1.5390606896378398</v>
+        <v>1.4837636878292759</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -6576,7 +7797,7 @@
         <v>2015</v>
       </c>
       <c r="B193">
-        <v>1.3879001430292301</v>
+        <v>1.3800144439447992</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -6584,7 +7805,7 @@
         <v>2015.25</v>
       </c>
       <c r="B194">
-        <v>1.5233760459173955</v>
+        <v>1.4958440475967061</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -6592,7 +7813,7 @@
         <v>2015.5</v>
       </c>
       <c r="B195">
-        <v>1.7918914308084777</v>
+        <v>1.7193458990003574</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -6600,7 +7821,7 @@
         <v>2015.75</v>
       </c>
       <c r="B196">
-        <v>1.6587670533249004</v>
+        <v>1.5261768520349994</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -6608,7 +7829,7 @@
         <v>2016</v>
       </c>
       <c r="B197">
-        <v>1.7471512545914263</v>
+        <v>1.6227050639906038</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -6616,7 +7837,7 @@
         <v>2016.25</v>
       </c>
       <c r="B198">
-        <v>1.9465813510621768</v>
+        <v>1.8288604556965904</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -6624,7 +7845,7 @@
         <v>2016.5</v>
       </c>
       <c r="B199">
-        <v>2.3140556641351386</v>
+        <v>2.2153802067812478</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -6632,7 +7853,7 @@
         <v>2016.75</v>
       </c>
       <c r="B200">
-        <v>2.2469737045748164</v>
+        <v>2.1501279625514513</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -6640,7 +7861,7 @@
         <v>2017</v>
       </c>
       <c r="B201">
-        <v>2.4840694776140944</v>
+        <v>2.3926497156559146</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -6648,7 +7869,7 @@
         <v>2017.25</v>
       </c>
       <c r="B202">
-        <v>2.6707632924541715</v>
+        <v>2.5648982257926223</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -6656,7 +7877,7 @@
         <v>2017.5</v>
       </c>
       <c r="B203">
-        <v>2.8211791530119905</v>
+        <v>2.7478077590170846</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -6664,7 +7885,7 @@
         <v>2017.75</v>
       </c>
       <c r="B204">
-        <v>2.614663013589777</v>
+        <v>2.5606143310160867</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -6672,7 +7893,7 @@
         <v>2018</v>
       </c>
       <c r="B205">
-        <v>2.7231153903395251</v>
+        <v>2.6639354044386554</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -6680,7 +7901,7 @@
         <v>2018.25</v>
       </c>
       <c r="B206">
-        <v>2.7654284309812378</v>
+        <v>2.7203958998141209</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -6688,7 +7909,7 @@
         <v>2018.5</v>
       </c>
       <c r="B207">
-        <v>2.9831268183319732</v>
+        <v>2.9572161210325687</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -6696,7 +7917,7 @@
         <v>2018.75</v>
       </c>
       <c r="B208">
-        <v>2.8864483588682499</v>
+        <v>2.8203476634835134</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -6704,7 +7925,7 @@
         <v>2019</v>
       </c>
       <c r="B209">
-        <v>2.9732317568946605</v>
+        <v>2.9242280166212664</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -6712,7 +7933,7 @@
         <v>2019.25</v>
       </c>
       <c r="B210">
-        <v>2.946545380782263</v>
+        <v>2.9029758544653506</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -6720,7 +7941,7 @@
         <v>2019.5</v>
       </c>
       <c r="B211">
-        <v>3.3871451975348377</v>
+        <v>3.3375861878957691</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -6728,7 +7949,7 @@
         <v>2019.75</v>
       </c>
       <c r="B212">
-        <v>3.1112721741197742</v>
+        <v>3.0610512099172871</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -6736,7 +7957,7 @@
         <v>2020</v>
       </c>
       <c r="B213">
-        <v>-4.7294405331839204</v>
+        <v>-4.6498874013996101</v>
       </c>
     </row>
   </sheetData>

--- a/webpage.xlsx
+++ b/webpage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\Dropbox\Forschung\Ben&amp;James\MF_outputgap\MATLAB_Code\code_version_May2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\code_version_June2020_JoE_submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7665B5-D3EA-4ED8-A4FC-DE73B7A0C393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901613D4-0ACE-448F-9D50-F26E96285B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9924" yWindow="0" windowWidth="25764" windowHeight="15516" xr2:uid="{6D0754F8-999B-4D9A-AA10-941ACBDB15AB}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="38592" windowHeight="13812" xr2:uid="{6D0754F8-999B-4D9A-AA10-941ACBDB15AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746E03B0-5C22-4D75-8B3A-186AA2C1C665}">
   <dimension ref="A1:AZ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="W10" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,383 +1029,383 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>0.47999999999999987</v>
+      </c>
+      <c r="B4">
         <v>0.47999999999999954</v>
       </c>
-      <c r="B4">
-        <v>0.47999999999999932</v>
-      </c>
       <c r="C4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="D4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="E4">
         <v>0.47999999999999976</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="G4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="H4">
+        <v>0.48</v>
+      </c>
+      <c r="I4">
+        <v>0.48</v>
+      </c>
+      <c r="J4">
+        <v>0.47999999999999987</v>
+      </c>
+      <c r="K4">
+        <v>0.47999999999999965</v>
+      </c>
+      <c r="L4">
+        <v>0.47999999999999987</v>
+      </c>
+      <c r="M4">
+        <v>0.48</v>
+      </c>
+      <c r="N4">
+        <v>0.47999999999999987</v>
+      </c>
+      <c r="O4">
         <v>0.47999999999999976</v>
       </c>
-      <c r="E4">
-        <v>0.47999999999999932</v>
-      </c>
-      <c r="F4">
-        <v>0.47999999999999887</v>
-      </c>
-      <c r="G4">
-        <v>0.47999999999999976</v>
-      </c>
-      <c r="H4">
-        <v>0.47999999999999932</v>
-      </c>
-      <c r="I4">
-        <v>0.47999999999999932</v>
-      </c>
-      <c r="J4">
-        <v>0.47999999999999887</v>
-      </c>
-      <c r="K4">
+      <c r="P4">
+        <v>0.48</v>
+      </c>
+      <c r="Q4">
+        <v>0.48</v>
+      </c>
+      <c r="R4">
         <v>0.47999999999999954</v>
       </c>
-      <c r="L4">
-        <v>0.47999999999999976</v>
-      </c>
-      <c r="M4">
-        <v>0.47999999999999932</v>
-      </c>
-      <c r="N4">
-        <v>0.47999999999999954</v>
-      </c>
-      <c r="O4">
-        <v>0.47999999999999909</v>
-      </c>
-      <c r="P4">
-        <v>0.47999999999999976</v>
-      </c>
-      <c r="Q4">
-        <v>0.47999999999999887</v>
-      </c>
-      <c r="R4">
-        <v>0.47999999999999932</v>
-      </c>
       <c r="S4">
-        <v>0.47999999999999909</v>
+        <v>0.47999999999999965</v>
       </c>
       <c r="T4">
-        <v>0.47999999999999954</v>
+        <v>0.47999999999999943</v>
       </c>
       <c r="U4">
         <v>0.47999999999999954</v>
       </c>
       <c r="V4">
+        <v>0.47999999999999965</v>
+      </c>
+      <c r="W4">
+        <v>0.47999999999999965</v>
+      </c>
+      <c r="X4">
+        <v>0.48</v>
+      </c>
+      <c r="Y4">
+        <v>0.4800000000000002</v>
+      </c>
+      <c r="Z4">
         <v>0.47999999999999954</v>
       </c>
-      <c r="W4">
-        <v>0.47999999999999909</v>
-      </c>
-      <c r="X4">
-        <v>0.47999999999999909</v>
-      </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>0.48</v>
       </c>
-      <c r="Z4">
-        <v>0.47999999999999976</v>
-      </c>
-      <c r="AA4">
-        <v>0.48000000000000087</v>
-      </c>
       <c r="AB4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AC4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AD4">
+        <v>0.47999999999999965</v>
+      </c>
+      <c r="AE4">
+        <v>0.47999999999999965</v>
+      </c>
+      <c r="AF4">
+        <v>0.47999999999999987</v>
+      </c>
+      <c r="AG4">
         <v>0.48</v>
-      </c>
-      <c r="AC4">
-        <v>0.48</v>
-      </c>
-      <c r="AD4">
-        <v>0.47999999999999909</v>
-      </c>
-      <c r="AE4">
-        <v>0.47999999999999909</v>
-      </c>
-      <c r="AF4">
-        <v>0.47999999999999954</v>
-      </c>
-      <c r="AG4">
-        <v>0.47999999999999932</v>
       </c>
       <c r="AH4">
         <v>0.47999999999999954</v>
       </c>
       <c r="AI4">
-        <v>0.47999999999999932</v>
+        <v>0.47999999999999954</v>
       </c>
       <c r="AJ4">
-        <v>0.47999999999999932</v>
+        <v>0.47999999999999987</v>
       </c>
       <c r="AK4">
+        <v>0.48</v>
+      </c>
+      <c r="AL4">
+        <v>0.4800000000000002</v>
+      </c>
+      <c r="AM4">
         <v>0.47999999999999976</v>
-      </c>
-      <c r="AL4">
-        <v>0.48000000000000043</v>
-      </c>
-      <c r="AM4">
-        <v>0.47999999999999954</v>
       </c>
       <c r="AN4">
         <v>0.48</v>
       </c>
       <c r="AO4">
+        <v>0.47999999999999987</v>
+      </c>
+      <c r="AP4">
         <v>0.48</v>
       </c>
-      <c r="AP4">
-        <v>0.47999999999999909</v>
-      </c>
       <c r="AQ4">
+        <v>0.48</v>
+      </c>
+      <c r="AR4">
+        <v>0.47999999999999976</v>
+      </c>
+      <c r="AS4">
+        <v>0.47999999999999943</v>
+      </c>
+      <c r="AT4">
         <v>0.47999999999999954</v>
-      </c>
-      <c r="AR4">
-        <v>0.47999999999999954</v>
-      </c>
-      <c r="AS4">
-        <v>0.48000000000000043</v>
-      </c>
-      <c r="AT4">
-        <v>0.47999999999999932</v>
       </c>
       <c r="AU4">
         <v>0.47999999999999954</v>
       </c>
       <c r="AV4">
-        <v>0.4800000000000002</v>
+        <v>0.47999999999999954</v>
       </c>
       <c r="AW4">
         <v>0.47999999999999954</v>
       </c>
       <c r="AX4">
-        <v>0.47999999999999909</v>
+        <v>0.48</v>
       </c>
       <c r="AY4">
-        <v>0.47999999999999932</v>
+        <v>0.48</v>
       </c>
       <c r="AZ4">
-        <v>0.4800000000000002</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1.7000000000000008</v>
+        <v>1.7000000000000004</v>
       </c>
       <c r="B5">
-        <v>1.7000000000000013</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="C5">
-        <v>1.7000000000000011</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="D5">
-        <v>1.7000000000000011</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="E5">
-        <v>1.7000000000000013</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="F5">
-        <v>1.7000000000000011</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="G5">
-        <v>1.7000000000000011</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="H5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="I5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="J5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="K5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="L5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="M5">
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="N5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="O5">
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="P5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="R5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="S5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="T5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="U5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="V5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="W5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="X5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="Y5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="Z5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AA5">
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="AB5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AC5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AD5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AE5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AF5">
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="AG5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AH5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AI5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AJ5">
+        <v>1.7</v>
+      </c>
+      <c r="AK5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AL5">
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="AM5">
         <v>1.7000000000000006</v>
       </c>
-      <c r="I5">
+      <c r="AN5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AO5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AP5">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AQ5">
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="AR5">
         <v>1.7000000000000006</v>
       </c>
-      <c r="J5">
-        <v>1.7000000000000004</v>
-      </c>
-      <c r="K5">
-        <v>1.7000000000000013</v>
-      </c>
-      <c r="L5">
-        <v>1.7000000000000006</v>
-      </c>
-      <c r="M5">
-        <v>1.7000000000000013</v>
-      </c>
-      <c r="N5">
-        <v>1.7000000000000011</v>
-      </c>
-      <c r="O5">
-        <v>1.7000000000000011</v>
-      </c>
-      <c r="P5">
-        <v>1.7000000000000011</v>
-      </c>
-      <c r="Q5">
-        <v>1.7000000000000006</v>
-      </c>
-      <c r="R5">
-        <v>1.7000000000000006</v>
-      </c>
-      <c r="S5">
-        <v>1.7000000000000011</v>
-      </c>
-      <c r="T5">
-        <v>1.7000000000000008</v>
-      </c>
-      <c r="U5">
-        <v>1.7000000000000011</v>
-      </c>
-      <c r="V5">
-        <v>1.7000000000000006</v>
-      </c>
-      <c r="W5">
-        <v>1.7000000000000008</v>
-      </c>
-      <c r="X5">
-        <v>1.7000000000000008</v>
-      </c>
-      <c r="Y5">
-        <v>1.7000000000000004</v>
-      </c>
-      <c r="Z5">
-        <v>1.7000000000000013</v>
-      </c>
-      <c r="AA5">
-        <v>1.7000000000000011</v>
-      </c>
-      <c r="AB5">
-        <v>1.7000000000000011</v>
-      </c>
-      <c r="AC5">
-        <v>1.7000000000000011</v>
-      </c>
-      <c r="AD5">
-        <v>1.7000000000000008</v>
-      </c>
-      <c r="AE5">
-        <v>1.7000000000000008</v>
-      </c>
-      <c r="AF5">
-        <v>1.7000000000000011</v>
-      </c>
-      <c r="AG5">
-        <v>1.7000000000000011</v>
-      </c>
-      <c r="AH5">
-        <v>1.7000000000000011</v>
-      </c>
-      <c r="AI5">
-        <v>1.7000000000000013</v>
-      </c>
-      <c r="AJ5">
-        <v>1.7000000000000006</v>
-      </c>
-      <c r="AK5">
-        <v>1.7000000000000006</v>
-      </c>
-      <c r="AL5">
-        <v>1.7000000000000008</v>
-      </c>
-      <c r="AM5">
-        <v>1.7000000000000013</v>
-      </c>
-      <c r="AN5">
-        <v>1.7000000000000008</v>
-      </c>
-      <c r="AO5">
-        <v>1.7000000000000006</v>
-      </c>
-      <c r="AP5">
-        <v>1.7000000000000006</v>
-      </c>
-      <c r="AQ5">
-        <v>1.7000000000000011</v>
-      </c>
-      <c r="AR5">
-        <v>1.7000000000000011</v>
-      </c>
       <c r="AS5">
-        <v>1.7000000000000008</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="AT5">
-        <v>1.7000000000000013</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="AU5">
-        <v>1.7000000000000013</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="AV5">
-        <v>1.7000000000000013</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="AW5">
-        <v>1.7000000000000008</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="AX5">
-        <v>1.7000000000000011</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="AY5">
         <v>1.7000000000000002</v>
       </c>
       <c r="AZ5">
-        <v>1.7000000000000008</v>
+        <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11.94208388412515</v>
+        <v>11.94208388412514</v>
       </c>
       <c r="B6">
-        <v>11.942083884125147</v>
+        <v>11.942083884125143</v>
       </c>
       <c r="C6">
-        <v>11.942083884125143</v>
+        <v>11.942083884125145</v>
       </c>
       <c r="D6">
         <v>11.942083884125145</v>
       </c>
       <c r="E6">
+        <v>11.942083884125143</v>
+      </c>
+      <c r="F6">
+        <v>11.942083884125143</v>
+      </c>
+      <c r="G6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="H6">
+        <v>11.942083884125143</v>
+      </c>
+      <c r="I6">
         <v>11.942083884125147</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <v>11.942083884125145</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>11.942083884125143</v>
       </c>
-      <c r="H6">
-        <v>11.94208388412515</v>
-      </c>
-      <c r="I6">
-        <v>11.942083884125138</v>
-      </c>
-      <c r="J6">
-        <v>11.942083884125147</v>
-      </c>
-      <c r="K6">
-        <v>11.942083884125147</v>
-      </c>
       <c r="L6">
-        <v>11.942083884125147</v>
+        <v>11.942083884125145</v>
       </c>
       <c r="M6">
-        <v>11.94208388412514</v>
+        <v>11.942083884125145</v>
       </c>
       <c r="N6">
         <v>11.942083884125143</v>
       </c>
       <c r="O6">
-        <v>11.942083884125143</v>
+        <v>11.94208388412514</v>
       </c>
       <c r="P6">
-        <v>11.942083884125143</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="Q6">
-        <v>11.942083884125148</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="R6">
         <v>11.942083884125147</v>
       </c>
       <c r="S6">
+        <v>11.942083884125143</v>
+      </c>
+      <c r="T6">
         <v>11.942083884125147</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>11.942083884125145</v>
-      </c>
-      <c r="U6">
-        <v>11.942083884125147</v>
       </c>
       <c r="V6">
         <v>11.942083884125145</v>
@@ -1417,70 +1417,70 @@
         <v>11.942083884125147</v>
       </c>
       <c r="Y6">
-        <v>11.942083884125152</v>
+        <v>11.942083884125143</v>
       </c>
       <c r="Z6">
-        <v>11.942083884125148</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="AA6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="AB6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="AC6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="AD6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="AE6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="AF6">
+        <v>11.942083884125143</v>
+      </c>
+      <c r="AG6">
         <v>11.942083884125141</v>
       </c>
-      <c r="AB6">
-        <v>11.942083884125136</v>
-      </c>
-      <c r="AC6">
-        <v>11.942083884125148</v>
-      </c>
-      <c r="AD6">
+      <c r="AH6">
         <v>11.942083884125143</v>
       </c>
-      <c r="AE6">
-        <v>11.942083884125141</v>
-      </c>
-      <c r="AF6">
-        <v>11.942083884125148</v>
-      </c>
-      <c r="AG6">
-        <v>11.942083884125145</v>
-      </c>
-      <c r="AH6">
+      <c r="AI6">
+        <v>11.942083884125143</v>
+      </c>
+      <c r="AJ6">
         <v>11.942083884125147</v>
-      </c>
-      <c r="AI6">
-        <v>11.942083884125147</v>
-      </c>
-      <c r="AJ6">
-        <v>11.942083884125145</v>
       </c>
       <c r="AK6">
         <v>11.942083884125147</v>
       </c>
       <c r="AL6">
+        <v>11.942083884125143</v>
+      </c>
+      <c r="AM6">
+        <v>11.942083884125141</v>
+      </c>
+      <c r="AN6">
         <v>11.942083884125147</v>
       </c>
-      <c r="AM6">
-        <v>11.942083884125147</v>
-      </c>
-      <c r="AN6">
+      <c r="AO6">
+        <v>11.94208388412515</v>
+      </c>
+      <c r="AP6">
+        <v>11.942083884125143</v>
+      </c>
+      <c r="AQ6">
+        <v>11.942083884125143</v>
+      </c>
+      <c r="AR6">
         <v>11.942083884125141</v>
-      </c>
-      <c r="AO6">
-        <v>11.942083884125145</v>
-      </c>
-      <c r="AP6">
-        <v>11.942083884125147</v>
-      </c>
-      <c r="AQ6">
-        <v>11.942083884125147</v>
-      </c>
-      <c r="AR6">
-        <v>11.942083884125145</v>
       </c>
       <c r="AS6">
         <v>11.942083884125145</v>
       </c>
       <c r="AT6">
-        <v>11.942083884125145</v>
+        <v>11.942083884125143</v>
       </c>
       <c r="AU6">
         <v>11.942083884125143</v>
@@ -1489,21 +1489,21 @@
         <v>11.942083884125147</v>
       </c>
       <c r="AW6">
+        <v>11.942083884125143</v>
+      </c>
+      <c r="AX6">
+        <v>11.942083884125147</v>
+      </c>
+      <c r="AY6">
+        <v>11.942083884125143</v>
+      </c>
+      <c r="AZ6">
         <v>11.942083884125141</v>
-      </c>
-      <c r="AX6">
-        <v>11.942083884125145</v>
-      </c>
-      <c r="AY6">
-        <v>11.942083884125148</v>
-      </c>
-      <c r="AZ6">
-        <v>11.942083884125143</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="B7">
         <v>71.799999999999983</v>
@@ -1515,97 +1515,97 @@
         <v>71.8</v>
       </c>
       <c r="E7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="F7">
         <v>71.799999999999983</v>
       </c>
       <c r="G7">
-        <v>71.800000000000011</v>
+        <v>71.8</v>
       </c>
       <c r="H7">
         <v>71.799999999999983</v>
       </c>
       <c r="I7">
-        <v>71.79999999999994</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="J7">
-        <v>71.800000000000324</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="K7">
+        <v>71.8</v>
+      </c>
+      <c r="L7">
         <v>71.799999999999983</v>
       </c>
-      <c r="L7">
-        <v>71.799999999999798</v>
-      </c>
       <c r="M7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="N7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="O7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="P7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="Q7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="R7">
         <v>71.8</v>
       </c>
-      <c r="N7">
-        <v>71.799999999999869</v>
-      </c>
-      <c r="O7">
+      <c r="S7">
         <v>71.8</v>
-      </c>
-      <c r="P7">
-        <v>71.8</v>
-      </c>
-      <c r="Q7">
-        <v>71.8</v>
-      </c>
-      <c r="R7">
-        <v>71.799999999999926</v>
-      </c>
-      <c r="S7">
-        <v>71.799999999999983</v>
       </c>
       <c r="T7">
         <v>71.799999999999983</v>
       </c>
       <c r="U7">
-        <v>71.800000000000011</v>
+        <v>71.8</v>
       </c>
       <c r="V7">
         <v>71.799999999999983</v>
       </c>
       <c r="W7">
-        <v>71.799999999999983</v>
+        <v>71.8</v>
       </c>
       <c r="X7">
         <v>71.799999999999983</v>
       </c>
       <c r="Y7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="Z7">
         <v>71.8</v>
-      </c>
-      <c r="Z7">
-        <v>71.800000000000011</v>
       </c>
       <c r="AA7">
         <v>71.799999999999983</v>
       </c>
       <c r="AB7">
-        <v>71.800000000000111</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AC7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AD7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AE7">
-        <v>71.800000000000196</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AF7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AG7">
         <v>71.799999999999983</v>
       </c>
       <c r="AH7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="AI7">
         <v>71.8</v>
-      </c>
-      <c r="AI7">
-        <v>71.799999999999983</v>
       </c>
       <c r="AJ7">
         <v>71.799999999999983</v>
@@ -1620,22 +1620,22 @@
         <v>71.799999999999983</v>
       </c>
       <c r="AN7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="AO7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="AP7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="AQ7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="AR7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="AS7">
         <v>71.8</v>
-      </c>
-      <c r="AO7">
-        <v>71.80000000000004</v>
-      </c>
-      <c r="AP7">
-        <v>71.799999999999784</v>
-      </c>
-      <c r="AQ7">
-        <v>71.8</v>
-      </c>
-      <c r="AR7">
-        <v>71.8</v>
-      </c>
-      <c r="AS7">
-        <v>71.799999999999983</v>
       </c>
       <c r="AT7">
         <v>71.799999999999983</v>
@@ -1644,490 +1644,490 @@
         <v>71.8</v>
       </c>
       <c r="AV7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AW7">
-        <v>71.799999999999955</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AX7">
         <v>71.799999999999983</v>
       </c>
       <c r="AY7">
-        <v>71.800000000000097</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AZ7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="B8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="C8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="D8">
-        <v>5033.2499999999982</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="E8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="F8">
-        <v>5033.2499999999982</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="G8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="H8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="I8">
-        <v>5033.2499999999982</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="J8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="K8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="L8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="M8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="N8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="O8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="P8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="Q8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="R8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="S8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="T8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="U8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="V8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="W8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="X8">
-        <v>5033.25</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="Y8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="Z8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AA8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AB8">
-        <v>5033.25</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AC8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AD8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AE8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AF8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AG8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AH8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AI8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AJ8">
-        <v>5033.25</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AK8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AL8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AM8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AN8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AO8">
-        <v>5033.25</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AP8">
-        <v>5033.25</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AQ8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AR8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AS8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AT8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AU8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AV8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AW8">
-        <v>5033.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AX8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AY8">
-        <v>5033.25</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AZ8">
-        <v>5033.2499999999991</v>
+        <v>5040.2499999999991</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="B9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="C9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="D9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="E9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="F9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="G9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="H9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="I9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="J9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="K9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="L9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="M9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="N9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="O9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="P9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="Q9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="R9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="S9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="T9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="U9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="V9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="W9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="X9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="Y9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="Z9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AA9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AB9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AC9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AD9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AE9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AF9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AG9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AH9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AI9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AJ9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AK9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AL9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AM9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AN9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AO9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AP9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AQ9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AR9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AS9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AT9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AU9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AV9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AW9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AX9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AY9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
       <c r="AZ9">
-        <v>-20714</v>
+        <v>-20687</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>14.699999999999998</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="B10">
-        <v>14.699999999999998</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="C10">
-        <v>14.699999999999996</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="D10">
-        <v>14.699999999999994</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="E10">
-        <v>14.699999999999998</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="F10">
-        <v>14.699999999999996</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="G10">
-        <v>14.699999999999996</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="H10">
-        <v>14.699999999999996</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="I10">
-        <v>14.699999999999996</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="J10">
-        <v>14.699999999999996</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="K10">
-        <v>14.699999999999998</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="L10">
-        <v>14.7</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="M10">
-        <v>14.699999999999992</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="N10">
-        <v>14.699999999999996</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="O10">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="P10">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="Q10">
         <v>14.700000000000003</v>
       </c>
-      <c r="P10">
-        <v>14.699999999999998</v>
-      </c>
-      <c r="Q10">
-        <v>14.699999999999998</v>
-      </c>
       <c r="R10">
-        <v>14.7</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="S10">
-        <v>14.699999999999996</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="T10">
-        <v>14.7</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="U10">
-        <v>14.699999999999996</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="V10">
-        <v>14.699999999999996</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="W10">
-        <v>14.7</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="X10">
         <v>14.700000000000001</v>
       </c>
       <c r="Y10">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="Z10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AA10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AB10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AC10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AD10">
         <v>14.7</v>
       </c>
-      <c r="Z10">
-        <v>14.699999999999998</v>
-      </c>
-      <c r="AA10">
+      <c r="AE10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AF10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AG10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AH10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AI10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AJ10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AK10">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="AL10">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="AM10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AN10">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="AO10">
         <v>14.7</v>
       </c>
-      <c r="AB10">
+      <c r="AP10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AQ10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AR10">
         <v>14.700000000000001</v>
       </c>
-      <c r="AC10">
-        <v>14.7</v>
-      </c>
-      <c r="AD10">
+      <c r="AS10">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="AT10">
         <v>14.700000000000003</v>
-      </c>
-      <c r="AE10">
-        <v>14.699999999999998</v>
-      </c>
-      <c r="AF10">
-        <v>14.700000000000001</v>
-      </c>
-      <c r="AG10">
-        <v>14.700000000000001</v>
-      </c>
-      <c r="AH10">
-        <v>14.699999999999996</v>
-      </c>
-      <c r="AI10">
-        <v>14.699999999999998</v>
-      </c>
-      <c r="AJ10">
-        <v>14.7</v>
-      </c>
-      <c r="AK10">
-        <v>14.7</v>
-      </c>
-      <c r="AL10">
-        <v>14.7</v>
-      </c>
-      <c r="AM10">
-        <v>14.699999999999996</v>
-      </c>
-      <c r="AN10">
-        <v>14.7</v>
-      </c>
-      <c r="AO10">
-        <v>14.699999999999996</v>
-      </c>
-      <c r="AP10">
-        <v>14.699999999999996</v>
-      </c>
-      <c r="AQ10">
-        <v>14.700000000000001</v>
-      </c>
-      <c r="AR10">
-        <v>14.699999999999996</v>
-      </c>
-      <c r="AS10">
-        <v>14.699999999999998</v>
-      </c>
-      <c r="AT10">
-        <v>14.699999999999998</v>
       </c>
       <c r="AU10">
         <v>14.700000000000003</v>
       </c>
       <c r="AV10">
-        <v>14.7</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="AW10">
-        <v>14.699999999999996</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="AX10">
-        <v>14.7</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="AY10">
-        <v>14.699999999999992</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="AZ10">
         <v>14.700000000000001</v>
@@ -2135,481 +2135,481 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-0.79828390957610174</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="B11">
-        <v>-0.7982839095761024</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="C11">
-        <v>-0.7982839095761024</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="D11">
-        <v>-0.7982839095761024</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="E11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="F11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="G11">
+        <v>-0.79828390957610285</v>
+      </c>
+      <c r="H11">
+        <v>-0.79828390957610285</v>
+      </c>
+      <c r="I11">
+        <v>-0.79828390957610285</v>
+      </c>
+      <c r="J11">
+        <v>-0.79828390957610285</v>
+      </c>
+      <c r="K11">
+        <v>-0.79828390957610285</v>
+      </c>
+      <c r="L11">
+        <v>-0.79828390957610285</v>
+      </c>
+      <c r="M11">
+        <v>-0.79828390957610107</v>
+      </c>
+      <c r="N11">
+        <v>-0.79828390957610285</v>
+      </c>
+      <c r="O11">
+        <v>-0.79828390957610285</v>
+      </c>
+      <c r="P11">
+        <v>-0.79828390957610285</v>
+      </c>
+      <c r="Q11">
+        <v>-0.79828390957610285</v>
+      </c>
+      <c r="R11">
         <v>-0.79828390957610262</v>
       </c>
-      <c r="H11">
-        <v>-0.7982839095761024</v>
-      </c>
-      <c r="I11">
-        <v>-0.79828390957604822</v>
-      </c>
-      <c r="J11">
-        <v>-0.79828390957615081</v>
-      </c>
-      <c r="K11">
-        <v>-0.79828390957610196</v>
-      </c>
-      <c r="L11">
-        <v>-0.79828390957604489</v>
-      </c>
-      <c r="M11">
-        <v>-0.7982839095761024</v>
-      </c>
-      <c r="N11">
-        <v>-0.79828390957610462</v>
-      </c>
-      <c r="O11">
-        <v>-0.79828390957610196</v>
-      </c>
-      <c r="P11">
-        <v>-0.79828390957610196</v>
-      </c>
-      <c r="Q11">
-        <v>-0.79828390957610196</v>
-      </c>
-      <c r="R11">
-        <v>-0.79828390957617057</v>
-      </c>
       <c r="S11">
-        <v>-0.79828390957610218</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="T11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="U11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="V11">
         <v>-0.79828390957610285</v>
       </c>
       <c r="W11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610262</v>
       </c>
       <c r="X11">
-        <v>-0.7982839095761024</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="Y11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="Z11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AA11">
-        <v>-0.79828390957610218</v>
+        <v>-0.79828390957610373</v>
       </c>
       <c r="AB11">
-        <v>-0.79828390957613371</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AC11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AD11">
-        <v>-0.7982839095761024</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AE11">
-        <v>-0.79828390957616457</v>
+        <v>-0.79828390957610373</v>
       </c>
       <c r="AF11">
-        <v>-0.7982839095761024</v>
+        <v>-0.79828390957610307</v>
       </c>
       <c r="AG11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AH11">
-        <v>-0.79828390957610174</v>
+        <v>-0.79828390957610373</v>
       </c>
       <c r="AI11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AJ11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610351</v>
       </c>
       <c r="AK11">
-        <v>-0.7982839095761024</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AL11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AM11">
-        <v>-0.79828390957610218</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AN11">
-        <v>-0.79828390957610174</v>
+        <v>-0.79828390957610373</v>
       </c>
       <c r="AO11">
-        <v>-0.79828390957608597</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AP11">
-        <v>-0.79828390957612083</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AQ11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AR11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AS11">
         <v>-0.79828390957610285</v>
       </c>
       <c r="AT11">
-        <v>-0.7982839095761024</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AU11">
-        <v>-0.7982839095761024</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AV11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AW11">
-        <v>-0.79828390957612372</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AX11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AY11">
-        <v>-0.79828390957610018</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AZ11">
-        <v>-0.79828390957610196</v>
+        <v>-0.79828390957610285</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-11.294841159678445</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="B12">
-        <v>-11.294841159678441</v>
+        <v>-13.356562649581967</v>
       </c>
       <c r="C12">
-        <v>-11.294841159678445</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="D12">
-        <v>-11.294841159678445</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="E12">
-        <v>-11.294841159678441</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="F12">
-        <v>-11.294841159678434</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="G12">
-        <v>-11.294841159678448</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="H12">
-        <v>-11.294841159678448</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="I12">
-        <v>-11.29484115967843</v>
+        <v>-13.356562649581962</v>
       </c>
       <c r="J12">
-        <v>-11.294841159678441</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="K12">
-        <v>-11.294841159678441</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="L12">
-        <v>-11.294841159678455</v>
+        <v>-13.356562649581958</v>
       </c>
       <c r="M12">
-        <v>-11.294841159678462</v>
+        <v>-13.356562649581964</v>
       </c>
       <c r="N12">
-        <v>-11.294841159678434</v>
+        <v>-13.356562649581956</v>
       </c>
       <c r="O12">
-        <v>-11.294841159678445</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="P12">
-        <v>-11.294841159678437</v>
+        <v>-13.356562649581956</v>
       </c>
       <c r="Q12">
-        <v>-11.294841159678441</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="R12">
-        <v>-11.294841159678455</v>
+        <v>-13.356562649581965</v>
       </c>
       <c r="S12">
-        <v>-11.294841159678448</v>
+        <v>-13.356562649581956</v>
       </c>
       <c r="T12">
-        <v>-11.294841159678448</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="U12">
-        <v>-11.294841159678437</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="V12">
-        <v>-11.294841159678455</v>
+        <v>-13.356562649581946</v>
       </c>
       <c r="W12">
-        <v>-11.294841159678441</v>
+        <v>-13.356562649581956</v>
       </c>
       <c r="X12">
-        <v>-11.294841159678441</v>
+        <v>-13.356562649581946</v>
       </c>
       <c r="Y12">
-        <v>-11.294841159678448</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="Z12">
-        <v>-11.294841159678441</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="AA12">
-        <v>-11.294841159678445</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="AB12">
-        <v>-11.294841159678437</v>
+        <v>-13.356562649581962</v>
       </c>
       <c r="AC12">
-        <v>-11.294841159678437</v>
+        <v>-13.356562649581967</v>
       </c>
       <c r="AD12">
-        <v>-11.294841159678448</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="AE12">
-        <v>-11.294841159678441</v>
+        <v>-13.356562649581956</v>
       </c>
       <c r="AF12">
-        <v>-11.294841159678445</v>
+        <v>-13.356562649581946</v>
       </c>
       <c r="AG12">
-        <v>-11.294841159678448</v>
+        <v>-13.356562649581955</v>
       </c>
       <c r="AH12">
-        <v>-11.294841159678445</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="AI12">
-        <v>-11.294841159678441</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="AJ12">
-        <v>-11.294841159678441</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="AK12">
-        <v>-11.294841159678455</v>
+        <v>-13.356562649581946</v>
       </c>
       <c r="AL12">
-        <v>-11.294841159678445</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="AM12">
-        <v>-11.294841159678448</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="AN12">
-        <v>-11.294841159678455</v>
+        <v>-13.356562649581964</v>
       </c>
       <c r="AO12">
-        <v>-11.29484115967843</v>
+        <v>-13.356562649581948</v>
       </c>
       <c r="AP12">
-        <v>-11.294841159678437</v>
+        <v>-13.356562649581949</v>
       </c>
       <c r="AQ12">
-        <v>-11.294841159678437</v>
+        <v>-13.356562649581942</v>
       </c>
       <c r="AR12">
-        <v>-11.294841159678445</v>
+        <v>-13.356562649581956</v>
       </c>
       <c r="AS12">
-        <v>-11.294841159678437</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="AT12">
-        <v>-11.294841159678448</v>
+        <v>-13.356562649581964</v>
       </c>
       <c r="AU12">
-        <v>-11.294841159678448</v>
+        <v>-13.356562649581951</v>
       </c>
       <c r="AV12">
-        <v>-11.294841159678445</v>
+        <v>-13.356562649581956</v>
       </c>
       <c r="AW12">
-        <v>-11.294841159678437</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="AX12">
-        <v>-11.294841159678441</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="AY12">
-        <v>-11.29484115967843</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="AZ12">
-        <v>-11.294841159678445</v>
+        <v>-13.356562649581953</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-31.097763505530391</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="B13">
-        <v>-31.097763505530327</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="C13">
-        <v>-31.097763505530413</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="D13">
-        <v>-31.097763505530292</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="E13">
-        <v>-31.097763505530356</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="F13">
-        <v>-31.09776350553032</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="G13">
-        <v>-31.097763505530356</v>
+        <v>-35.914103643392636</v>
       </c>
       <c r="H13">
-        <v>-31.09776350553037</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="I13">
-        <v>-31.097763505530249</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="J13">
-        <v>-31.097763505530335</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="K13">
-        <v>-31.097763505530327</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="L13">
-        <v>-31.097763505529858</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="M13">
-        <v>-31.097763505530292</v>
+        <v>-35.914103643392608</v>
       </c>
       <c r="N13">
-        <v>-31.097763505530256</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="O13">
-        <v>-31.097763505530477</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="P13">
-        <v>-31.097763505530327</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="Q13">
-        <v>-31.097763505530377</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="R13">
-        <v>-31.097763505531265</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="S13">
-        <v>-31.097763505530356</v>
+        <v>-35.914103643392608</v>
       </c>
       <c r="T13">
-        <v>-31.097763505530356</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="U13">
-        <v>-31.097763505530335</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="V13">
-        <v>-31.097763505530427</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="W13">
-        <v>-31.097763505530356</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="X13">
-        <v>-31.097763505530356</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="Y13">
-        <v>-31.097763505530256</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="Z13">
-        <v>-31.097763505530356</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="AA13">
-        <v>-31.097763505530356</v>
+        <v>-35.914103643392608</v>
       </c>
       <c r="AB13">
-        <v>-31.097763505530441</v>
+        <v>-35.914103643392608</v>
       </c>
       <c r="AC13">
-        <v>-31.097763505530384</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="AD13">
-        <v>-31.097763505530356</v>
+        <v>-35.9141036433926</v>
       </c>
       <c r="AE13">
-        <v>-31.097763505530853</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="AF13">
-        <v>-31.097763505530363</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="AG13">
-        <v>-31.097763505530384</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="AH13">
-        <v>-31.097763505530335</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="AI13">
-        <v>-31.097763505530327</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="AJ13">
-        <v>-31.097763505530335</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="AK13">
-        <v>-31.097763505530313</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="AL13">
-        <v>-31.097763505530356</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="AM13">
-        <v>-31.097763505530327</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="AN13">
-        <v>-31.097763505530384</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="AO13">
-        <v>-31.097763505530043</v>
+        <v>-35.914103643392636</v>
       </c>
       <c r="AP13">
-        <v>-31.097763505530668</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="AQ13">
-        <v>-31.097763505530363</v>
+        <v>-35.914103643392608</v>
       </c>
       <c r="AR13">
-        <v>-31.097763505530363</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="AS13">
-        <v>-31.097763505530356</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="AT13">
-        <v>-31.097763505530384</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="AU13">
-        <v>-31.097763505530356</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="AV13">
-        <v>-31.097763505530363</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="AW13">
-        <v>-31.097763505530377</v>
+        <v>-35.914103643392608</v>
       </c>
       <c r="AX13">
-        <v>-31.097763505530335</v>
+        <v>-35.914103643392608</v>
       </c>
       <c r="AY13">
-        <v>-31.097763505530228</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="AZ13">
-        <v>-31.097763505530384</v>
+        <v>-35.9141036433926</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-18.160218676229949</v>
+        <v>4.9999999999999517E-2</v>
       </c>
       <c r="B14">
         <v>0.05</v>
@@ -2767,1587 +2767,1587 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9.8179985776738548</v>
+        <v>0.51000000000000045</v>
       </c>
       <c r="B15">
-        <v>0.52000000000000179</v>
+        <v>0.50999999999999868</v>
       </c>
       <c r="C15">
-        <v>0.52000000000000135</v>
+        <v>0.50999999999999934</v>
       </c>
       <c r="D15">
-        <v>0.52000000000000268</v>
+        <v>0.50999999999999912</v>
       </c>
       <c r="E15">
-        <v>0.52000000000000135</v>
+        <v>0.50999999999999934</v>
       </c>
       <c r="F15">
-        <v>0.51999999999999824</v>
+        <v>0.50999999999999979</v>
       </c>
       <c r="G15">
-        <v>0.52000000000000313</v>
+        <v>0.50999999999999979</v>
       </c>
       <c r="H15">
-        <v>0.52</v>
+        <v>0.51000000000000023</v>
       </c>
       <c r="I15">
-        <v>0.52000000000000135</v>
+        <v>0.50999999999999979</v>
       </c>
       <c r="J15">
-        <v>0.51999999999998359</v>
+        <v>0.50999999999999868</v>
       </c>
       <c r="K15">
-        <v>0.52000000000000179</v>
+        <v>0.51000000000000023</v>
       </c>
       <c r="L15">
-        <v>0.5200000000000089</v>
+        <v>0.51</v>
       </c>
       <c r="M15">
-        <v>0.52000000000000091</v>
+        <v>0.51000000000000068</v>
       </c>
       <c r="N15">
-        <v>0.51999999999999869</v>
+        <v>0.51000000000000068</v>
       </c>
       <c r="O15">
-        <v>0.52000000000000446</v>
+        <v>0.5099999999999989</v>
       </c>
       <c r="P15">
-        <v>0.52000000000000046</v>
+        <v>0.51000000000000068</v>
       </c>
       <c r="Q15">
-        <v>0.52000000000000135</v>
+        <v>0.51</v>
       </c>
       <c r="R15">
-        <v>0.51999999999998181</v>
+        <v>0.51</v>
       </c>
       <c r="S15">
-        <v>0.52000000000000091</v>
+        <v>0.51000000000000023</v>
       </c>
       <c r="T15">
-        <v>0.52000000000000268</v>
+        <v>0.51000000000000068</v>
       </c>
       <c r="U15">
-        <v>0.52000000000000357</v>
+        <v>0.50999999999999934</v>
       </c>
       <c r="V15">
-        <v>0.52000000000000091</v>
+        <v>0.5099999999999989</v>
       </c>
       <c r="W15">
-        <v>0.52000000000000179</v>
+        <v>0.50999999999999956</v>
       </c>
       <c r="X15">
-        <v>0.52</v>
+        <v>0.50999999999999979</v>
       </c>
       <c r="Y15">
-        <v>0.52000000000000135</v>
+        <v>0.51000000000000112</v>
       </c>
       <c r="Z15">
-        <v>0.52000000000000357</v>
+        <v>0.50999999999999912</v>
       </c>
       <c r="AA15">
-        <v>0.52000000000000401</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="AB15">
-        <v>0.51999999999998492</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="AC15">
-        <v>0.52000000000000401</v>
+        <v>0.50999999999999956</v>
       </c>
       <c r="AD15">
-        <v>0.52000000000000357</v>
+        <v>0.50999999999999912</v>
       </c>
       <c r="AE15">
-        <v>0.51999999999998758</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="AF15">
-        <v>0.52000000000000268</v>
+        <v>0.51000000000000023</v>
       </c>
       <c r="AG15">
-        <v>0.52000000000000179</v>
+        <v>0.51000000000000156</v>
       </c>
       <c r="AH15">
-        <v>0.52000000000000446</v>
+        <v>0.51000000000000023</v>
       </c>
       <c r="AI15">
-        <v>0.52000000000000091</v>
+        <v>0.51</v>
       </c>
       <c r="AJ15">
-        <v>0.51999999999999647</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="AK15">
-        <v>0.52000000000000446</v>
+        <v>0.51000000000000068</v>
       </c>
       <c r="AL15">
-        <v>0.52000000000000579</v>
+        <v>0.51</v>
       </c>
       <c r="AM15">
-        <v>0.52000000000000535</v>
+        <v>0.51000000000000023</v>
       </c>
       <c r="AN15">
-        <v>0.52000000000000046</v>
+        <v>0.51000000000000112</v>
       </c>
       <c r="AO15">
-        <v>0.52</v>
+        <v>0.50999999999999956</v>
       </c>
       <c r="AP15">
-        <v>0.51999999999998936</v>
+        <v>0.50999999999999956</v>
       </c>
       <c r="AQ15">
-        <v>0.52000000000000268</v>
+        <v>0.51000000000000023</v>
       </c>
       <c r="AR15">
-        <v>0.52000000000000091</v>
+        <v>0.51000000000000023</v>
       </c>
       <c r="AS15">
-        <v>0.52000000000000401</v>
+        <v>0.5099999999999989</v>
       </c>
       <c r="AT15">
-        <v>0.52000000000000357</v>
+        <v>0.51</v>
       </c>
       <c r="AU15">
-        <v>0.52000000000000135</v>
+        <v>0.50999999999999934</v>
       </c>
       <c r="AV15">
-        <v>0.52000000000000179</v>
+        <v>0.51000000000000045</v>
       </c>
       <c r="AW15">
-        <v>0.51999999999999824</v>
+        <v>0.50999999999999979</v>
       </c>
       <c r="AX15">
-        <v>0.52000000000000224</v>
+        <v>0.51000000000000023</v>
       </c>
       <c r="AY15">
-        <v>0.51999999999998847</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="AZ15">
-        <v>0.52000000000000224</v>
+        <v>0.5100000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2.4333439181591761</v>
+        <v>1.46</v>
       </c>
       <c r="B16">
-        <v>1.4100000000000006</v>
+        <v>1.46</v>
       </c>
       <c r="C16">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="D16">
-        <v>1.4100000000000006</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="E16">
-        <v>1.4100000000000006</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="F16">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="G16">
-        <v>1.4100000000000004</v>
+        <v>1.46</v>
       </c>
       <c r="H16">
-        <v>1.4100000000000006</v>
+        <v>1.4599999999999991</v>
       </c>
       <c r="I16">
-        <v>1.4099999999999862</v>
+        <v>1.4599999999999991</v>
       </c>
       <c r="J16">
-        <v>1.4099999999999921</v>
+        <v>1.46</v>
       </c>
       <c r="K16">
-        <v>1.4100000000000004</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="L16">
-        <v>1.4099999999999993</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="M16">
-        <v>1.4100000000000004</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="N16">
-        <v>1.4099999999999882</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="O16">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="P16">
-        <v>1.4100000000000008</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="Q16">
-        <v>1.4100000000000008</v>
+        <v>1.4599999999999991</v>
       </c>
       <c r="R16">
-        <v>1.4099999999999917</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="S16">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="T16">
-        <v>1.41</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="U16">
-        <v>1.41</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="V16">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="W16">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999993</v>
       </c>
       <c r="X16">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="Y16">
-        <v>1.4100000000000006</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="Z16">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AA16">
-        <v>1.4100000000000004</v>
+        <v>1.46</v>
       </c>
       <c r="AB16">
-        <v>1.4099999999999766</v>
+        <v>1.46</v>
       </c>
       <c r="AC16">
-        <v>1.4100000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="AD16">
-        <v>1.4100000000000008</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AE16">
-        <v>1.4099999999999873</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AF16">
-        <v>1.4100000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="AG16">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AH16">
-        <v>1.4100000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="AI16">
-        <v>1.4100000000000004</v>
+        <v>1.46</v>
       </c>
       <c r="AJ16">
-        <v>1.4100000000000004</v>
+        <v>1.4599999999999993</v>
       </c>
       <c r="AK16">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="AL16">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AM16">
-        <v>1.4100000000000004</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AN16">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AO16">
-        <v>1.4099999999999839</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AP16">
-        <v>1.409999999999981</v>
+        <v>1.4599999999999991</v>
       </c>
       <c r="AQ16">
-        <v>1.41</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AR16">
-        <v>1.4099999999999997</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="AS16">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AT16">
-        <v>1.4100000000000006</v>
+        <v>1.46</v>
       </c>
       <c r="AU16">
-        <v>1.4100000000000008</v>
+        <v>1.46</v>
       </c>
       <c r="AV16">
-        <v>1.410000000000001</v>
+        <v>1.4599999999999991</v>
       </c>
       <c r="AW16">
-        <v>1.4100000000000033</v>
+        <v>1.46</v>
       </c>
       <c r="AX16">
-        <v>1.4100000000000006</v>
+        <v>1.4599999999999991</v>
       </c>
       <c r="AY16">
-        <v>1.4099999999999913</v>
+        <v>1.46</v>
       </c>
       <c r="AZ16">
-        <v>1.4100000000000006</v>
+        <v>1.4599999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-8.3329896262417034</v>
+        <v>4.4286532959149323</v>
       </c>
       <c r="B17">
-        <v>1.4662999999999999</v>
+        <v>4.4286532959149332</v>
       </c>
       <c r="C17">
-        <v>1.4662999999999959</v>
+        <v>4.4286532959149341</v>
       </c>
       <c r="D17">
-        <v>1.4663000000000004</v>
+        <v>4.4286532959149323</v>
       </c>
       <c r="E17">
-        <v>1.4662999999999968</v>
+        <v>4.4286532959149367</v>
       </c>
       <c r="F17">
-        <v>1.4662999999999946</v>
+        <v>4.4286532959149358</v>
       </c>
       <c r="G17">
-        <v>1.4662999999999968</v>
+        <v>4.4286532959149332</v>
       </c>
       <c r="H17">
-        <v>1.4662999999999982</v>
+        <v>4.4286532959149341</v>
       </c>
       <c r="I17">
-        <v>1.4663000000011608</v>
+        <v>4.4286532959149323</v>
       </c>
       <c r="J17">
-        <v>1.4662999999998094</v>
+        <v>4.4286532959149385</v>
       </c>
       <c r="K17">
-        <v>1.4663000000000044</v>
+        <v>4.4286532959149332</v>
       </c>
       <c r="L17">
-        <v>1.4663000000006488</v>
+        <v>4.4286532959149332</v>
       </c>
       <c r="M17">
-        <v>1.4663000000000008</v>
+        <v>4.4286532959149252</v>
       </c>
       <c r="N17">
-        <v>1.4663000000003978</v>
+        <v>4.4286532959149403</v>
       </c>
       <c r="O17">
-        <v>1.4663000000000017</v>
+        <v>4.4286532959149341</v>
       </c>
       <c r="P17">
-        <v>1.4663000000000062</v>
+        <v>4.4286532959149323</v>
       </c>
       <c r="Q17">
-        <v>1.4662999999999955</v>
+        <v>4.4286532959149332</v>
       </c>
       <c r="R17">
-        <v>1.4663000000001083</v>
+        <v>4.4286532959149305</v>
       </c>
       <c r="S17">
-        <v>1.4663000000000004</v>
+        <v>4.4286532959149314</v>
       </c>
       <c r="T17">
-        <v>1.4663000000000008</v>
+        <v>4.4286532959149332</v>
       </c>
       <c r="U17">
-        <v>1.4663000000000013</v>
+        <v>4.4286532959149323</v>
       </c>
       <c r="V17">
-        <v>1.466300000000003</v>
+        <v>4.4286532959149341</v>
       </c>
       <c r="W17">
-        <v>1.4663000000000004</v>
+        <v>4.4286532959149358</v>
       </c>
       <c r="X17">
-        <v>1.4663000000000039</v>
+        <v>4.428653295914935</v>
       </c>
       <c r="Y17">
-        <v>1.466300000000003</v>
+        <v>4.4286532959149332</v>
       </c>
       <c r="Z17">
-        <v>1.4662999999999999</v>
+        <v>4.4286532959149314</v>
       </c>
       <c r="AA17">
-        <v>1.4663000000000066</v>
+        <v>4.4286532959149287</v>
       </c>
       <c r="AB17">
-        <v>1.4663000000004267</v>
+        <v>4.4286532959149261</v>
       </c>
       <c r="AC17">
-        <v>1.4663000000000035</v>
+        <v>4.4286532959149243</v>
       </c>
       <c r="AD17">
-        <v>1.4663000000000013</v>
+        <v>4.4286532959149332</v>
       </c>
       <c r="AE17">
-        <v>1.4663000000000066</v>
+        <v>4.4286532959149341</v>
       </c>
       <c r="AF17">
-        <v>1.4663000000000013</v>
+        <v>4.4286532959149296</v>
       </c>
       <c r="AG17">
-        <v>1.4662999999999973</v>
+        <v>4.4286532959149376</v>
       </c>
       <c r="AH17">
-        <v>1.4662999999999977</v>
+        <v>4.4286532959149358</v>
       </c>
       <c r="AI17">
-        <v>1.4663000000000008</v>
+        <v>4.4286532959149323</v>
       </c>
       <c r="AJ17">
-        <v>1.4662999999999982</v>
+        <v>4.4286532959149332</v>
       </c>
       <c r="AK17">
-        <v>1.4663000000000066</v>
+        <v>4.4286532959149332</v>
       </c>
       <c r="AL17">
-        <v>1.4662999999999959</v>
+        <v>4.4286532959149314</v>
       </c>
       <c r="AM17">
-        <v>1.4662999999999973</v>
+        <v>4.4286532959149332</v>
       </c>
       <c r="AN17">
-        <v>1.4662999999999995</v>
+        <v>4.4286532959149332</v>
       </c>
       <c r="AO17">
-        <v>1.4663000000008664</v>
+        <v>4.4286532959149376</v>
       </c>
       <c r="AP17">
-        <v>1.4663000000006354</v>
+        <v>4.4286532959149385</v>
       </c>
       <c r="AQ17">
-        <v>1.4662999999999977</v>
+        <v>4.4286532959149367</v>
       </c>
       <c r="AR17">
-        <v>1.4662999999999968</v>
+        <v>4.4286532959149367</v>
       </c>
       <c r="AS17">
-        <v>1.4662999999999946</v>
+        <v>4.4286532959149314</v>
       </c>
       <c r="AT17">
-        <v>1.4662999999999968</v>
+        <v>4.428653295914935</v>
       </c>
       <c r="AU17">
-        <v>1.4662999999999973</v>
+        <v>4.4286532959149341</v>
       </c>
       <c r="AV17">
-        <v>1.4662999999999968</v>
+        <v>4.4286532959149332</v>
       </c>
       <c r="AW17">
-        <v>1.4663000000002575</v>
+        <v>4.4286532959149367</v>
       </c>
       <c r="AX17">
-        <v>1.4663000000000057</v>
+        <v>4.4286532959149341</v>
       </c>
       <c r="AY17">
-        <v>1.4663000000007105</v>
+        <v>4.428653295914935</v>
       </c>
       <c r="AZ17">
-        <v>1.4662999999999959</v>
+        <v>4.4286532959149367</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>40.265952090278205</v>
+        <v>72.3</v>
       </c>
       <c r="B18">
-        <v>73.7</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="C18">
-        <v>73.699999999999989</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="D18">
-        <v>73.7</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="E18">
-        <v>73.699999999999989</v>
+        <v>72.3</v>
       </c>
       <c r="F18">
-        <v>73.700000000000045</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="G18">
-        <v>73.699999999999974</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="H18">
-        <v>73.7</v>
+        <v>72.3</v>
       </c>
       <c r="I18">
-        <v>73.700000000000614</v>
+        <v>72.299999999999983</v>
       </c>
       <c r="J18">
-        <v>73.699999999999918</v>
+        <v>72.3</v>
       </c>
       <c r="K18">
-        <v>73.699999999999989</v>
+        <v>72.300000000000026</v>
       </c>
       <c r="L18">
-        <v>73.700000000000045</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="M18">
-        <v>73.699999999999946</v>
+        <v>72.300000000000026</v>
       </c>
       <c r="N18">
-        <v>73.69999999999979</v>
+        <v>72.299999999999983</v>
       </c>
       <c r="O18">
-        <v>73.699999999999989</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="P18">
-        <v>73.7</v>
+        <v>72.300000000000026</v>
       </c>
       <c r="Q18">
-        <v>73.7</v>
+        <v>72.3</v>
       </c>
       <c r="R18">
-        <v>73.70000000000033</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="S18">
-        <v>73.7</v>
+        <v>72.3</v>
       </c>
       <c r="T18">
-        <v>73.699999999999989</v>
+        <v>72.300000000000026</v>
       </c>
       <c r="U18">
-        <v>73.699999999999989</v>
+        <v>72.3</v>
       </c>
       <c r="V18">
-        <v>73.700000000000017</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="W18">
-        <v>73.700000000000031</v>
+        <v>72.299999999999983</v>
       </c>
       <c r="X18">
-        <v>73.699999999999974</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="Y18">
-        <v>73.699999999999989</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="Z18">
-        <v>73.7</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="AA18">
-        <v>73.699999999999989</v>
+        <v>72.3</v>
       </c>
       <c r="AB18">
-        <v>73.699999999999875</v>
+        <v>72.300000000000026</v>
       </c>
       <c r="AC18">
-        <v>73.69999999999996</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="AD18">
-        <v>73.7</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="AE18">
-        <v>73.699999999999847</v>
+        <v>72.3</v>
       </c>
       <c r="AF18">
-        <v>73.7</v>
+        <v>72.3</v>
       </c>
       <c r="AG18">
-        <v>73.699999999999974</v>
+        <v>72.3</v>
       </c>
       <c r="AH18">
-        <v>73.699999999999974</v>
+        <v>72.3</v>
       </c>
       <c r="AI18">
-        <v>73.699999999999974</v>
+        <v>72.3</v>
       </c>
       <c r="AJ18">
-        <v>73.699999999999989</v>
+        <v>72.300000000000026</v>
       </c>
       <c r="AK18">
-        <v>73.7</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="AL18">
-        <v>73.69999999999996</v>
+        <v>72.3</v>
       </c>
       <c r="AM18">
-        <v>73.69999999999996</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="AN18">
-        <v>73.699999999999974</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="AO18">
-        <v>73.700000000000145</v>
+        <v>72.3</v>
       </c>
       <c r="AP18">
-        <v>73.69999999999996</v>
+        <v>72.3</v>
       </c>
       <c r="AQ18">
-        <v>73.699999999999989</v>
+        <v>72.3</v>
       </c>
       <c r="AR18">
-        <v>73.699999999999989</v>
+        <v>72.299999999999983</v>
       </c>
       <c r="AS18">
-        <v>73.699999999999989</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="AT18">
-        <v>73.699999999999989</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="AU18">
-        <v>73.699999999999989</v>
+        <v>72.299999999999983</v>
       </c>
       <c r="AV18">
-        <v>73.699999999999989</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="AW18">
-        <v>73.699999999999989</v>
+        <v>72.3</v>
       </c>
       <c r="AX18">
-        <v>73.7</v>
+        <v>72.3</v>
       </c>
       <c r="AY18">
-        <v>73.70000000000006</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="AZ18">
-        <v>73.699999999999989</v>
+        <v>72.300000000000011</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4299.7492009559619</v>
+        <v>2462.4</v>
       </c>
       <c r="B19">
-        <v>2500.0000000000009</v>
+        <v>2462.4</v>
       </c>
       <c r="C19">
-        <v>2499.9999999999995</v>
+        <v>2462.399999999996</v>
       </c>
       <c r="D19">
-        <v>2500.0000000000005</v>
+        <v>2462.4</v>
       </c>
       <c r="E19">
-        <v>2500.0000000000014</v>
+        <v>2462.4</v>
       </c>
       <c r="F19">
-        <v>2500.0000000000005</v>
+        <v>2462.4</v>
       </c>
       <c r="G19">
-        <v>2500.0000000000014</v>
+        <v>2462.4000000000046</v>
       </c>
       <c r="H19">
-        <v>2500.0000000000023</v>
+        <v>2462.4</v>
       </c>
       <c r="I19">
-        <v>2500.0000000000009</v>
+        <v>2462.4</v>
       </c>
       <c r="J19">
-        <v>2499.9999999999986</v>
+        <v>2462.4</v>
       </c>
       <c r="K19">
-        <v>2500.0000000000014</v>
+        <v>2462.4</v>
       </c>
       <c r="L19">
-        <v>2500.0000000000005</v>
+        <v>2462.399999999996</v>
       </c>
       <c r="M19">
-        <v>2500</v>
+        <v>2462.4</v>
       </c>
       <c r="N19">
-        <v>2500.0000000000005</v>
+        <v>2462.4</v>
       </c>
       <c r="O19">
-        <v>2500.0000000000009</v>
+        <v>2462.4</v>
       </c>
       <c r="P19">
-        <v>2500.0000000000009</v>
+        <v>2462.4</v>
       </c>
       <c r="Q19">
-        <v>2500.0000000000014</v>
+        <v>2462.4</v>
       </c>
       <c r="R19">
-        <v>2500.0000000000009</v>
+        <v>2462.4</v>
       </c>
       <c r="S19">
-        <v>2500.0000000000014</v>
+        <v>2462.4</v>
       </c>
       <c r="T19">
-        <v>2500.0000000000014</v>
+        <v>2462.4</v>
       </c>
       <c r="U19">
-        <v>2500.0000000000005</v>
+        <v>2462.4</v>
       </c>
       <c r="V19">
-        <v>2500.0000000000009</v>
+        <v>2462.4</v>
       </c>
       <c r="W19">
-        <v>2500.0000000000005</v>
+        <v>2462.4</v>
       </c>
       <c r="X19">
-        <v>2500</v>
+        <v>2462.4</v>
       </c>
       <c r="Y19">
-        <v>2500.0000000000009</v>
+        <v>2462.4</v>
       </c>
       <c r="Z19">
-        <v>2500.0000000000005</v>
+        <v>2462.399999999996</v>
       </c>
       <c r="AA19">
-        <v>2500.0000000000023</v>
+        <v>2462.4</v>
       </c>
       <c r="AB19">
-        <v>2500.0000000000005</v>
+        <v>2462.4</v>
       </c>
       <c r="AC19">
-        <v>2500.0000000000009</v>
+        <v>2462.4</v>
       </c>
       <c r="AD19">
-        <v>2500.0000000000005</v>
+        <v>2462.4</v>
       </c>
       <c r="AE19">
-        <v>2500</v>
+        <v>2462.4</v>
       </c>
       <c r="AF19">
-        <v>2500.0000000000005</v>
+        <v>2462.4</v>
       </c>
       <c r="AG19">
-        <v>2500.0000000000009</v>
+        <v>2462.4</v>
       </c>
       <c r="AH19">
-        <v>2500.0000000000014</v>
+        <v>2462.4</v>
       </c>
       <c r="AI19">
-        <v>2500</v>
+        <v>2462.4</v>
       </c>
       <c r="AJ19">
-        <v>2500</v>
+        <v>2462.4</v>
       </c>
       <c r="AK19">
-        <v>2500.0000000000009</v>
+        <v>2462.4</v>
       </c>
       <c r="AL19">
-        <v>2500.0000000000018</v>
+        <v>2462.4</v>
       </c>
       <c r="AM19">
-        <v>2500.0000000000014</v>
+        <v>2462.4</v>
       </c>
       <c r="AN19">
-        <v>2500.0000000000014</v>
+        <v>2462.4</v>
       </c>
       <c r="AO19">
-        <v>2500.0000000000018</v>
+        <v>2462.4000000000046</v>
       </c>
       <c r="AP19">
-        <v>2500</v>
+        <v>2462.4</v>
       </c>
       <c r="AQ19">
-        <v>2500.0000000000009</v>
+        <v>2462.4</v>
       </c>
       <c r="AR19">
-        <v>2500.0000000000009</v>
+        <v>2462.4</v>
       </c>
       <c r="AS19">
-        <v>2500.0000000000014</v>
+        <v>2462.4</v>
       </c>
       <c r="AT19">
-        <v>2500.0000000000014</v>
+        <v>2462.4000000000046</v>
       </c>
       <c r="AU19">
-        <v>2500.0000000000005</v>
+        <v>2462.4</v>
       </c>
       <c r="AV19">
-        <v>2500.0000000000005</v>
+        <v>2462.4</v>
       </c>
       <c r="AW19">
-        <v>2500</v>
+        <v>2462.4</v>
       </c>
       <c r="AX19">
-        <v>2500.0000000000005</v>
+        <v>2462.4</v>
       </c>
       <c r="AY19">
-        <v>2500.0000000000014</v>
+        <v>2462.4</v>
       </c>
       <c r="AZ19">
-        <v>2500.0000000000005</v>
+        <v>2462.4</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>-7434.3264695295948</v>
+        <v>2485.1681780907093</v>
       </c>
       <c r="B20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="C20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="D20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="E20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="F20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="G20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="H20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="I20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="J20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="K20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="L20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="M20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="N20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="O20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="P20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="Q20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="R20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="S20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="T20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="U20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="V20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="W20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="X20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="Y20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="Z20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AA20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AB20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AC20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AD20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AE20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AF20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AG20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AH20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AI20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AJ20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AK20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AL20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AM20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AN20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AO20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AP20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AQ20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AR20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AS20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AT20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AU20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AV20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AW20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AX20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AY20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
       <c r="AZ20">
-        <v>-10401.873919999998</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>21.084386179815183</v>
+        <v>13.3</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>13.3</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="D21">
-        <v>20.000000000000004</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="E21">
-        <v>20.000000000000007</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="G21">
-        <v>20.000000000000004</v>
+        <v>13.300000000000004</v>
       </c>
       <c r="H21">
-        <v>19.999999999999996</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>13.3</v>
       </c>
       <c r="J21">
-        <v>20.000000000000007</v>
+        <v>13.3</v>
       </c>
       <c r="K21">
-        <v>20.000000000000007</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="L21">
-        <v>20.000000000000007</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>13.3</v>
       </c>
       <c r="N21">
-        <v>20</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="O21">
-        <v>20.000000000000007</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="P21">
-        <v>20.000000000000007</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="Q21">
-        <v>20.000000000000007</v>
+        <v>13.299999999999995</v>
       </c>
       <c r="R21">
-        <v>19.999999999999996</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="S21">
-        <v>20</v>
+        <v>13.3</v>
       </c>
       <c r="T21">
-        <v>20.000000000000007</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="U21">
-        <v>20</v>
+        <v>13.3</v>
       </c>
       <c r="V21">
-        <v>19.999999999999996</v>
+        <v>13.3</v>
       </c>
       <c r="W21">
-        <v>20</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="X21">
-        <v>20.000000000000007</v>
+        <v>13.3</v>
       </c>
       <c r="Y21">
-        <v>19.999999999999996</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="Z21">
-        <v>20.000000000000004</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="AA21">
-        <v>20.000000000000007</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="AB21">
-        <v>20</v>
+        <v>13.300000000000004</v>
       </c>
       <c r="AC21">
-        <v>20.000000000000007</v>
+        <v>13.3</v>
       </c>
       <c r="AD21">
-        <v>19.999999999999996</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="AE21">
-        <v>20</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="AF21">
-        <v>20.000000000000004</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="AG21">
-        <v>20</v>
+        <v>13.3</v>
       </c>
       <c r="AH21">
-        <v>20.000000000000007</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="AI21">
-        <v>20</v>
+        <v>13.3</v>
       </c>
       <c r="AJ21">
-        <v>20.000000000000007</v>
+        <v>13.3</v>
       </c>
       <c r="AK21">
-        <v>20</v>
+        <v>13.3</v>
       </c>
       <c r="AL21">
-        <v>20</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="AM21">
-        <v>20.000000000000004</v>
+        <v>13.3</v>
       </c>
       <c r="AN21">
-        <v>20</v>
+        <v>13.3</v>
       </c>
       <c r="AO21">
-        <v>20.000000000000007</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="AP21">
-        <v>19.999999999999993</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="AQ21">
-        <v>20.000000000000004</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="AR21">
-        <v>20</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="AS21">
-        <v>20.000000000000004</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="AT21">
-        <v>20.000000000000007</v>
+        <v>13.300000000000002</v>
       </c>
       <c r="AU21">
-        <v>20.000000000000004</v>
+        <v>13.3</v>
       </c>
       <c r="AV21">
-        <v>20</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="AW21">
-        <v>20</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="AX21">
-        <v>20.000000000000004</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="AY21">
-        <v>20</v>
+        <v>13.300000000000002</v>
       </c>
       <c r="AZ21">
-        <v>20</v>
+        <v>13.299999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>-0.65933208243936448</v>
+        <v>-5.2377510138779115E-2</v>
       </c>
       <c r="B22">
-        <v>-4.3087159880468406E-2</v>
+        <v>-5.2377510138778616E-2</v>
       </c>
       <c r="C22">
-        <v>-5.7610795342151966E-2</v>
+        <v>-5.2377510138778338E-2</v>
       </c>
       <c r="D22">
-        <v>-7.213443080383708E-2</v>
+        <v>-5.2377510138779282E-2</v>
       </c>
       <c r="E22">
-        <v>-8.6658066265518641E-2</v>
+        <v>-5.237751013877856E-2</v>
       </c>
       <c r="F22">
-        <v>-0.10118170172720331</v>
+        <v>-5.2377510138778394E-2</v>
       </c>
       <c r="G22">
-        <v>-0.1157053371888882</v>
+        <v>-5.237751013877906E-2</v>
       </c>
       <c r="H22">
-        <v>-0.13022897265057043</v>
+        <v>-5.2377510138779004E-2</v>
       </c>
       <c r="I22">
-        <v>-0.14475260811280599</v>
+        <v>-5.2377510138778338E-2</v>
       </c>
       <c r="J22">
-        <v>-0.15927624357633963</v>
+        <v>-5.2377510138779004E-2</v>
       </c>
       <c r="K22">
-        <v>-0.17379987903562133</v>
+        <v>-5.2377510138778449E-2</v>
       </c>
       <c r="L22">
-        <v>-0.18832351449771101</v>
+        <v>-5.2377510138779226E-2</v>
       </c>
       <c r="M22">
-        <v>-0.202847149958988</v>
+        <v>-5.2377510138778838E-2</v>
       </c>
       <c r="N22">
-        <v>-0.21737078542024235</v>
+        <v>-5.2377510138778505E-2</v>
       </c>
       <c r="O22">
-        <v>-0.23189442088235512</v>
+        <v>-5.2377510138778671E-2</v>
       </c>
       <c r="P22">
-        <v>-0.24641805634403935</v>
+        <v>-5.2377510138779448E-2</v>
       </c>
       <c r="Q22">
-        <v>-0.26094169180572202</v>
+        <v>-5.237751013877795E-2</v>
       </c>
       <c r="R22">
-        <v>-0.27546532726806328</v>
+        <v>-5.2377510138779115E-2</v>
       </c>
       <c r="S22">
-        <v>-0.28998896272908914</v>
+        <v>-5.2377510138778505E-2</v>
       </c>
       <c r="T22">
-        <v>-0.30451259819077447</v>
+        <v>-5.2377510138778671E-2</v>
       </c>
       <c r="U22">
-        <v>-0.31903623365245648</v>
+        <v>-5.2377510138779282E-2</v>
       </c>
       <c r="V22">
-        <v>-0.33355986911414137</v>
+        <v>-5.2377510138778838E-2</v>
       </c>
       <c r="W22">
-        <v>-0.34808350457582515</v>
+        <v>-5.2377510138778338E-2</v>
       </c>
       <c r="X22">
-        <v>-0.3626071400375076</v>
+        <v>-5.2377510138778172E-2</v>
       </c>
       <c r="Y22">
-        <v>-0.37713077549919227</v>
+        <v>-5.2377510138778227E-2</v>
       </c>
       <c r="Z22">
-        <v>-0.39165441096087428</v>
+        <v>-5.2377510138779004E-2</v>
       </c>
       <c r="AA22">
-        <v>-0.40617804642255917</v>
+        <v>-5.2377510138778172E-2</v>
       </c>
       <c r="AB22">
-        <v>-0.42070168188477985</v>
+        <v>-5.2377510138779115E-2</v>
       </c>
       <c r="AC22">
-        <v>-0.43522531734592695</v>
+        <v>-5.2377510138778782E-2</v>
       </c>
       <c r="AD22">
-        <v>-0.44974895280761007</v>
+        <v>-5.2377510138778671E-2</v>
       </c>
       <c r="AE22">
-        <v>-0.46427258826966422</v>
+        <v>-5.2377510138779115E-2</v>
       </c>
       <c r="AF22">
-        <v>-0.47879622373097541</v>
+        <v>-5.2377510138779004E-2</v>
       </c>
       <c r="AG22">
-        <v>-0.49331985919266053</v>
+        <v>-5.2377510138778227E-2</v>
       </c>
       <c r="AH22">
-        <v>-0.50784349465434475</v>
+        <v>-5.2377510138779448E-2</v>
       </c>
       <c r="AI22">
-        <v>-0.52236713011602853</v>
+        <v>-5.237751013877856E-2</v>
       </c>
       <c r="AJ22">
-        <v>-0.53689076557771076</v>
+        <v>-5.2377510138779504E-2</v>
       </c>
       <c r="AK22">
-        <v>-0.55141440103939565</v>
+        <v>-5.2377510138778893E-2</v>
       </c>
       <c r="AL22">
-        <v>-0.56593803650108032</v>
+        <v>-5.2377510138778227E-2</v>
       </c>
       <c r="AM22">
-        <v>-0.58046167196276277</v>
+        <v>-5.2377510138778782E-2</v>
       </c>
       <c r="AN22">
-        <v>-0.59498530742444655</v>
+        <v>-5.2377510138778671E-2</v>
       </c>
       <c r="AO22">
-        <v>-0.60950894288672208</v>
+        <v>-5.2377510138778172E-2</v>
       </c>
       <c r="AP22">
-        <v>-0.62403257834765691</v>
+        <v>-5.2377510138778949E-2</v>
       </c>
       <c r="AQ22">
-        <v>-0.63855621380949612</v>
+        <v>-5.237751013877906E-2</v>
       </c>
       <c r="AR22">
-        <v>-0.65307984927118012</v>
+        <v>-5.2377510138778949E-2</v>
       </c>
       <c r="AS22">
-        <v>-0.66760348473286613</v>
+        <v>-5.237751013877856E-2</v>
       </c>
       <c r="AT22">
-        <v>-0.68212712019454724</v>
+        <v>-5.2377510138778893E-2</v>
       </c>
       <c r="AU22">
-        <v>-0.69665075565623125</v>
+        <v>-5.2377510138778782E-2</v>
       </c>
       <c r="AV22">
-        <v>-0.71117439111791325</v>
+        <v>-5.2377510138778616E-2</v>
       </c>
       <c r="AW22">
-        <v>-0.72569802657899618</v>
+        <v>-5.2377510138778838E-2</v>
       </c>
       <c r="AX22">
-        <v>-0.74022166204128392</v>
+        <v>-5.2377510138778671E-2</v>
       </c>
       <c r="AY22">
-        <v>-0.7547452975041663</v>
+        <v>-5.2377510138778671E-2</v>
       </c>
       <c r="AZ22">
-        <v>-0.76926893296464882</v>
+        <v>-5.2377510138778227E-2</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>-14.840598382827968</v>
+        <v>1.3795378073520097</v>
       </c>
       <c r="B23">
-        <v>-0.79641604171917857</v>
+        <v>1.3795378073520088</v>
       </c>
       <c r="C23">
-        <v>-0.92853392311196692</v>
+        <v>1.3795378073520106</v>
       </c>
       <c r="D23">
-        <v>-1.060651804504759</v>
+        <v>1.379537807352009</v>
       </c>
       <c r="E23">
-        <v>-1.1927696858975503</v>
+        <v>1.3795378073520108</v>
       </c>
       <c r="F23">
-        <v>-1.324887567290346</v>
+        <v>1.3795378073520106</v>
       </c>
       <c r="G23">
-        <v>-1.4570054486831281</v>
+        <v>1.3795378073520119</v>
       </c>
       <c r="H23">
-        <v>-1.5891233300759247</v>
+        <v>1.379537807352007</v>
       </c>
       <c r="I23">
-        <v>-1.7212412114686895</v>
+        <v>1.3795378073520084</v>
       </c>
       <c r="J23">
-        <v>-1.8533590928609216</v>
+        <v>1.3795378073520053</v>
       </c>
       <c r="K23">
-        <v>-1.9854769742542973</v>
+        <v>1.3795378073520086</v>
       </c>
       <c r="L23">
-        <v>-2.1175948556470972</v>
+        <v>1.3795378073520059</v>
       </c>
       <c r="M23">
-        <v>-2.2497127370398764</v>
+        <v>1.3795378073520079</v>
       </c>
       <c r="N23">
-        <v>-2.3818306184328857</v>
+        <v>1.3795378073520059</v>
       </c>
       <c r="O23">
-        <v>-2.5139484998254589</v>
+        <v>1.3795378073520088</v>
       </c>
       <c r="P23">
-        <v>-2.6460663812182501</v>
+        <v>1.3795378073520079</v>
       </c>
       <c r="Q23">
-        <v>-2.7781842626110351</v>
+        <v>1.3795378073520088</v>
       </c>
       <c r="R23">
-        <v>-2.910302144003706</v>
+        <v>1.3795378073520053</v>
       </c>
       <c r="S23">
-        <v>-3.0424200253966194</v>
+        <v>1.3795378073520075</v>
       </c>
       <c r="T23">
-        <v>-3.1745379067894137</v>
+        <v>1.379537807352007</v>
       </c>
       <c r="U23">
-        <v>-3.306655788182201</v>
+        <v>1.3795378073520053</v>
       </c>
       <c r="V23">
-        <v>-3.43877366957499</v>
+        <v>1.3795378073520077</v>
       </c>
       <c r="W23">
-        <v>-3.5708915509677817</v>
+        <v>1.3795378073520066</v>
       </c>
       <c r="X23">
-        <v>-3.7030094323605707</v>
+        <v>1.3795378073520066</v>
       </c>
       <c r="Y23">
-        <v>-3.8351273137533712</v>
+        <v>1.3795378073520106</v>
       </c>
       <c r="Z23">
-        <v>-3.9672451951461523</v>
+        <v>1.379537807352009</v>
       </c>
       <c r="AA23">
-        <v>-4.0993630765389497</v>
+        <v>1.3795378073520104</v>
       </c>
       <c r="AB23">
-        <v>-4.2314809579316721</v>
+        <v>1.3795378073520066</v>
       </c>
       <c r="AC23">
-        <v>-4.3635988393245286</v>
+        <v>1.3795378073520062</v>
       </c>
       <c r="AD23">
-        <v>-4.4957167207173159</v>
+        <v>1.379537807352007</v>
       </c>
       <c r="AE23">
-        <v>-4.6278346021100658</v>
+        <v>1.3795378073520079</v>
       </c>
       <c r="AF23">
-        <v>-4.7599524835028983</v>
+        <v>1.3795378073520079</v>
       </c>
       <c r="AG23">
-        <v>-4.8920703648956918</v>
+        <v>1.3795378073520095</v>
       </c>
       <c r="AH23">
-        <v>-5.0241882462884782</v>
+        <v>1.3795378073520113</v>
       </c>
       <c r="AI23">
-        <v>-5.1563061276812698</v>
+        <v>1.379537807352007</v>
       </c>
       <c r="AJ23">
-        <v>-5.288424009074058</v>
+        <v>1.3795378073520084</v>
       </c>
       <c r="AK23">
-        <v>-5.4205418904668496</v>
+        <v>1.3795378073520104</v>
       </c>
       <c r="AL23">
-        <v>-5.552659771859644</v>
+        <v>1.3795378073520064</v>
       </c>
       <c r="AM23">
-        <v>-5.6847776532524312</v>
+        <v>1.3795378073520088</v>
       </c>
       <c r="AN23">
-        <v>-5.8168955346452202</v>
+        <v>1.3795378073520068</v>
       </c>
       <c r="AO23">
-        <v>-5.949013416037972</v>
+        <v>1.3795378073520097</v>
       </c>
       <c r="AP23">
-        <v>-6.0811312974309137</v>
+        <v>1.3795378073520086</v>
       </c>
       <c r="AQ23">
-        <v>-6.2132491788235997</v>
+        <v>1.3795378073520093</v>
       </c>
       <c r="AR23">
-        <v>-6.3453670602163852</v>
+        <v>1.379537807352007</v>
       </c>
       <c r="AS23">
-        <v>-6.4774849416091786</v>
+        <v>1.379537807352011</v>
       </c>
       <c r="AT23">
-        <v>-6.6096028230019686</v>
+        <v>1.3795378073520042</v>
       </c>
       <c r="AU23">
-        <v>-6.7417207043947593</v>
+        <v>1.379537807352007</v>
       </c>
       <c r="AV23">
-        <v>-6.8738385857875492</v>
+        <v>1.3795378073520079</v>
       </c>
       <c r="AW23">
-        <v>-7.0059564671805417</v>
+        <v>1.3795378073520133</v>
       </c>
       <c r="AX23">
-        <v>-7.1380743485731308</v>
+        <v>1.3795378073520093</v>
       </c>
       <c r="AY23">
-        <v>-7.2701922299657253</v>
+        <v>1.3795378073520066</v>
       </c>
       <c r="AZ23">
-        <v>-7.4023101113587115</v>
+        <v>1.3795378073520073</v>
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>63.84760952852924</v>
+        <v>8.9066876171726044</v>
       </c>
       <c r="B24">
-        <v>-0.68732117410372928</v>
+        <v>8.9066876171726044</v>
       </c>
       <c r="C24">
-        <v>-0.46227601464891044</v>
+        <v>8.90668761717256</v>
       </c>
       <c r="D24">
-        <v>-0.23723085519401343</v>
+        <v>8.9066876171725902</v>
       </c>
       <c r="E24">
-        <v>-1.2185695739208802E-2</v>
+        <v>8.9066876171726044</v>
       </c>
       <c r="F24">
-        <v>0.21285946371564557</v>
+        <v>8.9066876171726186</v>
       </c>
       <c r="G24">
-        <v>0.43790462317050705</v>
+        <v>8.9066876171726186</v>
       </c>
       <c r="H24">
-        <v>0.66294978262532589</v>
+        <v>8.9066876171725937</v>
       </c>
       <c r="I24">
-        <v>0.88799494208025842</v>
+        <v>8.9066876171726079</v>
       </c>
       <c r="J24">
-        <v>1.1130401015341251</v>
+        <v>8.9066876171726044</v>
       </c>
       <c r="K24">
-        <v>1.3380852609898819</v>
+        <v>8.9066876171726044</v>
       </c>
       <c r="L24">
-        <v>1.563130420444818</v>
+        <v>8.9066876171725902</v>
       </c>
       <c r="M24">
-        <v>1.7881755798995516</v>
+        <v>8.9066876171726079</v>
       </c>
       <c r="N24">
-        <v>2.0132207393550239</v>
+        <v>8.9066876171725635</v>
       </c>
       <c r="O24">
-        <v>2.2382658988092814</v>
+        <v>8.9066876171726044</v>
       </c>
       <c r="P24">
-        <v>2.4633110582640647</v>
+        <v>8.9066876171726204</v>
       </c>
       <c r="Q24">
-        <v>2.6883562177189404</v>
+        <v>8.9066876171725919</v>
       </c>
       <c r="R24">
-        <v>2.9134013771738516</v>
+        <v>8.9066876171726044</v>
       </c>
       <c r="S24">
-        <v>3.1384465366286598</v>
+        <v>8.9066876171726186</v>
       </c>
       <c r="T24">
-        <v>3.3634916960834822</v>
+        <v>8.9066876171726079</v>
       </c>
       <c r="U24">
-        <v>3.5885368555382975</v>
+        <v>8.9066876171725902</v>
       </c>
       <c r="V24">
-        <v>3.8135820149931696</v>
+        <v>8.906687617172647</v>
       </c>
       <c r="W24">
-        <v>4.038627174447992</v>
+        <v>8.9066876171726204</v>
       </c>
       <c r="X24">
-        <v>4.2636723339028286</v>
+        <v>8.9066876171726079</v>
       </c>
       <c r="Y24">
-        <v>4.4887174933576475</v>
+        <v>8.9066876171726221</v>
       </c>
       <c r="Z24">
-        <v>4.7137626528126013</v>
+        <v>8.9066876171725902</v>
       </c>
       <c r="AA24">
-        <v>4.9388078122673811</v>
+        <v>8.9066876171725937</v>
       </c>
       <c r="AB24">
-        <v>5.163852971722342</v>
+        <v>8.9066876171726186</v>
       </c>
       <c r="AC24">
-        <v>5.3888981311770685</v>
+        <v>8.9066876171726044</v>
       </c>
       <c r="AD24">
-        <v>5.613943290631962</v>
+        <v>8.9066876171725902</v>
       </c>
       <c r="AE24">
-        <v>5.8389884500869975</v>
+        <v>8.906687617172647</v>
       </c>
       <c r="AF24">
-        <v>6.0640336095416423</v>
+        <v>8.9066876171725937</v>
       </c>
       <c r="AG24">
-        <v>6.289078768996486</v>
+        <v>8.9066876171726079</v>
       </c>
       <c r="AH24">
-        <v>6.5141239284513297</v>
+        <v>8.906687617172631</v>
       </c>
       <c r="AI24">
-        <v>6.7391690879061734</v>
+        <v>8.9066876171726044</v>
       </c>
       <c r="AJ24">
-        <v>6.9642142473609745</v>
+        <v>8.9066876171726062</v>
       </c>
       <c r="AK24">
-        <v>7.1892594068158964</v>
+        <v>8.9066876171726346</v>
       </c>
       <c r="AL24">
-        <v>7.4143045662707117</v>
+        <v>8.9066876171725902</v>
       </c>
       <c r="AM24">
-        <v>7.639349725725463</v>
+        <v>8.9066876171725635</v>
       </c>
       <c r="AN24">
-        <v>7.8643948851803991</v>
+        <v>8.9066876171726221</v>
       </c>
       <c r="AO24">
-        <v>8.0894400446353067</v>
+        <v>8.9066876171726204</v>
       </c>
       <c r="AP24">
-        <v>8.3144852040905484</v>
+        <v>8.9066876171726079</v>
       </c>
       <c r="AQ24">
-        <v>8.5395303635449018</v>
+        <v>8.9066876171726204</v>
       </c>
       <c r="AR24">
-        <v>8.7645755229997739</v>
+        <v>8.9066876171725777</v>
       </c>
       <c r="AS24">
-        <v>8.9896206824545821</v>
+        <v>8.9066876171726044</v>
       </c>
       <c r="AT24">
-        <v>9.2146658419094329</v>
+        <v>8.9066876171726186</v>
       </c>
       <c r="AU24">
-        <v>9.4397110013643406</v>
+        <v>8.9066876171726026</v>
       </c>
       <c r="AV24">
-        <v>9.6647561608191523</v>
+        <v>8.9066876171726328</v>
       </c>
       <c r="AW24">
-        <v>9.8898013202745538</v>
+        <v>8.9066876171726328</v>
       </c>
       <c r="AX24">
-        <v>10.114846479728772</v>
+        <v>8.9066876171726079</v>
       </c>
       <c r="AY24">
-        <v>10.339891639183438</v>
+        <v>8.9066876171726062</v>
       </c>
       <c r="AZ24">
-        <v>10.56493679863858</v>
+        <v>8.9066876171726062</v>
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>-29.22820468599291</v>
+        <v>0.29643116424103322</v>
       </c>
       <c r="B25">
         <v>0.05</v>
@@ -4505,323 +4505,323 @@
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>13.523545689378134</v>
+        <v>-0.68358278899174096</v>
       </c>
       <c r="B26">
-        <v>0.51999999999999735</v>
+        <v>0.51000000000000267</v>
       </c>
       <c r="C26">
-        <v>0.51999999999999824</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="D26">
-        <v>0.51999999999999913</v>
+        <v>0.51000000000000134</v>
       </c>
       <c r="E26">
-        <v>0.51999999999999647</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="F26">
-        <v>0.52000000000000179</v>
+        <v>0.51000000000000179</v>
       </c>
       <c r="G26">
-        <v>0.51999999999999469</v>
+        <v>0.50999999999999956</v>
       </c>
       <c r="H26">
-        <v>0.51999999999999913</v>
+        <v>0.51000000000000201</v>
       </c>
       <c r="I26">
-        <v>0.51999999999998403</v>
+        <v>0.51000000000000156</v>
       </c>
       <c r="J26">
-        <v>0.51999999999994939</v>
+        <v>0.51000000000000179</v>
       </c>
       <c r="K26">
-        <v>0.51999999999999469</v>
+        <v>0.51000000000000223</v>
       </c>
       <c r="L26">
-        <v>0.51999999999998581</v>
+        <v>0.51000000000000356</v>
       </c>
       <c r="M26">
-        <v>0.52000000000000091</v>
+        <v>0.51000000000000267</v>
       </c>
       <c r="N26">
-        <v>0.51999999999999913</v>
+        <v>0.51000000000000068</v>
       </c>
       <c r="O26">
-        <v>0.51999999999999735</v>
+        <v>0.51000000000000201</v>
       </c>
       <c r="P26">
-        <v>0.51999999999999647</v>
+        <v>0.51000000000000245</v>
       </c>
       <c r="Q26">
-        <v>0.51999999999999735</v>
+        <v>0.51000000000000156</v>
       </c>
       <c r="R26">
-        <v>0.51999999999997693</v>
+        <v>0.51000000000000134</v>
       </c>
       <c r="S26">
-        <v>0.51999999999999202</v>
+        <v>0.51000000000000134</v>
       </c>
       <c r="T26">
-        <v>0.51999999999999647</v>
+        <v>0.5100000000000029</v>
       </c>
       <c r="U26">
-        <v>0.51999999999999735</v>
+        <v>0.51000000000000179</v>
       </c>
       <c r="V26">
-        <v>0.52000000000000268</v>
+        <v>0.51000000000000134</v>
       </c>
       <c r="W26">
-        <v>0.52000000000000179</v>
+        <v>0.51000000000000267</v>
       </c>
       <c r="X26">
-        <v>0.52000000000000268</v>
+        <v>0.51000000000000112</v>
       </c>
       <c r="Y26">
-        <v>0.51999999999999647</v>
+        <v>0.51000000000000068</v>
       </c>
       <c r="Z26">
-        <v>0.51999999999999824</v>
+        <v>0.51000000000000134</v>
       </c>
       <c r="AA26">
-        <v>0.52</v>
+        <v>0.51000000000000068</v>
       </c>
       <c r="AB26">
-        <v>0.51999999999998492</v>
+        <v>0.51000000000000223</v>
       </c>
       <c r="AC26">
-        <v>0.52</v>
+        <v>0.51000000000000267</v>
       </c>
       <c r="AD26">
-        <v>0.52000000000000179</v>
+        <v>0.51000000000000179</v>
       </c>
       <c r="AE26">
-        <v>0.5199999999999867</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="AF26">
-        <v>0.52000000000000268</v>
+        <v>0.51000000000000334</v>
       </c>
       <c r="AG26">
-        <v>0.52</v>
+        <v>0.51000000000000156</v>
       </c>
       <c r="AH26">
-        <v>0.51999999999999647</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="AI26">
-        <v>0.52000000000000179</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="AJ26">
-        <v>0.52</v>
+        <v>0.51000000000000179</v>
       </c>
       <c r="AK26">
-        <v>0.51999999999999291</v>
+        <v>0.51000000000000156</v>
       </c>
       <c r="AL26">
-        <v>0.51999999999999469</v>
+        <v>0.51000000000000201</v>
       </c>
       <c r="AM26">
-        <v>0.51999999999999647</v>
+        <v>0.51000000000000201</v>
       </c>
       <c r="AN26">
-        <v>0.52</v>
+        <v>0.51000000000000334</v>
       </c>
       <c r="AO26">
-        <v>0.51999999999998048</v>
+        <v>0.50999999999999734</v>
       </c>
       <c r="AP26">
-        <v>0.51999999999999913</v>
+        <v>0.50999999999999979</v>
       </c>
       <c r="AQ26">
-        <v>0.51999999999999824</v>
+        <v>0.51000000000000068</v>
       </c>
       <c r="AR26">
-        <v>0.52000000000000179</v>
+        <v>0.51000000000000201</v>
       </c>
       <c r="AS26">
-        <v>0.51999999999999647</v>
+        <v>0.51000000000000045</v>
       </c>
       <c r="AT26">
-        <v>0.51999999999999291</v>
+        <v>0.51000000000000356</v>
       </c>
       <c r="AU26">
-        <v>0.52000000000000179</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="AV26">
-        <v>0.51999999999999913</v>
+        <v>0.50999999999999868</v>
       </c>
       <c r="AW26">
-        <v>0.52000000000000268</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="AX26">
-        <v>0.52</v>
+        <v>0.51000000000000112</v>
       </c>
       <c r="AY26">
-        <v>0.51999999999997337</v>
+        <v>0.51000000000000156</v>
       </c>
       <c r="AZ26">
-        <v>0.52</v>
+        <v>0.51000000000000112</v>
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2.4643966183290171</v>
+        <v>1.9256050710893</v>
       </c>
       <c r="B27">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="C27">
-        <v>1.4100000000000004</v>
+        <v>1.46</v>
       </c>
       <c r="D27">
-        <v>1.4100000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="E27">
-        <v>1.4100000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="F27">
-        <v>1.4099999999999993</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="G27">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999993</v>
       </c>
       <c r="H27">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="I27">
-        <v>1.4099999999999899</v>
+        <v>1.46</v>
       </c>
       <c r="J27">
-        <v>1.4100000000000392</v>
+        <v>1.46</v>
       </c>
       <c r="K27">
-        <v>1.4100000000000006</v>
+        <v>1.46</v>
       </c>
       <c r="L27">
-        <v>1.4100000000000068</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="M27">
-        <v>1.4100000000000004</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="N27">
-        <v>1.4099999999999759</v>
+        <v>1.46</v>
       </c>
       <c r="O27">
-        <v>1.4099999999999993</v>
+        <v>1.46</v>
       </c>
       <c r="P27">
-        <v>1.4100000000000004</v>
+        <v>1.46</v>
       </c>
       <c r="Q27">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="R27">
-        <v>1.4100000000000064</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="S27">
-        <v>1.4100000000000006</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="T27">
-        <v>1.4100000000000001</v>
+        <v>1.4600000000000002</v>
       </c>
       <c r="U27">
-        <v>1.4099999999999997</v>
+        <v>1.46</v>
       </c>
       <c r="V27">
-        <v>1.4099999999999995</v>
+        <v>1.46</v>
       </c>
       <c r="W27">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="X27">
-        <v>1.4100000000000004</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="Y27">
-        <v>1.4100000000000006</v>
+        <v>1.46</v>
       </c>
       <c r="Z27">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AA27">
-        <v>1.4100000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="AB27">
-        <v>1.4099999999999822</v>
+        <v>1.46</v>
       </c>
       <c r="AC27">
-        <v>1.4099999999999997</v>
+        <v>1.46</v>
       </c>
       <c r="AD27">
-        <v>1.4100000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="AE27">
-        <v>1.4099999999999966</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AF27">
-        <v>1.4100000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="AG27">
-        <v>1.4100000000000006</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="AH27">
-        <v>1.4100000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="AI27">
-        <v>1.41</v>
+        <v>1.4599999999999993</v>
       </c>
       <c r="AJ27">
-        <v>1.4100000000000006</v>
+        <v>1.4599999999999993</v>
       </c>
       <c r="AK27">
-        <v>1.4099999999999997</v>
+        <v>1.4600000000000002</v>
       </c>
       <c r="AL27">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AM27">
-        <v>1.4100000000000004</v>
+        <v>1.4600000000000002</v>
       </c>
       <c r="AN27">
-        <v>1.4100000000000001</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="AO27">
-        <v>1.4099999999999877</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AP27">
-        <v>1.4099999999999739</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="AQ27">
-        <v>1.4099999999999995</v>
+        <v>1.4600000000000002</v>
       </c>
       <c r="AR27">
-        <v>1.4099999999999997</v>
+        <v>1.4600000000000002</v>
       </c>
       <c r="AS27">
-        <v>1.4100000000000006</v>
+        <v>1.46</v>
       </c>
       <c r="AT27">
-        <v>1.4100000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="AU27">
-        <v>1.41</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AV27">
-        <v>1.4099999999999997</v>
+        <v>1.46</v>
       </c>
       <c r="AW27">
-        <v>1.409999999999991</v>
+        <v>1.4600000000000002</v>
       </c>
       <c r="AX27">
-        <v>1.4099999999999997</v>
+        <v>1.46</v>
       </c>
       <c r="AY27">
-        <v>1.4100000000000121</v>
+        <v>1.4600000000000002</v>
       </c>
       <c r="AZ27">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>7.8313099001972128</v>
+        <v>-4.9900694155113481</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>13.286955577457221</v>
+        <v>50.485175861319718</v>
       </c>
       <c r="B29">
         <v>88.219999999999985</v>
@@ -4988,148 +4988,148 @@
         <v>88.219999999999985</v>
       </c>
       <c r="D29">
-        <v>88.219999999999956</v>
+        <v>88.219999999999985</v>
       </c>
       <c r="E29">
+        <v>88.22</v>
+      </c>
+      <c r="F29">
         <v>88.219999999999985</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>88.22</v>
-      </c>
-      <c r="G29">
-        <v>88.219999999999942</v>
       </c>
       <c r="H29">
         <v>88.21999999999997</v>
       </c>
       <c r="I29">
-        <v>88.220000000001065</v>
+        <v>88.22</v>
       </c>
       <c r="J29">
-        <v>88.220000000005768</v>
+        <v>88.22</v>
       </c>
       <c r="K29">
+        <v>88.22</v>
+      </c>
+      <c r="L29">
+        <v>88.22</v>
+      </c>
+      <c r="M29">
         <v>88.21999999999997</v>
       </c>
-      <c r="L29">
-        <v>88.220000000000127</v>
-      </c>
-      <c r="M29">
+      <c r="N29">
+        <v>88.21999999999997</v>
+      </c>
+      <c r="O29">
+        <v>88.219999999999985</v>
+      </c>
+      <c r="P29">
         <v>88.22</v>
       </c>
-      <c r="N29">
-        <v>88.219999999997867</v>
-      </c>
-      <c r="O29">
-        <v>88.219999999999899</v>
-      </c>
-      <c r="P29">
+      <c r="Q29">
+        <v>88.22</v>
+      </c>
+      <c r="R29">
+        <v>88.21999999999997</v>
+      </c>
+      <c r="S29">
         <v>88.219999999999985</v>
       </c>
-      <c r="Q29">
-        <v>88.21999999999997</v>
-      </c>
-      <c r="R29">
-        <v>88.220000000001292</v>
-      </c>
-      <c r="S29">
-        <v>88.21999999999997</v>
-      </c>
       <c r="T29">
+        <v>88.22</v>
+      </c>
+      <c r="U29">
+        <v>88.22</v>
+      </c>
+      <c r="V29">
+        <v>88.22</v>
+      </c>
+      <c r="W29">
         <v>88.219999999999985</v>
       </c>
-      <c r="U29">
+      <c r="X29">
+        <v>88.22</v>
+      </c>
+      <c r="Y29">
+        <v>88.22</v>
+      </c>
+      <c r="Z29">
         <v>88.219999999999985</v>
       </c>
-      <c r="V29">
-        <v>88.219999999999956</v>
-      </c>
-      <c r="W29">
-        <v>88.219999999999928</v>
-      </c>
-      <c r="X29">
-        <v>88.219999999999942</v>
-      </c>
-      <c r="Y29">
-        <v>88.219999999999942</v>
-      </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>88.22</v>
       </c>
-      <c r="AA29">
-        <v>88.21999999999997</v>
-      </c>
       <c r="AB29">
-        <v>88.220000000000496</v>
+        <v>88.22</v>
       </c>
       <c r="AC29">
         <v>88.21999999999997</v>
       </c>
       <c r="AD29">
-        <v>88.219999999999956</v>
+        <v>88.22</v>
       </c>
       <c r="AE29">
-        <v>88.219999999999928</v>
+        <v>88.22</v>
       </c>
       <c r="AF29">
-        <v>88.219999999999956</v>
+        <v>88.219999999999985</v>
       </c>
       <c r="AG29">
-        <v>88.219999999999956</v>
+        <v>88.21999999999997</v>
       </c>
       <c r="AH29">
         <v>88.219999999999985</v>
       </c>
       <c r="AI29">
-        <v>88.219999999999985</v>
+        <v>88.21999999999997</v>
       </c>
       <c r="AJ29">
-        <v>88.219999999999914</v>
+        <v>88.22</v>
       </c>
       <c r="AK29">
-        <v>88.219999999999985</v>
+        <v>88.220000000000013</v>
       </c>
       <c r="AL29">
-        <v>88.219999999999942</v>
+        <v>88.22</v>
       </c>
       <c r="AM29">
-        <v>88.219999999999928</v>
+        <v>88.21999999999997</v>
       </c>
       <c r="AN29">
-        <v>88.219999999999956</v>
+        <v>88.21999999999997</v>
       </c>
       <c r="AO29">
-        <v>88.220000000000766</v>
+        <v>88.220000000000027</v>
       </c>
       <c r="AP29">
-        <v>88.219999999998549</v>
+        <v>88.21999999999997</v>
       </c>
       <c r="AQ29">
         <v>88.22</v>
       </c>
       <c r="AR29">
-        <v>88.219999999999942</v>
+        <v>88.22</v>
       </c>
       <c r="AS29">
-        <v>88.219999999999942</v>
+        <v>88.22</v>
       </c>
       <c r="AT29">
-        <v>88.219999999999956</v>
+        <v>88.22</v>
       </c>
       <c r="AU29">
+        <v>88.219999999999985</v>
+      </c>
+      <c r="AV29">
         <v>88.22</v>
       </c>
-      <c r="AV29">
+      <c r="AW29">
         <v>88.219999999999985</v>
       </c>
-      <c r="AW29">
-        <v>88.219999999997896</v>
-      </c>
       <c r="AX29">
+        <v>88.219999999999985</v>
+      </c>
+      <c r="AY29">
         <v>88.22</v>
-      </c>
-      <c r="AY29">
-        <v>88.220000000002429</v>
       </c>
       <c r="AZ29">
         <v>88.219999999999985</v>
@@ -5137,1108 +5137,1108 @@
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>4046.7364237700872</v>
+        <v>1048.1680503543525</v>
       </c>
       <c r="B30">
-        <v>319.88895224767998</v>
+        <v>297.09284809304194</v>
       </c>
       <c r="C30">
-        <v>330.73784747244599</v>
+        <v>307.37668223359537</v>
       </c>
       <c r="D30">
-        <v>341.58674269721524</v>
+        <v>318.01649008845749</v>
       </c>
       <c r="E30">
-        <v>352.43563792198285</v>
+        <v>329.02459364605846</v>
       </c>
       <c r="F30">
-        <v>363.28453314675085</v>
+        <v>340.41374141901065</v>
       </c>
       <c r="G30">
-        <v>374.13342837151833</v>
+        <v>352.19712320820133</v>
       </c>
       <c r="H30">
-        <v>384.98232359628781</v>
+        <v>364.3883853779285</v>
       </c>
       <c r="I30">
-        <v>395.83121882105405</v>
+        <v>377.00164665979253</v>
       </c>
       <c r="J30">
-        <v>406.68011404582234</v>
+        <v>390.05151450363383</v>
       </c>
       <c r="K30">
-        <v>417.52900927059045</v>
+        <v>403.55310199445893</v>
       </c>
       <c r="L30">
-        <v>428.37790449535805</v>
+        <v>417.52204535494315</v>
       </c>
       <c r="M30">
-        <v>439.22679972012509</v>
+        <v>431.97452205377772</v>
       </c>
       <c r="N30">
-        <v>450.075694944894</v>
+        <v>446.92726954083486</v>
       </c>
       <c r="O30">
-        <v>460.92459016966325</v>
+        <v>462.3976046308569</v>
       </c>
       <c r="P30">
-        <v>471.77348539442926</v>
+        <v>478.40344355809845</v>
       </c>
       <c r="Q30">
-        <v>482.62238061919828</v>
+        <v>494.96332272516725</v>
       </c>
       <c r="R30">
-        <v>493.47127584396588</v>
+        <v>512.09642017007354</v>
       </c>
       <c r="S30">
-        <v>504.32017106873371</v>
+        <v>529.82257777636812</v>
       </c>
       <c r="T30">
-        <v>515.16906629350092</v>
+        <v>548.16232425207602</v>
       </c>
       <c r="U30">
-        <v>526.01796151826898</v>
+        <v>567.13689890404862</v>
       </c>
       <c r="V30">
-        <v>536.86685674303794</v>
+        <v>586.76827623525423</v>
       </c>
       <c r="W30">
-        <v>547.71575196780543</v>
+        <v>607.07919139350815</v>
       </c>
       <c r="X30">
-        <v>558.56464719257224</v>
+        <v>628.0931665011035</v>
       </c>
       <c r="Y30">
-        <v>569.41354241734086</v>
+        <v>649.83453789584496</v>
       </c>
       <c r="Z30">
-        <v>580.26243764210892</v>
+        <v>672.32848431501577</v>
       </c>
       <c r="AA30">
-        <v>591.11133286687732</v>
+        <v>695.60105605494653</v>
       </c>
       <c r="AB30">
-        <v>601.96022809164674</v>
+        <v>719.67920513991487</v>
       </c>
       <c r="AC30">
-        <v>612.80912331641321</v>
+        <v>744.59081653537589</v>
       </c>
       <c r="AD30">
-        <v>623.65801854118172</v>
+        <v>770.36474044158376</v>
       </c>
       <c r="AE30">
-        <v>634.50691376594852</v>
+        <v>797.03082570510617</v>
       </c>
       <c r="AF30">
-        <v>645.35580899071738</v>
+        <v>824.61995438683289</v>
       </c>
       <c r="AG30">
-        <v>656.20470421548509</v>
+        <v>853.16407752657653</v>
       </c>
       <c r="AH30">
-        <v>667.05359944025236</v>
+        <v>882.69625214564996</v>
       </c>
       <c r="AI30">
-        <v>677.90249466502041</v>
+        <v>913.25067953028588</v>
       </c>
       <c r="AJ30">
-        <v>688.75138988979018</v>
+        <v>944.86274484023716</v>
       </c>
       <c r="AK30">
-        <v>699.60028511455698</v>
+        <v>977.56905808841918</v>
       </c>
       <c r="AL30">
-        <v>710.44918033932424</v>
+        <v>1011.4074965390477</v>
       </c>
       <c r="AM30">
-        <v>721.29807556409298</v>
+        <v>1046.4172485734084</v>
       </c>
       <c r="AN30">
-        <v>732.14697078886138</v>
+        <v>1082.6388590740189</v>
       </c>
       <c r="AO30">
-        <v>742.99586601362819</v>
+        <v>1120.1142763797488</v>
       </c>
       <c r="AP30">
-        <v>753.8447612383959</v>
+        <v>1158.886900866315</v>
       </c>
       <c r="AQ30">
-        <v>764.69365646316442</v>
+        <v>1199.0016352083419</v>
       </c>
       <c r="AR30">
-        <v>775.54255168793259</v>
+        <v>1240.5049363812896</v>
       </c>
       <c r="AS30">
-        <v>786.39144691269985</v>
+        <v>1283.4448694633825</v>
       </c>
       <c r="AT30">
-        <v>797.24034213746847</v>
+        <v>1327.8711632998829</v>
       </c>
       <c r="AU30">
-        <v>808.08923736223699</v>
+        <v>1373.8352680942328</v>
       </c>
       <c r="AV30">
-        <v>818.93813258700493</v>
+        <v>1421.3904149926143</v>
       </c>
       <c r="AW30">
-        <v>829.78702781177242</v>
+        <v>1470.5916777311218</v>
       </c>
       <c r="AX30">
-        <v>840.63592303654013</v>
+        <v>1521.4960364167512</v>
       </c>
       <c r="AY30">
-        <v>851.48481826130865</v>
+        <v>1574.1624435162553</v>
       </c>
       <c r="AZ30">
-        <v>862.33371348607545</v>
+        <v>1628.6518921290999</v>
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>-11397.23704360961</v>
+        <v>-5633.0891451200878</v>
       </c>
       <c r="B31">
-        <v>-102.72380918879935</v>
+        <v>26.217324072378688</v>
       </c>
       <c r="C31">
-        <v>-134.77787871328474</v>
+        <v>6.9397082907089498</v>
       </c>
       <c r="D31">
-        <v>-166.83194823778467</v>
+        <v>-12.337907490960788</v>
       </c>
       <c r="E31">
-        <v>-198.88601776227006</v>
+        <v>-31.61552327265963</v>
       </c>
       <c r="F31">
-        <v>-230.94008728675544</v>
+        <v>-50.893139054329367</v>
       </c>
       <c r="G31">
-        <v>-262.99415681125538</v>
+        <v>-70.170754835999105</v>
       </c>
       <c r="H31">
-        <v>-295.04822633574076</v>
+        <v>-89.448370617697947</v>
       </c>
       <c r="I31">
-        <v>-327.10229586022615</v>
+        <v>-108.72598639936768</v>
       </c>
       <c r="J31">
-        <v>-359.15636538472609</v>
+        <v>-128.00360218103742</v>
       </c>
       <c r="K31">
-        <v>-391.21043490921147</v>
+        <v>-147.28121796273626</v>
       </c>
       <c r="L31">
-        <v>-423.26450443369686</v>
+        <v>-166.558833744406</v>
       </c>
       <c r="M31">
-        <v>-455.31857395819679</v>
+        <v>-185.83644952610484</v>
       </c>
       <c r="N31">
-        <v>-487.37264348268218</v>
+        <v>-205.11406530777458</v>
       </c>
       <c r="O31">
-        <v>-519.42671300716756</v>
+        <v>-224.39168108944432</v>
       </c>
       <c r="P31">
-        <v>-551.4807825316675</v>
+        <v>-243.66929687114316</v>
       </c>
       <c r="Q31">
-        <v>-583.53485205615289</v>
+        <v>-262.9469126528129</v>
       </c>
       <c r="R31">
-        <v>-615.58892158063827</v>
+        <v>-282.22452843448264</v>
       </c>
       <c r="S31">
-        <v>-647.64299110513821</v>
+        <v>-301.50214421618148</v>
       </c>
       <c r="T31">
-        <v>-679.69706062962359</v>
+        <v>-320.77975999785122</v>
       </c>
       <c r="U31">
-        <v>-711.75113015410898</v>
+        <v>-340.05737577955006</v>
       </c>
       <c r="V31">
-        <v>-743.80519967859436</v>
+        <v>-359.33499156121979</v>
       </c>
       <c r="W31">
-        <v>-775.8592692030943</v>
+        <v>-378.61260734288953</v>
       </c>
       <c r="X31">
-        <v>-807.91333872757968</v>
+        <v>-397.89022312458837</v>
       </c>
       <c r="Y31">
-        <v>-839.96740825206507</v>
+        <v>-417.16783890625811</v>
       </c>
       <c r="Z31">
-        <v>-872.02147777656501</v>
+        <v>-436.44545468792785</v>
       </c>
       <c r="AA31">
-        <v>-904.07554730105039</v>
+        <v>-455.72307046962669</v>
       </c>
       <c r="AB31">
-        <v>-936.12961682553578</v>
+        <v>-475.00068625129643</v>
       </c>
       <c r="AC31">
-        <v>-968.18368635003571</v>
+        <v>-494.27830203296617</v>
       </c>
       <c r="AD31">
-        <v>-1000.2377558745211</v>
+        <v>-513.55591781466501</v>
       </c>
       <c r="AE31">
-        <v>-1032.2918253990065</v>
+        <v>-532.83353359633475</v>
       </c>
       <c r="AF31">
-        <v>-1064.3458949235064</v>
+        <v>-552.11114937803359</v>
       </c>
       <c r="AG31">
-        <v>-1096.3999644479918</v>
+        <v>-571.38876515970333</v>
       </c>
       <c r="AH31">
-        <v>-1128.4540339724772</v>
+        <v>-590.66638094137306</v>
       </c>
       <c r="AI31">
-        <v>-1160.5081034969771</v>
+        <v>-609.9439967230719</v>
       </c>
       <c r="AJ31">
-        <v>-1192.5621730214625</v>
+        <v>-629.22161250474164</v>
       </c>
       <c r="AK31">
-        <v>-1224.6162425459479</v>
+        <v>-648.49922828641138</v>
       </c>
       <c r="AL31">
-        <v>-1256.6703120704478</v>
+        <v>-667.77684406811022</v>
       </c>
       <c r="AM31">
-        <v>-1288.7243815949332</v>
+        <v>-687.05445984977996</v>
       </c>
       <c r="AN31">
-        <v>-1320.7784511194186</v>
+        <v>-706.3320756314788</v>
       </c>
       <c r="AO31">
-        <v>-1352.8325206439185</v>
+        <v>-725.60969141314854</v>
       </c>
       <c r="AP31">
-        <v>-1384.8865901684039</v>
+        <v>-744.88730719481828</v>
       </c>
       <c r="AQ31">
-        <v>-1416.9406596928893</v>
+        <v>-764.16492297651712</v>
       </c>
       <c r="AR31">
-        <v>-1448.9947292173892</v>
+        <v>-783.44253875818686</v>
       </c>
       <c r="AS31">
-        <v>-1481.0487987418746</v>
+        <v>-802.72015453985659</v>
       </c>
       <c r="AT31">
-        <v>-1513.10286826636</v>
+        <v>-821.99777032155544</v>
       </c>
       <c r="AU31">
-        <v>-1545.15693779086</v>
+        <v>-841.27538610322517</v>
       </c>
       <c r="AV31">
-        <v>-1577.2110073153453</v>
+        <v>-860.55300188489491</v>
       </c>
       <c r="AW31">
-        <v>-1609.2650768398307</v>
+        <v>-879.83061766659375</v>
       </c>
       <c r="AX31">
-        <v>-1641.3191463643307</v>
+        <v>-899.10823344826349</v>
       </c>
       <c r="AY31">
-        <v>-1673.373215888816</v>
+        <v>-918.38584922996233</v>
       </c>
       <c r="AZ31">
-        <v>-1705.4272854133014</v>
+        <v>-937.66346501163207</v>
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>25.386505531881824</v>
+        <v>15.910526487826466</v>
       </c>
       <c r="B32">
-        <v>5.9599999999999991</v>
+        <v>6.2199999999999935</v>
       </c>
       <c r="C32">
-        <v>6.2060000000000048</v>
+        <v>6.4920000000000009</v>
       </c>
       <c r="D32">
-        <v>6.4520000000000008</v>
+        <v>6.7639999999999976</v>
       </c>
       <c r="E32">
-        <v>6.6980000000000004</v>
+        <v>7.0359999999999978</v>
       </c>
       <c r="F32">
-        <v>6.9439999999999991</v>
+        <v>7.3079999999999963</v>
       </c>
       <c r="G32">
-        <v>7.1899999999999942</v>
+        <v>7.5799999999999965</v>
       </c>
       <c r="H32">
-        <v>7.436000000000007</v>
+        <v>7.851999999999995</v>
       </c>
       <c r="I32">
-        <v>7.6820000000000039</v>
+        <v>8.1239999999999917</v>
       </c>
       <c r="J32">
-        <v>7.9280000000000017</v>
+        <v>8.3959999999999972</v>
       </c>
       <c r="K32">
-        <v>8.1739999999999977</v>
+        <v>8.668000000000001</v>
       </c>
       <c r="L32">
-        <v>8.4200000000000053</v>
+        <v>8.94</v>
       </c>
       <c r="M32">
-        <v>8.6660000000000021</v>
+        <v>9.2119999999999926</v>
       </c>
       <c r="N32">
-        <v>8.911999999999999</v>
+        <v>9.4839999999999982</v>
       </c>
       <c r="O32">
-        <v>9.1580000000000084</v>
+        <v>9.7560000000000002</v>
       </c>
       <c r="P32">
-        <v>9.4039999999999964</v>
+        <v>10.027999999999997</v>
       </c>
       <c r="Q32">
-        <v>9.6500000000000021</v>
+        <v>10.299999999999997</v>
       </c>
       <c r="R32">
-        <v>9.8959999999999919</v>
+        <v>10.571999999999996</v>
       </c>
       <c r="S32">
-        <v>10.142000000000001</v>
+        <v>10.843999999999996</v>
       </c>
       <c r="T32">
-        <v>10.388000000000002</v>
+        <v>11.116</v>
       </c>
       <c r="U32">
-        <v>10.634</v>
+        <v>11.387999999999996</v>
       </c>
       <c r="V32">
-        <v>10.88</v>
+        <v>11.659999999999998</v>
       </c>
       <c r="W32">
-        <v>11.126000000000001</v>
+        <v>11.931999999999999</v>
       </c>
       <c r="X32">
-        <v>11.372</v>
+        <v>12.203999999999999</v>
       </c>
       <c r="Y32">
-        <v>11.618000000000009</v>
+        <v>12.475999999999996</v>
       </c>
       <c r="Z32">
-        <v>11.864000000000004</v>
+        <v>12.748000000000001</v>
       </c>
       <c r="AA32">
-        <v>12.110000000000003</v>
+        <v>13.019999999999996</v>
       </c>
       <c r="AB32">
-        <v>12.356000000000009</v>
+        <v>13.291999999999996</v>
       </c>
       <c r="AC32">
-        <v>12.601999999999999</v>
+        <v>13.563999999999997</v>
       </c>
       <c r="AD32">
-        <v>12.848000000000001</v>
+        <v>13.835999999999999</v>
       </c>
       <c r="AE32">
-        <v>13.093999999999998</v>
+        <v>14.107999999999995</v>
       </c>
       <c r="AF32">
-        <v>13.339999999999996</v>
+        <v>14.379999999999999</v>
       </c>
       <c r="AG32">
-        <v>13.586000000000006</v>
+        <v>14.651999999999992</v>
       </c>
       <c r="AH32">
-        <v>13.832000000000001</v>
+        <v>14.923999999999994</v>
       </c>
       <c r="AI32">
-        <v>14.077999999999999</v>
+        <v>15.195999999999996</v>
       </c>
       <c r="AJ32">
-        <v>14.324000000000007</v>
+        <v>15.467999999999995</v>
       </c>
       <c r="AK32">
-        <v>14.569999999999997</v>
+        <v>15.739999999999997</v>
       </c>
       <c r="AL32">
-        <v>14.815999999999999</v>
+        <v>16.011999999999997</v>
       </c>
       <c r="AM32">
-        <v>15.062000000000005</v>
+        <v>16.283999999999999</v>
       </c>
       <c r="AN32">
-        <v>15.308000000000003</v>
+        <v>16.555999999999997</v>
       </c>
       <c r="AO32">
-        <v>15.554000000000002</v>
+        <v>16.827999999999996</v>
       </c>
       <c r="AP32">
-        <v>15.799999999999999</v>
+        <v>17.099999999999994</v>
       </c>
       <c r="AQ32">
-        <v>16.045999999999999</v>
+        <v>17.371999999999993</v>
       </c>
       <c r="AR32">
-        <v>16.292000000000009</v>
+        <v>17.643999999999998</v>
       </c>
       <c r="AS32">
-        <v>16.538000000000004</v>
+        <v>17.915999999999997</v>
       </c>
       <c r="AT32">
-        <v>16.784000000000002</v>
+        <v>18.188000000000002</v>
       </c>
       <c r="AU32">
-        <v>17.030000000000012</v>
+        <v>18.459999999999994</v>
       </c>
       <c r="AV32">
-        <v>17.276000000000003</v>
+        <v>18.731999999999999</v>
       </c>
       <c r="AW32">
-        <v>17.522000000000002</v>
+        <v>19.003999999999998</v>
       </c>
       <c r="AX32">
-        <v>17.768000000000008</v>
+        <v>19.275999999999996</v>
       </c>
       <c r="AY32">
-        <v>18.01400000000001</v>
+        <v>19.547999999999998</v>
       </c>
       <c r="AZ32">
-        <v>18.260000000000005</v>
+        <v>19.819999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>-1.0470332007827632</v>
+        <v>-2.7167132554108564</v>
       </c>
       <c r="B33">
-        <v>-3.7467095548232909E-2</v>
+        <v>-3.7467095548234797E-2</v>
       </c>
       <c r="C33">
-        <v>-5.0096343775781427E-2</v>
+        <v>-5.0096343775784868E-2</v>
       </c>
       <c r="D33">
-        <v>-6.2725592003333941E-2</v>
+        <v>-6.2725592003335384E-2</v>
       </c>
       <c r="E33">
-        <v>-7.5354840230886677E-2</v>
+        <v>-7.5354840230887676E-2</v>
       </c>
       <c r="F33">
-        <v>-8.7984088458435861E-2</v>
+        <v>-8.7984088458435972E-2</v>
       </c>
       <c r="G33">
-        <v>-0.10061333668598771</v>
+        <v>-0.10061333668598782</v>
       </c>
       <c r="H33">
-        <v>-0.11324258491353889</v>
+        <v>-0.11324258491354056</v>
       </c>
       <c r="I33">
-        <v>-0.12587183314108918</v>
+        <v>-0.12587183314109063</v>
       </c>
       <c r="J33">
-        <v>-0.13850108136864148</v>
+        <v>-0.13850108136864292</v>
       </c>
       <c r="K33">
-        <v>-0.15113032959619199</v>
+        <v>-0.15113032959619344</v>
       </c>
       <c r="L33">
-        <v>-0.16375957782374273</v>
+        <v>-0.16375957782374351</v>
       </c>
       <c r="M33">
-        <v>-0.17638882605129369</v>
+        <v>-0.17638882605129624</v>
       </c>
       <c r="N33">
-        <v>-0.18901807427884376</v>
+        <v>-0.18901807427884632</v>
       </c>
       <c r="O33">
-        <v>-0.20164732250639472</v>
+        <v>-0.20164732250639505</v>
       </c>
       <c r="P33">
-        <v>-0.21427657073394613</v>
+        <v>-0.21427657073394868</v>
       </c>
       <c r="Q33">
-        <v>-0.22690581896149642</v>
+        <v>-0.22690581896149753</v>
       </c>
       <c r="R33">
-        <v>-0.2395350671890476</v>
+        <v>-0.23953506718905004</v>
       </c>
       <c r="S33">
-        <v>-0.25216431541659878</v>
+        <v>-0.25216431541659967</v>
       </c>
       <c r="T33">
-        <v>-0.26479356364414885</v>
+        <v>-0.26479356364414985</v>
       </c>
       <c r="U33">
-        <v>-0.27742281187170004</v>
+        <v>-0.27742281187170215</v>
       </c>
       <c r="V33">
-        <v>-0.29005206009925166</v>
+        <v>-0.29005206009925322</v>
       </c>
       <c r="W33">
-        <v>-0.30268130832680262</v>
+        <v>-0.30268130832680529</v>
       </c>
       <c r="X33">
-        <v>-0.31531055655435358</v>
+        <v>-0.31531055655435558</v>
       </c>
       <c r="Y33">
-        <v>-0.32793980478190499</v>
+        <v>-0.32793980478190565</v>
       </c>
       <c r="Z33">
-        <v>-0.34056905300945617</v>
+        <v>-0.34056905300945739</v>
       </c>
       <c r="AA33">
-        <v>-0.35319830123700824</v>
+        <v>-0.35319830123700624</v>
       </c>
       <c r="AB33">
-        <v>-0.36582754946455898</v>
+        <v>-0.36582754946455842</v>
       </c>
       <c r="AC33">
-        <v>-0.37845679769210927</v>
+        <v>-0.37845679769211205</v>
       </c>
       <c r="AD33">
-        <v>-0.39108604591965956</v>
+        <v>-0.39108604591966156</v>
       </c>
       <c r="AE33">
-        <v>-0.40371529414721186</v>
+        <v>-0.40371529414721086</v>
       </c>
       <c r="AF33">
-        <v>-0.41634454237476104</v>
+        <v>-0.4163445423747637</v>
       </c>
       <c r="AG33">
-        <v>-0.42897379060231222</v>
+        <v>-0.428973790602315</v>
       </c>
       <c r="AH33">
-        <v>-0.44160303882986318</v>
+        <v>-0.44160303882986418</v>
       </c>
       <c r="AI33">
-        <v>-0.45423228705741525</v>
+        <v>-0.45423228705741603</v>
       </c>
       <c r="AJ33">
-        <v>-0.4668615352849651</v>
+        <v>-0.46686153528496777</v>
       </c>
       <c r="AK33">
-        <v>-0.47949078351251606</v>
+        <v>-0.47949078351251617</v>
       </c>
       <c r="AL33">
-        <v>-0.49212003174006791</v>
+        <v>-0.49212003174006835</v>
       </c>
       <c r="AM33">
-        <v>-0.50474927996761887</v>
+        <v>-0.50474927996761954</v>
       </c>
       <c r="AN33">
-        <v>-0.51737852819516916</v>
+        <v>-0.5173785281951726</v>
       </c>
       <c r="AO33">
-        <v>-0.53000777642272079</v>
+        <v>-0.53000777642272145</v>
       </c>
       <c r="AP33">
-        <v>-0.54263702465027308</v>
+        <v>-0.54263702465027319</v>
       </c>
       <c r="AQ33">
-        <v>-0.55526627287782249</v>
+        <v>-0.55526627287782393</v>
       </c>
       <c r="AR33">
-        <v>-0.56789552110537345</v>
+        <v>-0.56789552110537411</v>
       </c>
       <c r="AS33">
-        <v>-0.58052476933292463</v>
+        <v>-0.58052476933292452</v>
       </c>
       <c r="AT33">
-        <v>-0.5931540175604747</v>
+        <v>-0.59315401756047481</v>
       </c>
       <c r="AU33">
-        <v>-0.60578326578802677</v>
+        <v>-0.60578326578802688</v>
       </c>
       <c r="AV33">
-        <v>-0.61841251401557618</v>
+        <v>-0.61841251401557884</v>
       </c>
       <c r="AW33">
-        <v>-0.63104176224312936</v>
+        <v>-0.63104176224312836</v>
       </c>
       <c r="AX33">
-        <v>-0.64367101047068009</v>
+        <v>-0.64367101047067865</v>
       </c>
       <c r="AY33">
-        <v>-0.65630025869822928</v>
+        <v>-0.65630025869823228</v>
       </c>
       <c r="AZ33">
-        <v>-0.66892950692578057</v>
+        <v>-0.6689295069257809</v>
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>-14.554448215130906</v>
+        <v>8.7281648808791736</v>
       </c>
       <c r="B34">
-        <v>-0.69253568845145952</v>
+        <v>-1.0360257617200754</v>
       </c>
       <c r="C34">
-        <v>-0.80742080270606142</v>
+        <v>-1.1509108759746698</v>
       </c>
       <c r="D34">
-        <v>-0.92230591696066155</v>
+        <v>-1.2657959902292784</v>
       </c>
       <c r="E34">
-        <v>-1.0371910312152568</v>
+        <v>-1.3806811044838798</v>
       </c>
       <c r="F34">
-        <v>-1.1520761454698609</v>
+        <v>-1.4955662187384777</v>
       </c>
       <c r="G34">
-        <v>-1.2669612597244633</v>
+        <v>-1.6104513329930756</v>
       </c>
       <c r="H34">
-        <v>-1.3818463739790692</v>
+        <v>-1.7253364472476775</v>
       </c>
       <c r="I34">
-        <v>-1.4967314882336662</v>
+        <v>-1.8402215615022826</v>
       </c>
       <c r="J34">
-        <v>-1.6116166024882588</v>
+        <v>-1.9551066757568765</v>
       </c>
       <c r="K34">
-        <v>-1.726501716742862</v>
+        <v>-2.0699917900114815</v>
       </c>
       <c r="L34">
-        <v>-1.8413868309974613</v>
+        <v>-2.1848769042660865</v>
       </c>
       <c r="M34">
-        <v>-1.9562719452520689</v>
+        <v>-2.2997620185206813</v>
       </c>
       <c r="N34">
-        <v>-2.0711570595066653</v>
+        <v>-2.4146471327752757</v>
       </c>
       <c r="O34">
-        <v>-2.1860421737612787</v>
+        <v>-2.5295322470298802</v>
       </c>
       <c r="P34">
-        <v>-2.3009272880158629</v>
+        <v>-2.6444173612844821</v>
       </c>
       <c r="Q34">
-        <v>-2.4158124022704661</v>
+        <v>-2.7593024755390836</v>
       </c>
       <c r="R34">
-        <v>-2.5306975165250636</v>
+        <v>-2.8741875897936846</v>
       </c>
       <c r="S34">
-        <v>-2.6455826307796704</v>
+        <v>-2.9890727040482825</v>
       </c>
       <c r="T34">
-        <v>-2.7604677450342576</v>
+        <v>-3.1039578183028844</v>
       </c>
       <c r="U34">
-        <v>-2.8753528592888662</v>
+        <v>-3.2188429325574854</v>
       </c>
       <c r="V34">
-        <v>-2.9902379735434677</v>
+        <v>-3.3337280468120838</v>
       </c>
       <c r="W34">
-        <v>-3.1051230877980691</v>
+        <v>-3.4486131610666848</v>
       </c>
       <c r="X34">
-        <v>-3.220008202052667</v>
+        <v>-3.5634982753212832</v>
       </c>
       <c r="Y34">
-        <v>-3.3348933163072685</v>
+        <v>-3.6783833895758917</v>
       </c>
       <c r="Z34">
-        <v>-3.4497784305618739</v>
+        <v>-3.7932685038304892</v>
       </c>
       <c r="AA34">
-        <v>-3.5646635448164647</v>
+        <v>-3.9081536180850907</v>
       </c>
       <c r="AB34">
-        <v>-3.6795486590710795</v>
+        <v>-4.0230387323396917</v>
       </c>
       <c r="AC34">
-        <v>-3.7944337733256779</v>
+        <v>-4.1379238465942931</v>
       </c>
       <c r="AD34">
-        <v>-3.9093188875802798</v>
+        <v>-4.252808960848891</v>
       </c>
       <c r="AE34">
-        <v>-4.0242040018348701</v>
+        <v>-4.3676940751034854</v>
       </c>
       <c r="AF34">
-        <v>-4.1390891160894752</v>
+        <v>-4.4825791893580904</v>
       </c>
       <c r="AG34">
-        <v>-4.2539742303440731</v>
+        <v>-4.5974643036126954</v>
       </c>
       <c r="AH34">
-        <v>-4.3688593445986816</v>
+        <v>-4.7123494178672933</v>
       </c>
       <c r="AI34">
-        <v>-4.4837444588532795</v>
+        <v>-4.8272345321218948</v>
       </c>
       <c r="AJ34">
-        <v>-4.598629573107881</v>
+        <v>-4.9421196463764927</v>
       </c>
       <c r="AK34">
-        <v>-4.7135146873624825</v>
+        <v>-5.0570047606310942</v>
       </c>
       <c r="AL34">
-        <v>-4.8283998016170875</v>
+        <v>-5.1718898748857001</v>
       </c>
       <c r="AM34">
-        <v>-4.9432849158716818</v>
+        <v>-5.2867749891403015</v>
       </c>
       <c r="AN34">
-        <v>-5.0581700301262833</v>
+        <v>-5.401660103394895</v>
       </c>
       <c r="AO34">
-        <v>-5.1730551443808812</v>
+        <v>-5.5165452176494965</v>
       </c>
       <c r="AP34">
-        <v>-5.2879402586354827</v>
+        <v>-5.6314303319040944</v>
       </c>
       <c r="AQ34">
-        <v>-5.4028253728900806</v>
+        <v>-5.7463154461586994</v>
       </c>
       <c r="AR34">
-        <v>-5.517710487144682</v>
+        <v>-5.8612005604132937</v>
       </c>
       <c r="AS34">
-        <v>-5.6325956013992871</v>
+        <v>-5.9760856746678988</v>
       </c>
       <c r="AT34">
-        <v>-5.7474807156538885</v>
+        <v>-6.0909707889224931</v>
       </c>
       <c r="AU34">
-        <v>-5.8623658299084829</v>
+        <v>-6.2058559031771052</v>
       </c>
       <c r="AV34">
-        <v>-5.9772509441630879</v>
+        <v>-6.3207410174317014</v>
       </c>
       <c r="AW34">
-        <v>-6.0921360584176911</v>
+        <v>-6.4356261316863028</v>
       </c>
       <c r="AX34">
-        <v>-6.2070211726722802</v>
+        <v>-6.5505112459409043</v>
       </c>
       <c r="AY34">
-        <v>-6.3219062869268923</v>
+        <v>-6.665396360195504</v>
       </c>
       <c r="AZ34">
-        <v>-6.4367914011814884</v>
+        <v>-6.7802814744501063</v>
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>87.187247090907476</v>
+        <v>137.36621316738677</v>
       </c>
       <c r="B35">
-        <v>-0.80861314600425493</v>
+        <v>-0.49337161087513337</v>
       </c>
       <c r="C35">
-        <v>-0.54385413488116519</v>
+        <v>-0.22861259975170076</v>
       </c>
       <c r="D35">
-        <v>-0.27909512375768464</v>
+        <v>3.614641137161459E-2</v>
       </c>
       <c r="E35">
-        <v>-1.4336112634189879E-2</v>
+        <v>0.30090542249493168</v>
       </c>
       <c r="F35">
-        <v>0.25042289848890698</v>
+        <v>0.56566443361827723</v>
       </c>
       <c r="G35">
-        <v>0.51518190961238752</v>
+        <v>0.83042344474162277</v>
       </c>
       <c r="H35">
-        <v>0.77994092073576859</v>
+        <v>1.0951824558650003</v>
       </c>
       <c r="I35">
-        <v>1.0446999318590751</v>
+        <v>1.3599414669883441</v>
       </c>
       <c r="J35">
-        <v>1.3094589429824917</v>
+        <v>1.6247004781116026</v>
       </c>
       <c r="K35">
-        <v>1.5742179541057697</v>
+        <v>1.8894594892350618</v>
       </c>
       <c r="L35">
-        <v>1.8389769652290868</v>
+        <v>2.1542185003582954</v>
       </c>
       <c r="M35">
-        <v>2.1037359763524606</v>
+        <v>2.418977511481728</v>
       </c>
       <c r="N35">
-        <v>2.368494987475831</v>
+        <v>2.683736522605102</v>
       </c>
       <c r="O35">
-        <v>2.6332539985990948</v>
+        <v>2.9484955337284457</v>
       </c>
       <c r="P35">
-        <v>2.8980130097224688</v>
+        <v>3.2132545448518215</v>
       </c>
       <c r="Q35">
-        <v>3.1627720208458463</v>
+        <v>3.4780135559751368</v>
       </c>
       <c r="R35">
-        <v>3.4275310319693126</v>
+        <v>3.7427725670984238</v>
       </c>
       <c r="S35">
-        <v>3.6922900430925338</v>
+        <v>4.0075315782218262</v>
       </c>
       <c r="T35">
-        <v>3.9570490542157941</v>
+        <v>4.2722905893451468</v>
       </c>
       <c r="U35">
-        <v>4.2218080653392249</v>
+        <v>4.537049600468432</v>
       </c>
       <c r="V35">
-        <v>4.486567076462542</v>
+        <v>4.8018086115918894</v>
       </c>
       <c r="W35">
-        <v>4.7513260875860013</v>
+        <v>5.0665676227152368</v>
       </c>
       <c r="X35">
-        <v>5.0160850987093468</v>
+        <v>5.3313266338386409</v>
       </c>
       <c r="Y35">
-        <v>5.2808441098326142</v>
+        <v>5.5960856449619616</v>
       </c>
       <c r="Z35">
-        <v>5.5456031209560663</v>
+        <v>5.860844656085245</v>
       </c>
       <c r="AA35">
-        <v>5.810362132079355</v>
+        <v>6.1256036672086225</v>
       </c>
       <c r="AB35">
-        <v>6.0751211432027326</v>
+        <v>6.3903626783318508</v>
       </c>
       <c r="AC35">
-        <v>6.3398801543260177</v>
+        <v>6.6551216894552532</v>
       </c>
       <c r="AD35">
-        <v>6.6046391654493917</v>
+        <v>6.9198807005785987</v>
       </c>
       <c r="AE35">
-        <v>6.8693981765726804</v>
+        <v>7.1846397117019993</v>
       </c>
       <c r="AF35">
-        <v>7.1341571876959975</v>
+        <v>7.4493987228252916</v>
       </c>
       <c r="AG35">
-        <v>7.3989161988193146</v>
+        <v>7.7141577339486673</v>
       </c>
       <c r="AH35">
-        <v>7.6636752099426602</v>
+        <v>7.9789167450719809</v>
       </c>
       <c r="AI35">
-        <v>7.9284342210661194</v>
+        <v>8.2436757561953549</v>
       </c>
       <c r="AJ35">
-        <v>8.1931932321893797</v>
+        <v>8.5084347673187573</v>
       </c>
       <c r="AK35">
-        <v>8.4579522433127252</v>
+        <v>8.7731937784420495</v>
       </c>
       <c r="AL35">
-        <v>8.7227112544360708</v>
+        <v>9.0379527895654501</v>
       </c>
       <c r="AM35">
-        <v>8.9874702655593879</v>
+        <v>9.3027118006887957</v>
       </c>
       <c r="AN35">
-        <v>9.2522292766827903</v>
+        <v>9.5674708118121004</v>
       </c>
       <c r="AO35">
-        <v>9.5169882878062104</v>
+        <v>9.8322298229354708</v>
       </c>
       <c r="AP35">
-        <v>9.7817472989294636</v>
+        <v>10.096988834058877</v>
       </c>
       <c r="AQ35">
-        <v>10.046506310052884</v>
+        <v>10.361747845182165</v>
       </c>
       <c r="AR35">
-        <v>10.311265321176172</v>
+        <v>10.626506856305523</v>
       </c>
       <c r="AS35">
-        <v>10.576024332299603</v>
+        <v>10.891265867428881</v>
       </c>
       <c r="AT35">
-        <v>10.84078334342292</v>
+        <v>11.156024878552198</v>
       </c>
       <c r="AU35">
-        <v>11.105542354546266</v>
+        <v>11.420783889675516</v>
       </c>
       <c r="AV35">
-        <v>11.370301365669611</v>
+        <v>11.685542900798946</v>
       </c>
       <c r="AW35">
-        <v>11.635060376792964</v>
+        <v>11.950301911922292</v>
       </c>
       <c r="AX35">
-        <v>11.899819387916388</v>
+        <v>12.215060923045625</v>
       </c>
       <c r="AY35">
-        <v>12.164578399039744</v>
+        <v>12.479819934168944</v>
       </c>
       <c r="AZ35">
-        <v>12.429337410162994</v>
+        <v>12.744578945292275</v>
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>-39.483515239477441</v>
+        <v>-12.640548269482377</v>
       </c>
       <c r="B36">
-        <v>-25.437940038494034</v>
+        <v>-9.1778305227763646</v>
       </c>
       <c r="C36">
-        <v>-25.524995064250522</v>
+        <v>-9.3122637838706659</v>
       </c>
       <c r="D36">
-        <v>-25.611946962729814</v>
+        <v>-9.44649824019268</v>
       </c>
       <c r="E36">
-        <v>-25.698798032214665</v>
+        <v>-9.5805339434575245</v>
       </c>
       <c r="F36">
-        <v>-25.785547150157949</v>
+        <v>-9.7143713307590858</v>
       </c>
       <c r="G36">
-        <v>-25.872196127880464</v>
+        <v>-9.8480103631134241</v>
       </c>
       <c r="H36">
-        <v>-25.958743611687819</v>
+        <v>-9.9814517682732529</v>
       </c>
       <c r="I36">
-        <v>-26.0451892997405</v>
+        <v>-10.114695627993131</v>
       </c>
       <c r="J36">
-        <v>-26.131534903796094</v>
+        <v>-10.247742138626991</v>
       </c>
       <c r="K36">
-        <v>-26.217779266810592</v>
+        <v>-10.380591968517061</v>
       </c>
       <c r="L36">
-        <v>-26.303923498478433</v>
+        <v>-10.513245005481098</v>
       </c>
       <c r="M36">
-        <v>-26.389965736440125</v>
+        <v>-10.645701732501156</v>
       </c>
       <c r="N36">
-        <v>-26.475909174127455</v>
+        <v>-10.777962385671113</v>
       </c>
       <c r="O36">
-        <v>-26.561751168937509</v>
+        <v>-10.910027262841959</v>
       </c>
       <c r="P36">
-        <v>-26.647493204471452</v>
+        <v>-11.041896816808883</v>
       </c>
       <c r="Q36">
-        <v>-26.733134454992335</v>
+        <v>-11.173570848236913</v>
       </c>
       <c r="R36">
-        <v>-26.818677213339814</v>
+        <v>-11.30504998526124</v>
       </c>
       <c r="S36">
-        <v>-26.904119540022808</v>
+        <v>-11.436334947971606</v>
       </c>
       <c r="T36">
-        <v>-26.989461757969302</v>
+        <v>-11.567425148057131</v>
       </c>
       <c r="U36">
-        <v>-27.074704765611813</v>
+        <v>-11.698321518911403</v>
       </c>
       <c r="V36">
-        <v>-27.159847131627824</v>
+        <v>-11.829024194600024</v>
       </c>
       <c r="W36">
-        <v>-27.244891579103236</v>
+        <v>-11.959533264506961</v>
       </c>
       <c r="X36">
-        <v>-27.329836033476084</v>
+        <v>-12.089849197212832</v>
       </c>
       <c r="Y36">
-        <v>-27.414680869416586</v>
+        <v>-12.21997217839813</v>
       </c>
       <c r="Z36">
-        <v>-27.499427076394145</v>
+        <v>-12.349902678212244</v>
       </c>
       <c r="AA36">
-        <v>-27.584074902387623</v>
+        <v>-12.479640777025736</v>
       </c>
       <c r="AB36">
-        <v>-27.668623302868244</v>
+        <v>-12.609186862726752</v>
       </c>
       <c r="AC36">
-        <v>-27.753073138601614</v>
+        <v>-12.738541191149599</v>
       </c>
       <c r="AD36">
-        <v>-27.837424357024709</v>
+        <v>-12.867704132134728</v>
       </c>
       <c r="AE36">
-        <v>-27.92167725488688</v>
+        <v>-12.996675764038002</v>
       </c>
       <c r="AF36">
-        <v>-28.005831283437111</v>
+        <v>-13.125456660041291</v>
       </c>
       <c r="AG36">
-        <v>-28.089887961941873</v>
+        <v>-13.254046750755554</v>
       </c>
       <c r="AH36">
-        <v>-28.173846122278846</v>
+        <v>-13.382446537275905</v>
       </c>
       <c r="AI36">
-        <v>-28.257705816835553</v>
+        <v>-13.510656336129955</v>
       </c>
       <c r="AJ36">
-        <v>-28.34146731553837</v>
+        <v>-13.63867627231139</v>
       </c>
       <c r="AK36">
-        <v>-28.425131507160508</v>
+        <v>-13.766506824085333</v>
       </c>
       <c r="AL36">
-        <v>-28.508698412703538</v>
+        <v>-13.894148027758257</v>
       </c>
       <c r="AM36">
-        <v>-28.592167392706671</v>
+        <v>-14.021600431727999</v>
       </c>
       <c r="AN36">
-        <v>-28.67553890487773</v>
+        <v>-14.148864183705257</v>
       </c>
       <c r="AO36">
-        <v>-28.758813287396833</v>
+        <v>-14.27593946153487</v>
       </c>
       <c r="AP36">
-        <v>-28.841990157529306</v>
+        <v>-14.402826977539174</v>
       </c>
       <c r="AQ36">
-        <v>-28.925069964618654</v>
+        <v>-14.529526062743637</v>
       </c>
       <c r="AR36">
-        <v>-29.008052544342767</v>
+        <v>-14.65603792883563</v>
       </c>
       <c r="AS36">
-        <v>-29.090938808950639</v>
+        <v>-14.782362719221641</v>
       </c>
       <c r="AT36">
-        <v>-29.173727868871403</v>
+        <v>-14.908500086455767</v>
       </c>
       <c r="AU36">
-        <v>-29.256420396890938</v>
+        <v>-15.034450985548142</v>
       </c>
       <c r="AV36">
-        <v>-29.339016320445342</v>
+        <v>-15.160215741224503</v>
       </c>
       <c r="AW36">
-        <v>-29.421515821126764</v>
+        <v>-15.285793973818562</v>
       </c>
       <c r="AX36">
-        <v>-29.503919280376522</v>
+        <v>-15.411186418913324</v>
       </c>
       <c r="AY36">
-        <v>-29.586226521110049</v>
+        <v>-15.536393446011454</v>
       </c>
       <c r="AZ36">
-        <v>-29.668436858440806</v>
+        <v>-15.661414990605692</v>
       </c>
     </row>
   </sheetData>
@@ -6250,8 +6250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A0F314-E559-44C3-898A-119F771470C7}">
   <dimension ref="A1:B213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B213"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6269,7 +6269,7 @@
         <v>1967.25</v>
       </c>
       <c r="B2">
-        <v>2.7038437211276189</v>
+        <v>3.1217449205119374</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6277,7 +6277,7 @@
         <v>1967.5</v>
       </c>
       <c r="B3">
-        <v>3.0588776864243439</v>
+        <v>3.6657799366868193</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6285,7 +6285,7 @@
         <v>1967.75</v>
       </c>
       <c r="B4">
-        <v>2.9501456194241937</v>
+        <v>3.5951554663950613</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6293,7 +6293,7 @@
         <v>1968</v>
       </c>
       <c r="B5">
-        <v>3.2323244856874211</v>
+        <v>3.9271466382095888</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6301,7 +6301,7 @@
         <v>1968.25</v>
       </c>
       <c r="B6">
-        <v>3.5141898932191218</v>
+        <v>4.321677435607274</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6309,7 +6309,7 @@
         <v>1968.5</v>
       </c>
       <c r="B7">
-        <v>3.6521022459961472</v>
+        <v>4.5025162051775647</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6317,7 +6317,7 @@
         <v>1968.75</v>
       </c>
       <c r="B8">
-        <v>3.7669805316538296</v>
+        <v>4.7283532484367896</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6325,7 +6325,7 @@
         <v>1969</v>
       </c>
       <c r="B9">
-        <v>3.6438195150093167</v>
+        <v>4.5625069075881708</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6333,7 +6333,7 @@
         <v>1969.25</v>
       </c>
       <c r="B10">
-        <v>3.8288300815434217</v>
+        <v>4.8161710635896027</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6341,7 +6341,7 @@
         <v>1969.5</v>
       </c>
       <c r="B11">
-        <v>3.9953211850915382</v>
+        <v>4.7381865179139115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6349,7 +6349,7 @@
         <v>1969.75</v>
       </c>
       <c r="B12">
-        <v>4.296136455851185</v>
+        <v>4.9561278011516663</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6357,7 +6357,7 @@
         <v>1970</v>
       </c>
       <c r="B13">
-        <v>3.4175634433796009</v>
+        <v>3.6320163624337098</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6365,7 +6365,7 @@
         <v>1970.25</v>
       </c>
       <c r="B14">
-        <v>2.7736414353058292</v>
+        <v>2.6912294633031797</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6373,7 +6373,7 @@
         <v>1970.5</v>
       </c>
       <c r="B15">
-        <v>2.0651612461414226</v>
+        <v>2.0139921291421503</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6381,7 +6381,7 @@
         <v>1970.75</v>
       </c>
       <c r="B16">
-        <v>0.83922128276465724</v>
+        <v>0.67489930257234043</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -6389,7 +6389,7 @@
         <v>1971</v>
       </c>
       <c r="B17">
-        <v>1.5226174045315677</v>
+        <v>1.5182257736871652</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -6397,7 +6397,7 @@
         <v>1971.25</v>
       </c>
       <c r="B18">
-        <v>1.5483180845035527</v>
+        <v>1.5605981600486096</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -6405,7 +6405,7 @@
         <v>1971.5</v>
       </c>
       <c r="B19">
-        <v>1.0678166783832488</v>
+        <v>1.0158979849145711</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -6413,7 +6413,7 @@
         <v>1971.75</v>
       </c>
       <c r="B20">
-        <v>0.98269361068303862</v>
+        <v>0.97591273937462919</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -6421,7 +6421,7 @@
         <v>1972</v>
       </c>
       <c r="B21">
-        <v>0.79290318611828781</v>
+        <v>0.96944375906284908</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -6429,7 +6429,7 @@
         <v>1972.25</v>
       </c>
       <c r="B22">
-        <v>1.066524901030208</v>
+        <v>1.2536901909225406</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -6437,7 +6437,7 @@
         <v>1972.5</v>
       </c>
       <c r="B23">
-        <v>0.98686576558111305</v>
+        <v>1.1571177173290037</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -6445,7 +6445,7 @@
         <v>1972.75</v>
       </c>
       <c r="B24">
-        <v>1.3150813391661575</v>
+        <v>1.5677526746778137</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -6453,7 +6453,7 @@
         <v>1973</v>
       </c>
       <c r="B25">
-        <v>2.6108709059729174</v>
+        <v>3.0189354651204203</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6461,7 +6461,7 @@
         <v>1973.25</v>
       </c>
       <c r="B26">
-        <v>3.0975492985772846</v>
+        <v>3.4006461664701559</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -6469,7 +6469,7 @@
         <v>1973.5</v>
       </c>
       <c r="B27">
-        <v>3.2311624286672114</v>
+        <v>3.3555989001693209</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -6477,7 +6477,7 @@
         <v>1973.75</v>
       </c>
       <c r="B28">
-        <v>3.1695745976804357</v>
+        <v>3.2750078591151421</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -6485,7 +6485,7 @@
         <v>1974</v>
       </c>
       <c r="B29">
-        <v>2.9077487277143543</v>
+        <v>2.6996946513435427</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -6493,7 +6493,7 @@
         <v>1974.25</v>
       </c>
       <c r="B30">
-        <v>2.7021927914507859</v>
+        <v>2.4770241864704889</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -6501,7 +6501,7 @@
         <v>1974.5</v>
       </c>
       <c r="B31">
-        <v>2.1847885550002166</v>
+        <v>1.8896612506573707</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -6509,7 +6509,7 @@
         <v>1974.75</v>
       </c>
       <c r="B32">
-        <v>0.23571966408009182</v>
+        <v>6.8311422782629805E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -6517,7 +6517,7 @@
         <v>1975</v>
       </c>
       <c r="B33">
-        <v>-2.7410249607089376</v>
+        <v>-2.9064096154585939</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -6525,7 +6525,7 @@
         <v>1975.25</v>
       </c>
       <c r="B34">
-        <v>-3.7599174350313569</v>
+        <v>-3.9352288789090584</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -6533,7 +6533,7 @@
         <v>1975.5</v>
       </c>
       <c r="B35">
-        <v>-3.2236171339313224</v>
+        <v>-3.468605652766843</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -6541,7 +6541,7 @@
         <v>1975.75</v>
       </c>
       <c r="B36">
-        <v>-2.6900211129316287</v>
+        <v>-2.955703803721621</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -6549,7 +6549,7 @@
         <v>1976</v>
       </c>
       <c r="B37">
-        <v>-2.2088765706784863</v>
+        <v>-2.4026012081856951</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6557,7 +6557,7 @@
         <v>1976.25</v>
       </c>
       <c r="B38">
-        <v>-1.8133567066693446</v>
+        <v>-1.9936172973028743</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -6565,7 +6565,7 @@
         <v>1976.5</v>
       </c>
       <c r="B39">
-        <v>-2.2115604410741119</v>
+        <v>-2.4132514008579187</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -6573,7 +6573,7 @@
         <v>1976.75</v>
       </c>
       <c r="B40">
-        <v>-2.4599161848979922</v>
+        <v>-2.6596875728361669</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -6581,7 +6581,7 @@
         <v>1977</v>
       </c>
       <c r="B41">
-        <v>-2.4865367301529662</v>
+        <v>-2.6664225666895303</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -6589,7 +6589,7 @@
         <v>1977.25</v>
       </c>
       <c r="B42">
-        <v>-1.8310064548785809</v>
+        <v>-2.0015745395454143</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -6597,7 +6597,7 @@
         <v>1977.5</v>
       </c>
       <c r="B43">
-        <v>-1.3369453018011401</v>
+        <v>-1.5229363699876819</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -6605,7 +6605,7 @@
         <v>1977.75</v>
       </c>
       <c r="B44">
-        <v>-0.68686961137148783</v>
+        <v>-0.924680641736364</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6613,7 +6613,7 @@
         <v>1978</v>
       </c>
       <c r="B45">
-        <v>-0.49166785670995417</v>
+        <v>-0.73287709263073486</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -6621,7 +6621,7 @@
         <v>1978.25</v>
       </c>
       <c r="B46">
-        <v>0.19687598347359891</v>
+        <v>-3.837935757899924E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -6629,7 +6629,7 @@
         <v>1978.5</v>
       </c>
       <c r="B47">
-        <v>0.49116927162680124</v>
+        <v>0.2233601141204522</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -6637,7 +6637,7 @@
         <v>1978.75</v>
       </c>
       <c r="B48">
-        <v>0.8323797191658544</v>
+        <v>0.49768231277376174</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -6645,7 +6645,7 @@
         <v>1979</v>
       </c>
       <c r="B49">
-        <v>0.61361147091156809</v>
+        <v>0.20473156482878618</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -6653,7 +6653,7 @@
         <v>1979.25</v>
       </c>
       <c r="B50">
-        <v>0.68630518164591869</v>
+        <v>0.27505186548202332</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -6661,7 +6661,7 @@
         <v>1979.5</v>
       </c>
       <c r="B51">
-        <v>0.68538025665614288</v>
+        <v>0.24998439221752822</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -6669,7 +6669,7 @@
         <v>1979.75</v>
       </c>
       <c r="B52">
-        <v>0.35357720216953048</v>
+        <v>-0.1288435133417809</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -6677,7 +6677,7 @@
         <v>1980</v>
       </c>
       <c r="B53">
-        <v>-0.17085660881349662</v>
+        <v>-0.66408845792400584</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -6685,7 +6685,7 @@
         <v>1980.25</v>
       </c>
       <c r="B54">
-        <v>-2.650304939717163</v>
+        <v>-2.6856129030929266</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -6693,7 +6693,7 @@
         <v>1980.5</v>
       </c>
       <c r="B55">
-        <v>-3.7390648090920631</v>
+        <v>-3.9078726907999406</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -6701,7 +6701,7 @@
         <v>1980.75</v>
       </c>
       <c r="B56">
-        <v>-2.3313397071954567</v>
+        <v>-2.7041204818636033</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -6709,7 +6709,7 @@
         <v>1981</v>
       </c>
       <c r="B57">
-        <v>-1.732261628568843</v>
+        <v>-2.1835412120195907</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -6717,7 +6717,7 @@
         <v>1981.25</v>
       </c>
       <c r="B58">
-        <v>-2.3044649776587267</v>
+        <v>-2.7332194963146317</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -6725,7 +6725,7 @@
         <v>1981.5</v>
       </c>
       <c r="B59">
-        <v>-2.2479233359932405</v>
+        <v>-2.6153856694562716</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -6733,7 +6733,7 @@
         <v>1981.75</v>
       </c>
       <c r="B60">
-        <v>-3.5783661354941043</v>
+        <v>-3.7280584492712654</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -6741,7 +6741,7 @@
         <v>1982</v>
       </c>
       <c r="B61">
-        <v>-4.4814317616967081</v>
+        <v>-4.5970227534724355</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -6749,7 +6749,7 @@
         <v>1982.25</v>
       </c>
       <c r="B62">
-        <v>-5.1487015524945834</v>
+        <v>-5.1006974384943282</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -6757,7 +6757,7 @@
         <v>1982.5</v>
       </c>
       <c r="B63">
-        <v>-6.4343351848406343</v>
+        <v>-6.1577650646407633</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -6765,7 +6765,7 @@
         <v>1982.75</v>
       </c>
       <c r="B64">
-        <v>-7.1600231723981551</v>
+        <v>-7.0304554974207729</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -6773,7 +6773,7 @@
         <v>1983</v>
       </c>
       <c r="B65">
-        <v>-5.8662051160739743</v>
+        <v>-5.9647924014370464</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -6781,7 +6781,7 @@
         <v>1983.25</v>
       </c>
       <c r="B66">
-        <v>-6.1131840976005991</v>
+        <v>-6.2955487391306963</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -6789,7 +6789,7 @@
         <v>1983.5</v>
       </c>
       <c r="B67">
-        <v>-5.0216146874080376</v>
+        <v>-5.2021467125123788</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -6797,7 +6797,7 @@
         <v>1983.75</v>
       </c>
       <c r="B68">
-        <v>-3.6667563778225998</v>
+        <v>-3.8156582184027621</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -6805,7 +6805,7 @@
         <v>1984</v>
       </c>
       <c r="B69">
-        <v>-3.3294949206672864</v>
+        <v>-3.4264420161277509</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -6813,7 +6813,7 @@
         <v>1984.25</v>
       </c>
       <c r="B70">
-        <v>-2.8581949864267098</v>
+        <v>-2.9883749813335303</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -6821,7 +6821,7 @@
         <v>1984.5</v>
       </c>
       <c r="B71">
-        <v>-3.3120159742180522</v>
+        <v>-3.4868138293514428</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -6829,7 +6829,7 @@
         <v>1984.75</v>
       </c>
       <c r="B72">
-        <v>-2.8158752955951716</v>
+        <v>-2.9998893954190531</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -6837,7 +6837,7 @@
         <v>1985</v>
       </c>
       <c r="B73">
-        <v>-2.4635030420659176</v>
+        <v>-2.606962351810771</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -6845,7 +6845,7 @@
         <v>1985.25</v>
       </c>
       <c r="B74">
-        <v>-2.6085411542798975</v>
+        <v>-2.7142459529705398</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -6853,7 +6853,7 @@
         <v>1985.5</v>
       </c>
       <c r="B75">
-        <v>-2.3383627134518914</v>
+        <v>-2.4315938991020358</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -6861,7 +6861,7 @@
         <v>1985.75</v>
       </c>
       <c r="B76">
-        <v>-2.1630442100998404</v>
+        <v>-2.321467883588102</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -6869,7 +6869,7 @@
         <v>1986</v>
       </c>
       <c r="B77">
-        <v>-2.1370894970419219</v>
+        <v>-2.2971131074700502</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -6877,7 +6877,7 @@
         <v>1986.25</v>
       </c>
       <c r="B78">
-        <v>-2.209896902076125</v>
+        <v>-2.4291440187464208</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -6885,7 +6885,7 @@
         <v>1986.5</v>
       </c>
       <c r="B79">
-        <v>-2.2386511924453512</v>
+        <v>-2.3995903812254804</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -6893,7 +6893,7 @@
         <v>1986.75</v>
       </c>
       <c r="B80">
-        <v>-1.9116238189639145</v>
+        <v>-2.0973830876962474</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -6901,7 +6901,7 @@
         <v>1987</v>
       </c>
       <c r="B81">
-        <v>-1.1253149713274846</v>
+        <v>-1.2867476523554688</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -6909,7 +6909,7 @@
         <v>1987.25</v>
       </c>
       <c r="B82">
-        <v>-0.64587511380772566</v>
+        <v>-0.74007507514403104</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -6917,7 +6917,7 @@
         <v>1987.5</v>
       </c>
       <c r="B83">
-        <v>-0.27578731780225629</v>
+        <v>-0.2971963837757996</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -6925,7 +6925,7 @@
         <v>1987.75</v>
       </c>
       <c r="B84">
-        <v>0.37867805421951672</v>
+        <v>0.39413841038387076</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -6933,7 +6933,7 @@
         <v>1988</v>
       </c>
       <c r="B85">
-        <v>0.13392056424150756</v>
+        <v>9.9861070260298668E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -6941,7 +6941,7 @@
         <v>1988.25</v>
       </c>
       <c r="B86">
-        <v>0.28412132539914481</v>
+        <v>0.29122093015720996</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -6949,7 +6949,7 @@
         <v>1988.5</v>
       </c>
       <c r="B87">
-        <v>0.13658093456423437</v>
+        <v>0.10035339818748046</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -6957,7 +6957,7 @@
         <v>1988.75</v>
       </c>
       <c r="B88">
-        <v>0.58096479829421455</v>
+        <v>0.55683768681500379</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -6965,7 +6965,7 @@
         <v>1989</v>
       </c>
       <c r="B89">
-        <v>0.63853406036256111</v>
+        <v>0.5618503547285103</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -6973,7 +6973,7 @@
         <v>1989.25</v>
       </c>
       <c r="B90">
-        <v>0.54592634512999894</v>
+        <v>0.38443880240563999</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -6981,7 +6981,7 @@
         <v>1989.5</v>
       </c>
       <c r="B91">
-        <v>0.15977161260878336</v>
+        <v>-2.2426477785664201E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -6989,7 +6989,7 @@
         <v>1989.75</v>
       </c>
       <c r="B92">
-        <v>-0.12869823196116625</v>
+        <v>-0.35224234576670677</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -6997,7 +6997,7 @@
         <v>1990</v>
       </c>
       <c r="B93">
-        <v>-5.5581690425021701E-2</v>
+        <v>-0.29197120584721903</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -7005,7 +7005,7 @@
         <v>1990.25</v>
       </c>
       <c r="B94">
-        <v>0.1009578131156319</v>
+        <v>-9.8732603861562129E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -7013,7 +7013,7 @@
         <v>1990.5</v>
       </c>
       <c r="B95">
-        <v>0.51463320134470525</v>
+        <v>0.30865473096071128</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -7021,7 +7021,7 @@
         <v>1990.75</v>
       </c>
       <c r="B96">
-        <v>0.17279365594089491</v>
+        <v>-1.4972190428563792E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -7029,7 +7029,7 @@
         <v>1991</v>
       </c>
       <c r="B97">
-        <v>-1.0850396327332423</v>
+        <v>-1.1890886816477653</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -7037,7 +7037,7 @@
         <v>1991.25</v>
       </c>
       <c r="B98">
-        <v>-1.2965233017658284</v>
+        <v>-1.4285066178015615</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -7045,7 +7045,7 @@
         <v>1991.5</v>
       </c>
       <c r="B99">
-        <v>-0.94793381944489052</v>
+        <v>-1.0382249475920369</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -7053,7 +7053,7 @@
         <v>1991.75</v>
       </c>
       <c r="B100">
-        <v>-0.61259747634887507</v>
+        <v>-0.6979238305906299</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -7061,7 +7061,7 @@
         <v>1992</v>
       </c>
       <c r="B101">
-        <v>-0.63721155162370646</v>
+        <v>-0.71978661027026769</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -7069,7 +7069,7 @@
         <v>1992.25</v>
       </c>
       <c r="B102">
-        <v>-0.93105791007350724</v>
+        <v>-0.99552107841550663</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -7077,7 +7077,7 @@
         <v>1992.5</v>
       </c>
       <c r="B103">
-        <v>-0.60028648300998189</v>
+        <v>-0.66674173292984307</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -7085,7 +7085,7 @@
         <v>1992.75</v>
       </c>
       <c r="B104">
-        <v>-0.53040429405103451</v>
+        <v>-0.56026303858947024</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -7093,7 +7093,7 @@
         <v>1993</v>
       </c>
       <c r="B105">
-        <v>6.2933808139864489E-2</v>
+        <v>6.3431958676529732E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -7101,7 +7101,7 @@
         <v>1993.25</v>
       </c>
       <c r="B106">
-        <v>0.18281532303696668</v>
+        <v>0.13267604112141562</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -7109,7 +7109,7 @@
         <v>1993.5</v>
       </c>
       <c r="B107">
-        <v>0.70232552335447451</v>
+        <v>0.62221956881969298</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -7117,7 +7117,7 @@
         <v>1993.75</v>
       </c>
       <c r="B108">
-        <v>0.33448994178635338</v>
+        <v>0.2600817647656184</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -7125,7 +7125,7 @@
         <v>1994</v>
       </c>
       <c r="B109">
-        <v>-0.36364162331932182</v>
+        <v>-0.43509913798710498</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -7133,7 +7133,7 @@
         <v>1994.25</v>
       </c>
       <c r="B110">
-        <v>-6.0033079864807437E-2</v>
+        <v>-9.8659502897757712E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -7141,7 +7141,7 @@
         <v>1994.5</v>
       </c>
       <c r="B111">
-        <v>0.28104219745048731</v>
+        <v>0.22132501897811352</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -7149,7 +7149,7 @@
         <v>1994.75</v>
       </c>
       <c r="B112">
-        <v>0.3888882229507562</v>
+        <v>0.33422122010442479</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -7157,7 +7157,7 @@
         <v>1995</v>
       </c>
       <c r="B113">
-        <v>0.62438931883987969</v>
+        <v>0.52826703761092997</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -7165,7 +7165,7 @@
         <v>1995.25</v>
       </c>
       <c r="B114">
-        <v>0.12337962513846445</v>
+        <v>-4.4618266854379307E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -7173,7 +7173,7 @@
         <v>1995.5</v>
       </c>
       <c r="B115">
-        <v>-0.1713172449600564</v>
+        <v>-0.35994338475754395</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -7181,7 +7181,7 @@
         <v>1995.75</v>
       </c>
       <c r="B116">
-        <v>-3.7110338047763314E-2</v>
+        <v>-0.24151921803409193</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -7189,7 +7189,7 @@
         <v>1996</v>
       </c>
       <c r="B117">
-        <v>-0.15955763929068612</v>
+        <v>-0.33266113352588</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -7197,7 +7197,7 @@
         <v>1996.25</v>
       </c>
       <c r="B118">
-        <v>6.9410690361015881E-2</v>
+        <v>-9.0413553561985438E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -7205,7 +7205,7 @@
         <v>1996.5</v>
       </c>
       <c r="B119">
-        <v>0.28408192253575049</v>
+        <v>0.18238190451027592</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -7213,7 +7213,7 @@
         <v>1996.75</v>
       </c>
       <c r="B120">
-        <v>6.280059787384662E-2</v>
+        <v>-4.2084531755826049E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -7221,7 +7221,7 @@
         <v>1997</v>
       </c>
       <c r="B121">
-        <v>0.11094775555411385</v>
+        <v>2.1365388594896118E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -7229,7 +7229,7 @@
         <v>1997.25</v>
       </c>
       <c r="B122">
-        <v>5.4072983030417632E-2</v>
+        <v>-5.5512003547253386E-3</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -7237,7 +7237,7 @@
         <v>1997.5</v>
       </c>
       <c r="B123">
-        <v>-0.11285439782240392</v>
+        <v>-0.17179571604927224</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -7245,7 +7245,7 @@
         <v>1997.75</v>
       </c>
       <c r="B124">
-        <v>0.18142942088394953</v>
+        <v>0.14700842385870772</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -7253,7 +7253,7 @@
         <v>1998</v>
       </c>
       <c r="B125">
-        <v>2.2023872289067548E-2</v>
+        <v>-3.6127117898632211E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -7261,7 +7261,7 @@
         <v>1998.25</v>
       </c>
       <c r="B126">
-        <v>0.12145357921429234</v>
+        <v>6.6443778686764432E-2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -7269,7 +7269,7 @@
         <v>1998.5</v>
       </c>
       <c r="B127">
-        <v>0.29521487951507108</v>
+        <v>0.1992928140582606</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -7277,7 +7277,7 @@
         <v>1998.75</v>
       </c>
       <c r="B128">
-        <v>0.21257095000455362</v>
+        <v>0.14452246498002363</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -7285,7 +7285,7 @@
         <v>1999</v>
       </c>
       <c r="B129">
-        <v>0.27599774655169274</v>
+        <v>0.22289788661582488</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -7293,7 +7293,7 @@
         <v>1999.25</v>
       </c>
       <c r="B130">
-        <v>0.4321431550479149</v>
+        <v>0.43197625799151762</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -7301,7 +7301,7 @@
         <v>1999.5</v>
       </c>
       <c r="B131">
-        <v>0.71421733931429365</v>
+        <v>0.7716675073417667</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -7309,7 +7309,7 @@
         <v>1999.75</v>
       </c>
       <c r="B132">
-        <v>0.88952605131773499</v>
+        <v>0.95992160906335222</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -7317,7 +7317,7 @@
         <v>2000</v>
       </c>
       <c r="B133">
-        <v>0.6401458355687506</v>
+        <v>0.71871772044023174</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -7325,7 +7325,7 @@
         <v>2000.25</v>
       </c>
       <c r="B134">
-        <v>0.95004871554731363</v>
+        <v>1.0505716725935921</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -7333,7 +7333,7 @@
         <v>2000.5</v>
       </c>
       <c r="B135">
-        <v>0.78934217417636621</v>
+        <v>0.76640838485770857</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -7341,7 +7341,7 @@
         <v>2000.75</v>
       </c>
       <c r="B136">
-        <v>0.71383997574119284</v>
+        <v>0.64944810529079522</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -7349,7 +7349,7 @@
         <v>2001</v>
       </c>
       <c r="B137">
-        <v>0.8902484362690366</v>
+        <v>0.75587526072544708</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -7357,7 +7357,7 @@
         <v>2001.25</v>
       </c>
       <c r="B138">
-        <v>0.6368401377162769</v>
+        <v>0.52826601641586812</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -7365,7 +7365,7 @@
         <v>2001.5</v>
       </c>
       <c r="B139">
-        <v>0.69929538126218826</v>
+        <v>0.64311443856388539</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -7373,7 +7373,7 @@
         <v>2001.75</v>
       </c>
       <c r="B140">
-        <v>-0.27025358167801494</v>
+        <v>-0.26536005805783969</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -7381,7 +7381,7 @@
         <v>2002</v>
       </c>
       <c r="B141">
-        <v>-0.80661687776840685</v>
+        <v>-0.83224377160022733</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -7389,7 +7389,7 @@
         <v>2002.25</v>
       </c>
       <c r="B142">
-        <v>-0.86563636953649326</v>
+        <v>-0.89289175654336805</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -7397,7 +7397,7 @@
         <v>2002.5</v>
       </c>
       <c r="B143">
-        <v>-2.2858219925692147E-2</v>
+        <v>-4.1484096016941585E-2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -7405,7 +7405,7 @@
         <v>2002.75</v>
       </c>
       <c r="B144">
-        <v>7.682933628561095E-3</v>
+        <v>-3.5955928318032182E-2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -7413,7 +7413,7 @@
         <v>2003</v>
       </c>
       <c r="B145">
-        <v>0.31997683531173049</v>
+        <v>0.28886331756965422</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -7421,7 +7421,7 @@
         <v>2003.25</v>
       </c>
       <c r="B146">
-        <v>-0.76348444746607846</v>
+        <v>-0.78563881232027732</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -7429,7 +7429,7 @@
         <v>2003.5</v>
       </c>
       <c r="B147">
-        <v>-0.58032037920575652</v>
+        <v>-0.6039394801334419</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -7437,7 +7437,7 @@
         <v>2003.75</v>
       </c>
       <c r="B148">
-        <v>2.4068932618659389E-2</v>
+        <v>3.1940206501834822E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -7445,7 +7445,7 @@
         <v>2004</v>
       </c>
       <c r="B149">
-        <v>4.268025582481183E-2</v>
+        <v>7.1153323082984166E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -7453,7 +7453,7 @@
         <v>2004.25</v>
       </c>
       <c r="B150">
-        <v>0.59040398263625615</v>
+        <v>0.64376876818388329</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -7461,7 +7461,7 @@
         <v>2004.5</v>
       </c>
       <c r="B151">
-        <v>0.59130683211978674</v>
+        <v>0.62309127434116984</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -7469,7 +7469,7 @@
         <v>2004.75</v>
       </c>
       <c r="B152">
-        <v>0.72884609265109201</v>
+        <v>0.68828875775868159</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -7477,7 +7477,7 @@
         <v>2005</v>
       </c>
       <c r="B153">
-        <v>1.0010632349017667</v>
+        <v>0.97464691962629857</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -7485,7 +7485,7 @@
         <v>2005.25</v>
       </c>
       <c r="B154">
-        <v>0.96275720139347154</v>
+        <v>0.90840817352761949</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -7493,7 +7493,7 @@
         <v>2005.5</v>
       </c>
       <c r="B155">
-        <v>1.3488865478343603</v>
+        <v>1.2497241155303707</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -7501,7 +7501,7 @@
         <v>2005.75</v>
       </c>
       <c r="B156">
-        <v>1.2869593013758784</v>
+        <v>1.1326688940120677</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -7509,7 +7509,7 @@
         <v>2006</v>
       </c>
       <c r="B157">
-        <v>1.610674364687914</v>
+        <v>1.5401235860984741</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -7517,7 +7517,7 @@
         <v>2006.25</v>
       </c>
       <c r="B158">
-        <v>2.0029757522253888</v>
+        <v>1.9053151153783476</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -7525,7 +7525,7 @@
         <v>2006.5</v>
       </c>
       <c r="B159">
-        <v>1.7752394357428924</v>
+        <v>1.6303302647433959</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -7533,7 +7533,7 @@
         <v>2006.75</v>
       </c>
       <c r="B160">
-        <v>1.3089430507448929</v>
+        <v>1.176796570904326</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -7541,7 +7541,7 @@
         <v>2007</v>
       </c>
       <c r="B161">
-        <v>1.2553080550845364</v>
+        <v>1.1004937282075078</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -7549,7 +7549,7 @@
         <v>2007.25</v>
       </c>
       <c r="B162">
-        <v>1.6710081808292365</v>
+        <v>1.5370272094566761</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -7557,7 +7557,7 @@
         <v>2007.5</v>
       </c>
       <c r="B163">
-        <v>1.777388827752846</v>
+        <v>1.6488467931774498</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -7565,7 +7565,7 @@
         <v>2007.75</v>
       </c>
       <c r="B164">
-        <v>1.9196060500488832</v>
+        <v>1.7990681581704804</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -7573,7 +7573,7 @@
         <v>2008</v>
       </c>
       <c r="B165">
-        <v>1.9953795682936759</v>
+        <v>1.8991138331130308</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -7581,7 +7581,7 @@
         <v>2008.25</v>
       </c>
       <c r="B166">
-        <v>2.5789710458155257</v>
+        <v>2.4325786394590043</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -7589,7 +7589,7 @@
         <v>2008.5</v>
       </c>
       <c r="B167">
-        <v>1.4719786541516067</v>
+        <v>1.4051755107657549</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -7597,7 +7597,7 @@
         <v>2008.75</v>
       </c>
       <c r="B168">
-        <v>-1.1692516688321497</v>
+        <v>-0.96887400591048056</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -7605,7 +7605,7 @@
         <v>2009</v>
       </c>
       <c r="B169">
-        <v>-3.3361504082932703</v>
+        <v>-2.972318686058173</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -7613,7 +7613,7 @@
         <v>2009.25</v>
       </c>
       <c r="B170">
-        <v>-4.4190141725400256</v>
+        <v>-4.1335786726438446</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -7621,7 +7621,7 @@
         <v>2009.5</v>
       </c>
       <c r="B171">
-        <v>-3.9607732557631614</v>
+        <v>-3.7786272062196646</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -7629,7 +7629,7 @@
         <v>2009.75</v>
       </c>
       <c r="B172">
-        <v>-3.4544463246067636</v>
+        <v>-3.4114255801871773</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -7637,7 +7637,7 @@
         <v>2010</v>
       </c>
       <c r="B173">
-        <v>-3.449016549620354</v>
+        <v>-3.4193878910709019</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -7645,7 +7645,7 @@
         <v>2010.25</v>
       </c>
       <c r="B174">
-        <v>-2.9066293145788902</v>
+        <v>-2.8846679641841955</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -7653,7 +7653,7 @@
         <v>2010.5</v>
       </c>
       <c r="B175">
-        <v>-2.4818661907466733</v>
+        <v>-2.5487002875683396</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -7661,7 +7661,7 @@
         <v>2010.75</v>
       </c>
       <c r="B176">
-        <v>-2.2587951811875451</v>
+        <v>-2.4228777957718717</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -7669,7 +7669,7 @@
         <v>2011</v>
       </c>
       <c r="B177">
-        <v>-1.7571178968885715</v>
+        <v>-1.8575743813212142</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -7677,7 +7677,7 @@
         <v>2011.25</v>
       </c>
       <c r="B178">
-        <v>-1.6684947800795324</v>
+        <v>-1.7791742876134831</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -7685,7 +7685,7 @@
         <v>2011.5</v>
       </c>
       <c r="B179">
-        <v>-0.99413964484879047</v>
+        <v>-1.144642499319859</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -7693,7 +7693,7 @@
         <v>2011.75</v>
       </c>
       <c r="B180">
-        <v>-0.89761621314670137</v>
+        <v>-1.0974993336470562</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -7701,7 +7701,7 @@
         <v>2012</v>
       </c>
       <c r="B181">
-        <v>-1.0488008620080924</v>
+        <v>-1.229696248235701</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -7709,7 +7709,7 @@
         <v>2012.25</v>
       </c>
       <c r="B182">
-        <v>-1.2032442133797283</v>
+        <v>-1.3719084102578716</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -7717,7 +7717,7 @@
         <v>2012.5</v>
       </c>
       <c r="B183">
-        <v>-1.2216547850959936</v>
+        <v>-1.4414173250124063</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -7725,7 +7725,7 @@
         <v>2012.75</v>
       </c>
       <c r="B184">
-        <v>-1.060332058315816</v>
+        <v>-1.26102124697407</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -7733,7 +7733,7 @@
         <v>2013</v>
       </c>
       <c r="B185">
-        <v>-0.54598629872802951</v>
+        <v>-0.72331716815990932</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -7741,7 +7741,7 @@
         <v>2013.25</v>
       </c>
       <c r="B186">
-        <v>-0.40550083781003554</v>
+        <v>-0.51096311740960187</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -7749,7 +7749,7 @@
         <v>2013.5</v>
       </c>
       <c r="B187">
-        <v>0.13084459266827775</v>
+        <v>8.484917259605762E-2</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -7757,7 +7757,7 @@
         <v>2013.75</v>
       </c>
       <c r="B188">
-        <v>0.78521975442702452</v>
+        <v>0.75281003398153246</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -7765,7 +7765,7 @@
         <v>2014</v>
       </c>
       <c r="B189">
-        <v>0.94134072661513635</v>
+        <v>0.96362371162181937</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -7773,7 +7773,7 @@
         <v>2014.25</v>
       </c>
       <c r="B190">
-        <v>1.545081452771635</v>
+        <v>1.6248239607068449</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -7781,7 +7781,7 @@
         <v>2014.5</v>
       </c>
       <c r="B191">
-        <v>1.8025564970260533</v>
+        <v>1.9316682777630767</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -7789,7 +7789,7 @@
         <v>2014.75</v>
       </c>
       <c r="B192">
-        <v>1.4837636878292759</v>
+        <v>1.6905671414536583</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -7797,7 +7797,7 @@
         <v>2015</v>
       </c>
       <c r="B193">
-        <v>1.3800144439447992</v>
+        <v>1.5464701542621695</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -7805,7 +7805,7 @@
         <v>2015.25</v>
       </c>
       <c r="B194">
-        <v>1.4958440475967061</v>
+        <v>1.6764965808915955</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -7813,7 +7813,7 @@
         <v>2015.5</v>
       </c>
       <c r="B195">
-        <v>1.7193458990003574</v>
+        <v>1.9706055700468461</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -7821,7 +7821,7 @@
         <v>2015.75</v>
       </c>
       <c r="B196">
-        <v>1.5261768520349994</v>
+        <v>1.7969181726834815</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -7829,7 +7829,7 @@
         <v>2016</v>
       </c>
       <c r="B197">
-        <v>1.6227050639906038</v>
+        <v>1.823982790972245</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -7837,7 +7837,7 @@
         <v>2016.25</v>
       </c>
       <c r="B198">
-        <v>1.8288604556965904</v>
+        <v>2.0218542414777385</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -7845,7 +7845,7 @@
         <v>2016.5</v>
       </c>
       <c r="B199">
-        <v>2.2153802067812478</v>
+        <v>2.4507614749891271</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -7853,7 +7853,7 @@
         <v>2016.75</v>
       </c>
       <c r="B200">
-        <v>2.1501279625514513</v>
+        <v>2.4884442332342216</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -7861,7 +7861,7 @@
         <v>2017</v>
       </c>
       <c r="B201">
-        <v>2.3926497156559146</v>
+        <v>2.8170387253167339</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -7869,7 +7869,7 @@
         <v>2017.25</v>
       </c>
       <c r="B202">
-        <v>2.5648982257926223</v>
+        <v>3.0212935681557029</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -7877,7 +7877,7 @@
         <v>2017.5</v>
       </c>
       <c r="B203">
-        <v>2.7478077590170846</v>
+        <v>3.1473774841236146</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -7885,7 +7885,7 @@
         <v>2017.75</v>
       </c>
       <c r="B204">
-        <v>2.5606143310160867</v>
+        <v>3.0079972408547206</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -7893,7 +7893,7 @@
         <v>2018</v>
       </c>
       <c r="B205">
-        <v>2.6639354044386554</v>
+        <v>3.1953722024214315</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -7901,7 +7901,7 @@
         <v>2018.25</v>
       </c>
       <c r="B206">
-        <v>2.7203958998141209</v>
+        <v>3.318271698349573</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -7909,7 +7909,7 @@
         <v>2018.5</v>
       </c>
       <c r="B207">
-        <v>2.9572161210325687</v>
+        <v>3.6166157306626534</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -7917,7 +7917,7 @@
         <v>2018.75</v>
       </c>
       <c r="B208">
-        <v>2.8203476634835134</v>
+        <v>3.4894803411561925</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -7925,7 +7925,7 @@
         <v>2019</v>
       </c>
       <c r="B209">
-        <v>2.9242280166212664</v>
+        <v>3.4712747999565252</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -7933,7 +7933,7 @@
         <v>2019.25</v>
       </c>
       <c r="B210">
-        <v>2.9029758544653506</v>
+        <v>3.5102662391488737</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -7941,7 +7941,7 @@
         <v>2019.5</v>
       </c>
       <c r="B211">
-        <v>3.3375861878957691</v>
+        <v>3.9494136447191686</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -7949,7 +7949,7 @@
         <v>2019.75</v>
       </c>
       <c r="B212">
-        <v>3.0610512099172871</v>
+        <v>3.6871734076435736</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -7957,7 +7957,7 @@
         <v>2020</v>
       </c>
       <c r="B213">
-        <v>-4.6498874013996101</v>
+        <v>1.676110760840599</v>
       </c>
     </row>
   </sheetData>

--- a/webpage.xlsx
+++ b/webpage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\code_version_June2020_JoE_submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\Dropbox\Forschung\Ben&amp;James\MF_outputgap\MATLAB_Code\code_version_July2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901613D4-0ACE-448F-9D50-F26E96285B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4944BCAF-1FEA-4825-832C-A601C47F9BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="38592" windowHeight="13812" xr2:uid="{6D0754F8-999B-4D9A-AA10-941ACBDB15AB}"/>
+    <workbookView xWindow="2688" yWindow="636" windowWidth="27540" windowHeight="15276" activeTab="1" xr2:uid="{6D0754F8-999B-4D9A-AA10-941ACBDB15AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746E03B0-5C22-4D75-8B3A-186AA2C1C665}">
   <dimension ref="A1:AZ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W10" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AZ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,7 +871,7 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.05</v>
+        <v>-0.60000000000000053</v>
       </c>
       <c r="B3">
         <v>0.05</v>
@@ -1029,19 +1029,19 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.47999999999999987</v>
+        <v>0.48</v>
       </c>
       <c r="B4">
-        <v>0.47999999999999954</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="C4">
         <v>0.47999999999999954</v>
       </c>
       <c r="D4">
+        <v>0.48</v>
+      </c>
+      <c r="E4">
         <v>0.47999999999999954</v>
-      </c>
-      <c r="E4">
-        <v>0.47999999999999976</v>
       </c>
       <c r="F4">
         <v>0.47999999999999954</v>
@@ -1050,31 +1050,31 @@
         <v>0.47999999999999954</v>
       </c>
       <c r="H4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="I4">
+        <v>0.47999999999999987</v>
+      </c>
+      <c r="J4">
         <v>0.48</v>
       </c>
-      <c r="I4">
+      <c r="K4">
+        <v>0.47999999999999943</v>
+      </c>
+      <c r="L4">
         <v>0.48</v>
       </c>
-      <c r="J4">
-        <v>0.47999999999999987</v>
-      </c>
-      <c r="K4">
+      <c r="M4">
+        <v>0.47999999999999976</v>
+      </c>
+      <c r="N4">
         <v>0.47999999999999965</v>
       </c>
-      <c r="L4">
-        <v>0.47999999999999987</v>
-      </c>
-      <c r="M4">
-        <v>0.48</v>
-      </c>
-      <c r="N4">
-        <v>0.47999999999999987</v>
-      </c>
       <c r="O4">
-        <v>0.47999999999999976</v>
+        <v>0.47999999999999954</v>
       </c>
       <c r="P4">
-        <v>0.48</v>
+        <v>0.47999999999999954</v>
       </c>
       <c r="Q4">
         <v>0.48</v>
@@ -1086,70 +1086,70 @@
         <v>0.47999999999999965</v>
       </c>
       <c r="T4">
-        <v>0.47999999999999943</v>
+        <v>0.47999999999999987</v>
       </c>
       <c r="U4">
+        <v>0.47999999999999965</v>
+      </c>
+      <c r="V4">
+        <v>0.48</v>
+      </c>
+      <c r="W4">
         <v>0.47999999999999954</v>
       </c>
-      <c r="V4">
+      <c r="X4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="Y4">
         <v>0.47999999999999965</v>
       </c>
-      <c r="W4">
-        <v>0.47999999999999965</v>
-      </c>
-      <c r="X4">
-        <v>0.48</v>
-      </c>
-      <c r="Y4">
-        <v>0.4800000000000002</v>
-      </c>
       <c r="Z4">
-        <v>0.47999999999999954</v>
+        <v>0.47999999999999987</v>
       </c>
       <c r="AA4">
         <v>0.48</v>
       </c>
       <c r="AB4">
-        <v>0.47999999999999954</v>
+        <v>0.47999999999999965</v>
       </c>
       <c r="AC4">
         <v>0.47999999999999954</v>
       </c>
       <c r="AD4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AE4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AF4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AG4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AH4">
+        <v>0.47999999999999987</v>
+      </c>
+      <c r="AI4">
         <v>0.47999999999999965</v>
       </c>
-      <c r="AE4">
+      <c r="AJ4">
+        <v>0.48</v>
+      </c>
+      <c r="AK4">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="AL4">
         <v>0.47999999999999965</v>
       </c>
-      <c r="AF4">
-        <v>0.47999999999999987</v>
-      </c>
-      <c r="AG4">
-        <v>0.48</v>
-      </c>
-      <c r="AH4">
+      <c r="AM4">
         <v>0.47999999999999954</v>
-      </c>
-      <c r="AI4">
-        <v>0.47999999999999954</v>
-      </c>
-      <c r="AJ4">
-        <v>0.47999999999999987</v>
-      </c>
-      <c r="AK4">
-        <v>0.48</v>
-      </c>
-      <c r="AL4">
-        <v>0.4800000000000002</v>
-      </c>
-      <c r="AM4">
-        <v>0.47999999999999976</v>
       </c>
       <c r="AN4">
         <v>0.48</v>
       </c>
       <c r="AO4">
-        <v>0.47999999999999987</v>
+        <v>0.47999999999999965</v>
       </c>
       <c r="AP4">
         <v>0.48</v>
@@ -1158,13 +1158,13 @@
         <v>0.48</v>
       </c>
       <c r="AR4">
-        <v>0.47999999999999976</v>
+        <v>0.48</v>
       </c>
       <c r="AS4">
-        <v>0.47999999999999943</v>
+        <v>0.47999999999999954</v>
       </c>
       <c r="AT4">
-        <v>0.47999999999999954</v>
+        <v>0.48</v>
       </c>
       <c r="AU4">
         <v>0.47999999999999954</v>
@@ -1173,7 +1173,7 @@
         <v>0.47999999999999954</v>
       </c>
       <c r="AW4">
-        <v>0.47999999999999954</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="AX4">
         <v>0.48</v>
@@ -1182,7 +1182,7 @@
         <v>0.48</v>
       </c>
       <c r="AZ4">
-        <v>0.48</v>
+        <v>0.47999999999999976</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="C5">
-        <v>1.7000000000000002</v>
+        <v>1.7000000000000004</v>
       </c>
       <c r="D5">
         <v>1.7000000000000002</v>
@@ -1220,16 +1220,16 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="L5">
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="M5">
         <v>1.7000000000000002</v>
-      </c>
-      <c r="M5">
-        <v>1.7000000000000004</v>
       </c>
       <c r="N5">
         <v>1.7000000000000002</v>
       </c>
       <c r="O5">
-        <v>1.7000000000000004</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="P5">
         <v>1.7000000000000002</v>
@@ -1265,7 +1265,7 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="AA5">
-        <v>1.7000000000000004</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="AB5">
         <v>1.7000000000000002</v>
@@ -1277,10 +1277,10 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="AE5">
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="AF5">
         <v>1.7000000000000002</v>
-      </c>
-      <c r="AF5">
-        <v>1.7000000000000004</v>
       </c>
       <c r="AG5">
         <v>1.7000000000000002</v>
@@ -1289,19 +1289,19 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="AI5">
+        <v>1.7</v>
+      </c>
+      <c r="AJ5">
         <v>1.7000000000000002</v>
       </c>
-      <c r="AJ5">
-        <v>1.7</v>
-      </c>
       <c r="AK5">
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="AL5">
         <v>1.7000000000000002</v>
       </c>
-      <c r="AL5">
-        <v>1.7000000000000004</v>
-      </c>
       <c r="AM5">
-        <v>1.7000000000000006</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="AN5">
         <v>1.7000000000000002</v>
@@ -1313,10 +1313,10 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="AQ5">
-        <v>1.7000000000000004</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="AR5">
-        <v>1.7000000000000006</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="AS5">
         <v>1.7000000000000002</v>
@@ -1340,18 +1340,18 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="AZ5">
-        <v>1.7000000000000002</v>
+        <v>1.7000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11.94208388412514</v>
+        <v>11.942083884125143</v>
       </c>
       <c r="B6">
         <v>11.942083884125143</v>
       </c>
       <c r="C6">
-        <v>11.942083884125145</v>
+        <v>11.942083884125143</v>
       </c>
       <c r="D6">
         <v>11.942083884125145</v>
@@ -1360,37 +1360,37 @@
         <v>11.942083884125143</v>
       </c>
       <c r="F6">
-        <v>11.942083884125143</v>
+        <v>11.942083884125145</v>
       </c>
       <c r="G6">
         <v>11.942083884125145</v>
       </c>
       <c r="H6">
+        <v>11.942083884125147</v>
+      </c>
+      <c r="I6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="J6">
         <v>11.942083884125143</v>
-      </c>
-      <c r="I6">
-        <v>11.942083884125147</v>
-      </c>
-      <c r="J6">
-        <v>11.942083884125145</v>
       </c>
       <c r="K6">
         <v>11.942083884125143</v>
       </c>
       <c r="L6">
+        <v>11.942083884125143</v>
+      </c>
+      <c r="M6">
+        <v>11.942083884125143</v>
+      </c>
+      <c r="N6">
+        <v>11.942083884125141</v>
+      </c>
+      <c r="O6">
         <v>11.942083884125145</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>11.942083884125145</v>
-      </c>
-      <c r="N6">
-        <v>11.942083884125143</v>
-      </c>
-      <c r="O6">
-        <v>11.94208388412514</v>
-      </c>
-      <c r="P6">
-        <v>11.942083884125147</v>
       </c>
       <c r="Q6">
         <v>11.942083884125147</v>
@@ -1399,94 +1399,94 @@
         <v>11.942083884125147</v>
       </c>
       <c r="S6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="T6">
+        <v>11.942083884125141</v>
+      </c>
+      <c r="U6">
+        <v>11.942083884125148</v>
+      </c>
+      <c r="V6">
+        <v>11.942083884125147</v>
+      </c>
+      <c r="W6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="X6">
+        <v>11.942083884125148</v>
+      </c>
+      <c r="Y6">
+        <v>11.942083884125147</v>
+      </c>
+      <c r="Z6">
         <v>11.942083884125143</v>
       </c>
-      <c r="T6">
+      <c r="AA6">
         <v>11.942083884125147</v>
-      </c>
-      <c r="U6">
-        <v>11.942083884125145</v>
-      </c>
-      <c r="V6">
-        <v>11.942083884125145</v>
-      </c>
-      <c r="W6">
-        <v>11.942083884125147</v>
-      </c>
-      <c r="X6">
-        <v>11.942083884125147</v>
-      </c>
-      <c r="Y6">
-        <v>11.942083884125143</v>
-      </c>
-      <c r="Z6">
-        <v>11.942083884125147</v>
-      </c>
-      <c r="AA6">
-        <v>11.942083884125145</v>
       </c>
       <c r="AB6">
         <v>11.942083884125145</v>
       </c>
       <c r="AC6">
-        <v>11.942083884125145</v>
+        <v>11.942083884125143</v>
       </c>
       <c r="AD6">
-        <v>11.942083884125145</v>
+        <v>11.942083884125143</v>
       </c>
       <c r="AE6">
         <v>11.942083884125145</v>
       </c>
       <c r="AF6">
-        <v>11.942083884125143</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="AG6">
-        <v>11.942083884125141</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="AH6">
         <v>11.942083884125143</v>
       </c>
       <c r="AI6">
-        <v>11.942083884125143</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="AJ6">
         <v>11.942083884125147</v>
       </c>
       <c r="AK6">
+        <v>11.942083884125145</v>
+      </c>
+      <c r="AL6">
         <v>11.942083884125147</v>
       </c>
-      <c r="AL6">
-        <v>11.942083884125143</v>
-      </c>
       <c r="AM6">
-        <v>11.942083884125141</v>
+        <v>11.942083884125145</v>
       </c>
       <c r="AN6">
         <v>11.942083884125147</v>
       </c>
       <c r="AO6">
-        <v>11.94208388412515</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="AP6">
-        <v>11.942083884125143</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="AQ6">
         <v>11.942083884125143</v>
       </c>
       <c r="AR6">
-        <v>11.942083884125141</v>
+        <v>11.942083884125143</v>
       </c>
       <c r="AS6">
-        <v>11.942083884125145</v>
+        <v>11.942083884125148</v>
       </c>
       <c r="AT6">
-        <v>11.942083884125143</v>
+        <v>11.942083884125147</v>
       </c>
       <c r="AU6">
         <v>11.942083884125143</v>
       </c>
       <c r="AV6">
-        <v>11.942083884125147</v>
+        <v>11.942083884125143</v>
       </c>
       <c r="AW6">
         <v>11.942083884125143</v>
@@ -1498,7 +1498,7 @@
         <v>11.942083884125143</v>
       </c>
       <c r="AZ6">
-        <v>11.942083884125141</v>
+        <v>11.942083884125143</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.3">
@@ -1512,7 +1512,7 @@
         <v>71.799999999999983</v>
       </c>
       <c r="D7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="E7">
         <v>71.799999999999983</v>
@@ -1521,7 +1521,7 @@
         <v>71.799999999999983</v>
       </c>
       <c r="G7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="H7">
         <v>71.799999999999983</v>
@@ -1542,10 +1542,10 @@
         <v>71.799999999999983</v>
       </c>
       <c r="N7">
-        <v>71.799999999999983</v>
+        <v>71.8</v>
       </c>
       <c r="O7">
-        <v>71.799999999999983</v>
+        <v>71.8</v>
       </c>
       <c r="P7">
         <v>71.799999999999983</v>
@@ -1554,7 +1554,7 @@
         <v>71.799999999999983</v>
       </c>
       <c r="R7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="S7">
         <v>71.8</v>
@@ -1563,7 +1563,7 @@
         <v>71.799999999999983</v>
       </c>
       <c r="U7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="V7">
         <v>71.799999999999983</v>
@@ -1578,16 +1578,16 @@
         <v>71.799999999999983</v>
       </c>
       <c r="Z7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AA7">
         <v>71.799999999999983</v>
       </c>
       <c r="AB7">
-        <v>71.799999999999983</v>
+        <v>71.8</v>
       </c>
       <c r="AC7">
-        <v>71.799999999999983</v>
+        <v>71.8</v>
       </c>
       <c r="AD7">
         <v>71.799999999999983</v>
@@ -1596,7 +1596,7 @@
         <v>71.799999999999983</v>
       </c>
       <c r="AF7">
-        <v>71.799999999999983</v>
+        <v>71.8</v>
       </c>
       <c r="AG7">
         <v>71.799999999999983</v>
@@ -1614,16 +1614,16 @@
         <v>71.799999999999983</v>
       </c>
       <c r="AL7">
-        <v>71.799999999999983</v>
+        <v>71.8</v>
       </c>
       <c r="AM7">
-        <v>71.799999999999983</v>
+        <v>71.8</v>
       </c>
       <c r="AN7">
         <v>71.799999999999983</v>
       </c>
       <c r="AO7">
-        <v>71.799999999999983</v>
+        <v>71.8</v>
       </c>
       <c r="AP7">
         <v>71.799999999999983</v>
@@ -1635,16 +1635,16 @@
         <v>71.799999999999983</v>
       </c>
       <c r="AS7">
-        <v>71.8</v>
+        <v>71.799999999999983</v>
       </c>
       <c r="AT7">
         <v>71.799999999999983</v>
       </c>
       <c r="AU7">
+        <v>71.799999999999983</v>
+      </c>
+      <c r="AV7">
         <v>71.8</v>
-      </c>
-      <c r="AV7">
-        <v>71.799999999999983</v>
       </c>
       <c r="AW7">
         <v>71.799999999999983</v>
@@ -1656,7 +1656,7 @@
         <v>71.799999999999983</v>
       </c>
       <c r="AZ7">
-        <v>71.799999999999983</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.3">
@@ -1667,19 +1667,19 @@
         <v>5040.24999999999</v>
       </c>
       <c r="C8">
+        <v>5040.2499999999991</v>
+      </c>
+      <c r="D8">
+        <v>5040.2499999999991</v>
+      </c>
+      <c r="E8">
+        <v>5040.2499999999991</v>
+      </c>
+      <c r="F8">
         <v>5040.24999999999</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>5040.24999999999</v>
-      </c>
-      <c r="E8">
-        <v>5040.24999999999</v>
-      </c>
-      <c r="F8">
-        <v>5040.2499999999991</v>
-      </c>
-      <c r="G8">
-        <v>5040.2499999999991</v>
       </c>
       <c r="H8">
         <v>5040.2499999999991</v>
@@ -1688,19 +1688,19 @@
         <v>5040.2499999999991</v>
       </c>
       <c r="J8">
-        <v>5040.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="K8">
         <v>5040.24999999999</v>
       </c>
       <c r="L8">
-        <v>5040.24999999999</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="M8">
         <v>5040.2499999999991</v>
       </c>
       <c r="N8">
-        <v>5040.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="O8">
         <v>5040.24999999999</v>
@@ -1709,13 +1709,13 @@
         <v>5040.24999999999</v>
       </c>
       <c r="Q8">
+        <v>5040.2499999999991</v>
+      </c>
+      <c r="R8">
         <v>5040.24999999999</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>5040.2499999999991</v>
-      </c>
-      <c r="S8">
-        <v>5040.24999999999</v>
       </c>
       <c r="T8">
         <v>5040.2499999999991</v>
@@ -1727,34 +1727,34 @@
         <v>5040.24999999999</v>
       </c>
       <c r="W8">
+        <v>5040.2499999999991</v>
+      </c>
+      <c r="X8">
+        <v>5040.2499999999991</v>
+      </c>
+      <c r="Y8">
         <v>5040.24999999999</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
+        <v>5040.2499999999991</v>
+      </c>
+      <c r="AA8">
         <v>5040.24999999999</v>
       </c>
-      <c r="Y8">
+      <c r="AB8">
         <v>5040.2499999999991</v>
       </c>
-      <c r="Z8">
+      <c r="AC8">
         <v>5040.24999999999</v>
       </c>
-      <c r="AA8">
+      <c r="AD8">
         <v>5040.2499999999991</v>
       </c>
-      <c r="AB8">
+      <c r="AE8">
+        <v>5040.2499999999991</v>
+      </c>
+      <c r="AF8">
         <v>5040.24999999999</v>
-      </c>
-      <c r="AC8">
-        <v>5040.2499999999991</v>
-      </c>
-      <c r="AD8">
-        <v>5040.24999999999</v>
-      </c>
-      <c r="AE8">
-        <v>5040.24999999999</v>
-      </c>
-      <c r="AF8">
-        <v>5040.2499999999991</v>
       </c>
       <c r="AG8">
         <v>5040.2499999999991</v>
@@ -1763,31 +1763,31 @@
         <v>5040.24999999999</v>
       </c>
       <c r="AI8">
-        <v>5040.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AJ8">
-        <v>5040.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AK8">
         <v>5040.24999999999</v>
       </c>
       <c r="AL8">
-        <v>5040.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AM8">
-        <v>5040.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AN8">
         <v>5040.2499999999991</v>
       </c>
       <c r="AO8">
+        <v>5040.24999999999</v>
+      </c>
+      <c r="AP8">
         <v>5040.2499999999991</v>
       </c>
-      <c r="AP8">
-        <v>5040.24999999999</v>
-      </c>
       <c r="AQ8">
-        <v>5040.24999999999</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AR8">
         <v>5040.2499999999991</v>
@@ -1799,19 +1799,19 @@
         <v>5040.2499999999991</v>
       </c>
       <c r="AU8">
-        <v>5040.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AV8">
         <v>5040.2499999999991</v>
       </c>
       <c r="AW8">
-        <v>5040.24999999999</v>
+        <v>5040.2499999999991</v>
       </c>
       <c r="AX8">
         <v>5040.2499999999991</v>
       </c>
       <c r="AY8">
-        <v>5040.2499999999991</v>
+        <v>5040.24999999999</v>
       </c>
       <c r="AZ8">
         <v>5040.2499999999991</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>14.700000000000001</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="B10">
-        <v>14.700000000000001</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="C10">
         <v>14.700000000000003</v>
@@ -1989,7 +1989,7 @@
         <v>14.700000000000003</v>
       </c>
       <c r="E10">
-        <v>14.700000000000001</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="F10">
         <v>14.700000000000003</v>
@@ -2016,16 +2016,16 @@
         <v>14.700000000000003</v>
       </c>
       <c r="N10">
+        <v>14.7</v>
+      </c>
+      <c r="O10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="P10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="Q10">
         <v>14.700000000000001</v>
-      </c>
-      <c r="O10">
-        <v>14.700000000000001</v>
-      </c>
-      <c r="P10">
-        <v>14.700000000000001</v>
-      </c>
-      <c r="Q10">
-        <v>14.700000000000003</v>
       </c>
       <c r="R10">
         <v>14.700000000000003</v>
@@ -2034,22 +2034,22 @@
         <v>14.700000000000003</v>
       </c>
       <c r="T10">
-        <v>14.700000000000001</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="U10">
         <v>14.700000000000003</v>
       </c>
       <c r="V10">
-        <v>14.700000000000001</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="W10">
         <v>14.700000000000003</v>
       </c>
       <c r="X10">
-        <v>14.700000000000001</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="Y10">
-        <v>14.700000000000001</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="Z10">
         <v>14.700000000000003</v>
@@ -2064,7 +2064,7 @@
         <v>14.700000000000003</v>
       </c>
       <c r="AD10">
-        <v>14.7</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="AE10">
         <v>14.700000000000003</v>
@@ -2082,28 +2082,28 @@
         <v>14.700000000000003</v>
       </c>
       <c r="AJ10">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="AK10">
         <v>14.700000000000003</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
+        <v>14.700000000000003</v>
+      </c>
+      <c r="AM10">
         <v>14.700000000000001</v>
-      </c>
-      <c r="AL10">
-        <v>14.700000000000001</v>
-      </c>
-      <c r="AM10">
-        <v>14.700000000000003</v>
       </c>
       <c r="AN10">
         <v>14.700000000000001</v>
       </c>
       <c r="AO10">
-        <v>14.7</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="AP10">
-        <v>14.700000000000003</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="AQ10">
-        <v>14.700000000000003</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="AR10">
         <v>14.700000000000001</v>
@@ -2112,7 +2112,7 @@
         <v>14.700000000000001</v>
       </c>
       <c r="AT10">
-        <v>14.700000000000003</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="AU10">
         <v>14.700000000000003</v>
@@ -2121,24 +2121,24 @@
         <v>14.700000000000003</v>
       </c>
       <c r="AW10">
-        <v>14.700000000000001</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="AX10">
-        <v>14.700000000000001</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="AY10">
         <v>14.700000000000003</v>
       </c>
       <c r="AZ10">
-        <v>14.700000000000001</v>
+        <v>14.700000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-0.79828390957610285</v>
+        <v>-0.79828390957610307</v>
       </c>
       <c r="B11">
-        <v>-0.79828390957610285</v>
+        <v>-0.79828390957610196</v>
       </c>
       <c r="C11">
         <v>-0.79828390957610285</v>
@@ -2147,7 +2147,7 @@
         <v>-0.79828390957610285</v>
       </c>
       <c r="E11">
-        <v>-0.79828390957610285</v>
+        <v>-0.79828390957610373</v>
       </c>
       <c r="F11">
         <v>-0.79828390957610285</v>
@@ -2159,7 +2159,7 @@
         <v>-0.79828390957610285</v>
       </c>
       <c r="I11">
-        <v>-0.79828390957610285</v>
+        <v>-0.79828390957610107</v>
       </c>
       <c r="J11">
         <v>-0.79828390957610285</v>
@@ -2168,10 +2168,10 @@
         <v>-0.79828390957610285</v>
       </c>
       <c r="L11">
+        <v>-0.79828390957610307</v>
+      </c>
+      <c r="M11">
         <v>-0.79828390957610285</v>
-      </c>
-      <c r="M11">
-        <v>-0.79828390957610107</v>
       </c>
       <c r="N11">
         <v>-0.79828390957610285</v>
@@ -2180,19 +2180,19 @@
         <v>-0.79828390957610285</v>
       </c>
       <c r="P11">
-        <v>-0.79828390957610285</v>
+        <v>-0.79828390957610373</v>
       </c>
       <c r="Q11">
         <v>-0.79828390957610285</v>
       </c>
       <c r="R11">
-        <v>-0.79828390957610262</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="S11">
         <v>-0.79828390957610285</v>
       </c>
       <c r="T11">
-        <v>-0.79828390957610285</v>
+        <v>-0.79828390957610373</v>
       </c>
       <c r="U11">
         <v>-0.79828390957610285</v>
@@ -2201,13 +2201,13 @@
         <v>-0.79828390957610285</v>
       </c>
       <c r="W11">
+        <v>-0.79828390957610285</v>
+      </c>
+      <c r="X11">
+        <v>-0.79828390957610373</v>
+      </c>
+      <c r="Y11">
         <v>-0.79828390957610262</v>
-      </c>
-      <c r="X11">
-        <v>-0.79828390957610285</v>
-      </c>
-      <c r="Y11">
-        <v>-0.79828390957610285</v>
       </c>
       <c r="Z11">
         <v>-0.79828390957610285</v>
@@ -2225,22 +2225,22 @@
         <v>-0.79828390957610285</v>
       </c>
       <c r="AE11">
-        <v>-0.79828390957610373</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AF11">
-        <v>-0.79828390957610307</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AG11">
         <v>-0.79828390957610285</v>
       </c>
       <c r="AH11">
-        <v>-0.79828390957610373</v>
+        <v>-0.79828390957610307</v>
       </c>
       <c r="AI11">
         <v>-0.79828390957610285</v>
       </c>
       <c r="AJ11">
-        <v>-0.79828390957610351</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AK11">
         <v>-0.79828390957610285</v>
@@ -2252,7 +2252,7 @@
         <v>-0.79828390957610285</v>
       </c>
       <c r="AN11">
-        <v>-0.79828390957610373</v>
+        <v>-0.79828390957610285</v>
       </c>
       <c r="AO11">
         <v>-0.79828390957610285</v>
@@ -2288,209 +2288,209 @@
         <v>-0.79828390957610285</v>
       </c>
       <c r="AZ11">
-        <v>-0.79828390957610285</v>
+        <v>-0.79828390957610373</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-13.35656264958196</v>
+        <v>-13.356562649581964</v>
       </c>
       <c r="B12">
         <v>-13.356562649581967</v>
       </c>
       <c r="C12">
+        <v>-13.35656264958196</v>
+      </c>
+      <c r="D12">
+        <v>-13.356562649581946</v>
+      </c>
+      <c r="E12">
+        <v>-13.356562649581956</v>
+      </c>
+      <c r="F12">
+        <v>-13.35656264958196</v>
+      </c>
+      <c r="G12">
         <v>-13.356562649581953</v>
       </c>
-      <c r="D12">
+      <c r="H12">
+        <v>-13.356562649581956</v>
+      </c>
+      <c r="I12">
+        <v>-13.356562649581956</v>
+      </c>
+      <c r="J12">
+        <v>-13.356562649581946</v>
+      </c>
+      <c r="K12">
+        <v>-13.356562649581964</v>
+      </c>
+      <c r="L12">
+        <v>-13.356562649581964</v>
+      </c>
+      <c r="M12">
+        <v>-13.35656264958196</v>
+      </c>
+      <c r="N12">
+        <v>-13.356562649581962</v>
+      </c>
+      <c r="O12">
         <v>-13.356562649581953</v>
       </c>
-      <c r="E12">
+      <c r="P12">
+        <v>-13.356562649581964</v>
+      </c>
+      <c r="Q12">
+        <v>-13.356562649581962</v>
+      </c>
+      <c r="R12">
         <v>-13.35656264958196</v>
       </c>
-      <c r="F12">
+      <c r="S12">
+        <v>-13.35656264958196</v>
+      </c>
+      <c r="T12">
         <v>-13.356562649581953</v>
       </c>
-      <c r="G12">
+      <c r="U12">
+        <v>-13.356562649581964</v>
+      </c>
+      <c r="V12">
+        <v>-13.356562649581949</v>
+      </c>
+      <c r="W12">
         <v>-13.35656264958196</v>
       </c>
-      <c r="H12">
-        <v>-13.356562649581953</v>
-      </c>
-      <c r="I12">
-        <v>-13.356562649581962</v>
-      </c>
-      <c r="J12">
-        <v>-13.35656264958196</v>
-      </c>
-      <c r="K12">
-        <v>-13.35656264958196</v>
-      </c>
-      <c r="L12">
-        <v>-13.356562649581958</v>
-      </c>
-      <c r="M12">
+      <c r="X12">
+        <v>-13.356562649581967</v>
+      </c>
+      <c r="Y12">
         <v>-13.356562649581964</v>
       </c>
-      <c r="N12">
-        <v>-13.356562649581956</v>
-      </c>
-      <c r="O12">
-        <v>-13.35656264958196</v>
-      </c>
-      <c r="P12">
-        <v>-13.356562649581956</v>
-      </c>
-      <c r="Q12">
-        <v>-13.35656264958196</v>
-      </c>
-      <c r="R12">
-        <v>-13.356562649581965</v>
-      </c>
-      <c r="S12">
-        <v>-13.356562649581956</v>
-      </c>
-      <c r="T12">
-        <v>-13.35656264958196</v>
-      </c>
-      <c r="U12">
-        <v>-13.35656264958196</v>
-      </c>
-      <c r="V12">
-        <v>-13.356562649581946</v>
-      </c>
-      <c r="W12">
-        <v>-13.356562649581956</v>
-      </c>
-      <c r="X12">
-        <v>-13.356562649581946</v>
-      </c>
-      <c r="Y12">
-        <v>-13.356562649581953</v>
-      </c>
       <c r="Z12">
-        <v>-13.35656264958196</v>
+        <v>-13.356562649581948</v>
       </c>
       <c r="AA12">
         <v>-13.356562649581953</v>
       </c>
       <c r="AB12">
-        <v>-13.356562649581962</v>
+        <v>-13.356562649581953</v>
       </c>
       <c r="AC12">
         <v>-13.356562649581967</v>
       </c>
       <c r="AD12">
-        <v>-13.356562649581953</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="AE12">
+        <v>-13.35656264958196</v>
+      </c>
+      <c r="AF12">
+        <v>-13.35656264958196</v>
+      </c>
+      <c r="AG12">
+        <v>-13.356562649581964</v>
+      </c>
+      <c r="AH12">
+        <v>-13.356562649581946</v>
+      </c>
+      <c r="AI12">
+        <v>-13.356562649581946</v>
+      </c>
+      <c r="AJ12">
+        <v>-13.35656264958196</v>
+      </c>
+      <c r="AK12">
         <v>-13.356562649581956</v>
       </c>
-      <c r="AF12">
-        <v>-13.356562649581946</v>
-      </c>
-      <c r="AG12">
-        <v>-13.356562649581955</v>
-      </c>
-      <c r="AH12">
-        <v>-13.356562649581953</v>
-      </c>
-      <c r="AI12">
-        <v>-13.35656264958196</v>
-      </c>
-      <c r="AJ12">
-        <v>-13.356562649581953</v>
-      </c>
-      <c r="AK12">
-        <v>-13.356562649581946</v>
-      </c>
       <c r="AL12">
-        <v>-13.356562649581953</v>
+        <v>-13.356562649581964</v>
       </c>
       <c r="AM12">
         <v>-13.356562649581953</v>
       </c>
       <c r="AN12">
+        <v>-13.35656264958196</v>
+      </c>
+      <c r="AO12">
+        <v>-13.35656264958196</v>
+      </c>
+      <c r="AP12">
         <v>-13.356562649581964</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
+        <v>-13.356562649581964</v>
+      </c>
+      <c r="AR12">
         <v>-13.356562649581948</v>
       </c>
-      <c r="AP12">
-        <v>-13.356562649581949</v>
-      </c>
-      <c r="AQ12">
-        <v>-13.356562649581942</v>
-      </c>
-      <c r="AR12">
-        <v>-13.356562649581956</v>
-      </c>
       <c r="AS12">
+        <v>-13.35656264958196</v>
+      </c>
+      <c r="AT12">
+        <v>-13.35656264958196</v>
+      </c>
+      <c r="AU12">
         <v>-13.356562649581953</v>
       </c>
-      <c r="AT12">
-        <v>-13.356562649581964</v>
-      </c>
-      <c r="AU12">
-        <v>-13.356562649581951</v>
-      </c>
       <c r="AV12">
-        <v>-13.356562649581956</v>
+        <v>-13.35656264958196</v>
       </c>
       <c r="AW12">
         <v>-13.35656264958196</v>
       </c>
       <c r="AX12">
-        <v>-13.356562649581953</v>
+        <v>-13.356562649581956</v>
       </c>
       <c r="AY12">
-        <v>-13.35656264958196</v>
+        <v>-13.356562649581951</v>
       </c>
       <c r="AZ12">
-        <v>-13.356562649581953</v>
+        <v>-13.356562649581951</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>-35.914103643392622</v>
+      </c>
+      <c r="B13">
         <v>-35.914103643392615</v>
       </c>
-      <c r="B13">
-        <v>-35.914103643392622</v>
-      </c>
       <c r="C13">
-        <v>-35.914103643392622</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="D13">
-        <v>-35.914103643392622</v>
+        <v>-35.914103643392608</v>
       </c>
       <c r="E13">
         <v>-35.914103643392622</v>
       </c>
       <c r="F13">
-        <v>-35.914103643392629</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="G13">
-        <v>-35.914103643392636</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="H13">
+        <v>-35.914103643392622</v>
+      </c>
+      <c r="I13">
+        <v>-35.914103643392608</v>
+      </c>
+      <c r="J13">
         <v>-35.914103643392615</v>
       </c>
-      <c r="I13">
-        <v>-35.914103643392629</v>
-      </c>
-      <c r="J13">
-        <v>-35.914103643392629</v>
-      </c>
       <c r="K13">
-        <v>-35.914103643392615</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="L13">
         <v>-35.914103643392622</v>
       </c>
       <c r="M13">
-        <v>-35.914103643392608</v>
+        <v>-35.914103643392629</v>
       </c>
       <c r="N13">
-        <v>-35.914103643392615</v>
+        <v>-35.914103643392636</v>
       </c>
       <c r="O13">
         <v>-35.914103643392622</v>
@@ -2499,13 +2499,13 @@
         <v>-35.914103643392622</v>
       </c>
       <c r="Q13">
+        <v>-35.914103643392629</v>
+      </c>
+      <c r="R13">
         <v>-35.914103643392622</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-35.914103643392629</v>
-      </c>
-      <c r="S13">
-        <v>-35.914103643392608</v>
       </c>
       <c r="T13">
         <v>-35.914103643392622</v>
@@ -2514,70 +2514,70 @@
         <v>-35.914103643392629</v>
       </c>
       <c r="V13">
+        <v>-35.914103643392622</v>
+      </c>
+      <c r="W13">
+        <v>-35.914103643392636</v>
+      </c>
+      <c r="X13">
+        <v>-35.914103643392629</v>
+      </c>
+      <c r="Y13">
+        <v>-35.914103643392629</v>
+      </c>
+      <c r="Z13">
+        <v>-35.914103643392622</v>
+      </c>
+      <c r="AA13">
         <v>-35.914103643392615</v>
       </c>
-      <c r="W13">
+      <c r="AB13">
         <v>-35.914103643392629</v>
       </c>
-      <c r="X13">
+      <c r="AC13">
         <v>-35.914103643392622</v>
       </c>
-      <c r="Y13">
+      <c r="AD13">
+        <v>-35.914103643392629</v>
+      </c>
+      <c r="AE13">
+        <v>-35.914103643392636</v>
+      </c>
+      <c r="AF13">
         <v>-35.914103643392615</v>
       </c>
-      <c r="Z13">
+      <c r="AG13">
+        <v>-35.914103643392622</v>
+      </c>
+      <c r="AH13">
+        <v>-35.914103643392629</v>
+      </c>
+      <c r="AI13">
+        <v>-35.914103643392622</v>
+      </c>
+      <c r="AJ13">
+        <v>-35.914103643392608</v>
+      </c>
+      <c r="AK13">
+        <v>-35.914103643392608</v>
+      </c>
+      <c r="AL13">
         <v>-35.914103643392615</v>
       </c>
-      <c r="AA13">
+      <c r="AM13">
         <v>-35.914103643392608</v>
       </c>
-      <c r="AB13">
-        <v>-35.914103643392608</v>
-      </c>
-      <c r="AC13">
+      <c r="AN13">
+        <v>-35.914103643392615</v>
+      </c>
+      <c r="AO13">
         <v>-35.914103643392629</v>
       </c>
-      <c r="AD13">
-        <v>-35.9141036433926</v>
-      </c>
-      <c r="AE13">
-        <v>-35.914103643392615</v>
-      </c>
-      <c r="AF13">
+      <c r="AP13">
         <v>-35.914103643392622</v>
       </c>
-      <c r="AG13">
-        <v>-35.914103643392615</v>
-      </c>
-      <c r="AH13">
-        <v>-35.914103643392622</v>
-      </c>
-      <c r="AI13">
-        <v>-35.914103643392629</v>
-      </c>
-      <c r="AJ13">
-        <v>-35.914103643392622</v>
-      </c>
-      <c r="AK13">
-        <v>-35.914103643392615</v>
-      </c>
-      <c r="AL13">
-        <v>-35.914103643392622</v>
-      </c>
-      <c r="AM13">
-        <v>-35.914103643392622</v>
-      </c>
-      <c r="AN13">
-        <v>-35.914103643392622</v>
-      </c>
-      <c r="AO13">
+      <c r="AQ13">
         <v>-35.914103643392636</v>
-      </c>
-      <c r="AP13">
-        <v>-35.914103643392615</v>
-      </c>
-      <c r="AQ13">
-        <v>-35.914103643392608</v>
       </c>
       <c r="AR13">
         <v>-35.914103643392615</v>
@@ -2586,30 +2586,30 @@
         <v>-35.914103643392615</v>
       </c>
       <c r="AT13">
-        <v>-35.914103643392629</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="AU13">
         <v>-35.914103643392629</v>
       </c>
       <c r="AV13">
-        <v>-35.914103643392629</v>
+        <v>-35.914103643392615</v>
       </c>
       <c r="AW13">
-        <v>-35.914103643392608</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="AX13">
-        <v>-35.914103643392608</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="AY13">
-        <v>-35.914103643392629</v>
+        <v>-35.914103643392622</v>
       </c>
       <c r="AZ13">
-        <v>-35.9141036433926</v>
+        <v>-35.914103643392622</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>4.9999999999999517E-2</v>
+        <v>-4.8485521153551758E-16</v>
       </c>
       <c r="B14">
         <v>0.05</v>
@@ -2767,115 +2767,115 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.51000000000000045</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="B15">
-        <v>0.50999999999999868</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="C15">
-        <v>0.50999999999999934</v>
+        <v>0.50999999999999979</v>
       </c>
       <c r="D15">
-        <v>0.50999999999999912</v>
+        <v>0.51000000000000223</v>
       </c>
       <c r="E15">
-        <v>0.50999999999999934</v>
+        <v>0.50999999999999956</v>
       </c>
       <c r="F15">
         <v>0.50999999999999979</v>
       </c>
       <c r="G15">
-        <v>0.50999999999999979</v>
+        <v>0.50999999999999912</v>
       </c>
       <c r="H15">
-        <v>0.51000000000000023</v>
+        <v>0.51000000000000156</v>
       </c>
       <c r="I15">
-        <v>0.50999999999999979</v>
+        <v>0.51000000000000068</v>
       </c>
       <c r="J15">
-        <v>0.50999999999999868</v>
+        <v>0.50999999999999956</v>
       </c>
       <c r="K15">
         <v>0.51000000000000023</v>
       </c>
       <c r="L15">
-        <v>0.51</v>
+        <v>0.51000000000000045</v>
       </c>
       <c r="M15">
         <v>0.51000000000000068</v>
       </c>
       <c r="N15">
+        <v>0.51</v>
+      </c>
+      <c r="O15">
         <v>0.51000000000000068</v>
       </c>
-      <c r="O15">
-        <v>0.5099999999999989</v>
-      </c>
       <c r="P15">
-        <v>0.51000000000000068</v>
+        <v>0.50999999999999956</v>
       </c>
       <c r="Q15">
+        <v>0.51000000000000112</v>
+      </c>
+      <c r="R15">
+        <v>0.50999999999999956</v>
+      </c>
+      <c r="S15">
+        <v>0.50999999999999912</v>
+      </c>
+      <c r="T15">
+        <v>0.50999999999999912</v>
+      </c>
+      <c r="U15">
+        <v>0.51000000000000179</v>
+      </c>
+      <c r="V15">
         <v>0.51</v>
       </c>
-      <c r="R15">
+      <c r="W15">
+        <v>0.50999999999999979</v>
+      </c>
+      <c r="X15">
+        <v>0.51000000000000112</v>
+      </c>
+      <c r="Y15">
         <v>0.51</v>
       </c>
-      <c r="S15">
+      <c r="Z15">
+        <v>0.51000000000000156</v>
+      </c>
+      <c r="AA15">
         <v>0.51000000000000023</v>
       </c>
-      <c r="T15">
-        <v>0.51000000000000068</v>
-      </c>
-      <c r="U15">
+      <c r="AB15">
+        <v>0.50999999999999979</v>
+      </c>
+      <c r="AC15">
         <v>0.50999999999999934</v>
       </c>
-      <c r="V15">
-        <v>0.5099999999999989</v>
-      </c>
-      <c r="W15">
+      <c r="AD15">
+        <v>0.50999999999999868</v>
+      </c>
+      <c r="AE15">
+        <v>0.50999999999999979</v>
+      </c>
+      <c r="AF15">
         <v>0.50999999999999956</v>
       </c>
-      <c r="X15">
-        <v>0.50999999999999979</v>
-      </c>
-      <c r="Y15">
+      <c r="AG15">
+        <v>0.51</v>
+      </c>
+      <c r="AH15">
+        <v>0.50999999999999912</v>
+      </c>
+      <c r="AI15">
+        <v>0.50999999999999956</v>
+      </c>
+      <c r="AJ15">
         <v>0.51000000000000112</v>
       </c>
-      <c r="Z15">
-        <v>0.50999999999999912</v>
-      </c>
-      <c r="AA15">
-        <v>0.5100000000000009</v>
-      </c>
-      <c r="AB15">
-        <v>0.5100000000000009</v>
-      </c>
-      <c r="AC15">
-        <v>0.50999999999999956</v>
-      </c>
-      <c r="AD15">
-        <v>0.50999999999999912</v>
-      </c>
-      <c r="AE15">
-        <v>0.5100000000000009</v>
-      </c>
-      <c r="AF15">
-        <v>0.51000000000000023</v>
-      </c>
-      <c r="AG15">
-        <v>0.51000000000000156</v>
-      </c>
-      <c r="AH15">
-        <v>0.51000000000000023</v>
-      </c>
-      <c r="AI15">
-        <v>0.51</v>
-      </c>
-      <c r="AJ15">
-        <v>0.5100000000000009</v>
-      </c>
       <c r="AK15">
-        <v>0.51000000000000068</v>
+        <v>0.50999999999999934</v>
       </c>
       <c r="AL15">
         <v>0.51</v>
@@ -2884,43 +2884,43 @@
         <v>0.51000000000000023</v>
       </c>
       <c r="AN15">
-        <v>0.51000000000000112</v>
+        <v>0.51</v>
       </c>
       <c r="AO15">
         <v>0.50999999999999956</v>
       </c>
       <c r="AP15">
-        <v>0.50999999999999956</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="AQ15">
-        <v>0.51000000000000023</v>
+        <v>0.50999999999999979</v>
       </c>
       <c r="AR15">
-        <v>0.51000000000000023</v>
+        <v>0.50999999999999979</v>
       </c>
       <c r="AS15">
         <v>0.5099999999999989</v>
       </c>
       <c r="AT15">
-        <v>0.51</v>
+        <v>0.51000000000000023</v>
       </c>
       <c r="AU15">
-        <v>0.50999999999999934</v>
+        <v>0.50999999999999956</v>
       </c>
       <c r="AV15">
-        <v>0.51000000000000045</v>
+        <v>0.5099999999999989</v>
       </c>
       <c r="AW15">
+        <v>0.5100000000000009</v>
+      </c>
+      <c r="AX15">
         <v>0.50999999999999979</v>
       </c>
-      <c r="AX15">
+      <c r="AY15">
         <v>0.51000000000000023</v>
       </c>
-      <c r="AY15">
-        <v>0.5100000000000009</v>
-      </c>
       <c r="AZ15">
-        <v>0.5100000000000009</v>
+        <v>0.51000000000000134</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.3">
@@ -2928,10 +2928,10 @@
         <v>1.46</v>
       </c>
       <c r="B16">
-        <v>1.46</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="C16">
-        <v>1.4599999999999995</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="D16">
         <v>1.4599999999999997</v>
@@ -2940,76 +2940,76 @@
         <v>1.4599999999999997</v>
       </c>
       <c r="F16">
+        <v>1.4599999999999995</v>
+      </c>
+      <c r="G16">
+        <v>1.4599999999999995</v>
+      </c>
+      <c r="H16">
+        <v>1.46</v>
+      </c>
+      <c r="I16">
         <v>1.4599999999999997</v>
       </c>
-      <c r="G16">
+      <c r="J16">
+        <v>1.4599999999999993</v>
+      </c>
+      <c r="K16">
+        <v>1.4599999999999997</v>
+      </c>
+      <c r="L16">
         <v>1.46</v>
       </c>
-      <c r="H16">
-        <v>1.4599999999999991</v>
-      </c>
-      <c r="I16">
-        <v>1.4599999999999991</v>
-      </c>
-      <c r="J16">
-        <v>1.46</v>
-      </c>
-      <c r="K16">
+      <c r="M16">
         <v>1.4599999999999995</v>
-      </c>
-      <c r="L16">
-        <v>1.4599999999999997</v>
-      </c>
-      <c r="M16">
-        <v>1.4599999999999997</v>
       </c>
       <c r="N16">
         <v>1.4599999999999995</v>
       </c>
       <c r="O16">
+        <v>1.46</v>
+      </c>
+      <c r="P16">
         <v>1.4599999999999995</v>
       </c>
-      <c r="P16">
-        <v>1.4599999999999997</v>
-      </c>
       <c r="Q16">
-        <v>1.4599999999999991</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="R16">
         <v>1.4599999999999995</v>
       </c>
       <c r="S16">
-        <v>1.4599999999999995</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="T16">
-        <v>1.4599999999999995</v>
+        <v>1.46</v>
       </c>
       <c r="U16">
-        <v>1.4599999999999995</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="V16">
         <v>1.4599999999999995</v>
       </c>
       <c r="W16">
-        <v>1.4599999999999993</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="X16">
+        <v>1.4599999999999995</v>
+      </c>
+      <c r="Y16">
         <v>1.4599999999999997</v>
-      </c>
-      <c r="Y16">
-        <v>1.4599999999999995</v>
       </c>
       <c r="Z16">
         <v>1.4599999999999995</v>
       </c>
       <c r="AA16">
-        <v>1.46</v>
+        <v>1.4599999999999993</v>
       </c>
       <c r="AB16">
-        <v>1.46</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AC16">
-        <v>1.46</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AD16">
         <v>1.4599999999999995</v>
@@ -3018,156 +3018,156 @@
         <v>1.4599999999999995</v>
       </c>
       <c r="AF16">
-        <v>1.46</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AG16">
         <v>1.4599999999999995</v>
       </c>
       <c r="AH16">
-        <v>1.46</v>
+        <v>1.4599999999999993</v>
       </c>
       <c r="AI16">
-        <v>1.46</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="AJ16">
-        <v>1.4599999999999993</v>
+        <v>1.4599999999999997</v>
       </c>
       <c r="AK16">
+        <v>1.4599999999999995</v>
+      </c>
+      <c r="AL16">
         <v>1.4599999999999997</v>
-      </c>
-      <c r="AL16">
-        <v>1.4599999999999995</v>
       </c>
       <c r="AM16">
         <v>1.4599999999999995</v>
       </c>
       <c r="AN16">
-        <v>1.4599999999999995</v>
+        <v>1.46</v>
       </c>
       <c r="AO16">
         <v>1.4599999999999995</v>
       </c>
       <c r="AP16">
-        <v>1.4599999999999991</v>
+        <v>1.4599999999999995</v>
       </c>
       <c r="AQ16">
         <v>1.4599999999999995</v>
       </c>
       <c r="AR16">
+        <v>1.4599999999999995</v>
+      </c>
+      <c r="AS16">
+        <v>1.4599999999999993</v>
+      </c>
+      <c r="AT16">
+        <v>1.4599999999999993</v>
+      </c>
+      <c r="AU16">
+        <v>1.4599999999999991</v>
+      </c>
+      <c r="AV16">
         <v>1.4599999999999997</v>
       </c>
-      <c r="AS16">
+      <c r="AW16">
         <v>1.4599999999999995</v>
-      </c>
-      <c r="AT16">
-        <v>1.46</v>
-      </c>
-      <c r="AU16">
-        <v>1.46</v>
-      </c>
-      <c r="AV16">
-        <v>1.4599999999999991</v>
-      </c>
-      <c r="AW16">
-        <v>1.46</v>
       </c>
       <c r="AX16">
         <v>1.4599999999999991</v>
       </c>
       <c r="AY16">
+        <v>1.4599999999999995</v>
+      </c>
+      <c r="AZ16">
         <v>1.46</v>
-      </c>
-      <c r="AZ16">
-        <v>1.4599999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>4.4286532959149305</v>
+      </c>
+      <c r="B17">
+        <v>4.428653295914927</v>
+      </c>
+      <c r="C17">
+        <v>4.4286532959149332</v>
+      </c>
+      <c r="D17">
+        <v>4.428653295914935</v>
+      </c>
+      <c r="E17">
+        <v>4.4286532959149332</v>
+      </c>
+      <c r="F17">
+        <v>4.4286532959149314</v>
+      </c>
+      <c r="G17">
+        <v>4.4286532959149314</v>
+      </c>
+      <c r="H17">
         <v>4.4286532959149323</v>
       </c>
-      <c r="B17">
+      <c r="I17">
+        <v>4.428653295914927</v>
+      </c>
+      <c r="J17">
+        <v>4.4286532959149367</v>
+      </c>
+      <c r="K17">
+        <v>4.4286532959149278</v>
+      </c>
+      <c r="L17">
+        <v>4.4286532959149323</v>
+      </c>
+      <c r="M17">
+        <v>4.4286532959149314</v>
+      </c>
+      <c r="N17">
+        <v>4.4286532959149261</v>
+      </c>
+      <c r="O17">
+        <v>4.4286532959149296</v>
+      </c>
+      <c r="P17">
+        <v>4.4286532959149296</v>
+      </c>
+      <c r="Q17">
+        <v>4.428653295914935</v>
+      </c>
+      <c r="R17">
         <v>4.4286532959149332</v>
       </c>
-      <c r="C17">
-        <v>4.4286532959149341</v>
-      </c>
-      <c r="D17">
+      <c r="S17">
         <v>4.4286532959149323</v>
-      </c>
-      <c r="E17">
-        <v>4.4286532959149367</v>
-      </c>
-      <c r="F17">
-        <v>4.4286532959149358</v>
-      </c>
-      <c r="G17">
-        <v>4.4286532959149332</v>
-      </c>
-      <c r="H17">
-        <v>4.4286532959149341</v>
-      </c>
-      <c r="I17">
-        <v>4.4286532959149323</v>
-      </c>
-      <c r="J17">
-        <v>4.4286532959149385</v>
-      </c>
-      <c r="K17">
-        <v>4.4286532959149332</v>
-      </c>
-      <c r="L17">
-        <v>4.4286532959149332</v>
-      </c>
-      <c r="M17">
-        <v>4.4286532959149252</v>
-      </c>
-      <c r="N17">
-        <v>4.4286532959149403</v>
-      </c>
-      <c r="O17">
-        <v>4.4286532959149341</v>
-      </c>
-      <c r="P17">
-        <v>4.4286532959149323</v>
-      </c>
-      <c r="Q17">
-        <v>4.4286532959149332</v>
-      </c>
-      <c r="R17">
-        <v>4.4286532959149305</v>
-      </c>
-      <c r="S17">
-        <v>4.4286532959149314</v>
       </c>
       <c r="T17">
         <v>4.4286532959149332</v>
       </c>
       <c r="U17">
-        <v>4.4286532959149323</v>
+        <v>4.428653295914935</v>
       </c>
       <c r="V17">
-        <v>4.4286532959149341</v>
+        <v>4.4286532959149385</v>
       </c>
       <c r="W17">
+        <v>4.428653295914935</v>
+      </c>
+      <c r="X17">
+        <v>4.4286532959149314</v>
+      </c>
+      <c r="Y17">
+        <v>4.428653295914927</v>
+      </c>
+      <c r="Z17">
+        <v>4.4286532959149332</v>
+      </c>
+      <c r="AA17">
+        <v>4.4286532959149367</v>
+      </c>
+      <c r="AB17">
         <v>4.4286532959149358</v>
       </c>
-      <c r="X17">
-        <v>4.428653295914935</v>
-      </c>
-      <c r="Y17">
-        <v>4.4286532959149332</v>
-      </c>
-      <c r="Z17">
-        <v>4.4286532959149314</v>
-      </c>
-      <c r="AA17">
-        <v>4.4286532959149287</v>
-      </c>
-      <c r="AB17">
-        <v>4.4286532959149261</v>
-      </c>
       <c r="AC17">
-        <v>4.4286532959149243</v>
+        <v>4.4286532959149278</v>
       </c>
       <c r="AD17">
         <v>4.4286532959149332</v>
@@ -3179,64 +3179,64 @@
         <v>4.4286532959149296</v>
       </c>
       <c r="AG17">
-        <v>4.4286532959149376</v>
+        <v>4.4286532959149358</v>
       </c>
       <c r="AH17">
-        <v>4.4286532959149358</v>
+        <v>4.4286532959149341</v>
       </c>
       <c r="AI17">
-        <v>4.4286532959149323</v>
+        <v>4.4286532959149305</v>
       </c>
       <c r="AJ17">
-        <v>4.4286532959149332</v>
+        <v>4.4286532959149341</v>
       </c>
       <c r="AK17">
         <v>4.4286532959149332</v>
       </c>
       <c r="AL17">
-        <v>4.4286532959149314</v>
+        <v>4.4286532959149287</v>
       </c>
       <c r="AM17">
+        <v>4.4286532959149358</v>
+      </c>
+      <c r="AN17">
+        <v>4.4286532959149305</v>
+      </c>
+      <c r="AO17">
+        <v>4.4286532959149305</v>
+      </c>
+      <c r="AP17">
         <v>4.4286532959149332</v>
-      </c>
-      <c r="AN17">
-        <v>4.4286532959149332</v>
-      </c>
-      <c r="AO17">
-        <v>4.4286532959149376</v>
-      </c>
-      <c r="AP17">
-        <v>4.4286532959149385</v>
       </c>
       <c r="AQ17">
         <v>4.4286532959149367</v>
       </c>
       <c r="AR17">
+        <v>4.428653295914927</v>
+      </c>
+      <c r="AS17">
         <v>4.4286532959149367</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
+        <v>4.4286532959149341</v>
+      </c>
+      <c r="AU17">
         <v>4.4286532959149314</v>
       </c>
-      <c r="AT17">
-        <v>4.428653295914935</v>
-      </c>
-      <c r="AU17">
+      <c r="AV17">
+        <v>4.4286532959149323</v>
+      </c>
+      <c r="AW17">
+        <v>4.4286532959149314</v>
+      </c>
+      <c r="AX17">
+        <v>4.4286532959149332</v>
+      </c>
+      <c r="AY17">
         <v>4.4286532959149341</v>
       </c>
-      <c r="AV17">
-        <v>4.4286532959149332</v>
-      </c>
-      <c r="AW17">
-        <v>4.4286532959149367</v>
-      </c>
-      <c r="AX17">
+      <c r="AZ17">
         <v>4.4286532959149341</v>
-      </c>
-      <c r="AY17">
-        <v>4.428653295914935</v>
-      </c>
-      <c r="AZ17">
-        <v>4.4286532959149367</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.3">
@@ -3250,91 +3250,91 @@
         <v>72.300000000000011</v>
       </c>
       <c r="D18">
-        <v>72.300000000000011</v>
+        <v>72.3</v>
       </c>
       <c r="E18">
         <v>72.3</v>
       </c>
       <c r="F18">
-        <v>72.300000000000011</v>
+        <v>72.3</v>
       </c>
       <c r="G18">
         <v>72.300000000000011</v>
       </c>
       <c r="H18">
+        <v>72.300000000000011</v>
+      </c>
+      <c r="I18">
+        <v>72.300000000000011</v>
+      </c>
+      <c r="J18">
+        <v>72.299999999999983</v>
+      </c>
+      <c r="K18">
         <v>72.3</v>
       </c>
-      <c r="I18">
-        <v>72.299999999999983</v>
-      </c>
-      <c r="J18">
+      <c r="L18">
         <v>72.3</v>
       </c>
-      <c r="K18">
-        <v>72.300000000000026</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
+        <v>72.3</v>
+      </c>
+      <c r="N18">
         <v>72.300000000000011</v>
       </c>
-      <c r="M18">
-        <v>72.300000000000026</v>
-      </c>
-      <c r="N18">
-        <v>72.299999999999983</v>
-      </c>
       <c r="O18">
+        <v>72.3</v>
+      </c>
+      <c r="P18">
         <v>72.300000000000011</v>
       </c>
-      <c r="P18">
-        <v>72.300000000000026</v>
-      </c>
       <c r="Q18">
-        <v>72.3</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="R18">
         <v>72.300000000000011</v>
       </c>
       <c r="S18">
-        <v>72.3</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="T18">
-        <v>72.300000000000026</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="U18">
         <v>72.3</v>
       </c>
       <c r="V18">
-        <v>72.300000000000011</v>
+        <v>72.299999999999983</v>
       </c>
       <c r="W18">
-        <v>72.299999999999983</v>
+        <v>72.3</v>
       </c>
       <c r="X18">
-        <v>72.300000000000011</v>
+        <v>72.3</v>
       </c>
       <c r="Y18">
-        <v>72.300000000000011</v>
+        <v>72.300000000000026</v>
       </c>
       <c r="Z18">
-        <v>72.300000000000011</v>
+        <v>72.3</v>
       </c>
       <c r="AA18">
         <v>72.3</v>
       </c>
       <c r="AB18">
+        <v>72.300000000000011</v>
+      </c>
+      <c r="AC18">
         <v>72.300000000000026</v>
       </c>
-      <c r="AC18">
-        <v>72.300000000000011</v>
-      </c>
       <c r="AD18">
-        <v>72.300000000000011</v>
+        <v>72.3</v>
       </c>
       <c r="AE18">
         <v>72.3</v>
       </c>
       <c r="AF18">
-        <v>72.3</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="AG18">
         <v>72.3</v>
@@ -3343,22 +3343,22 @@
         <v>72.3</v>
       </c>
       <c r="AI18">
-        <v>72.3</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="AJ18">
-        <v>72.300000000000026</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="AK18">
         <v>72.300000000000011</v>
       </c>
       <c r="AL18">
-        <v>72.3</v>
+        <v>72.300000000000026</v>
       </c>
       <c r="AM18">
         <v>72.300000000000011</v>
       </c>
       <c r="AN18">
-        <v>72.300000000000011</v>
+        <v>72.30000000000004</v>
       </c>
       <c r="AO18">
         <v>72.3</v>
@@ -3370,7 +3370,7 @@
         <v>72.3</v>
       </c>
       <c r="AR18">
-        <v>72.299999999999983</v>
+        <v>72.300000000000026</v>
       </c>
       <c r="AS18">
         <v>72.300000000000011</v>
@@ -3379,10 +3379,10 @@
         <v>72.300000000000011</v>
       </c>
       <c r="AU18">
-        <v>72.299999999999983</v>
+        <v>72.3</v>
       </c>
       <c r="AV18">
-        <v>72.300000000000011</v>
+        <v>72.300000000000026</v>
       </c>
       <c r="AW18">
         <v>72.3</v>
@@ -3391,7 +3391,7 @@
         <v>72.3</v>
       </c>
       <c r="AY18">
-        <v>72.300000000000011</v>
+        <v>72.300000000000026</v>
       </c>
       <c r="AZ18">
         <v>72.300000000000011</v>
@@ -3405,7 +3405,7 @@
         <v>2462.4</v>
       </c>
       <c r="C19">
-        <v>2462.399999999996</v>
+        <v>2462.4</v>
       </c>
       <c r="D19">
         <v>2462.4</v>
@@ -3417,7 +3417,7 @@
         <v>2462.4</v>
       </c>
       <c r="G19">
-        <v>2462.4000000000046</v>
+        <v>2462.4</v>
       </c>
       <c r="H19">
         <v>2462.4</v>
@@ -3429,10 +3429,10 @@
         <v>2462.4</v>
       </c>
       <c r="K19">
-        <v>2462.4</v>
+        <v>2462.4000000000046</v>
       </c>
       <c r="L19">
-        <v>2462.399999999996</v>
+        <v>2462.4000000000046</v>
       </c>
       <c r="M19">
         <v>2462.4</v>
@@ -3456,7 +3456,7 @@
         <v>2462.4</v>
       </c>
       <c r="T19">
-        <v>2462.4</v>
+        <v>2462.4000000000046</v>
       </c>
       <c r="U19">
         <v>2462.4</v>
@@ -3474,7 +3474,7 @@
         <v>2462.4</v>
       </c>
       <c r="Z19">
-        <v>2462.399999999996</v>
+        <v>2462.4</v>
       </c>
       <c r="AA19">
         <v>2462.4</v>
@@ -3501,13 +3501,13 @@
         <v>2462.4</v>
       </c>
       <c r="AI19">
-        <v>2462.4</v>
+        <v>2462.399999999996</v>
       </c>
       <c r="AJ19">
         <v>2462.4</v>
       </c>
       <c r="AK19">
-        <v>2462.4</v>
+        <v>2462.399999999996</v>
       </c>
       <c r="AL19">
         <v>2462.4</v>
@@ -3516,10 +3516,10 @@
         <v>2462.4</v>
       </c>
       <c r="AN19">
+        <v>2462.399999999996</v>
+      </c>
+      <c r="AO19">
         <v>2462.4</v>
-      </c>
-      <c r="AO19">
-        <v>2462.4000000000046</v>
       </c>
       <c r="AP19">
         <v>2462.4</v>
@@ -3534,7 +3534,7 @@
         <v>2462.4</v>
       </c>
       <c r="AT19">
-        <v>2462.4000000000046</v>
+        <v>2462.4</v>
       </c>
       <c r="AU19">
         <v>2462.4</v>
@@ -3546,13 +3546,13 @@
         <v>2462.4</v>
       </c>
       <c r="AX19">
-        <v>2462.4</v>
+        <v>2462.4000000000046</v>
       </c>
       <c r="AY19">
         <v>2462.4</v>
       </c>
       <c r="AZ19">
-        <v>2462.4</v>
+        <v>2462.4000000000046</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.3">
@@ -3718,13 +3718,13 @@
         <v>13.3</v>
       </c>
       <c r="B21">
+        <v>13.300000000000004</v>
+      </c>
+      <c r="C21">
         <v>13.3</v>
       </c>
-      <c r="C21">
-        <v>13.299999999999999</v>
-      </c>
       <c r="D21">
-        <v>13.299999999999997</v>
+        <v>13.3</v>
       </c>
       <c r="E21">
         <v>13.299999999999997</v>
@@ -3733,40 +3733,40 @@
         <v>13.299999999999997</v>
       </c>
       <c r="G21">
-        <v>13.300000000000004</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="H21">
         <v>13.299999999999997</v>
       </c>
       <c r="I21">
+        <v>13.299999999999999</v>
+      </c>
+      <c r="J21">
+        <v>13.299999999999997</v>
+      </c>
+      <c r="K21">
         <v>13.3</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>13.3</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>13.299999999999997</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>13.299999999999997</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>13.3</v>
       </c>
-      <c r="N21">
-        <v>13.299999999999999</v>
-      </c>
-      <c r="O21">
+      <c r="P21">
+        <v>13.300000000000004</v>
+      </c>
+      <c r="Q21">
+        <v>13.3</v>
+      </c>
+      <c r="R21">
         <v>13.299999999999997</v>
-      </c>
-      <c r="P21">
-        <v>13.299999999999997</v>
-      </c>
-      <c r="Q21">
-        <v>13.299999999999995</v>
-      </c>
-      <c r="R21">
-        <v>13.299999999999999</v>
       </c>
       <c r="S21">
         <v>13.3</v>
@@ -3778,255 +3778,255 @@
         <v>13.3</v>
       </c>
       <c r="V21">
-        <v>13.3</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="W21">
-        <v>13.299999999999997</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="X21">
         <v>13.3</v>
       </c>
       <c r="Y21">
-        <v>13.299999999999997</v>
+        <v>13.3</v>
       </c>
       <c r="Z21">
-        <v>13.299999999999997</v>
+        <v>13.3</v>
       </c>
       <c r="AA21">
-        <v>13.299999999999997</v>
+        <v>13.299999999999995</v>
       </c>
       <c r="AB21">
-        <v>13.300000000000004</v>
+        <v>13.3</v>
       </c>
       <c r="AC21">
         <v>13.3</v>
       </c>
       <c r="AD21">
-        <v>13.299999999999997</v>
+        <v>13.3</v>
       </c>
       <c r="AE21">
-        <v>13.299999999999997</v>
+        <v>13.3</v>
       </c>
       <c r="AF21">
         <v>13.299999999999997</v>
       </c>
       <c r="AG21">
+        <v>13.299999999999997</v>
+      </c>
+      <c r="AH21">
+        <v>13.300000000000002</v>
+      </c>
+      <c r="AI21">
+        <v>13.299999999999997</v>
+      </c>
+      <c r="AJ21">
+        <v>13.299999999999994</v>
+      </c>
+      <c r="AK21">
+        <v>13.299999999999997</v>
+      </c>
+      <c r="AL21">
         <v>13.3</v>
       </c>
-      <c r="AH21">
+      <c r="AM21">
+        <v>13.299999999999997</v>
+      </c>
+      <c r="AN21">
+        <v>13.299999999999997</v>
+      </c>
+      <c r="AO21">
+        <v>13.3</v>
+      </c>
+      <c r="AP21">
         <v>13.299999999999999</v>
       </c>
-      <c r="AI21">
-        <v>13.3</v>
-      </c>
-      <c r="AJ21">
-        <v>13.3</v>
-      </c>
-      <c r="AK21">
-        <v>13.3</v>
-      </c>
-      <c r="AL21">
-        <v>13.299999999999999</v>
-      </c>
-      <c r="AM21">
-        <v>13.3</v>
-      </c>
-      <c r="AN21">
-        <v>13.3</v>
-      </c>
-      <c r="AO21">
-        <v>13.299999999999997</v>
-      </c>
-      <c r="AP21">
-        <v>13.299999999999997</v>
-      </c>
       <c r="AQ21">
-        <v>13.299999999999999</v>
+        <v>13.300000000000002</v>
       </c>
       <c r="AR21">
-        <v>13.299999999999997</v>
+        <v>13.299999999999995</v>
       </c>
       <c r="AS21">
         <v>13.299999999999997</v>
       </c>
       <c r="AT21">
-        <v>13.300000000000002</v>
+        <v>13.299999999999997</v>
       </c>
       <c r="AU21">
+        <v>13.299999999999997</v>
+      </c>
+      <c r="AV21">
         <v>13.3</v>
       </c>
-      <c r="AV21">
+      <c r="AW21">
         <v>13.299999999999997</v>
       </c>
-      <c r="AW21">
+      <c r="AX21">
+        <v>13.3</v>
+      </c>
+      <c r="AY21">
         <v>13.299999999999999</v>
       </c>
-      <c r="AX21">
-        <v>13.299999999999999</v>
-      </c>
-      <c r="AY21">
-        <v>13.300000000000002</v>
-      </c>
       <c r="AZ21">
-        <v>13.299999999999999</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>-5.2377510138779115E-2</v>
+        <v>-5.2377510138778838E-2</v>
       </c>
       <c r="B22">
-        <v>-5.2377510138778616E-2</v>
+        <v>-5.2377510138778893E-2</v>
       </c>
       <c r="C22">
-        <v>-5.2377510138778338E-2</v>
+        <v>-5.237751013877906E-2</v>
       </c>
       <c r="D22">
-        <v>-5.2377510138779282E-2</v>
+        <v>-5.2377510138778893E-2</v>
       </c>
       <c r="E22">
         <v>-5.237751013877856E-2</v>
       </c>
       <c r="F22">
+        <v>-5.2377510138778505E-2</v>
+      </c>
+      <c r="G22">
         <v>-5.2377510138778394E-2</v>
       </c>
-      <c r="G22">
+      <c r="H22">
+        <v>-5.2377510138778838E-2</v>
+      </c>
+      <c r="I22">
+        <v>-5.2377510138778949E-2</v>
+      </c>
+      <c r="J22">
+        <v>-5.2377510138778616E-2</v>
+      </c>
+      <c r="K22">
+        <v>-5.2377510138778893E-2</v>
+      </c>
+      <c r="L22">
+        <v>-5.2377510138778893E-2</v>
+      </c>
+      <c r="M22">
+        <v>-5.2377510138779337E-2</v>
+      </c>
+      <c r="N22">
+        <v>-5.2377510138779171E-2</v>
+      </c>
+      <c r="O22">
+        <v>-5.2377510138778782E-2</v>
+      </c>
+      <c r="P22">
+        <v>-5.2377510138779948E-2</v>
+      </c>
+      <c r="Q22">
+        <v>-5.2377510138779004E-2</v>
+      </c>
+      <c r="R22">
+        <v>-5.237751013877856E-2</v>
+      </c>
+      <c r="S22">
+        <v>-5.2377510138778782E-2</v>
+      </c>
+      <c r="T22">
+        <v>-5.2377510138778782E-2</v>
+      </c>
+      <c r="U22">
+        <v>-5.2377510138778283E-2</v>
+      </c>
+      <c r="V22">
+        <v>-5.2377510138778616E-2</v>
+      </c>
+      <c r="W22">
         <v>-5.237751013877906E-2</v>
       </c>
-      <c r="H22">
-        <v>-5.2377510138779004E-2</v>
-      </c>
-      <c r="I22">
+      <c r="X22">
+        <v>-5.2377510138778727E-2</v>
+      </c>
+      <c r="Y22">
+        <v>-5.2377510138778838E-2</v>
+      </c>
+      <c r="Z22">
+        <v>-5.2377510138778394E-2</v>
+      </c>
+      <c r="AA22">
         <v>-5.2377510138778338E-2</v>
       </c>
-      <c r="J22">
-        <v>-5.2377510138779004E-2</v>
-      </c>
-      <c r="K22">
-        <v>-5.2377510138778449E-2</v>
-      </c>
-      <c r="L22">
-        <v>-5.2377510138779226E-2</v>
-      </c>
-      <c r="M22">
-        <v>-5.2377510138778838E-2</v>
-      </c>
-      <c r="N22">
-        <v>-5.2377510138778505E-2</v>
-      </c>
-      <c r="O22">
-        <v>-5.2377510138778671E-2</v>
-      </c>
-      <c r="P22">
-        <v>-5.2377510138779448E-2</v>
-      </c>
-      <c r="Q22">
-        <v>-5.237751013877795E-2</v>
-      </c>
-      <c r="R22">
-        <v>-5.2377510138779115E-2</v>
-      </c>
-      <c r="S22">
-        <v>-5.2377510138778505E-2</v>
-      </c>
-      <c r="T22">
-        <v>-5.2377510138778671E-2</v>
-      </c>
-      <c r="U22">
-        <v>-5.2377510138779282E-2</v>
-      </c>
-      <c r="V22">
-        <v>-5.2377510138778838E-2</v>
-      </c>
-      <c r="W22">
-        <v>-5.2377510138778338E-2</v>
-      </c>
-      <c r="X22">
-        <v>-5.2377510138778172E-2</v>
-      </c>
-      <c r="Y22">
-        <v>-5.2377510138778227E-2</v>
-      </c>
-      <c r="Z22">
-        <v>-5.2377510138779004E-2</v>
-      </c>
-      <c r="AA22">
-        <v>-5.2377510138778172E-2</v>
-      </c>
       <c r="AB22">
-        <v>-5.2377510138779115E-2</v>
+        <v>-5.237751013877856E-2</v>
       </c>
       <c r="AC22">
         <v>-5.2377510138778782E-2</v>
       </c>
       <c r="AD22">
+        <v>-5.237751013877856E-2</v>
+      </c>
+      <c r="AE22">
+        <v>-5.2377510138778172E-2</v>
+      </c>
+      <c r="AF22">
+        <v>-5.2377510138778949E-2</v>
+      </c>
+      <c r="AG22">
+        <v>-5.2377510138779781E-2</v>
+      </c>
+      <c r="AH22">
+        <v>-5.2377510138778727E-2</v>
+      </c>
+      <c r="AI22">
+        <v>-5.237751013877906E-2</v>
+      </c>
+      <c r="AJ22">
+        <v>-5.2377510138778782E-2</v>
+      </c>
+      <c r="AK22">
+        <v>-5.2377510138779282E-2</v>
+      </c>
+      <c r="AL22">
+        <v>-5.2377510138778782E-2</v>
+      </c>
+      <c r="AM22">
+        <v>-5.237751013877856E-2</v>
+      </c>
+      <c r="AN22">
+        <v>-5.2377510138778782E-2</v>
+      </c>
+      <c r="AO22">
+        <v>-5.2377510138778893E-2</v>
+      </c>
+      <c r="AP22">
+        <v>-5.2377510138778893E-2</v>
+      </c>
+      <c r="AQ22">
+        <v>-5.2377510138778782E-2</v>
+      </c>
+      <c r="AR22">
+        <v>-5.2377510138778616E-2</v>
+      </c>
+      <c r="AS22">
         <v>-5.2377510138778671E-2</v>
       </c>
-      <c r="AE22">
-        <v>-5.2377510138779115E-2</v>
-      </c>
-      <c r="AF22">
-        <v>-5.2377510138779004E-2</v>
-      </c>
-      <c r="AG22">
-        <v>-5.2377510138778227E-2</v>
-      </c>
-      <c r="AH22">
-        <v>-5.2377510138779448E-2</v>
-      </c>
-      <c r="AI22">
+      <c r="AT22">
+        <v>-5.237751013877906E-2</v>
+      </c>
+      <c r="AU22">
+        <v>-5.2377510138778449E-2</v>
+      </c>
+      <c r="AV22">
+        <v>-5.2377510138779226E-2</v>
+      </c>
+      <c r="AW22">
         <v>-5.237751013877856E-2</v>
       </c>
-      <c r="AJ22">
-        <v>-5.2377510138779504E-2</v>
-      </c>
-      <c r="AK22">
-        <v>-5.2377510138778893E-2</v>
-      </c>
-      <c r="AL22">
-        <v>-5.2377510138778227E-2</v>
-      </c>
-      <c r="AM22">
-        <v>-5.2377510138778782E-2</v>
-      </c>
-      <c r="AN22">
-        <v>-5.2377510138778671E-2</v>
-      </c>
-      <c r="AO22">
-        <v>-5.2377510138778172E-2</v>
-      </c>
-      <c r="AP22">
-        <v>-5.2377510138778949E-2</v>
-      </c>
-      <c r="AQ22">
-        <v>-5.237751013877906E-2</v>
-      </c>
-      <c r="AR22">
-        <v>-5.2377510138778949E-2</v>
-      </c>
-      <c r="AS22">
-        <v>-5.237751013877856E-2</v>
-      </c>
-      <c r="AT22">
-        <v>-5.2377510138778893E-2</v>
-      </c>
-      <c r="AU22">
-        <v>-5.2377510138778782E-2</v>
-      </c>
-      <c r="AV22">
-        <v>-5.2377510138778616E-2</v>
-      </c>
-      <c r="AW22">
-        <v>-5.2377510138778838E-2</v>
-      </c>
       <c r="AX22">
-        <v>-5.2377510138778671E-2</v>
+        <v>-5.2377510138778449E-2</v>
       </c>
       <c r="AY22">
         <v>-5.2377510138778671E-2</v>
       </c>
       <c r="AZ22">
-        <v>-5.2377510138778227E-2</v>
+        <v>-5.2377510138778893E-2</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.3">
@@ -4034,2211 +4034,2211 @@
         <v>1.3795378073520097</v>
       </c>
       <c r="B23">
-        <v>1.3795378073520088</v>
+        <v>1.3795378073520099</v>
       </c>
       <c r="C23">
-        <v>1.3795378073520106</v>
+        <v>1.3795378073520048</v>
       </c>
       <c r="D23">
-        <v>1.379537807352009</v>
+        <v>1.3795378073520099</v>
       </c>
       <c r="E23">
-        <v>1.3795378073520108</v>
+        <v>1.3795378073520084</v>
       </c>
       <c r="F23">
-        <v>1.3795378073520106</v>
+        <v>1.3795378073520077</v>
       </c>
       <c r="G23">
+        <v>1.379537807352007</v>
+      </c>
+      <c r="H23">
+        <v>1.3795378073520075</v>
+      </c>
+      <c r="I23">
+        <v>1.3795378073520079</v>
+      </c>
+      <c r="J23">
+        <v>1.3795378073520066</v>
+      </c>
+      <c r="K23">
+        <v>1.3795378073520075</v>
+      </c>
+      <c r="L23">
+        <v>1.3795378073520079</v>
+      </c>
+      <c r="M23">
+        <v>1.379537807352005</v>
+      </c>
+      <c r="N23">
+        <v>1.3795378073520057</v>
+      </c>
+      <c r="O23">
         <v>1.3795378073520119</v>
       </c>
-      <c r="H23">
-        <v>1.379537807352007</v>
-      </c>
-      <c r="I23">
-        <v>1.3795378073520084</v>
-      </c>
-      <c r="J23">
-        <v>1.3795378073520053</v>
-      </c>
-      <c r="K23">
-        <v>1.3795378073520086</v>
-      </c>
-      <c r="L23">
-        <v>1.3795378073520059</v>
-      </c>
-      <c r="M23">
-        <v>1.3795378073520079</v>
-      </c>
-      <c r="N23">
-        <v>1.3795378073520059</v>
-      </c>
-      <c r="O23">
-        <v>1.3795378073520088</v>
-      </c>
       <c r="P23">
-        <v>1.3795378073520079</v>
+        <v>1.3795378073520057</v>
       </c>
       <c r="Q23">
         <v>1.3795378073520088</v>
       </c>
       <c r="R23">
-        <v>1.3795378073520053</v>
+        <v>1.3795378073520097</v>
       </c>
       <c r="S23">
+        <v>1.3795378073520079</v>
+      </c>
+      <c r="T23">
+        <v>1.3795378073520064</v>
+      </c>
+      <c r="U23">
+        <v>1.3795378073520104</v>
+      </c>
+      <c r="V23">
         <v>1.3795378073520075</v>
       </c>
-      <c r="T23">
+      <c r="W23">
+        <v>1.3795378073520079</v>
+      </c>
+      <c r="X23">
+        <v>1.3795378073520081</v>
+      </c>
+      <c r="Y23">
+        <v>1.3795378073520073</v>
+      </c>
+      <c r="Z23">
+        <v>1.3795378073520084</v>
+      </c>
+      <c r="AA23">
+        <v>1.3795378073520081</v>
+      </c>
+      <c r="AB23">
         <v>1.379537807352007</v>
       </c>
-      <c r="U23">
-        <v>1.3795378073520053</v>
-      </c>
-      <c r="V23">
-        <v>1.3795378073520077</v>
-      </c>
-      <c r="W23">
-        <v>1.3795378073520066</v>
-      </c>
-      <c r="X23">
-        <v>1.3795378073520066</v>
-      </c>
-      <c r="Y23">
-        <v>1.3795378073520106</v>
-      </c>
-      <c r="Z23">
-        <v>1.379537807352009</v>
-      </c>
-      <c r="AA23">
-        <v>1.3795378073520104</v>
-      </c>
-      <c r="AB23">
-        <v>1.3795378073520066</v>
-      </c>
       <c r="AC23">
+        <v>1.3795378073520084</v>
+      </c>
+      <c r="AD23">
+        <v>1.3795378073520079</v>
+      </c>
+      <c r="AE23">
         <v>1.3795378073520062</v>
       </c>
-      <c r="AD23">
+      <c r="AF23">
         <v>1.379537807352007</v>
       </c>
-      <c r="AE23">
+      <c r="AG23">
+        <v>1.379537807352007</v>
+      </c>
+      <c r="AH23">
+        <v>1.3795378073520084</v>
+      </c>
+      <c r="AI23">
         <v>1.3795378073520079</v>
-      </c>
-      <c r="AF23">
-        <v>1.3795378073520079</v>
-      </c>
-      <c r="AG23">
-        <v>1.3795378073520095</v>
-      </c>
-      <c r="AH23">
-        <v>1.3795378073520113</v>
-      </c>
-      <c r="AI23">
-        <v>1.379537807352007</v>
       </c>
       <c r="AJ23">
         <v>1.3795378073520084</v>
       </c>
       <c r="AK23">
-        <v>1.3795378073520104</v>
+        <v>1.3795378073520079</v>
       </c>
       <c r="AL23">
-        <v>1.3795378073520064</v>
+        <v>1.3795378073520062</v>
       </c>
       <c r="AM23">
-        <v>1.3795378073520088</v>
+        <v>1.379537807352007</v>
       </c>
       <c r="AN23">
-        <v>1.3795378073520068</v>
+        <v>1.3795378073520048</v>
       </c>
       <c r="AO23">
-        <v>1.3795378073520097</v>
+        <v>1.3795378073520101</v>
       </c>
       <c r="AP23">
         <v>1.3795378073520086</v>
       </c>
       <c r="AQ23">
-        <v>1.3795378073520093</v>
+        <v>1.3795378073520124</v>
       </c>
       <c r="AR23">
-        <v>1.379537807352007</v>
+        <v>1.379537807352003</v>
       </c>
       <c r="AS23">
-        <v>1.379537807352011</v>
+        <v>1.379537807352009</v>
       </c>
       <c r="AT23">
-        <v>1.3795378073520042</v>
+        <v>1.3795378073520073</v>
       </c>
       <c r="AU23">
-        <v>1.379537807352007</v>
+        <v>1.3795378073520097</v>
       </c>
       <c r="AV23">
+        <v>1.3795378073520075</v>
+      </c>
+      <c r="AW23">
+        <v>1.3795378073520077</v>
+      </c>
+      <c r="AX23">
+        <v>1.3795378073520066</v>
+      </c>
+      <c r="AY23">
+        <v>1.3795378073520075</v>
+      </c>
+      <c r="AZ23">
         <v>1.3795378073520079</v>
-      </c>
-      <c r="AW23">
-        <v>1.3795378073520133</v>
-      </c>
-      <c r="AX23">
-        <v>1.3795378073520093</v>
-      </c>
-      <c r="AY23">
-        <v>1.3795378073520066</v>
-      </c>
-      <c r="AZ23">
-        <v>1.3795378073520073</v>
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24">
+        <v>8.9066876171726204</v>
+      </c>
+      <c r="B24">
+        <v>8.9066876171725919</v>
+      </c>
+      <c r="C24">
+        <v>8.9066876171726186</v>
+      </c>
+      <c r="D24">
+        <v>8.9066876171726079</v>
+      </c>
+      <c r="E24">
+        <v>8.906687617172647</v>
+      </c>
+      <c r="F24">
         <v>8.9066876171726044</v>
       </c>
-      <c r="B24">
+      <c r="G24">
+        <v>8.9066876171725884</v>
+      </c>
+      <c r="H24">
         <v>8.9066876171726044</v>
       </c>
-      <c r="C24">
-        <v>8.90668761717256</v>
-      </c>
-      <c r="D24">
-        <v>8.9066876171725902</v>
-      </c>
-      <c r="E24">
-        <v>8.9066876171726044</v>
-      </c>
-      <c r="F24">
+      <c r="I24">
+        <v>8.9066876171726204</v>
+      </c>
+      <c r="J24">
+        <v>8.9066876171726221</v>
+      </c>
+      <c r="K24">
+        <v>8.9066876171726168</v>
+      </c>
+      <c r="L24">
+        <v>8.9066876171725919</v>
+      </c>
+      <c r="M24">
         <v>8.9066876171726186</v>
       </c>
-      <c r="G24">
+      <c r="N24">
         <v>8.9066876171726186</v>
-      </c>
-      <c r="H24">
-        <v>8.9066876171725937</v>
-      </c>
-      <c r="I24">
-        <v>8.9066876171726079</v>
-      </c>
-      <c r="J24">
-        <v>8.9066876171726044</v>
-      </c>
-      <c r="K24">
-        <v>8.9066876171726044</v>
-      </c>
-      <c r="L24">
-        <v>8.9066876171725902</v>
-      </c>
-      <c r="M24">
-        <v>8.9066876171726079</v>
-      </c>
-      <c r="N24">
-        <v>8.9066876171725635</v>
       </c>
       <c r="O24">
         <v>8.9066876171726044</v>
       </c>
       <c r="P24">
+        <v>8.9066876171725884</v>
+      </c>
+      <c r="Q24">
+        <v>8.9066876171726079</v>
+      </c>
+      <c r="R24">
+        <v>8.9066876171725902</v>
+      </c>
+      <c r="S24">
+        <v>8.9066876171726044</v>
+      </c>
+      <c r="T24">
+        <v>8.9066876171726026</v>
+      </c>
+      <c r="U24">
+        <v>8.9066876171726186</v>
+      </c>
+      <c r="V24">
         <v>8.9066876171726204</v>
       </c>
-      <c r="Q24">
+      <c r="W24">
+        <v>8.9066876171726186</v>
+      </c>
+      <c r="X24">
+        <v>8.9066876171726328</v>
+      </c>
+      <c r="Y24">
+        <v>8.9066876171726346</v>
+      </c>
+      <c r="Z24">
+        <v>8.9066876171726221</v>
+      </c>
+      <c r="AA24">
+        <v>8.9066876171726204</v>
+      </c>
+      <c r="AB24">
+        <v>8.9066876171725902</v>
+      </c>
+      <c r="AC24">
+        <v>8.9066876171725902</v>
+      </c>
+      <c r="AD24">
+        <v>8.9066876171726044</v>
+      </c>
+      <c r="AE24">
+        <v>8.9066876171726044</v>
+      </c>
+      <c r="AF24">
+        <v>8.9066876171725902</v>
+      </c>
+      <c r="AG24">
+        <v>8.906687617172576</v>
+      </c>
+      <c r="AH24">
+        <v>8.9066876171726079</v>
+      </c>
+      <c r="AI24">
+        <v>8.9066876171725902</v>
+      </c>
+      <c r="AJ24">
+        <v>8.9066876171726044</v>
+      </c>
+      <c r="AK24">
+        <v>8.9066876171726186</v>
+      </c>
+      <c r="AL24">
         <v>8.9066876171725919</v>
       </c>
-      <c r="R24">
+      <c r="AM24">
         <v>8.9066876171726044</v>
       </c>
-      <c r="S24">
-        <v>8.9066876171726186</v>
-      </c>
-      <c r="T24">
+      <c r="AN24">
         <v>8.9066876171726079</v>
       </c>
-      <c r="U24">
+      <c r="AO24">
         <v>8.9066876171725902</v>
-      </c>
-      <c r="V24">
-        <v>8.906687617172647</v>
-      </c>
-      <c r="W24">
-        <v>8.9066876171726204</v>
-      </c>
-      <c r="X24">
-        <v>8.9066876171726079</v>
-      </c>
-      <c r="Y24">
-        <v>8.9066876171726221</v>
-      </c>
-      <c r="Z24">
-        <v>8.9066876171725902</v>
-      </c>
-      <c r="AA24">
-        <v>8.9066876171725937</v>
-      </c>
-      <c r="AB24">
-        <v>8.9066876171726186</v>
-      </c>
-      <c r="AC24">
-        <v>8.9066876171726044</v>
-      </c>
-      <c r="AD24">
-        <v>8.9066876171725902</v>
-      </c>
-      <c r="AE24">
-        <v>8.906687617172647</v>
-      </c>
-      <c r="AF24">
-        <v>8.9066876171725937</v>
-      </c>
-      <c r="AG24">
-        <v>8.9066876171726079</v>
-      </c>
-      <c r="AH24">
-        <v>8.906687617172631</v>
-      </c>
-      <c r="AI24">
-        <v>8.9066876171726044</v>
-      </c>
-      <c r="AJ24">
-        <v>8.9066876171726062</v>
-      </c>
-      <c r="AK24">
-        <v>8.9066876171726346</v>
-      </c>
-      <c r="AL24">
-        <v>8.9066876171725902</v>
-      </c>
-      <c r="AM24">
-        <v>8.9066876171725635</v>
-      </c>
-      <c r="AN24">
-        <v>8.9066876171726221</v>
-      </c>
-      <c r="AO24">
-        <v>8.9066876171726204</v>
       </c>
       <c r="AP24">
         <v>8.9066876171726079</v>
       </c>
       <c r="AQ24">
-        <v>8.9066876171726204</v>
+        <v>8.9066876171726221</v>
       </c>
       <c r="AR24">
+        <v>8.9066876171725795</v>
+      </c>
+      <c r="AS24">
+        <v>8.9066876171725902</v>
+      </c>
+      <c r="AT24">
         <v>8.9066876171725777</v>
       </c>
-      <c r="AS24">
+      <c r="AU24">
+        <v>8.9066876171725902</v>
+      </c>
+      <c r="AV24">
         <v>8.9066876171726044</v>
       </c>
-      <c r="AT24">
-        <v>8.9066876171726186</v>
-      </c>
-      <c r="AU24">
-        <v>8.9066876171726026</v>
-      </c>
-      <c r="AV24">
-        <v>8.9066876171726328</v>
-      </c>
       <c r="AW24">
-        <v>8.9066876171726328</v>
+        <v>8.9066876171726062</v>
       </c>
       <c r="AX24">
+        <v>8.9066876171725777</v>
+      </c>
+      <c r="AY24">
         <v>8.9066876171726079</v>
       </c>
-      <c r="AY24">
-        <v>8.9066876171726062</v>
-      </c>
       <c r="AZ24">
-        <v>8.9066876171726062</v>
+        <v>8.9066876171726346</v>
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.29643116424103322</v>
+        <v>7.9999999999998433E-2</v>
       </c>
       <c r="B25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="C25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="D25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="J25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="K25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="L25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="M25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="N25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="O25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="P25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="Q25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="R25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="S25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="T25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="U25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="V25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="W25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="X25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="Y25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="Z25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AA25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AB25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AC25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AD25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AE25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AF25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AG25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AH25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AI25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AJ25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AK25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AL25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AM25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AN25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AO25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AP25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AQ25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AR25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AS25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AT25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AU25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AV25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AW25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AX25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AY25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AZ25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>-0.68358278899174096</v>
+        <v>0.55000000000000204</v>
       </c>
       <c r="B26">
-        <v>0.51000000000000267</v>
+        <v>0.55000000000000338</v>
       </c>
       <c r="C26">
-        <v>0.5100000000000009</v>
+        <v>0.55000000000000049</v>
       </c>
       <c r="D26">
-        <v>0.51000000000000134</v>
+        <v>0.55000000000000115</v>
       </c>
       <c r="E26">
-        <v>0.5100000000000009</v>
+        <v>0.54999999999999916</v>
       </c>
       <c r="F26">
-        <v>0.51000000000000179</v>
+        <v>0.55000000000000093</v>
       </c>
       <c r="G26">
-        <v>0.50999999999999956</v>
+        <v>0.55000000000000071</v>
       </c>
       <c r="H26">
-        <v>0.51000000000000201</v>
+        <v>0.55000000000000071</v>
       </c>
       <c r="I26">
-        <v>0.51000000000000156</v>
+        <v>0.55000000000000426</v>
       </c>
       <c r="J26">
-        <v>0.51000000000000179</v>
+        <v>0.55000000000000249</v>
       </c>
       <c r="K26">
-        <v>0.51000000000000223</v>
+        <v>0.55000000000000182</v>
       </c>
       <c r="L26">
-        <v>0.51000000000000356</v>
+        <v>0.55000000000000249</v>
       </c>
       <c r="M26">
-        <v>0.51000000000000267</v>
+        <v>0.55000000000000115</v>
       </c>
       <c r="N26">
-        <v>0.51000000000000068</v>
+        <v>0.55000000000000182</v>
       </c>
       <c r="O26">
-        <v>0.51000000000000201</v>
+        <v>0.5500000000000036</v>
       </c>
       <c r="P26">
-        <v>0.51000000000000245</v>
+        <v>0.55000000000000271</v>
       </c>
       <c r="Q26">
-        <v>0.51000000000000156</v>
+        <v>0.5500000000000016</v>
       </c>
       <c r="R26">
-        <v>0.51000000000000134</v>
+        <v>0.55000000000000138</v>
       </c>
       <c r="S26">
-        <v>0.51000000000000134</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T26">
-        <v>0.5100000000000029</v>
+        <v>0.54999999999999849</v>
       </c>
       <c r="U26">
-        <v>0.51000000000000179</v>
+        <v>0.55000000000000338</v>
       </c>
       <c r="V26">
-        <v>0.51000000000000134</v>
+        <v>0.55000000000000071</v>
       </c>
       <c r="W26">
-        <v>0.51000000000000267</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X26">
-        <v>0.51000000000000112</v>
+        <v>0.55000000000000182</v>
       </c>
       <c r="Y26">
-        <v>0.51000000000000068</v>
+        <v>0.55000000000000293</v>
       </c>
       <c r="Z26">
-        <v>0.51000000000000134</v>
+        <v>0.55000000000000338</v>
       </c>
       <c r="AA26">
-        <v>0.51000000000000068</v>
+        <v>0.55000000000000071</v>
       </c>
       <c r="AB26">
-        <v>0.51000000000000223</v>
+        <v>0.55000000000000182</v>
       </c>
       <c r="AC26">
-        <v>0.51000000000000267</v>
+        <v>0.55000000000000138</v>
       </c>
       <c r="AD26">
-        <v>0.51000000000000179</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE26">
-        <v>0.5100000000000009</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF26">
-        <v>0.51000000000000334</v>
+        <v>0.55000000000000226</v>
       </c>
       <c r="AG26">
-        <v>0.51000000000000156</v>
+        <v>0.55000000000000093</v>
       </c>
       <c r="AH26">
-        <v>0.5100000000000009</v>
+        <v>0.55000000000000115</v>
       </c>
       <c r="AI26">
-        <v>0.5100000000000009</v>
+        <v>0.55000000000000138</v>
       </c>
       <c r="AJ26">
-        <v>0.51000000000000179</v>
+        <v>0.55000000000000071</v>
       </c>
       <c r="AK26">
-        <v>0.51000000000000156</v>
+        <v>0.54999999999999916</v>
       </c>
       <c r="AL26">
-        <v>0.51000000000000201</v>
+        <v>0.55000000000000315</v>
       </c>
       <c r="AM26">
-        <v>0.51000000000000201</v>
+        <v>0.55000000000000093</v>
       </c>
       <c r="AN26">
-        <v>0.51000000000000334</v>
+        <v>0.55000000000000338</v>
       </c>
       <c r="AO26">
-        <v>0.50999999999999734</v>
+        <v>0.55000000000000182</v>
       </c>
       <c r="AP26">
-        <v>0.50999999999999979</v>
+        <v>0.55000000000000338</v>
       </c>
       <c r="AQ26">
-        <v>0.51000000000000068</v>
+        <v>0.5500000000000016</v>
       </c>
       <c r="AR26">
-        <v>0.51000000000000201</v>
+        <v>0.55000000000000293</v>
       </c>
       <c r="AS26">
-        <v>0.51000000000000045</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AT26">
-        <v>0.51000000000000356</v>
+        <v>0.55000000000000293</v>
       </c>
       <c r="AU26">
-        <v>0.5100000000000009</v>
+        <v>0.55000000000000049</v>
       </c>
       <c r="AV26">
-        <v>0.50999999999999868</v>
+        <v>0.55000000000000182</v>
       </c>
       <c r="AW26">
-        <v>0.5100000000000009</v>
+        <v>0.55000000000000071</v>
       </c>
       <c r="AX26">
-        <v>0.51000000000000112</v>
+        <v>0.55000000000000249</v>
       </c>
       <c r="AY26">
-        <v>0.51000000000000156</v>
+        <v>0.55000000000000071</v>
       </c>
       <c r="AZ26">
-        <v>0.51000000000000112</v>
+        <v>0.55000000000000182</v>
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1.9256050710893</v>
+        <v>1.2100000000000002</v>
       </c>
       <c r="B27">
-        <v>1.4599999999999997</v>
+        <v>1.21</v>
       </c>
       <c r="C27">
-        <v>1.46</v>
+        <v>1.2099999999999997</v>
       </c>
       <c r="D27">
-        <v>1.46</v>
+        <v>1.2099999999999997</v>
       </c>
       <c r="E27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="F27">
-        <v>1.4599999999999997</v>
+        <v>1.2099999999999997</v>
       </c>
       <c r="G27">
-        <v>1.4599999999999993</v>
+        <v>1.2100000000000002</v>
       </c>
       <c r="H27">
-        <v>1.4599999999999995</v>
+        <v>1.21</v>
       </c>
       <c r="I27">
-        <v>1.46</v>
+        <v>1.2100000000000004</v>
       </c>
       <c r="J27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="K27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="L27">
-        <v>1.4599999999999997</v>
+        <v>1.2100000000000002</v>
       </c>
       <c r="M27">
-        <v>1.4599999999999997</v>
+        <v>1.21</v>
       </c>
       <c r="N27">
-        <v>1.46</v>
+        <v>1.2099999999999997</v>
       </c>
       <c r="O27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="P27">
-        <v>1.46</v>
+        <v>1.2100000000000002</v>
       </c>
       <c r="Q27">
-        <v>1.46</v>
+        <v>1.2100000000000002</v>
       </c>
       <c r="R27">
-        <v>1.4599999999999995</v>
+        <v>1.2100000000000004</v>
       </c>
       <c r="S27">
-        <v>1.4599999999999997</v>
+        <v>1.2099999999999995</v>
       </c>
       <c r="T27">
-        <v>1.4600000000000002</v>
+        <v>1.2099999999999995</v>
       </c>
       <c r="U27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="V27">
-        <v>1.46</v>
+        <v>1.2100000000000002</v>
       </c>
       <c r="W27">
-        <v>1.4599999999999995</v>
+        <v>1.2099999999999997</v>
       </c>
       <c r="X27">
-        <v>1.4599999999999997</v>
+        <v>1.21</v>
       </c>
       <c r="Y27">
-        <v>1.46</v>
+        <v>1.2100000000000004</v>
       </c>
       <c r="Z27">
-        <v>1.4599999999999995</v>
+        <v>1.2099999999999995</v>
       </c>
       <c r="AA27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AB27">
-        <v>1.46</v>
+        <v>1.2099999999999997</v>
       </c>
       <c r="AC27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AD27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AE27">
-        <v>1.4599999999999995</v>
+        <v>1.2099999999999995</v>
       </c>
       <c r="AF27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AG27">
-        <v>1.4599999999999997</v>
+        <v>1.2099999999999993</v>
       </c>
       <c r="AH27">
-        <v>1.46</v>
+        <v>1.2100000000000002</v>
       </c>
       <c r="AI27">
-        <v>1.4599999999999993</v>
+        <v>1.2099999999999995</v>
       </c>
       <c r="AJ27">
-        <v>1.4599999999999993</v>
+        <v>1.2099999999999993</v>
       </c>
       <c r="AK27">
-        <v>1.4600000000000002</v>
+        <v>1.2100000000000002</v>
       </c>
       <c r="AL27">
-        <v>1.46</v>
+        <v>1.2099999999999997</v>
       </c>
       <c r="AM27">
-        <v>1.4600000000000002</v>
+        <v>1.2099999999999997</v>
       </c>
       <c r="AN27">
-        <v>1.4599999999999997</v>
+        <v>1.21</v>
       </c>
       <c r="AO27">
-        <v>1.4599999999999995</v>
+        <v>1.2099999999999993</v>
       </c>
       <c r="AP27">
-        <v>1.4599999999999997</v>
+        <v>1.21</v>
       </c>
       <c r="AQ27">
-        <v>1.4600000000000002</v>
+        <v>1.21</v>
       </c>
       <c r="AR27">
-        <v>1.4600000000000002</v>
+        <v>1.21</v>
       </c>
       <c r="AS27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AT27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AU27">
-        <v>1.4599999999999995</v>
+        <v>1.2099999999999997</v>
       </c>
       <c r="AV27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AW27">
-        <v>1.4600000000000002</v>
+        <v>1.2099999999999997</v>
       </c>
       <c r="AX27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AY27">
-        <v>1.4600000000000002</v>
+        <v>1.2100000000000002</v>
       </c>
       <c r="AZ27">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>-4.9900694155113481</v>
+        <v>1.822136162364524</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1.8221361623645196</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1.8221361623645258</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1.8221361623645222</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1.8221361623645267</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1.8221361623645249</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1.822136162364524</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1.8221361623645231</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1.822136162364524</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.8221361623645267</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1.8221361623645231</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1.8221361623645231</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1.8221361623645302</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1.8221361623645276</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.8221361623645214</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.822136162364524</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1.8221361623645249</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.8221361623645276</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1.822136162364524</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.8221361623645267</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.8221361623645258</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1.8221361623645231</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1.8221361623645231</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1.8221361623645285</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1.8221361623645285</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1.8221361623645267</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1.8221361623645214</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.822136162364524</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1.822136162364524</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.8221361623645231</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.8221361623645222</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.8221361623645231</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1.8221361623645249</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1.8221361623645276</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>1.8221361623645276</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>1.8221361623645214</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>1.822136162364524</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1.8221361623645267</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>1.8221361623645205</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>1.8221361623645214</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1.8221361623645231</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1.8221361623645267</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1.8221361623645196</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1.8221361623645214</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>1.822136162364524</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>1.8221361623645231</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>1.8221361623645231</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>1.822136162364524</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>1.8221361623645249</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>1.8221361623645267</v>
       </c>
       <c r="AY28">
-        <v>0</v>
+        <v>1.822136162364524</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>1.8221361623645214</v>
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>50.485175861319718</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="B29">
-        <v>88.219999999999985</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="C29">
-        <v>88.219999999999985</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="D29">
-        <v>88.219999999999985</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="E29">
-        <v>88.22</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="F29">
-        <v>88.219999999999985</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="G29">
-        <v>88.22</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="H29">
-        <v>88.21999999999997</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="I29">
-        <v>88.22</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="J29">
-        <v>88.22</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="K29">
-        <v>88.22</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="L29">
-        <v>88.22</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="M29">
-        <v>88.21999999999997</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="N29">
-        <v>88.21999999999997</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="O29">
-        <v>88.219999999999985</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="P29">
-        <v>88.22</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="Q29">
-        <v>88.22</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="R29">
-        <v>88.21999999999997</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="S29">
-        <v>88.219999999999985</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="T29">
-        <v>88.22</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="U29">
-        <v>88.22</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="V29">
-        <v>88.22</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="W29">
-        <v>88.219999999999985</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="X29">
-        <v>88.22</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="Y29">
-        <v>88.22</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="Z29">
-        <v>88.219999999999985</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AA29">
-        <v>88.22</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AB29">
-        <v>88.22</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AC29">
-        <v>88.21999999999997</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="AD29">
-        <v>88.22</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="AE29">
-        <v>88.22</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="AF29">
-        <v>88.219999999999985</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AG29">
-        <v>88.21999999999997</v>
+        <v>78.100000000000009</v>
       </c>
       <c r="AH29">
-        <v>88.219999999999985</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="AI29">
-        <v>88.21999999999997</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AJ29">
-        <v>88.22</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="AK29">
-        <v>88.220000000000013</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AL29">
-        <v>88.22</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="AM29">
-        <v>88.21999999999997</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AN29">
-        <v>88.21999999999997</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AO29">
-        <v>88.220000000000027</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AP29">
-        <v>88.21999999999997</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AQ29">
-        <v>88.22</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="AR29">
-        <v>88.22</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AS29">
-        <v>88.22</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AT29">
-        <v>88.22</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AU29">
-        <v>88.219999999999985</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="AV29">
-        <v>88.22</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="AW29">
-        <v>88.219999999999985</v>
+        <v>78.099999999999966</v>
       </c>
       <c r="AX29">
-        <v>88.219999999999985</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="AY29">
-        <v>88.22</v>
+        <v>78.09999999999998</v>
       </c>
       <c r="AZ29">
-        <v>88.219999999999985</v>
+        <v>78.099999999999966</v>
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1048.1680503543525</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="B30">
-        <v>297.09284809304194</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="C30">
-        <v>307.37668223359537</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="D30">
-        <v>318.01649008845749</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="E30">
-        <v>329.02459364605846</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="F30">
-        <v>340.41374141901065</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="G30">
-        <v>352.19712320820133</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="H30">
-        <v>364.3883853779285</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="I30">
-        <v>377.00164665979253</v>
+        <v>1503.7499999999977</v>
       </c>
       <c r="J30">
-        <v>390.05151450363383</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="K30">
-        <v>403.55310199445893</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="L30">
-        <v>417.52204535494315</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="M30">
-        <v>431.97452205377772</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="N30">
-        <v>446.92726954083486</v>
+        <v>1503.7499999999977</v>
       </c>
       <c r="O30">
-        <v>462.3976046308569</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="P30">
-        <v>478.40344355809845</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="Q30">
-        <v>494.96332272516725</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="R30">
-        <v>512.09642017007354</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="S30">
-        <v>529.82257777636812</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="T30">
-        <v>548.16232425207602</v>
+        <v>1503.7499999999977</v>
       </c>
       <c r="U30">
-        <v>567.13689890404862</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="V30">
-        <v>586.76827623525423</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="W30">
-        <v>607.07919139350815</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="X30">
-        <v>628.0931665011035</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="Y30">
-        <v>649.83453789584496</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="Z30">
-        <v>672.32848431501577</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AA30">
-        <v>695.60105605494653</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AB30">
-        <v>719.67920513991487</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AC30">
-        <v>744.59081653537589</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AD30">
-        <v>770.36474044158376</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AE30">
-        <v>797.03082570510617</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AF30">
-        <v>824.61995438683289</v>
+        <v>1503.7499999999977</v>
       </c>
       <c r="AG30">
-        <v>853.16407752657653</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AH30">
-        <v>882.69625214564996</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AI30">
-        <v>913.25067953028588</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AJ30">
-        <v>944.86274484023716</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AK30">
-        <v>977.56905808841918</v>
+        <v>1503.7499999999977</v>
       </c>
       <c r="AL30">
-        <v>1011.4074965390477</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AM30">
-        <v>1046.4172485734084</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AN30">
-        <v>1082.6388590740189</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AO30">
-        <v>1120.1142763797488</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AP30">
-        <v>1158.886900866315</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AQ30">
-        <v>1199.0016352083419</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AR30">
-        <v>1240.5049363812896</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AS30">
-        <v>1283.4448694633825</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AT30">
-        <v>1327.8711632998829</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AU30">
-        <v>1373.8352680942328</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AV30">
-        <v>1421.3904149926143</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AW30">
-        <v>1470.5916777311218</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AX30">
-        <v>1521.4960364167512</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AY30">
-        <v>1574.1624435162553</v>
+        <v>1503.7500000000002</v>
       </c>
       <c r="AZ30">
-        <v>1628.6518921290999</v>
+        <v>1503.7500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>-5633.0891451200878</v>
+        <v>4801.3315302828851</v>
       </c>
       <c r="B31">
-        <v>26.217324072378688</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="C31">
-        <v>6.9397082907089498</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="D31">
-        <v>-12.337907490960788</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="E31">
-        <v>-31.61552327265963</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="F31">
-        <v>-50.893139054329367</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="G31">
-        <v>-70.170754835999105</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="H31">
-        <v>-89.448370617697947</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="I31">
-        <v>-108.72598639936768</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="J31">
-        <v>-128.00360218103742</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="K31">
-        <v>-147.28121796273626</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="L31">
-        <v>-166.558833744406</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="M31">
-        <v>-185.83644952610484</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="N31">
-        <v>-205.11406530777458</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="O31">
-        <v>-224.39168108944432</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="P31">
-        <v>-243.66929687114316</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="Q31">
-        <v>-262.9469126528129</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="R31">
-        <v>-282.22452843448264</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="S31">
-        <v>-301.50214421618148</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="T31">
-        <v>-320.77975999785122</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="U31">
-        <v>-340.05737577955006</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="V31">
-        <v>-359.33499156121979</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="W31">
-        <v>-378.61260734288953</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="X31">
-        <v>-397.89022312458837</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="Y31">
-        <v>-417.16783890625811</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="Z31">
-        <v>-436.44545468792785</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AA31">
-        <v>-455.72307046962669</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AB31">
-        <v>-475.00068625129643</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AC31">
-        <v>-494.27830203296617</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AD31">
-        <v>-513.55591781466501</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AE31">
-        <v>-532.83353359633475</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AF31">
-        <v>-552.11114937803359</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AG31">
-        <v>-571.38876515970333</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AH31">
-        <v>-590.66638094137306</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AI31">
-        <v>-609.9439967230719</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AJ31">
-        <v>-629.22161250474164</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AK31">
-        <v>-648.49922828641138</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AL31">
-        <v>-667.77684406811022</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AM31">
-        <v>-687.05445984977996</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AN31">
-        <v>-706.3320756314788</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AO31">
-        <v>-725.60969141314854</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AP31">
-        <v>-744.88730719481828</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AQ31">
-        <v>-764.16492297651712</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AR31">
-        <v>-783.44253875818686</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AS31">
-        <v>-802.72015453985659</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AT31">
-        <v>-821.99777032155544</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AU31">
-        <v>-841.27538610322517</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AV31">
-        <v>-860.55300188489491</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AW31">
-        <v>-879.83061766659375</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AX31">
-        <v>-899.10823344826349</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AY31">
-        <v>-918.38584922996233</v>
+        <v>4802.192588716629</v>
       </c>
       <c r="AZ31">
-        <v>-937.66346501163207</v>
+        <v>4802.192588716629</v>
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>15.910526487826466</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="B32">
-        <v>6.2199999999999935</v>
+        <v>11.099999999999994</v>
       </c>
       <c r="C32">
-        <v>6.4920000000000009</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="D32">
-        <v>6.7639999999999976</v>
+        <v>11.099999999999993</v>
       </c>
       <c r="E32">
-        <v>7.0359999999999978</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="F32">
-        <v>7.3079999999999963</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="G32">
-        <v>7.5799999999999965</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="H32">
-        <v>7.851999999999995</v>
+        <v>11.099999999999994</v>
       </c>
       <c r="I32">
-        <v>8.1239999999999917</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="J32">
-        <v>8.3959999999999972</v>
+        <v>11.099999999999994</v>
       </c>
       <c r="K32">
-        <v>8.668000000000001</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="L32">
-        <v>8.94</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="M32">
-        <v>9.2119999999999926</v>
+        <v>11.099999999999993</v>
       </c>
       <c r="N32">
-        <v>9.4839999999999982</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="O32">
-        <v>9.7560000000000002</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="P32">
-        <v>10.027999999999997</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="Q32">
-        <v>10.299999999999997</v>
+        <v>11.099999999999994</v>
       </c>
       <c r="R32">
-        <v>10.571999999999996</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="S32">
-        <v>10.843999999999996</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="T32">
-        <v>11.116</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="U32">
-        <v>11.387999999999996</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="V32">
-        <v>11.659999999999998</v>
+        <v>11.099999999999993</v>
       </c>
       <c r="W32">
-        <v>11.931999999999999</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="X32">
-        <v>12.203999999999999</v>
+        <v>11.099999999999994</v>
       </c>
       <c r="Y32">
-        <v>12.475999999999996</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="Z32">
-        <v>12.748000000000001</v>
+        <v>11.099999999999994</v>
       </c>
       <c r="AA32">
-        <v>13.019999999999996</v>
+        <v>11.099999999999994</v>
       </c>
       <c r="AB32">
-        <v>13.291999999999996</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="AC32">
-        <v>13.563999999999997</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="AD32">
-        <v>13.835999999999999</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="AE32">
-        <v>14.107999999999995</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="AF32">
-        <v>14.379999999999999</v>
+        <v>11.099999999999994</v>
       </c>
       <c r="AG32">
-        <v>14.651999999999992</v>
+        <v>11.1</v>
       </c>
       <c r="AH32">
-        <v>14.923999999999994</v>
+        <v>11.099999999999993</v>
       </c>
       <c r="AI32">
-        <v>15.195999999999996</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="AJ32">
-        <v>15.467999999999995</v>
+        <v>11.099999999999993</v>
       </c>
       <c r="AK32">
-        <v>15.739999999999997</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="AL32">
-        <v>16.011999999999997</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="AM32">
-        <v>16.283999999999999</v>
+        <v>11.099999999999996</v>
       </c>
       <c r="AN32">
-        <v>16.555999999999997</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="AO32">
-        <v>16.827999999999996</v>
+        <v>11.099999999999993</v>
       </c>
       <c r="AP32">
-        <v>17.099999999999994</v>
+        <v>11.099999999999991</v>
       </c>
       <c r="AQ32">
-        <v>17.371999999999993</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="AR32">
-        <v>17.643999999999998</v>
+        <v>11.099999999999994</v>
       </c>
       <c r="AS32">
-        <v>17.915999999999997</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="AT32">
-        <v>18.188000000000002</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="AU32">
-        <v>18.459999999999994</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="AV32">
-        <v>18.731999999999999</v>
+        <v>11.099999999999994</v>
       </c>
       <c r="AW32">
-        <v>19.003999999999998</v>
+        <v>11.099999999999998</v>
       </c>
       <c r="AX32">
-        <v>19.275999999999996</v>
+        <v>11.099999999999994</v>
       </c>
       <c r="AY32">
-        <v>19.547999999999998</v>
+        <v>11.099999999999994</v>
       </c>
       <c r="AZ32">
-        <v>19.819999999999993</v>
+        <v>11.099999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>-2.7167132554108564</v>
+        <v>-2.0373736112311955</v>
       </c>
       <c r="B33">
-        <v>-3.7467095548234797E-2</v>
+        <v>0.3250999999999995</v>
       </c>
       <c r="C33">
-        <v>-5.0096343775784868E-2</v>
+        <v>0.32510000000000017</v>
       </c>
       <c r="D33">
-        <v>-6.2725592003335384E-2</v>
+        <v>0.32510000000000083</v>
       </c>
       <c r="E33">
-        <v>-7.5354840230887676E-2</v>
+        <v>0.32510000000000017</v>
       </c>
       <c r="F33">
-        <v>-8.7984088458435972E-2</v>
+        <v>0.32509999999999972</v>
       </c>
       <c r="G33">
-        <v>-0.10061333668598782</v>
+        <v>0.32509999999999839</v>
       </c>
       <c r="H33">
-        <v>-0.11324258491354056</v>
+        <v>0.32509999999999928</v>
       </c>
       <c r="I33">
-        <v>-0.12587183314109063</v>
+        <v>0.32509999999999928</v>
       </c>
       <c r="J33">
-        <v>-0.13850108136864292</v>
+        <v>0.32509999999999917</v>
       </c>
       <c r="K33">
-        <v>-0.15113032959619344</v>
+        <v>0.32510000000000128</v>
       </c>
       <c r="L33">
-        <v>-0.16375957782374351</v>
+        <v>0.32510000000000006</v>
       </c>
       <c r="M33">
-        <v>-0.17638882605129624</v>
+        <v>0.32510000000000028</v>
       </c>
       <c r="N33">
-        <v>-0.18901807427884632</v>
+        <v>0.32510000000000039</v>
       </c>
       <c r="O33">
-        <v>-0.20164732250639505</v>
+        <v>0.32510000000000017</v>
       </c>
       <c r="P33">
-        <v>-0.21427657073394868</v>
+        <v>0.32509999999999861</v>
       </c>
       <c r="Q33">
-        <v>-0.22690581896149753</v>
+        <v>0.32509999999999972</v>
       </c>
       <c r="R33">
-        <v>-0.23953506718905004</v>
+        <v>0.32509999999999961</v>
       </c>
       <c r="S33">
-        <v>-0.25216431541659967</v>
+        <v>0.32510000000000017</v>
       </c>
       <c r="T33">
-        <v>-0.26479356364414985</v>
+        <v>0.32509999999999961</v>
       </c>
       <c r="U33">
-        <v>-0.27742281187170215</v>
+        <v>0.32510000000000105</v>
       </c>
       <c r="V33">
-        <v>-0.29005206009925322</v>
+        <v>0.32509999999999917</v>
       </c>
       <c r="W33">
-        <v>-0.30268130832680529</v>
+        <v>0.32509999999999928</v>
       </c>
       <c r="X33">
-        <v>-0.31531055655435558</v>
+        <v>0.32509999999999994</v>
       </c>
       <c r="Y33">
-        <v>-0.32793980478190565</v>
+        <v>0.32510000000000117</v>
       </c>
       <c r="Z33">
-        <v>-0.34056905300945739</v>
+        <v>0.32509999999999994</v>
       </c>
       <c r="AA33">
-        <v>-0.35319830123700624</v>
+        <v>0.32510000000000039</v>
       </c>
       <c r="AB33">
-        <v>-0.36582754946455842</v>
+        <v>0.3251000000000015</v>
       </c>
       <c r="AC33">
-        <v>-0.37845679769211205</v>
+        <v>0.32509999999999906</v>
       </c>
       <c r="AD33">
-        <v>-0.39108604591966156</v>
+        <v>0.32509999999999994</v>
       </c>
       <c r="AE33">
-        <v>-0.40371529414721086</v>
+        <v>0.3250999999999995</v>
       </c>
       <c r="AF33">
-        <v>-0.4163445423747637</v>
+        <v>0.32509999999999872</v>
       </c>
       <c r="AG33">
-        <v>-0.428973790602315</v>
+        <v>0.32510000000000017</v>
       </c>
       <c r="AH33">
-        <v>-0.44160303882986418</v>
+        <v>0.32509999999999939</v>
       </c>
       <c r="AI33">
-        <v>-0.45423228705741603</v>
+        <v>0.32509999999999917</v>
       </c>
       <c r="AJ33">
-        <v>-0.46686153528496777</v>
+        <v>0.32509999999999906</v>
       </c>
       <c r="AK33">
-        <v>-0.47949078351251617</v>
+        <v>0.32509999999999883</v>
       </c>
       <c r="AL33">
-        <v>-0.49212003174006835</v>
+        <v>0.32509999999999917</v>
       </c>
       <c r="AM33">
-        <v>-0.50474927996761954</v>
+        <v>0.32509999999999972</v>
       </c>
       <c r="AN33">
-        <v>-0.5173785281951726</v>
+        <v>0.32509999999999928</v>
       </c>
       <c r="AO33">
-        <v>-0.53000777642272145</v>
+        <v>0.32509999999999994</v>
       </c>
       <c r="AP33">
-        <v>-0.54263702465027319</v>
+        <v>0.32509999999999939</v>
       </c>
       <c r="AQ33">
-        <v>-0.55526627287782393</v>
+        <v>0.32509999999999906</v>
       </c>
       <c r="AR33">
-        <v>-0.56789552110537411</v>
+        <v>0.3250999999999995</v>
       </c>
       <c r="AS33">
-        <v>-0.58052476933292452</v>
+        <v>0.32510000000000017</v>
       </c>
       <c r="AT33">
-        <v>-0.59315401756047481</v>
+        <v>0.32509999999999883</v>
       </c>
       <c r="AU33">
-        <v>-0.60578326578802688</v>
+        <v>0.32509999999999906</v>
       </c>
       <c r="AV33">
-        <v>-0.61841251401557884</v>
+        <v>0.32510000000000083</v>
       </c>
       <c r="AW33">
-        <v>-0.63104176224312836</v>
+        <v>0.32509999999999861</v>
       </c>
       <c r="AX33">
-        <v>-0.64367101047067865</v>
+        <v>0.32510000000000094</v>
       </c>
       <c r="AY33">
-        <v>-0.65630025869823228</v>
+        <v>0.32509999999999994</v>
       </c>
       <c r="AZ33">
-        <v>-0.6689295069257809</v>
+        <v>0.32509999999999917</v>
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>8.7281648808791736</v>
+        <v>22.784927256178499</v>
       </c>
       <c r="B34">
-        <v>-1.0360257617200754</v>
+        <v>0.17760000000000184</v>
       </c>
       <c r="C34">
-        <v>-1.1509108759746698</v>
+        <v>0.17760000000000228</v>
       </c>
       <c r="D34">
-        <v>-1.2657959902292784</v>
+        <v>0.17759999999999829</v>
       </c>
       <c r="E34">
-        <v>-1.3806811044838798</v>
+        <v>0.17760000000000228</v>
       </c>
       <c r="F34">
-        <v>-1.4955662187384777</v>
+        <v>0.17760000000000228</v>
       </c>
       <c r="G34">
-        <v>-1.6104513329930756</v>
+        <v>0.17760000000000228</v>
       </c>
       <c r="H34">
-        <v>-1.7253364472476775</v>
+        <v>0.17759999999999873</v>
       </c>
       <c r="I34">
-        <v>-1.8402215615022826</v>
+        <v>0.17759999999999829</v>
       </c>
       <c r="J34">
-        <v>-1.9551066757568765</v>
+        <v>0.17760000000000184</v>
       </c>
       <c r="K34">
-        <v>-2.0699917900114815</v>
+        <v>0.17759999999999873</v>
       </c>
       <c r="L34">
-        <v>-2.1848769042660865</v>
+        <v>0.17760000000000184</v>
       </c>
       <c r="M34">
-        <v>-2.2997620185206813</v>
+        <v>0.17759999999999829</v>
       </c>
       <c r="N34">
-        <v>-2.4146471327752757</v>
+        <v>0.17760000000000584</v>
       </c>
       <c r="O34">
-        <v>-2.5295322470298802</v>
+        <v>0.17759999999999873</v>
       </c>
       <c r="P34">
-        <v>-2.6444173612844821</v>
+        <v>0.17760000000000584</v>
       </c>
       <c r="Q34">
-        <v>-2.7593024755390836</v>
+        <v>0.17759999999999829</v>
       </c>
       <c r="R34">
-        <v>-2.8741875897936846</v>
+        <v>0.17760000000000184</v>
       </c>
       <c r="S34">
-        <v>-2.9890727040482825</v>
+        <v>0.17759999999999873</v>
       </c>
       <c r="T34">
-        <v>-3.1039578183028844</v>
+        <v>0.17760000000000539</v>
       </c>
       <c r="U34">
-        <v>-3.2188429325574854</v>
+        <v>0.17760000000000228</v>
       </c>
       <c r="V34">
-        <v>-3.3337280468120838</v>
+        <v>0.17759999999999784</v>
       </c>
       <c r="W34">
-        <v>-3.4486131610666848</v>
+        <v>0.17759999999999873</v>
       </c>
       <c r="X34">
-        <v>-3.5634982753212832</v>
+        <v>0.17759999999999873</v>
       </c>
       <c r="Y34">
-        <v>-3.6783833895758917</v>
+        <v>0.17759999999999918</v>
       </c>
       <c r="Z34">
-        <v>-3.7932685038304892</v>
+        <v>0.17759999999999829</v>
       </c>
       <c r="AA34">
-        <v>-3.9081536180850907</v>
+        <v>0.17759999999999829</v>
       </c>
       <c r="AB34">
-        <v>-4.0230387323396917</v>
+        <v>0.17759999999999873</v>
       </c>
       <c r="AC34">
-        <v>-4.1379238465942931</v>
+        <v>0.17760000000000228</v>
       </c>
       <c r="AD34">
-        <v>-4.252808960848891</v>
+        <v>0.17759999999999518</v>
       </c>
       <c r="AE34">
-        <v>-4.3676940751034854</v>
+        <v>0.17759999999999873</v>
       </c>
       <c r="AF34">
-        <v>-4.4825791893580904</v>
+        <v>0.17760000000000228</v>
       </c>
       <c r="AG34">
-        <v>-4.5974643036126954</v>
+        <v>0.17759999999999873</v>
       </c>
       <c r="AH34">
-        <v>-4.7123494178672933</v>
+        <v>0.17760000000000495</v>
       </c>
       <c r="AI34">
-        <v>-4.8272345321218948</v>
+        <v>0.17759999999999873</v>
       </c>
       <c r="AJ34">
-        <v>-4.9421196463764927</v>
+        <v>0.17759999999999873</v>
       </c>
       <c r="AK34">
-        <v>-5.0570047606310942</v>
+        <v>0.17760000000000228</v>
       </c>
       <c r="AL34">
-        <v>-5.1718898748857001</v>
+        <v>0.17760000000000584</v>
       </c>
       <c r="AM34">
-        <v>-5.2867749891403015</v>
+        <v>0.17759999999999873</v>
       </c>
       <c r="AN34">
-        <v>-5.401660103394895</v>
+        <v>0.17759999999999829</v>
       </c>
       <c r="AO34">
-        <v>-5.5165452176494965</v>
+        <v>0.17760000000000228</v>
       </c>
       <c r="AP34">
-        <v>-5.6314303319040944</v>
+        <v>0.17759999999999784</v>
       </c>
       <c r="AQ34">
-        <v>-5.7463154461586994</v>
+        <v>0.17759999999999829</v>
       </c>
       <c r="AR34">
-        <v>-5.8612005604132937</v>
+        <v>0.17759999999999829</v>
       </c>
       <c r="AS34">
-        <v>-5.9760856746678988</v>
+        <v>0.17759999999999829</v>
       </c>
       <c r="AT34">
-        <v>-6.0909707889224931</v>
+        <v>0.17760000000000184</v>
       </c>
       <c r="AU34">
-        <v>-6.2058559031771052</v>
+        <v>0.17759999999999873</v>
       </c>
       <c r="AV34">
-        <v>-6.3207410174317014</v>
+        <v>0.17760000000000584</v>
       </c>
       <c r="AW34">
-        <v>-6.4356261316863028</v>
+        <v>0.17759999999999473</v>
       </c>
       <c r="AX34">
-        <v>-6.5505112459409043</v>
+        <v>0.17759999999999784</v>
       </c>
       <c r="AY34">
-        <v>-6.665396360195504</v>
+        <v>0.17760000000000184</v>
       </c>
       <c r="AZ34">
-        <v>-6.7802814744501063</v>
+        <v>0.17759999999999873</v>
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>137.36621316738677</v>
+        <v>214.99971996451711</v>
       </c>
       <c r="B35">
-        <v>-0.49337161087513337</v>
+        <v>6.4399999999977836E-2</v>
       </c>
       <c r="C35">
-        <v>-0.22861259975170076</v>
+        <v>6.4399999999974283E-2</v>
       </c>
       <c r="D35">
-        <v>3.614641137161459E-2</v>
+        <v>6.4399999999949414E-2</v>
       </c>
       <c r="E35">
-        <v>0.30090542249493168</v>
+        <v>6.4399999999945862E-2</v>
       </c>
       <c r="F35">
-        <v>0.56566443361827723</v>
+        <v>6.4400000000002705E-2</v>
       </c>
       <c r="G35">
-        <v>0.83042344474162277</v>
+        <v>6.4399999999947638E-2</v>
       </c>
       <c r="H35">
-        <v>1.0951824558650003</v>
+        <v>6.439999999997606E-2</v>
       </c>
       <c r="I35">
-        <v>1.3599414669883441</v>
+        <v>6.4399999999977836E-2</v>
       </c>
       <c r="J35">
-        <v>1.6247004781116026</v>
+        <v>6.439999999997606E-2</v>
       </c>
       <c r="K35">
-        <v>1.8894594892350618</v>
+        <v>6.4400000000002705E-2</v>
       </c>
       <c r="L35">
-        <v>2.1542185003582954</v>
+        <v>6.4400000000061325E-2</v>
       </c>
       <c r="M35">
-        <v>2.418977511481728</v>
+        <v>6.4400000000000929E-2</v>
       </c>
       <c r="N35">
-        <v>2.683736522605102</v>
+        <v>6.4400000000002705E-2</v>
       </c>
       <c r="O35">
-        <v>2.9484955337284457</v>
+        <v>6.4399999999945862E-2</v>
       </c>
       <c r="P35">
-        <v>3.2132545448518215</v>
+        <v>6.4400000000002705E-2</v>
       </c>
       <c r="Q35">
-        <v>3.4780135559751368</v>
+        <v>6.4400000000006258E-2</v>
       </c>
       <c r="R35">
-        <v>3.7427725670984238</v>
+        <v>6.4399999999974283E-2</v>
       </c>
       <c r="S35">
-        <v>4.0075315782218262</v>
+        <v>6.4399999999945862E-2</v>
       </c>
       <c r="T35">
-        <v>4.2722905893451468</v>
+        <v>6.4400000000031127E-2</v>
       </c>
       <c r="U35">
-        <v>4.537049600468432</v>
+        <v>6.4400000000002705E-2</v>
       </c>
       <c r="V35">
-        <v>4.8018086115918894</v>
+        <v>6.439999999997606E-2</v>
       </c>
       <c r="W35">
-        <v>5.0665676227152368</v>
+        <v>6.4399999999974283E-2</v>
       </c>
       <c r="X35">
-        <v>5.3313266338386409</v>
+        <v>6.4399999999974283E-2</v>
       </c>
       <c r="Y35">
-        <v>5.5960856449619616</v>
+        <v>6.4400000000002705E-2</v>
       </c>
       <c r="Z35">
-        <v>5.860844656085245</v>
+        <v>6.4400000000006258E-2</v>
       </c>
       <c r="AA35">
-        <v>6.1256036672086225</v>
+        <v>6.440000000003468E-2</v>
       </c>
       <c r="AB35">
-        <v>6.3903626783318508</v>
+        <v>6.4400000000002705E-2</v>
       </c>
       <c r="AC35">
-        <v>6.6551216894552532</v>
+        <v>6.4400000000031127E-2</v>
       </c>
       <c r="AD35">
-        <v>6.9198807005785987</v>
+        <v>6.4400000000002705E-2</v>
       </c>
       <c r="AE35">
-        <v>7.1846397117019993</v>
+        <v>6.4399999999974283E-2</v>
       </c>
       <c r="AF35">
-        <v>7.4493987228252916</v>
+        <v>6.4399999999974283E-2</v>
       </c>
       <c r="AG35">
-        <v>7.7141577339486673</v>
+        <v>6.4399999999974283E-2</v>
       </c>
       <c r="AH35">
-        <v>7.9789167450719809</v>
+        <v>6.4400000000004481E-2</v>
       </c>
       <c r="AI35">
-        <v>8.2436757561953549</v>
+        <v>6.4399999999945862E-2</v>
       </c>
       <c r="AJ35">
-        <v>8.5084347673187573</v>
+        <v>6.439999999997606E-2</v>
       </c>
       <c r="AK35">
-        <v>8.7731937784420495</v>
+        <v>6.4400000000031127E-2</v>
       </c>
       <c r="AL35">
-        <v>9.0379527895654501</v>
+        <v>6.4400000000031127E-2</v>
       </c>
       <c r="AM35">
-        <v>9.3027118006887957</v>
+        <v>6.4399999999974283E-2</v>
       </c>
       <c r="AN35">
-        <v>9.5674708118121004</v>
+        <v>6.440000000003468E-2</v>
       </c>
       <c r="AO35">
-        <v>9.8322298229354708</v>
+        <v>6.4400000000002705E-2</v>
       </c>
       <c r="AP35">
-        <v>10.096988834058877</v>
+        <v>6.4399999999947638E-2</v>
       </c>
       <c r="AQ35">
-        <v>10.361747845182165</v>
+        <v>6.4400000000006258E-2</v>
       </c>
       <c r="AR35">
-        <v>10.626506856305523</v>
+        <v>6.4400000000006258E-2</v>
       </c>
       <c r="AS35">
-        <v>10.891265867428881</v>
+        <v>6.4400000000000929E-2</v>
       </c>
       <c r="AT35">
-        <v>11.156024878552198</v>
+        <v>6.440000000003468E-2</v>
       </c>
       <c r="AU35">
-        <v>11.420783889675516</v>
+        <v>6.4400000000002705E-2</v>
       </c>
       <c r="AV35">
-        <v>11.685542900798946</v>
+        <v>6.4399999999945862E-2</v>
       </c>
       <c r="AW35">
-        <v>11.950301911922292</v>
+        <v>6.4399999999977836E-2</v>
       </c>
       <c r="AX35">
-        <v>12.215060923045625</v>
+        <v>6.439999999997606E-2</v>
       </c>
       <c r="AY35">
-        <v>12.479819934168944</v>
+        <v>6.4400000000006258E-2</v>
       </c>
       <c r="AZ35">
-        <v>12.744578945292275</v>
+        <v>6.4400000000002705E-2</v>
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>-12.640548269482377</v>
+        <v>-16.263524147379428</v>
       </c>
       <c r="B36">
-        <v>-9.1778305227763646</v>
+        <v>-14.248143765550559</v>
       </c>
       <c r="C36">
-        <v>-9.3122637838706659</v>
+        <v>-14.248143616125686</v>
       </c>
       <c r="D36">
-        <v>-9.44649824019268</v>
+        <v>-14.248143981073236</v>
       </c>
       <c r="E36">
-        <v>-9.5805339434575245</v>
+        <v>-14.248143982352811</v>
       </c>
       <c r="F36">
-        <v>-9.7143713307590858</v>
+        <v>-14.248143816456626</v>
       </c>
       <c r="G36">
-        <v>-9.8480103631134241</v>
+        <v>-14.2481437041316</v>
       </c>
       <c r="H36">
-        <v>-9.9814517682732529</v>
+        <v>-14.248143715454242</v>
       </c>
       <c r="I36">
-        <v>-10.114695627993131</v>
+        <v>-14.248143954183067</v>
       </c>
       <c r="J36">
-        <v>-10.247742138626991</v>
+        <v>-14.24814373000639</v>
       </c>
       <c r="K36">
-        <v>-10.380591968517061</v>
+        <v>-14.24814371487464</v>
       </c>
       <c r="L36">
-        <v>-10.513245005481098</v>
+        <v>-14.24814360607083</v>
       </c>
       <c r="M36">
-        <v>-10.645701732501156</v>
+        <v>-14.248143710282346</v>
       </c>
       <c r="N36">
-        <v>-10.777962385671113</v>
+        <v>-14.248143741010477</v>
       </c>
       <c r="O36">
-        <v>-10.910027262841959</v>
+        <v>-14.248143768082</v>
       </c>
       <c r="P36">
-        <v>-11.041896816808883</v>
+        <v>-14.248143705822724</v>
       </c>
       <c r="Q36">
-        <v>-11.173570848236913</v>
+        <v>-14.248143739882391</v>
       </c>
       <c r="R36">
-        <v>-11.30504998526124</v>
+        <v>-14.248143939313252</v>
       </c>
       <c r="S36">
-        <v>-11.436334947971606</v>
+        <v>-14.248143763423037</v>
       </c>
       <c r="T36">
-        <v>-11.567425148057131</v>
+        <v>-14.24814361406338</v>
       </c>
       <c r="U36">
-        <v>-11.698321518911403</v>
+        <v>-14.248143732519392</v>
       </c>
       <c r="V36">
-        <v>-11.829024194600024</v>
+        <v>-14.24814373369836</v>
       </c>
       <c r="W36">
-        <v>-11.959533264506961</v>
+        <v>-14.248143713116335</v>
       </c>
       <c r="X36">
-        <v>-12.089849197212832</v>
+        <v>-14.248143746574938</v>
       </c>
       <c r="Y36">
-        <v>-12.21997217839813</v>
+        <v>-14.248143702472637</v>
       </c>
       <c r="Z36">
-        <v>-12.349902678212244</v>
+        <v>-14.248143699195182</v>
       </c>
       <c r="AA36">
-        <v>-12.479640777025736</v>
+        <v>-14.248143683721127</v>
       </c>
       <c r="AB36">
-        <v>-12.609186862726752</v>
+        <v>-14.248143738837937</v>
       </c>
       <c r="AC36">
-        <v>-12.738541191149599</v>
+        <v>-14.248143884979193</v>
       </c>
       <c r="AD36">
-        <v>-12.867704132134728</v>
+        <v>-14.248143659343427</v>
       </c>
       <c r="AE36">
-        <v>-12.996675764038002</v>
+        <v>-14.248143604576292</v>
       </c>
       <c r="AF36">
-        <v>-13.125456660041291</v>
+        <v>-14.248143686427127</v>
       </c>
       <c r="AG36">
-        <v>-13.254046750755554</v>
+        <v>-14.248143765968591</v>
       </c>
       <c r="AH36">
-        <v>-13.382446537275905</v>
+        <v>-14.248143683770598</v>
       </c>
       <c r="AI36">
-        <v>-13.510656336129955</v>
+        <v>-14.248143776172883</v>
       </c>
       <c r="AJ36">
-        <v>-13.63867627231139</v>
+        <v>-14.248143711690165</v>
       </c>
       <c r="AK36">
-        <v>-13.766506824085333</v>
+        <v>-14.248143501523192</v>
       </c>
       <c r="AL36">
-        <v>-13.894148027758257</v>
+        <v>-14.248143711602069</v>
       </c>
       <c r="AM36">
-        <v>-14.021600431727999</v>
+        <v>-14.248143624231158</v>
       </c>
       <c r="AN36">
-        <v>-14.148864183705257</v>
+        <v>-14.24814384901617</v>
       </c>
       <c r="AO36">
-        <v>-14.27593946153487</v>
+        <v>-14.248143614572539</v>
       </c>
       <c r="AP36">
-        <v>-14.402826977539174</v>
+        <v>-14.248143714931928</v>
       </c>
       <c r="AQ36">
-        <v>-14.529526062743637</v>
+        <v>-14.248143615295316</v>
       </c>
       <c r="AR36">
-        <v>-14.65603792883563</v>
+        <v>-14.248143860981678</v>
       </c>
       <c r="AS36">
-        <v>-14.782362719221641</v>
+        <v>-14.248143610993779</v>
       </c>
       <c r="AT36">
-        <v>-14.908500086455767</v>
+        <v>-14.248143717265416</v>
       </c>
       <c r="AU36">
-        <v>-15.034450985548142</v>
+        <v>-14.248143662056911</v>
       </c>
       <c r="AV36">
-        <v>-15.160215741224503</v>
+        <v>-14.248143693496051</v>
       </c>
       <c r="AW36">
-        <v>-15.285793973818562</v>
+        <v>-14.248143626487286</v>
       </c>
       <c r="AX36">
-        <v>-15.411186418913324</v>
+        <v>-14.248143785137813</v>
       </c>
       <c r="AY36">
-        <v>-15.536393446011454</v>
+        <v>-14.248143465047768</v>
       </c>
       <c r="AZ36">
-        <v>-15.661414990605692</v>
+        <v>-14.248143703660077</v>
       </c>
     </row>
   </sheetData>
@@ -6250,8 +6250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A0F314-E559-44C3-898A-119F771470C7}">
   <dimension ref="A1:B213"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
